--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4ADA97-97B3-714C-9A03-605D908BB245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081C58B7-F891-BE4D-A2D5-8915EE0EAB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19540" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="params" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">params!$A$1:$N$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">params!$A$1:$N$62</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="200">
   <si>
     <t>Parameter</t>
   </si>
@@ -110,21 +110,12 @@
     <t>Logistic regression providing estimates for all years based on values from 2003, 2008, and 2014</t>
   </si>
   <si>
-    <t xml:space="preserve">Log odds ratio for the intercept of the regression model fit to forecast testing rates for all ages; added on the log scale </t>
-  </si>
-  <si>
-    <t>Log odds ratio for the slope of the regression model fit to forecast testing rates for all ages; added on the log scale</t>
-  </si>
-  <si>
     <t xml:space="preserve">Logistic regression providing estimates for all years </t>
   </si>
   <si>
     <t>Varies by year</t>
   </si>
   <si>
-    <t xml:space="preserve">Log odds ratio for the intercept of the regression model fit to forecast engagement rates for all ages; added on the log scale  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Annual suppression rate in/after 2003  </t>
   </si>
   <si>
@@ -149,15 +140,6 @@
     <t>Annual HIV-specific mortality rate in/after 2020</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiplier of HIV-specific mortality for age 0-14 </t>
-  </si>
-  <si>
-    <t>Multiplier of HIV-specific mortality for age 15-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiplier of HIV-specific mortality for age 50+ </t>
-  </si>
-  <si>
     <t xml:space="preserve">Multiplier of fertility rates </t>
   </si>
   <si>
@@ -191,12 +173,6 @@
     <t xml:space="preserve">Parameter type </t>
   </si>
   <si>
-    <t>Sampled rate - no reference</t>
-  </si>
-  <si>
-    <t>Multiplier centered at 1 - no reference</t>
-  </si>
-  <si>
     <t>Probability derived from literature</t>
   </si>
   <si>
@@ -206,18 +182,9 @@
     <t>Probability derived from literature; converted to rate; projected using regression</t>
   </si>
   <si>
-    <t>Multiplier centered at 1 (0 on log scale) - no reference</t>
-  </si>
-  <si>
     <t>Probability derived from literature; converted to rate - CHECK</t>
   </si>
   <si>
-    <t>Calculated - no reference</t>
-  </si>
-  <si>
-    <t>Multiplier centered at 2 - no reference</t>
-  </si>
-  <si>
     <t>log(2)/2</t>
   </si>
   <si>
@@ -225,9 +192,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Probability derived from literature; converted to multiplier relative to reference age</t>
   </si>
   <si>
     <t>Transmission rates</t>
@@ -263,15 +227,6 @@
     <t>Cascade</t>
   </si>
   <si>
-    <t>Log odds ratio for the pre-2016 slope of the regression model fit to forecast engagement rates for all ages; added on the log scale</t>
-  </si>
-  <si>
-    <t>Log odds ratio for the 2016-2017 slope of the regression model fit to forecast engagement rates for all ages; added on the log scale</t>
-  </si>
-  <si>
-    <t>Log odds ratio for the post-2017 slope of the regression model fit to forecast engagement rates for all ages; added on the log scale</t>
-  </si>
-  <si>
     <t>General mortality</t>
   </si>
   <si>
@@ -524,37 +479,7 @@
     <t>Relative risk of transmission in all age groups other than 30-39 vs 30-39; male</t>
   </si>
   <si>
-    <t>General mortality rate</t>
-  </si>
-  <si>
     <t>Country-specific deaths data (UN)</t>
-  </si>
-  <si>
-    <t>Multiplier for the INTERCEPT of the regression model fit to smooth/forecast mortality (until year 2040) for age 45-65</t>
-  </si>
-  <si>
-    <t>Multiplier for the SLOPE of the regression model fit to smooth/forecast mortality (until year 2040) for age 45-65</t>
-  </si>
-  <si>
-    <t>Multiplier for the INTERCEPT of the regression model fit to smooth/forecast mortality (until year 2040) for age 65+</t>
-  </si>
-  <si>
-    <t>Multiplier for the SLOPE of the regression model fit to smooth/forecast mortality (until year 2040) for age 65+</t>
-  </si>
-  <si>
-    <t>Age 65+ general mortality SLOPE multiplier</t>
-  </si>
-  <si>
-    <t>Age 65+ general mortality INTERCEPT multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age 45-65 general mortality INTERCEPT multiplier </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age 45-65 general mortality SLOPE multiplier </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change age categories? </t>
   </si>
   <si>
     <t>Annual HIV-specific mortality rate in 1990</t>
@@ -699,28 +624,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
-      <t>See age_sex_transmission_multipliers.R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-(proportion with multiple partners or proportion high risk sex)* (proportion of condomless sex); relative to 30-39 value</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
       <t>See age_mixing.R</t>
     </r>
     <r>
@@ -772,10 +675,6 @@
     </r>
   </si>
   <si>
-    <t>REVIEW THIS 
-(calculated within diffeq code right now - change this?)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -841,9 +740,6 @@
 </t>
   </si>
   <si>
-    <t>Rate calculated from deaths data; converted to rate; projected using regression</t>
-  </si>
-  <si>
     <t>Rate directly from data</t>
   </si>
   <si>
@@ -860,13 +756,192 @@
   </si>
   <si>
     <t xml:space="preserve">Single tuning parameter applied to all age groups </t>
+  </si>
+  <si>
+    <t>Multiplier</t>
+  </si>
+  <si>
+    <t>Log odds ratio for the intercept of the regression model fit to forecast testing rates for all ages; added on the log scale 
+0 added on log scale = multiplier of 1 on normal scale</t>
+  </si>
+  <si>
+    <t>Log odds ratio for the slope of the regression model fit to forecast testing rates for all ages; added on the log scale
+0 added on log scale = multiplier of 1 on normal scale</t>
+  </si>
+  <si>
+    <t>Log odds ratio for the intercept of the regression model fit to forecast engagement rates for all ages; added on the log scale  
+0 added on log scale = multiplier of 1 on normal scale</t>
+  </si>
+  <si>
+    <t>Log odds ratio for the pre-2016 slope of the regression model fit to forecast engagement rates for all ages; added on the log scale
+0 added on log scale = multiplier of 1 on normal scale</t>
+  </si>
+  <si>
+    <t>Log odds ratio for the 2016-2017 slope of the regression model fit to forecast engagement rates for all ages; added on the log scale
+0 added on log scale = multiplier of 1 on normal scale</t>
+  </si>
+  <si>
+    <t>Log odds ratio for the post-2017 slope of the regression model fit to forecast engagement rates for all ages; added on the log scale
+0 added on log scale = multiplier of 1 on normal scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampled rate </t>
+  </si>
+  <si>
+    <t>Calculated from span of age bracket</t>
+  </si>
+  <si>
+    <t>Probability calculated from deaths data; projected using regression</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>See age_sex_transmission_multipliers.R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(proportion with multiple partners or proportion high risk sex)* (proportion of condomless sex); converted to multiplier relative to reference age (30-39)</t>
+    </r>
+  </si>
+  <si>
+    <t>Might have age/sex data for South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allison found estimates of multiple partners and condom use by age (15-24, 25-49, 50+) in South African National HIV Prevalence, Incidence and Behaviour Surveys; Mojola is actually a SA paper so can use that for 50+ </t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>Allison found estimate of % tested in the past year from South African National HIV Prevalence, Incidence and Behaviour Survey - just by sex; will also probably have to multiply by % ever tested; 2022 report has 15-24, 25-49, 50+ not by sex and only tested in the past 3 years</t>
+  </si>
+  <si>
+    <t>SABSSM</t>
+  </si>
+  <si>
+    <t>Calculated as a regression fit to deaths data from 1950-1987 and 2008-2019 (to remove AIDS and COVID deaths)
+Log linear model - for each stratum of age*sex, fit the model: 
+fit = lm(log(rates) ~ years)
+Then projected until 2040</t>
+  </si>
+  <si>
+    <t>Consider making the regression a spline instead of only for select years - different slope post-spline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45-64 general mortality INTERCEPT multiplier, male </t>
+  </si>
+  <si>
+    <t>45-64 general mortality SLOPE multiplier, male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65-79 general mortality INTERCEPT multiplier, male </t>
+  </si>
+  <si>
+    <t>65-79 general mortality SLOPE multiplier, male</t>
+  </si>
+  <si>
+    <t>80+ general mortality INTERCEPT multiplier, male</t>
+  </si>
+  <si>
+    <t>80+ general mortality SLOPE multiplier, male</t>
+  </si>
+  <si>
+    <t>Multiplier for the INTERCEPT of the regression model fit to smooth/forecast mortality for age 45-64, male</t>
+  </si>
+  <si>
+    <t>Multiplier for the SLOPE of the regression model fit to smooth/forecast mortality for age 45-64, male</t>
+  </si>
+  <si>
+    <t>Multiplier for the INTERCEPT of the regression model fit to smooth/forecast mortality for age 65-79, male</t>
+  </si>
+  <si>
+    <t>Multiplier for the SLOPE of the regression model fit to smooth/forecast mortality for age 65-79, male</t>
+  </si>
+  <si>
+    <t>Multiplier for the INTERCEPT of the regression model fit to smooth/forecast mortality for age 80+, male</t>
+  </si>
+  <si>
+    <t>Multiplier for the SLOPE of the regression model fit to smooth/forecast mortality for age 80+, male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45-64 general mortality INTERCEPT multiplier, female </t>
+  </si>
+  <si>
+    <t>45-64 general mortality SLOPE multiplier, female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65-79 general mortality INTERCEPT multiplier, female </t>
+  </si>
+  <si>
+    <t>65-79 general mortality SLOPE multiplier, female</t>
+  </si>
+  <si>
+    <t>80+ general mortality INTERCEPT multiplier, female</t>
+  </si>
+  <si>
+    <t>80+ general mortality SLOPE multiplier, female</t>
+  </si>
+  <si>
+    <t>Multiplier for the INTERCEPT of the regression model fit to smooth/forecast mortality for age 45-64, female</t>
+  </si>
+  <si>
+    <t>Multiplier for the SLOPE of the regression model fit to smooth/forecast mortality for age 45-64, female</t>
+  </si>
+  <si>
+    <t>Multiplier for the INTERCEPT of the regression model fit to smooth/forecast mortality for age 65-79, female</t>
+  </si>
+  <si>
+    <t>Multiplier for the SLOPE of the regression model fit to smooth/forecast mortality for age 65-79, female</t>
+  </si>
+  <si>
+    <t>Multiplier for the INTERCEPT of the regression model fit to smooth/forecast mortality for age 80+, female</t>
+  </si>
+  <si>
+    <t>Multiplier for the SLOPE of the regression model fit to smooth/forecast mortality for age 80+, female</t>
+  </si>
+  <si>
+    <t>1
+Lognormal
+2 separate multipliers at HIV mortality times: 2005, 2030</t>
+  </si>
+  <si>
+    <t>1
+Lognormal
+Split up youngest age group into 0-4 and 5-14 in 1990 only</t>
+  </si>
+  <si>
+    <t>0-4 HIV-specific mortality multiplier, 1990</t>
+  </si>
+  <si>
+    <t>0-14 HIV-specific mortality</t>
+  </si>
+  <si>
+    <t>15-24 HIV-specific mortality</t>
+  </si>
+  <si>
+    <t>50+ HIV-specific mortality</t>
+  </si>
+  <si>
+    <t>5-14 HIV-specific mortality multiplier, 1990</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -893,12 +968,6 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1130,7 +1199,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1262,13 +1331,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1289,7 +1358,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1656,13 +1725,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B2D996-732D-784F-96EB-809CE760E324}">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1687,25 +1756,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G1" s="35"/>
       <c r="H1" s="35"/>
       <c r="I1" s="37"/>
       <c r="J1" s="35" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K1" s="43" t="s">
         <v>1</v>
@@ -1721,56 +1790,56 @@
       <c r="D2" s="42"/>
       <c r="E2" s="38"/>
       <c r="F2" s="38" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J2" s="39"/>
       <c r="K2" s="38" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N2" s="40" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="211" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="26" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J3" s="26"/>
       <c r="K3" s="26" t="s">
@@ -1791,17 +1860,17 @@
         <v>4</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="30" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -1822,96 +1891,104 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="170" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" s="31"/>
+        <v>109</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>163</v>
+      </c>
       <c r="I5" s="31"/>
       <c r="J5" s="30" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="M5" s="31"/>
+        <v>87</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>166</v>
+      </c>
       <c r="N5" s="32"/>
     </row>
-    <row r="6" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B6" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>70</v>
-      </c>
       <c r="G6" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="H6" s="31"/>
+        <v>109</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>164</v>
+      </c>
       <c r="I6" s="31"/>
       <c r="J6" s="30" t="s">
         <v>5</v>
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="M6" s="31"/>
+        <v>88</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>166</v>
+      </c>
       <c r="N6" s="32"/>
     </row>
     <row r="7" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="51" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="30" t="s">
@@ -1932,26 +2009,26 @@
     </row>
     <row r="8" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="51" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="30" t="s">
@@ -1972,26 +2049,26 @@
     </row>
     <row r="9" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="51" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="30" t="s">
@@ -2012,26 +2089,26 @@
     </row>
     <row r="10" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="51" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="30" t="s">
@@ -2055,19 +2132,19 @@
         <v>6</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -2076,7 +2153,7 @@
         <v>5</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
@@ -2087,25 +2164,25 @@
         <v>7</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="30" t="s">
@@ -2113,31 +2190,31 @@
       </c>
       <c r="K12" s="20"/>
       <c r="L12" s="27" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="M12" s="27" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="N12" s="32"/>
     </row>
     <row r="13" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
@@ -2160,23 +2237,23 @@
     </row>
     <row r="14" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="27" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
@@ -2185,29 +2262,29 @@
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="27" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="M14" s="31"/>
       <c r="N14" s="32"/>
     </row>
     <row r="15" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -2216,31 +2293,33 @@
         <v>9</v>
       </c>
       <c r="K15" s="30" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="M15" s="27"/>
       <c r="N15" s="29"/>
     </row>
-    <row r="16" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="F16" s="10"/>
+        <v>168</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>167</v>
+      </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -2248,7 +2327,7 @@
         <v>5</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
@@ -2256,27 +2335,25 @@
     </row>
     <row r="17" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G17" s="18"/>
-      <c r="H17" s="51" t="s">
-        <v>141</v>
-      </c>
+      <c r="H17" s="51"/>
       <c r="I17" s="18"/>
       <c r="J17" s="13" t="s">
         <v>3</v>
@@ -2296,27 +2373,25 @@
     </row>
     <row r="18" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G18" s="18"/>
-      <c r="H18" s="51" t="s">
-        <v>141</v>
-      </c>
+      <c r="H18" s="51"/>
       <c r="I18" s="18"/>
       <c r="J18" s="13" t="s">
         <v>3</v>
@@ -2336,27 +2411,25 @@
     </row>
     <row r="19" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G19" s="18"/>
-      <c r="H19" s="51" t="s">
-        <v>141</v>
-      </c>
+      <c r="H19" s="51"/>
       <c r="I19" s="18"/>
       <c r="J19" s="13" t="s">
         <v>3</v>
@@ -2376,27 +2449,25 @@
     </row>
     <row r="20" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G20" s="18"/>
-      <c r="H20" s="51" t="s">
-        <v>141</v>
-      </c>
+      <c r="H20" s="51"/>
       <c r="I20" s="18"/>
       <c r="J20" s="13" t="s">
         <v>3</v>
@@ -2414,1078 +2485,1100 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="85" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="F21" s="14" t="s">
+    <row r="21" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="18"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="18"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="18"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="18"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="15"/>
+    </row>
+    <row r="30" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K30" s="16"/>
+      <c r="L30" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="15"/>
-    </row>
-    <row r="22" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="M22" s="14"/>
-      <c r="N22" s="15"/>
-    </row>
-    <row r="23" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="M23" s="14"/>
-      <c r="N23" s="15"/>
-    </row>
-    <row r="24" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="M24" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="N24" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="K25" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="M25" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="N25" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="M26" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="N26" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A27" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="F27" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="59"/>
-    </row>
-    <row r="28" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="F28" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="K28" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="M28" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="N28" s="54" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="153" x14ac:dyDescent="0.2">
-      <c r="A29" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="B29" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="F29" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="K29" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="L29" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="M29" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="N29" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="119" x14ac:dyDescent="0.2">
-      <c r="A30" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="44" t="s">
+      <c r="M30" s="14"/>
+      <c r="N30" s="15"/>
+    </row>
+    <row r="31" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K31" s="16"/>
+      <c r="L31" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M31" s="14"/>
+      <c r="N31" s="15"/>
+    </row>
+    <row r="32" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N34" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M35" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N35" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M36" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N36" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A37" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="47"/>
+      <c r="E37" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="G30" s="44">
-        <v>0.25</v>
-      </c>
-      <c r="H30" s="50" t="s">
+      <c r="F37" s="44" t="s">
         <v>147</v>
-      </c>
-      <c r="I30" s="44"/>
-      <c r="J30" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="K30" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="M30" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="N30" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="45"/>
-      <c r="F31" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="G31" s="44">
-        <v>0.25</v>
-      </c>
-      <c r="H31" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="I31" s="44"/>
-      <c r="J31" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="K31" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="L31" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="M31" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="N31" s="45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="45"/>
-      <c r="F32" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="G32" s="44">
-        <v>2</v>
-      </c>
-      <c r="H32" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="I32" s="44"/>
-      <c r="J32" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="M32" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="N32" s="45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="45"/>
-      <c r="F33" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="G33" s="44">
-        <v>2</v>
-      </c>
-      <c r="H33" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="I33" s="44"/>
-      <c r="J33" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="M33" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="N33" s="45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="45"/>
-      <c r="F34" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="G34" s="44">
-        <v>2</v>
-      </c>
-      <c r="H34" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="I34" s="44"/>
-      <c r="J34" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="K34" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="L34" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="M34" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="N34" s="45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" s="45"/>
-      <c r="F35" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="G35" s="44">
-        <v>1</v>
-      </c>
-      <c r="H35" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="I35" s="44"/>
-      <c r="J35" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="K35" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="L35" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="M35" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="N35" s="45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="153" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K36" s="20"/>
-      <c r="L36" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="M36" s="31"/>
-      <c r="N36" s="32"/>
-    </row>
-    <row r="37" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
-      <c r="J37" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N37" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>77</v>
+      <c r="J37" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K37" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="59"/>
+    </row>
+    <row r="38" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="44" t="s">
+        <v>71</v>
       </c>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
       <c r="I38" s="18"/>
-      <c r="J38" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M38" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N38" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="214" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+      <c r="J38" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="K38" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="L38" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="M38" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="N38" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+      <c r="A39" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="M39" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="N39" s="45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="A40" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="D40" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="G40" s="44">
+        <v>0.25</v>
+      </c>
+      <c r="H40" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="I40" s="44"/>
+      <c r="J40" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="K40" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="L40" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="M40" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="N40" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="45"/>
+      <c r="F41" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="44">
+        <v>0.25</v>
+      </c>
+      <c r="H41" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="I41" s="44"/>
+      <c r="J41" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="L41" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M41" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="N41" s="45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="45"/>
+      <c r="F42" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" s="44">
+        <v>2</v>
+      </c>
+      <c r="H42" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="I42" s="44"/>
+      <c r="J42" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="K42" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="L42" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M42" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="N42" s="45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K39" s="20"/>
-      <c r="L39" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="M39" s="31"/>
-      <c r="N39" s="32"/>
-    </row>
-    <row r="40" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" s="18"/>
-      <c r="H40" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="I40" s="18"/>
-      <c r="J40" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M40" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N40" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G41" s="18"/>
-      <c r="H41" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="I41" s="18"/>
-      <c r="J41" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N41" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G42" s="18"/>
-      <c r="H42" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="I42" s="18"/>
-      <c r="J42" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M42" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N42" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
+      <c r="B43" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="45"/>
+      <c r="F43" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="G43" s="44">
+        <v>2</v>
+      </c>
+      <c r="H43" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="I43" s="44"/>
+      <c r="J43" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="L43" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M43" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="N43" s="45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="45"/>
+      <c r="F44" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="G44" s="44">
+        <v>2</v>
+      </c>
+      <c r="H44" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="I44" s="44"/>
+      <c r="J44" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="K44" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="L44" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M44" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="N44" s="45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="45"/>
+      <c r="F45" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="G45" s="44">
+        <v>1</v>
+      </c>
+      <c r="H45" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="I45" s="44"/>
+      <c r="J45" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="K45" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="L45" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M45" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="N45" s="45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="204" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G43" s="18"/>
-      <c r="H43" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="I43" s="18"/>
-      <c r="J43" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N43" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G44" s="6">
-        <v>0.1392621</v>
-      </c>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="20"/>
-      <c r="L44" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="M44" s="31"/>
-      <c r="N44" s="32"/>
-    </row>
-    <row r="45" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G45" s="6">
-        <v>0.1025866</v>
-      </c>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="20"/>
-      <c r="L45" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="M45" s="31"/>
-      <c r="N45" s="32"/>
-    </row>
-    <row r="46" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G46" s="6">
-        <v>0.67328849999999996</v>
-      </c>
-      <c r="H46" s="31"/>
       <c r="I46" s="31"/>
       <c r="J46" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="M46" s="31"/>
+        <v>81</v>
+      </c>
+      <c r="M46" s="31" t="s">
+        <v>166</v>
+      </c>
       <c r="N46" s="32"/>
     </row>
-    <row r="47" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="F47" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G47" s="6">
-        <v>0.67328849999999996</v>
-      </c>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
+        <v>62</v>
+      </c>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
       <c r="J47" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="20"/>
+      <c r="K47" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="L47" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="M47" s="31"/>
-      <c r="N47" s="32"/>
-    </row>
-    <row r="48" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N47" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="F48" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G48" s="6">
-        <v>0.1971601</v>
-      </c>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
+        <v>62</v>
+      </c>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
       <c r="J48" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="20"/>
+      <c r="K48" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="L48" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="M48" s="31"/>
-      <c r="N48" s="32"/>
-    </row>
-    <row r="49" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N48" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="214" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="F49" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G49" s="18"/>
-      <c r="H49" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="I49" s="18"/>
+        <v>12</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
       <c r="J49" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="8" t="s">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K49" s="20"/>
       <c r="L49" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N49" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="M49" s="31"/>
+      <c r="N49" s="32"/>
+    </row>
+    <row r="50" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E50" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>154</v>
+      </c>
       <c r="F50" s="6" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G50" s="18"/>
-      <c r="H50" s="51" t="s">
-        <v>122</v>
+      <c r="H50" s="58" t="s">
+        <v>144</v>
       </c>
       <c r="I50" s="18"/>
       <c r="J50" s="8" t="s">
@@ -3504,30 +3597,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E51" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>155</v>
+      </c>
       <c r="F51" s="6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G51" s="18"/>
-      <c r="H51" s="51" t="s">
-        <v>122</v>
+      <c r="H51" s="58" t="s">
+        <v>144</v>
       </c>
       <c r="I51" s="18"/>
       <c r="J51" s="8" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="K51" s="8" t="s">
         <v>2</v>
@@ -3542,48 +3637,406 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="K52" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="L52" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="M52" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="N52" s="5" t="s">
-        <v>121</v>
+    <row r="52" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G52" s="18"/>
+      <c r="H52" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="I52" s="18"/>
+      <c r="J52" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N52" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G53" s="18"/>
+      <c r="H53" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="I53" s="18"/>
+      <c r="J53" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N53" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0.1392621</v>
+      </c>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K54" s="20"/>
+      <c r="L54" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M54" s="31"/>
+      <c r="N54" s="32"/>
+    </row>
+    <row r="55" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0.1025866</v>
+      </c>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K55" s="20"/>
+      <c r="L55" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M55" s="31"/>
+      <c r="N55" s="32"/>
+    </row>
+    <row r="56" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0.67328849999999996</v>
+      </c>
+      <c r="H56" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="I56" s="31"/>
+      <c r="J56" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K56" s="20"/>
+      <c r="L56" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M56" s="31"/>
+      <c r="N56" s="32"/>
+    </row>
+    <row r="57" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0.67328849999999996</v>
+      </c>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K57" s="20"/>
+      <c r="L57" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M57" s="31"/>
+      <c r="N57" s="32"/>
+    </row>
+    <row r="58" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0.1971601</v>
+      </c>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="20"/>
+      <c r="L58" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M58" s="31"/>
+      <c r="N58" s="32"/>
+    </row>
+    <row r="59" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G59" s="18"/>
+      <c r="H59" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="I59" s="18"/>
+      <c r="J59" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N59" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G60" s="18"/>
+      <c r="H60" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="I60" s="18"/>
+      <c r="J60" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N60" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G61" s="18"/>
+      <c r="H61" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="I61" s="18"/>
+      <c r="J61" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N61" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081C58B7-F891-BE4D-A2D5-8915EE0EAB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F13795-7297-A04D-B0BE-7E02019A20D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19540" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="203">
   <si>
     <t>Parameter</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>log(3)/2</t>
-  </si>
-  <si>
-    <t>Logistic regression providing estimates for all years based on values from 2003, 2008, and 2014</t>
   </si>
   <si>
     <t xml:space="preserve">Logistic regression providing estimates for all years </t>
@@ -366,9 +363,6 @@
     <t>"In the absence of intervention, the rate of transmission of HIV from a mother living with HIV to her child during pregnancy, labour, delivery or breastfeeding ranges from 15% to 45%."</t>
   </si>
   <si>
-    <t>KDHS 2003, 2008, and 2014</t>
-  </si>
-  <si>
     <t>AIDSinfo</t>
   </si>
   <si>
@@ -454,9 +448,6 @@
     <t>(from de Oliveira)</t>
   </si>
   <si>
-    <t>(from DHS/Mojola)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Varies by age, sex, and year
 </t>
   </si>
@@ -471,12 +462,6 @@
   <si>
     <t>Lognormal
 Arrives at this value in 2003, constant after</t>
-  </si>
-  <si>
-    <t>Relative risk of transmission in all age groups other than 30-39 vs 30-39; female</t>
-  </si>
-  <si>
-    <t>Relative risk of transmission in all age groups other than 30-39 vs 30-39; male</t>
   </si>
   <si>
     <t>Country-specific deaths data (UN)</t>
@@ -601,29 +586,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
-      <t xml:space="preserve">See testing_projection.R </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Calculated using proportion receiving a test in the past 12 months; forecasted for all years and older age groups based on regressing on age and year
-(e.g., rate of 2 means people tested twice a year; rate of 0.5 means tested every two years)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
       <t>See age_mixing.R</t>
     </r>
     <r>
@@ -794,14 +756,146 @@
     <t>Probability calculated from deaths data; projected using regression</t>
   </si>
   <si>
+    <t>Might have age/sex data for South Africa</t>
+  </si>
+  <si>
+    <t>Calculated as a regression fit to deaths data from 1950-1987 and 2008-2019 (to remove AIDS and COVID deaths)
+Log linear model - for each stratum of age*sex, fit the model: 
+fit = lm(log(rates) ~ years)
+Then projected until 2040</t>
+  </si>
+  <si>
+    <t>Consider making the regression a spline instead of only for select years - different slope post-spline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45-64 general mortality INTERCEPT multiplier, male </t>
+  </si>
+  <si>
+    <t>45-64 general mortality SLOPE multiplier, male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65-79 general mortality INTERCEPT multiplier, male </t>
+  </si>
+  <si>
+    <t>65-79 general mortality SLOPE multiplier, male</t>
+  </si>
+  <si>
+    <t>80+ general mortality INTERCEPT multiplier, male</t>
+  </si>
+  <si>
+    <t>80+ general mortality SLOPE multiplier, male</t>
+  </si>
+  <si>
+    <t>Multiplier for the INTERCEPT of the regression model fit to smooth/forecast mortality for age 45-64, male</t>
+  </si>
+  <si>
+    <t>Multiplier for the SLOPE of the regression model fit to smooth/forecast mortality for age 45-64, male</t>
+  </si>
+  <si>
+    <t>Multiplier for the INTERCEPT of the regression model fit to smooth/forecast mortality for age 65-79, male</t>
+  </si>
+  <si>
+    <t>Multiplier for the SLOPE of the regression model fit to smooth/forecast mortality for age 65-79, male</t>
+  </si>
+  <si>
+    <t>Multiplier for the INTERCEPT of the regression model fit to smooth/forecast mortality for age 80+, male</t>
+  </si>
+  <si>
+    <t>Multiplier for the SLOPE of the regression model fit to smooth/forecast mortality for age 80+, male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45-64 general mortality INTERCEPT multiplier, female </t>
+  </si>
+  <si>
+    <t>45-64 general mortality SLOPE multiplier, female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65-79 general mortality INTERCEPT multiplier, female </t>
+  </si>
+  <si>
+    <t>65-79 general mortality SLOPE multiplier, female</t>
+  </si>
+  <si>
+    <t>80+ general mortality INTERCEPT multiplier, female</t>
+  </si>
+  <si>
+    <t>80+ general mortality SLOPE multiplier, female</t>
+  </si>
+  <si>
+    <t>Multiplier for the INTERCEPT of the regression model fit to smooth/forecast mortality for age 45-64, female</t>
+  </si>
+  <si>
+    <t>Multiplier for the SLOPE of the regression model fit to smooth/forecast mortality for age 45-64, female</t>
+  </si>
+  <si>
+    <t>Multiplier for the INTERCEPT of the regression model fit to smooth/forecast mortality for age 65-79, female</t>
+  </si>
+  <si>
+    <t>Multiplier for the SLOPE of the regression model fit to smooth/forecast mortality for age 65-79, female</t>
+  </si>
+  <si>
+    <t>Multiplier for the INTERCEPT of the regression model fit to smooth/forecast mortality for age 80+, female</t>
+  </si>
+  <si>
+    <t>Multiplier for the SLOPE of the regression model fit to smooth/forecast mortality for age 80+, female</t>
+  </si>
+  <si>
+    <t>1
+Lognormal
+2 separate multipliers at HIV mortality times: 2005, 2030</t>
+  </si>
+  <si>
+    <t>1
+Lognormal
+Split up youngest age group into 0-4 and 5-14 in 1990 only</t>
+  </si>
+  <si>
+    <t>0-4 HIV-specific mortality multiplier, 1990</t>
+  </si>
+  <si>
+    <t>0-14 HIV-specific mortality</t>
+  </si>
+  <si>
+    <t>15-24 HIV-specific mortality</t>
+  </si>
+  <si>
+    <t>50+ HIV-specific mortality</t>
+  </si>
+  <si>
+    <t>5-14 HIV-specific mortality multiplier, 1990</t>
+  </si>
+  <si>
+    <t>Relative risk of transmission by age group, female</t>
+  </si>
+  <si>
+    <t>(same as female)</t>
+  </si>
+  <si>
+    <t>Relative risk of transmission by age group, male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See country-specific notes and  transmission_multipliers.R in each parameter_mappings/country folder; each of these calculated as some probability of high-risk sex; relative to a reference age group </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(same as female) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ages &lt;50: SABSSM 2012 (Tables 3.38-41), 2017 (Tables 3.45-47), 2022 Summary (Figues IX-X), 2022 Summary Sheet (pg 5) 
+Ages 50-80: Mojola et al, 2015 </t>
+  </si>
+  <si>
+    <t>KDHS 2003 (Table 12.10), 2008 (Tables 13.9.1-2), and 2014 (Tables 13.12.1-2)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow (Body)"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>See age_sex_transmission_multipliers.R</t>
+      <t xml:space="preserve">Years </t>
     </r>
     <r>
       <rPr>
@@ -812,129 +906,230 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-(proportion with multiple partners or proportion high risk sex)* (proportion of condomless sex); converted to multiplier relative to reference age (30-39)</t>
+- DHS: 2003, 2008, 2014
+</t>
     </r>
-  </si>
-  <si>
-    <t>Might have age/sex data for South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allison found estimates of multiple partners and condom use by age (15-24, 25-49, 50+) in South African National HIV Prevalence, Incidence and Behaviour Surveys; Mojola is actually a SA paper so can use that for 50+ </t>
-  </si>
-  <si>
-    <t>"</t>
-  </si>
-  <si>
-    <t>Allison found estimate of % tested in the past year from South African National HIV Prevalence, Incidence and Behaviour Survey - just by sex; will also probably have to multiply by % ever tested; 2022 report has 15-24, 25-49, 50+ not by sex and only tested in the past 3 years</t>
-  </si>
-  <si>
-    <t>SABSSM</t>
-  </si>
-  <si>
-    <t>Calculated as a regression fit to deaths data from 1950-1987 and 2008-2019 (to remove AIDS and COVID deaths)
-Log linear model - for each stratum of age*sex, fit the model: 
-fit = lm(log(rates) ~ years)
-Then projected until 2040</t>
-  </si>
-  <si>
-    <t>Consider making the regression a spline instead of only for select years - different slope post-spline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45-64 general mortality INTERCEPT multiplier, male </t>
-  </si>
-  <si>
-    <t>45-64 general mortality SLOPE multiplier, male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65-79 general mortality INTERCEPT multiplier, male </t>
-  </si>
-  <si>
-    <t>65-79 general mortality SLOPE multiplier, male</t>
-  </si>
-  <si>
-    <t>80+ general mortality INTERCEPT multiplier, male</t>
-  </si>
-  <si>
-    <t>80+ general mortality SLOPE multiplier, male</t>
-  </si>
-  <si>
-    <t>Multiplier for the INTERCEPT of the regression model fit to smooth/forecast mortality for age 45-64, male</t>
-  </si>
-  <si>
-    <t>Multiplier for the SLOPE of the regression model fit to smooth/forecast mortality for age 45-64, male</t>
-  </si>
-  <si>
-    <t>Multiplier for the INTERCEPT of the regression model fit to smooth/forecast mortality for age 65-79, male</t>
-  </si>
-  <si>
-    <t>Multiplier for the SLOPE of the regression model fit to smooth/forecast mortality for age 65-79, male</t>
-  </si>
-  <si>
-    <t>Multiplier for the INTERCEPT of the regression model fit to smooth/forecast mortality for age 80+, male</t>
-  </si>
-  <si>
-    <t>Multiplier for the SLOPE of the regression model fit to smooth/forecast mortality for age 80+, male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45-64 general mortality INTERCEPT multiplier, female </t>
-  </si>
-  <si>
-    <t>45-64 general mortality SLOPE multiplier, female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65-79 general mortality INTERCEPT multiplier, female </t>
-  </si>
-  <si>
-    <t>65-79 general mortality SLOPE multiplier, female</t>
-  </si>
-  <si>
-    <t>80+ general mortality INTERCEPT multiplier, female</t>
-  </si>
-  <si>
-    <t>80+ general mortality SLOPE multiplier, female</t>
-  </si>
-  <si>
-    <t>Multiplier for the INTERCEPT of the regression model fit to smooth/forecast mortality for age 45-64, female</t>
-  </si>
-  <si>
-    <t>Multiplier for the SLOPE of the regression model fit to smooth/forecast mortality for age 45-64, female</t>
-  </si>
-  <si>
-    <t>Multiplier for the INTERCEPT of the regression model fit to smooth/forecast mortality for age 65-79, female</t>
-  </si>
-  <si>
-    <t>Multiplier for the SLOPE of the regression model fit to smooth/forecast mortality for age 65-79, female</t>
-  </si>
-  <si>
-    <t>Multiplier for the INTERCEPT of the regression model fit to smooth/forecast mortality for age 80+, female</t>
-  </si>
-  <si>
-    <t>Multiplier for the SLOPE of the regression model fit to smooth/forecast mortality for age 80+, female</t>
-  </si>
-  <si>
-    <t>1
-Lognormal
-2 separate multipliers at HIV mortality times: 2005, 2030</t>
-  </si>
-  <si>
-    <t>1
-Lognormal
-Split up youngest age group into 0-4 and 5-14 in 1990 only</t>
-  </si>
-  <si>
-    <t>0-4 HIV-specific mortality multiplier, 1990</t>
-  </si>
-  <si>
-    <t>0-14 HIV-specific mortality</t>
-  </si>
-  <si>
-    <t>15-24 HIV-specific mortality</t>
-  </si>
-  <si>
-    <t>50+ HIV-specific mortality</t>
-  </si>
-  <si>
-    <t>5-14 HIV-specific mortality multiplier, 1990</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Age groups </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- DHS: 15-19, 20-24, 25-29, 30-39, 40-49
+Percentage who have been tested for HIV in past 12 months and received result </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ages &lt;50: SA DHS 2003 (Table 5.13), 2016 (Tables 12.2.1-2) 
+Ages &lt;50: SABSSM 2012 (Tables 3.38-41), 2017 (Tables 3.45-47), 2022 Summary (Figues IX-X), 2022 Summary Sheet (pg 5) 
+Ages 50-80: Mojola et al, 2015 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Years </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- DHS: 2003, 2008, 2014
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Age groups </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- DHS: 15-19, 20-24, 25-29, 30-39, 40-49; reference age= 30-39
+- Mojola et al: 40-49, 50-59, 60-69, 70-79; reference age = 40-49
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Calculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- DHS: (proportion with multiple partners or proportion high risk sex)* (proportion of condomless sex at last high risk sex)
+- Mojola: (proportion high risk sex)*(1-condom use among high risk sex) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Years
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- SABSSM: 2002, 2005, 2008, 2012, 2017
+- DHS: 2003, 2016</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Age groups</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- SABSSM: 15-24, 25-49, 50+; reference age = 25-49
+- DHS: 15-19, 20-24, 25-29, 30-39, 40-49; reference age= 30-39 
+- Mojola et al: 40-49, 50-59, 60-69, 70-79; reference age = 40-49
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Calculation: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- SABSSM: (proportion with multiple partners)*(proportion sometimes or never condom use) 
+- DHS: (proportion with multiple partners or proportion high risk sex)* (proportion of condomless sex at last high risk sex)
+- Mojola: (proportion high risk sex)*(1-condom use among high risk sex)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Years </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- DHS: 2003, 2008, 2016
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Age groups </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- DHS: 15-19, 20-24, 25-29, 30-39, 40-49
+Percentage who have been tested for HIV in past 12 months and received result </t>
+    </r>
+  </si>
+  <si>
+    <t>SA DHS 2003 (Table 5.6), 2016 (Tables 12.4.1-2)</t>
+  </si>
+  <si>
+    <t>Generate parameter table using "get_testing_projection_and_param_table.R"
+See country-specific notes and  testing_projection.R in each parameter_mappings/country folder; logistic regression based on proportion receiving a test  in the past 12 months;  forecasted for all years and older age groups based on regressing on age and year
+(e.g., rate of 2 means people tested twice a year; rate of 0.5 means tested every two years)</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1362,6 +1557,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1728,10 +1932,10 @@
   <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1740,14 +1944,15 @@
     <col min="2" max="2" width="17.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="32.1640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="41.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" style="5" customWidth="1"/>
-    <col min="8" max="9" width="22" style="5" customWidth="1"/>
+    <col min="5" max="5" width="37.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="55" style="5" customWidth="1"/>
+    <col min="7" max="8" width="60.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" style="5" customWidth="1"/>
     <col min="10" max="10" width="17" style="5" customWidth="1"/>
     <col min="11" max="11" width="24" style="5" customWidth="1"/>
     <col min="12" max="12" width="26" style="5" customWidth="1"/>
-    <col min="13" max="14" width="24" style="5" customWidth="1"/>
+    <col min="13" max="13" width="37.5" style="5" customWidth="1"/>
+    <col min="14" max="14" width="24" style="5" customWidth="1"/>
     <col min="15" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
@@ -1756,25 +1961,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="35"/>
       <c r="H1" s="35"/>
       <c r="I1" s="37"/>
       <c r="J1" s="35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K1" s="43" t="s">
         <v>1</v>
@@ -1790,56 +1995,56 @@
       <c r="D2" s="42"/>
       <c r="E2" s="38"/>
       <c r="F2" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="I2" s="40" t="s">
         <v>28</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>29</v>
       </c>
       <c r="J2" s="39"/>
       <c r="K2" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L2" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="N2" s="40" t="s">
         <v>28</v>
-      </c>
-      <c r="N2" s="40" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="211" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" s="26"/>
       <c r="K3" s="26" t="s">
@@ -1860,17 +2065,17 @@
         <v>4</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -1891,30 +2096,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="170" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="255" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>114</v>
+        <v>189</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>163</v>
+        <v>53</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>199</v>
       </c>
       <c r="I5" s="31"/>
       <c r="J5" s="30" t="s">
@@ -1922,37 +2127,35 @@
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="N5" s="32"/>
     </row>
-    <row r="6" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>161</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E6" s="27"/>
       <c r="F6" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="30" t="s">
@@ -1960,35 +2163,35 @@
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="N6" s="32"/>
     </row>
     <row r="7" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="51" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="30" t="s">
@@ -2009,26 +2212,26 @@
     </row>
     <row r="8" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="51" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="30" t="s">
@@ -2049,26 +2252,26 @@
     </row>
     <row r="9" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="51" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="30" t="s">
@@ -2089,26 +2292,26 @@
     </row>
     <row r="10" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="51" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="30" t="s">
@@ -2127,24 +2330,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -2153,7 +2356,7 @@
         <v>5</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
@@ -2164,25 +2367,25 @@
         <v>7</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="30" t="s">
@@ -2190,31 +2393,31 @@
       </c>
       <c r="K12" s="20"/>
       <c r="L12" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="27" t="s">
         <v>75</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>76</v>
       </c>
       <c r="N12" s="32"/>
     </row>
     <row r="13" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
@@ -2235,25 +2438,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
@@ -2262,29 +2465,29 @@
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M14" s="31"/>
       <c r="N14" s="32"/>
     </row>
     <row r="15" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -2293,32 +2496,32 @@
         <v>9</v>
       </c>
       <c r="K15" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M15" s="27"/>
       <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -2327,7 +2530,7 @@
         <v>5</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
@@ -2335,22 +2538,22 @@
     </row>
     <row r="17" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="51"/>
@@ -2373,22 +2576,22 @@
     </row>
     <row r="18" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="51"/>
@@ -2411,22 +2614,22 @@
     </row>
     <row r="19" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="51"/>
@@ -2449,22 +2652,22 @@
     </row>
     <row r="20" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="51"/>
@@ -2487,22 +2690,22 @@
     </row>
     <row r="21" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="51"/>
@@ -2525,22 +2728,22 @@
     </row>
     <row r="22" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="51"/>
@@ -2563,22 +2766,22 @@
     </row>
     <row r="23" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="51"/>
@@ -2601,22 +2804,22 @@
     </row>
     <row r="24" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="51"/>
@@ -2639,22 +2842,22 @@
     </row>
     <row r="25" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="51"/>
@@ -2677,22 +2880,22 @@
     </row>
     <row r="26" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G26" s="18"/>
       <c r="H26" s="51"/>
@@ -2715,22 +2918,22 @@
     </row>
     <row r="27" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="51"/>
@@ -2753,22 +2956,22 @@
     </row>
     <row r="28" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="51"/>
@@ -2791,22 +2994,22 @@
     </row>
     <row r="29" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
@@ -2815,7 +3018,7 @@
         <v>3</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
@@ -2823,20 +3026,20 @@
     </row>
     <row r="30" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
@@ -2846,27 +3049,27 @@
       </c>
       <c r="K30" s="16"/>
       <c r="L30" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M30" s="14"/>
       <c r="N30" s="15"/>
     </row>
     <row r="31" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
@@ -2876,27 +3079,27 @@
       </c>
       <c r="K31" s="16"/>
       <c r="L31" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M31" s="14"/>
       <c r="N31" s="15"/>
     </row>
     <row r="32" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="14" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
@@ -2919,20 +3122,20 @@
     </row>
     <row r="33" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="14" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
@@ -2955,20 +3158,20 @@
     </row>
     <row r="34" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="14" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
@@ -2991,20 +3194,20 @@
     </row>
     <row r="35" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -3027,20 +3230,20 @@
     </row>
     <row r="36" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
@@ -3061,22 +3264,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="44" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="46" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D37" s="47"/>
       <c r="E37" s="45" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
@@ -3085,7 +3288,7 @@
         <v>5</v>
       </c>
       <c r="K37" s="52" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L37" s="36"/>
       <c r="M37" s="36"/>
@@ -3093,22 +3296,22 @@
     </row>
     <row r="38" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="46" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E38" s="45" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F38" s="44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
@@ -3129,68 +3332,68 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="170" x14ac:dyDescent="0.2">
       <c r="A39" s="44" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F39" s="44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
       <c r="J39" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39" s="45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="K39" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L39" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="M39" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="N39" s="45" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="119" x14ac:dyDescent="0.2">
-      <c r="A40" s="44" t="s">
+      <c r="B40" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="D40" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="45" t="s">
-        <v>25</v>
-      </c>
       <c r="F40" s="44" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G40" s="44">
         <v>0.25</v>
       </c>
       <c r="H40" s="50" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I40" s="44"/>
       <c r="J40" s="48" t="s">
@@ -3211,26 +3414,26 @@
     </row>
     <row r="41" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E41" s="45"/>
       <c r="F41" s="44" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G41" s="44">
         <v>0.25</v>
       </c>
       <c r="H41" s="50" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I41" s="44"/>
       <c r="J41" s="48" t="s">
@@ -3251,26 +3454,26 @@
     </row>
     <row r="42" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="46" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="44" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G42" s="44">
         <v>2</v>
       </c>
       <c r="H42" s="50" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I42" s="44"/>
       <c r="J42" s="48" t="s">
@@ -3291,26 +3494,26 @@
     </row>
     <row r="43" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E43" s="45"/>
       <c r="F43" s="44" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G43" s="44">
         <v>2</v>
       </c>
       <c r="H43" s="50" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I43" s="44"/>
       <c r="J43" s="48" t="s">
@@ -3331,26 +3534,26 @@
     </row>
     <row r="44" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E44" s="45"/>
       <c r="F44" s="44" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G44" s="44">
         <v>2</v>
       </c>
       <c r="H44" s="50" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I44" s="44"/>
       <c r="J44" s="48" t="s">
@@ -3371,30 +3574,30 @@
     </row>
     <row r="45" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E45" s="45"/>
       <c r="F45" s="44" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G45" s="44">
         <v>1</v>
       </c>
       <c r="H45" s="50" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I45" s="44"/>
       <c r="J45" s="48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K45" s="48" t="s">
         <v>2</v>
@@ -3409,30 +3612,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="204" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="276" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" s="31" t="s">
-        <v>165</v>
+        <v>107</v>
+      </c>
+      <c r="G46" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="H46" s="60" t="s">
+        <v>200</v>
       </c>
       <c r="I46" s="31"/>
       <c r="J46" s="8" t="s">
@@ -3440,31 +3643,31 @@
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="6" t="s">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="M46" s="31" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="N46" s="32"/>
     </row>
     <row r="47" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
@@ -3487,22 +3690,22 @@
     </row>
     <row r="48" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
@@ -3525,25 +3728,25 @@
     </row>
     <row r="49" spans="1:14" ht="214" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H49" s="31"/>
       <c r="I49" s="31"/>
@@ -3552,33 +3755,33 @@
       </c>
       <c r="K49" s="20"/>
       <c r="L49" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M49" s="31"/>
       <c r="N49" s="32"/>
     </row>
     <row r="50" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G50" s="18"/>
       <c r="H50" s="58" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I50" s="18"/>
       <c r="J50" s="8" t="s">
@@ -3599,26 +3802,26 @@
     </row>
     <row r="51" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G51" s="18"/>
       <c r="H51" s="58" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I51" s="18"/>
       <c r="J51" s="8" t="s">
@@ -3639,26 +3842,26 @@
     </row>
     <row r="52" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G52" s="18"/>
       <c r="H52" s="58" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I52" s="18"/>
       <c r="J52" s="8" t="s">
@@ -3679,26 +3882,26 @@
     </row>
     <row r="53" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C53" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="F53" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G53" s="18"/>
       <c r="H53" s="58" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I53" s="18"/>
       <c r="J53" s="8" t="s">
@@ -3719,22 +3922,22 @@
     </row>
     <row r="54" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G54" s="6">
         <v>0.1392621</v>
@@ -3746,27 +3949,27 @@
       </c>
       <c r="K54" s="20"/>
       <c r="L54" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M54" s="31"/>
       <c r="N54" s="32"/>
     </row>
     <row r="55" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G55" s="6">
         <v>0.1025866</v>
@@ -3778,33 +3981,33 @@
       </c>
       <c r="K55" s="20"/>
       <c r="L55" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M55" s="31"/>
       <c r="N55" s="32"/>
     </row>
     <row r="56" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G56" s="6">
         <v>0.67328849999999996</v>
       </c>
       <c r="H56" s="31" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="I56" s="31"/>
       <c r="J56" s="8" t="s">
@@ -3812,27 +4015,27 @@
       </c>
       <c r="K56" s="20"/>
       <c r="L56" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M56" s="31"/>
       <c r="N56" s="32"/>
     </row>
     <row r="57" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G57" s="6">
         <v>0.67328849999999996</v>
@@ -3844,27 +4047,27 @@
       </c>
       <c r="K57" s="20"/>
       <c r="L57" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M57" s="31"/>
       <c r="N57" s="32"/>
     </row>
     <row r="58" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G58" s="6">
         <v>0.1971601</v>
@@ -3876,31 +4079,31 @@
       </c>
       <c r="K58" s="20"/>
       <c r="L58" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M58" s="31"/>
       <c r="N58" s="32"/>
     </row>
     <row r="59" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G59" s="18"/>
       <c r="H59" s="51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I59" s="18"/>
       <c r="J59" s="8" t="s">
@@ -3921,24 +4124,24 @@
     </row>
     <row r="60" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G60" s="18"/>
       <c r="H60" s="51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I60" s="18"/>
       <c r="J60" s="8" t="s">
@@ -3959,28 +4162,28 @@
     </row>
     <row r="61" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G61" s="18"/>
       <c r="H61" s="51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I61" s="18"/>
       <c r="J61" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K61" s="8" t="s">
         <v>2</v>
@@ -3997,46 +4200,46 @@
     </row>
     <row r="62" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F13795-7297-A04D-B0BE-7E02019A20D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F77815-D733-B345-A98F-1EF6FAC4A1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19540" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="203">
   <si>
     <t>Parameter</t>
   </si>
@@ -880,10 +880,6 @@
     <t xml:space="preserve">(same as female) </t>
   </si>
   <si>
-    <t xml:space="preserve">Ages &lt;50: SABSSM 2012 (Tables 3.38-41), 2017 (Tables 3.45-47), 2022 Summary (Figues IX-X), 2022 Summary Sheet (pg 5) 
-Ages 50-80: Mojola et al, 2015 </t>
-  </si>
-  <si>
     <t>KDHS 2003 (Table 12.10), 2008 (Tables 13.9.1-2), and 2014 (Tables 13.12.1-2)</t>
   </si>
   <si>
@@ -931,11 +927,6 @@
 - DHS: 15-19, 20-24, 25-29, 30-39, 40-49
 Percentage who have been tested for HIV in past 12 months and received result </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ages &lt;50: SA DHS 2003 (Table 5.13), 2016 (Tables 12.2.1-2) 
-Ages &lt;50: SABSSM 2012 (Tables 3.38-41), 2017 (Tables 3.45-47), 2022 Summary (Figues IX-X), 2022 Summary Sheet (pg 5) 
-Ages 50-80: Mojola et al, 2015 </t>
   </si>
   <si>
     <r>
@@ -1015,77 +1006,6 @@
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Years
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- SABSSM: 2002, 2005, 2008, 2012, 2017
-- DHS: 2003, 2016</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Age groups</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- SABSSM: 15-24, 25-49, 50+; reference age = 25-49
-- DHS: 15-19, 20-24, 25-29, 30-39, 40-49; reference age= 30-39 
-- Mojola et al: 40-49, 50-59, 60-69, 70-79; reference age = 40-49
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Calculation: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- SABSSM: (proportion with multiple partners)*(proportion sometimes or never condom use) 
-- DHS: (proportion with multiple partners or proportion high risk sex)* (proportion of condomless sex at last high risk sex)
-- Mojola: (proportion high risk sex)*(1-condom use among high risk sex)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Years </t>
     </r>
     <r>
@@ -1130,6 +1050,83 @@
     <t>Generate parameter table using "get_testing_projection_and_param_table.R"
 See country-specific notes and  testing_projection.R in each parameter_mappings/country folder; logistic regression based on proportion receiving a test  in the past 12 months;  forecasted for all years and older age groups based on regressing on age and year
 (e.g., rate of 2 means people tested twice a year; rate of 0.5 means tested every two years)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Years
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- DHS: 2003, 2016</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Age groups</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- DHS: 15-19, 20-24, 25-29, 30-39, 40-49; reference age= 30-39 
+- Mojola et al: 40-49, 50-59, 60-69, 70-79; reference age = 40-49
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Calculation: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- DHS: (proportion with multiple partners or proportion high risk sex)* (proportion of condomless sex at last high risk sex)
+- Mojola: (proportion high risk sex)*(1-condom use among high risk sex)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ages &lt;50: SA DHS 2003 (Table 5.13), 2016 (Tables 12.2.1-2) 
+Ages 50-80: Mojola et al, 2015 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IeDEA Dashboard: Proportion initiating ART within 12 months after enrollment; 
+Age groups: 10-19, 20-29, 30-39, 40-49, 50+; by sex
+</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1557,9 +1554,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1931,11 +1925,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B2D996-732D-784F-96EB-809CE760E324}">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2096,7 +2090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="255" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="187" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>189</v>
       </c>
@@ -2115,11 +2109,11 @@
       <c r="F5" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="61" t="s">
-        <v>198</v>
+      <c r="G5" s="60" t="s">
+        <v>196</v>
       </c>
       <c r="H5" s="60" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I5" s="31"/>
       <c r="J5" s="30" t="s">
@@ -2129,8 +2123,8 @@
       <c r="L5" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="M5" s="31" t="s">
-        <v>197</v>
+      <c r="M5" s="27" t="s">
+        <v>201</v>
       </c>
       <c r="N5" s="32"/>
     </row>
@@ -2154,7 +2148,7 @@
       <c r="G6" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="27" t="s">
         <v>193</v>
       </c>
       <c r="I6" s="31"/>
@@ -2165,8 +2159,8 @@
       <c r="L6" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="M6" s="31" t="s">
-        <v>194</v>
+      <c r="M6" s="27" t="s">
+        <v>201</v>
       </c>
       <c r="N6" s="32"/>
     </row>
@@ -3626,16 +3620,16 @@
         <v>37</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G46" s="62" t="s">
-        <v>196</v>
-      </c>
-      <c r="H46" s="60" t="s">
-        <v>200</v>
+      <c r="G46" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="H46" s="61" t="s">
+        <v>197</v>
       </c>
       <c r="I46" s="31"/>
       <c r="J46" s="8" t="s">
@@ -3643,10 +3637,10 @@
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="M46" s="31" t="s">
-        <v>201</v>
+        <v>194</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="N46" s="32"/>
     </row>
@@ -3748,7 +3742,9 @@
       <c r="G49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H49" s="31"/>
+      <c r="H49" s="31" t="s">
+        <v>202</v>
+      </c>
       <c r="I49" s="31"/>
       <c r="J49" s="8" t="s">
         <v>5</v>

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F77815-D733-B345-A98F-1EF6FAC4A1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD32EFA-1FB4-BF49-92C5-78EC7CC62CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19540" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>
@@ -1133,7 +1133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1173,6 +1173,11 @@
       <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow (Body)"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1523,9 +1528,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1560,6 +1562,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1926,10 +1931,10 @@
   <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2109,10 +2114,10 @@
       <c r="F5" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="59" t="s">
         <v>200</v>
       </c>
       <c r="I5" s="31"/>
@@ -2184,7 +2189,7 @@
         <v>55</v>
       </c>
       <c r="G7" s="18"/>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="50" t="s">
         <v>123</v>
       </c>
       <c r="I7" s="18"/>
@@ -2224,7 +2229,7 @@
         <v>55</v>
       </c>
       <c r="G8" s="18"/>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="50" t="s">
         <v>123</v>
       </c>
       <c r="I8" s="18"/>
@@ -2264,7 +2269,7 @@
         <v>55</v>
       </c>
       <c r="G9" s="18"/>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="50" t="s">
         <v>123</v>
       </c>
       <c r="I9" s="18"/>
@@ -2304,7 +2309,7 @@
         <v>55</v>
       </c>
       <c r="G10" s="18"/>
-      <c r="H10" s="51" t="s">
+      <c r="H10" s="50" t="s">
         <v>123</v>
       </c>
       <c r="I10" s="18"/>
@@ -2511,7 +2516,7 @@
       <c r="D16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="61" t="s">
         <v>157</v>
       </c>
       <c r="F16" s="10" t="s">
@@ -2550,7 +2555,7 @@
         <v>58</v>
       </c>
       <c r="G17" s="18"/>
-      <c r="H17" s="51"/>
+      <c r="H17" s="50"/>
       <c r="I17" s="18"/>
       <c r="J17" s="13" t="s">
         <v>3</v>
@@ -2588,7 +2593,7 @@
         <v>58</v>
       </c>
       <c r="G18" s="18"/>
-      <c r="H18" s="51"/>
+      <c r="H18" s="50"/>
       <c r="I18" s="18"/>
       <c r="J18" s="13" t="s">
         <v>3</v>
@@ -2626,7 +2631,7 @@
         <v>58</v>
       </c>
       <c r="G19" s="18"/>
-      <c r="H19" s="51"/>
+      <c r="H19" s="50"/>
       <c r="I19" s="18"/>
       <c r="J19" s="13" t="s">
         <v>3</v>
@@ -2664,7 +2669,7 @@
         <v>58</v>
       </c>
       <c r="G20" s="18"/>
-      <c r="H20" s="51"/>
+      <c r="H20" s="50"/>
       <c r="I20" s="18"/>
       <c r="J20" s="13" t="s">
         <v>3</v>
@@ -2702,7 +2707,7 @@
         <v>58</v>
       </c>
       <c r="G21" s="18"/>
-      <c r="H21" s="51"/>
+      <c r="H21" s="50"/>
       <c r="I21" s="18"/>
       <c r="J21" s="13" t="s">
         <v>3</v>
@@ -2740,7 +2745,7 @@
         <v>58</v>
       </c>
       <c r="G22" s="18"/>
-      <c r="H22" s="51"/>
+      <c r="H22" s="50"/>
       <c r="I22" s="18"/>
       <c r="J22" s="13" t="s">
         <v>3</v>
@@ -2778,7 +2783,7 @@
         <v>58</v>
       </c>
       <c r="G23" s="18"/>
-      <c r="H23" s="51"/>
+      <c r="H23" s="50"/>
       <c r="I23" s="18"/>
       <c r="J23" s="13" t="s">
         <v>3</v>
@@ -2816,7 +2821,7 @@
         <v>58</v>
       </c>
       <c r="G24" s="18"/>
-      <c r="H24" s="51"/>
+      <c r="H24" s="50"/>
       <c r="I24" s="18"/>
       <c r="J24" s="13" t="s">
         <v>3</v>
@@ -2854,7 +2859,7 @@
         <v>58</v>
       </c>
       <c r="G25" s="18"/>
-      <c r="H25" s="51"/>
+      <c r="H25" s="50"/>
       <c r="I25" s="18"/>
       <c r="J25" s="13" t="s">
         <v>3</v>
@@ -2892,7 +2897,7 @@
         <v>58</v>
       </c>
       <c r="G26" s="18"/>
-      <c r="H26" s="51"/>
+      <c r="H26" s="50"/>
       <c r="I26" s="18"/>
       <c r="J26" s="13" t="s">
         <v>3</v>
@@ -2930,7 +2935,7 @@
         <v>58</v>
       </c>
       <c r="G27" s="18"/>
-      <c r="H27" s="51"/>
+      <c r="H27" s="50"/>
       <c r="I27" s="18"/>
       <c r="J27" s="13" t="s">
         <v>3</v>
@@ -2968,7 +2973,7 @@
         <v>58</v>
       </c>
       <c r="G28" s="18"/>
-      <c r="H28" s="51"/>
+      <c r="H28" s="50"/>
       <c r="I28" s="18"/>
       <c r="J28" s="13" t="s">
         <v>3</v>
@@ -3281,12 +3286,12 @@
       <c r="J37" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="K37" s="52" t="s">
+      <c r="K37" s="51" t="s">
         <v>142</v>
       </c>
       <c r="L37" s="36"/>
       <c r="M37" s="36"/>
-      <c r="N37" s="59"/>
+      <c r="N37" s="58"/>
     </row>
     <row r="38" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="44" t="s">
@@ -3313,16 +3318,16 @@
       <c r="J38" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="L38" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="M38" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="N38" s="54" t="s">
+      <c r="K38" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="L38" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="M38" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="N38" s="53" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3386,23 +3391,23 @@
       <c r="G40" s="44">
         <v>0.25</v>
       </c>
-      <c r="H40" s="50" t="s">
+      <c r="H40" s="49" t="s">
         <v>117</v>
       </c>
       <c r="I40" s="44"/>
       <c r="J40" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="K40" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="L40" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="M40" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="N40" s="57" t="s">
+      <c r="K40" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="L40" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="M40" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="N40" s="56" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3426,7 +3431,7 @@
       <c r="G41" s="44">
         <v>0.25</v>
       </c>
-      <c r="H41" s="50" t="s">
+      <c r="H41" s="49" t="s">
         <v>117</v>
       </c>
       <c r="I41" s="44"/>
@@ -3466,7 +3471,7 @@
       <c r="G42" s="44">
         <v>2</v>
       </c>
-      <c r="H42" s="50" t="s">
+      <c r="H42" s="49" t="s">
         <v>117</v>
       </c>
       <c r="I42" s="44"/>
@@ -3506,7 +3511,7 @@
       <c r="G43" s="44">
         <v>2</v>
       </c>
-      <c r="H43" s="50" t="s">
+      <c r="H43" s="49" t="s">
         <v>117</v>
       </c>
       <c r="I43" s="44"/>
@@ -3546,7 +3551,7 @@
       <c r="G44" s="44">
         <v>2</v>
       </c>
-      <c r="H44" s="50" t="s">
+      <c r="H44" s="49" t="s">
         <v>117</v>
       </c>
       <c r="I44" s="44"/>
@@ -3586,7 +3591,7 @@
       <c r="G45" s="44">
         <v>1</v>
       </c>
-      <c r="H45" s="50" t="s">
+      <c r="H45" s="49" t="s">
         <v>117</v>
       </c>
       <c r="I45" s="44"/>
@@ -3625,10 +3630,10 @@
       <c r="F46" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G46" s="61" t="s">
+      <c r="G46" s="60" t="s">
         <v>195</v>
       </c>
-      <c r="H46" s="61" t="s">
+      <c r="H46" s="60" t="s">
         <v>197</v>
       </c>
       <c r="I46" s="31"/>
@@ -3776,7 +3781,7 @@
         <v>62</v>
       </c>
       <c r="G50" s="18"/>
-      <c r="H50" s="58" t="s">
+      <c r="H50" s="57" t="s">
         <v>138</v>
       </c>
       <c r="I50" s="18"/>
@@ -3816,7 +3821,7 @@
         <v>63</v>
       </c>
       <c r="G51" s="18"/>
-      <c r="H51" s="58" t="s">
+      <c r="H51" s="57" t="s">
         <v>138</v>
       </c>
       <c r="I51" s="18"/>
@@ -3856,7 +3861,7 @@
         <v>64</v>
       </c>
       <c r="G52" s="18"/>
-      <c r="H52" s="58" t="s">
+      <c r="H52" s="57" t="s">
         <v>138</v>
       </c>
       <c r="I52" s="18"/>
@@ -3896,7 +3901,7 @@
         <v>65</v>
       </c>
       <c r="G53" s="18"/>
-      <c r="H53" s="58" t="s">
+      <c r="H53" s="57" t="s">
         <v>138</v>
       </c>
       <c r="I53" s="18"/>
@@ -4098,7 +4103,7 @@
         <v>58</v>
       </c>
       <c r="G59" s="18"/>
-      <c r="H59" s="51" t="s">
+      <c r="H59" s="50" t="s">
         <v>105</v>
       </c>
       <c r="I59" s="18"/>
@@ -4136,7 +4141,7 @@
         <v>58</v>
       </c>
       <c r="G60" s="18"/>
-      <c r="H60" s="51" t="s">
+      <c r="H60" s="50" t="s">
         <v>105</v>
       </c>
       <c r="I60" s="18"/>
@@ -4174,7 +4179,7 @@
         <v>58</v>
       </c>
       <c r="G61" s="18"/>
-      <c r="H61" s="51" t="s">
+      <c r="H61" s="50" t="s">
         <v>105</v>
       </c>
       <c r="I61" s="18"/>

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD32EFA-1FB4-BF49-92C5-78EC7CC62CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E8195D-88E8-DB4C-A7AC-AD7FC5A1FD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19540" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="202">
   <si>
     <t>Parameter</t>
   </si>
@@ -251,10 +251,6 @@
     <t>1
 Lognormal
 Constant</t>
-  </si>
-  <si>
-    <t>Varies by age; linear interpolation between spline points 
-Splines at 2003, 2008, 2014; linear interpolation</t>
   </si>
   <si>
     <t>Varies by age; linear interpolation between spline points
@@ -579,31 +575,6 @@
 Low time: 1992; High time: (low time + age span)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>See age_mixing.R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Table 3 of De Oliveira: Used Mean diff in age (years) for HIV positive women in male-female clusters</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">May change spline times or SD of prior for these  </t>
-  </si>
-  <si>
     <t>Testing rate INTERCEPT multiplier</t>
   </si>
   <si>
@@ -1052,6 +1023,41 @@
 (e.g., rate of 2 means people tested twice a year; rate of 0.5 means tested every two years)</t>
   </si>
   <si>
+    <t xml:space="preserve">Ages &lt;50: SA DHS 2003 (Table 5.13), 2016 (Tables 12.2.1-2) 
+Ages 50-80: Mojola et al, 2015 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IeDEA Dashboard: Proportion initiating ART within 12 months after enrollment; 
+Age groups: 10-19, 20-29, 30-39, 40-49, 50+; by sex
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>See age_mixing.R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Table 3 of De Oliveira: Used Mean diff in age (years) for HIV positive women in male-female clusters</t>
+    </r>
+  </si>
+  <si>
+    <t>Varies by age; linear interpolation between spline points 
+Splines at 2003, 2008, 2014; linear interpolation
+South Africa: using 2003 DHS for 2008 and 2016 DHS for 2014</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1070,7 +1076,7 @@
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
-      <t>- DHS: 2003, 2016</t>
+      <t xml:space="preserve">- DHS: 2003, 2016 (using 2003 estimates for 2003 and 2008 spline points; 2016 estimates for 2014 spline point) </t>
     </r>
     <r>
       <rPr>
@@ -1119,21 +1125,12 @@
 - Mojola: (proportion high risk sex)*(1-condom use among high risk sex)</t>
     </r>
   </si>
-  <si>
-    <t xml:space="preserve">Ages &lt;50: SA DHS 2003 (Table 5.13), 2016 (Tables 12.2.1-2) 
-Ages 50-80: Mojola et al, 2015 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IeDEA Dashboard: Proportion initiating ART within 12 months after enrollment; 
-Age groups: 10-19, 20-29, 30-39, 40-49, 50+; by sex
-</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1177,6 +1174,11 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Aptos Narrow (Body)"/>
     </font>
   </fonts>
@@ -1931,10 +1933,10 @@
   <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1946,12 +1948,12 @@
     <col min="5" max="5" width="37.5" style="5" customWidth="1"/>
     <col min="6" max="6" width="55" style="5" customWidth="1"/>
     <col min="7" max="8" width="60.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22" style="5" customWidth="1"/>
+    <col min="9" max="9" width="22" style="5" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="5" customWidth="1"/>
     <col min="11" max="11" width="24" style="5" customWidth="1"/>
     <col min="12" max="12" width="26" style="5" customWidth="1"/>
     <col min="13" max="13" width="37.5" style="5" customWidth="1"/>
-    <col min="14" max="14" width="24" style="5" customWidth="1"/>
+    <col min="14" max="14" width="24" style="5" hidden="1" customWidth="1"/>
     <col min="15" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
@@ -1969,7 +1971,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F1" s="43" t="s">
         <v>51</v>
@@ -1978,7 +1980,7 @@
       <c r="H1" s="35"/>
       <c r="I1" s="37"/>
       <c r="J1" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K1" s="43" t="s">
         <v>1</v>
@@ -2007,7 +2009,7 @@
       </c>
       <c r="J2" s="39"/>
       <c r="K2" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L2" s="39" t="s">
         <v>26</v>
@@ -2027,7 +2029,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>36</v>
@@ -2037,7 +2039,7 @@
         <v>40</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>39</v>
@@ -2067,7 +2069,7 @@
         <v>42</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>36</v>
@@ -2095,9 +2097,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="187" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="204" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>42</v>
@@ -2109,16 +2111,16 @@
         <v>37</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H5" s="59" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I5" s="31"/>
       <c r="J5" s="30" t="s">
@@ -2126,16 +2128,16 @@
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N5" s="32"/>
     </row>
     <row r="6" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>42</v>
@@ -2148,13 +2150,13 @@
       </c>
       <c r="E6" s="27"/>
       <c r="F6" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="H6" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>193</v>
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="30" t="s">
@@ -2162,36 +2164,34 @@
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N6" s="32"/>
     </row>
     <row r="7" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" s="18"/>
-      <c r="H7" s="50" t="s">
-        <v>123</v>
-      </c>
+      <c r="H7" s="50"/>
       <c r="I7" s="18"/>
       <c r="J7" s="30" t="s">
         <v>3</v>
@@ -2211,27 +2211,25 @@
     </row>
     <row r="8" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" s="18"/>
-      <c r="H8" s="50" t="s">
-        <v>123</v>
-      </c>
+      <c r="H8" s="50"/>
       <c r="I8" s="18"/>
       <c r="J8" s="30" t="s">
         <v>3</v>
@@ -2251,27 +2249,25 @@
     </row>
     <row r="9" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="28" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="18"/>
-      <c r="H9" s="50" t="s">
-        <v>123</v>
-      </c>
+      <c r="H9" s="50"/>
       <c r="I9" s="18"/>
       <c r="J9" s="30" t="s">
         <v>3</v>
@@ -2291,27 +2287,25 @@
     </row>
     <row r="10" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="18"/>
-      <c r="H10" s="50" t="s">
-        <v>123</v>
-      </c>
+      <c r="H10" s="50"/>
       <c r="I10" s="18"/>
       <c r="J10" s="30" t="s">
         <v>3</v>
@@ -2343,10 +2337,10 @@
         <v>37</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -2355,7 +2349,7 @@
         <v>5</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
@@ -2375,16 +2369,16 @@
         <v>37</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>122</v>
+        <v>199</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="30" t="s">
@@ -2392,31 +2386,31 @@
       </c>
       <c r="K12" s="20"/>
       <c r="L12" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" s="27" t="s">
         <v>74</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>75</v>
       </c>
       <c r="N12" s="32"/>
     </row>
     <row r="13" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
@@ -2439,7 +2433,7 @@
     </row>
     <row r="14" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>42</v>
@@ -2451,11 +2445,11 @@
         <v>36</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
@@ -2464,14 +2458,14 @@
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M14" s="31"/>
       <c r="N14" s="32"/>
     </row>
     <row r="15" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>42</v>
@@ -2483,10 +2477,10 @@
         <v>36</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -2495,10 +2489,10 @@
         <v>9</v>
       </c>
       <c r="K15" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M15" s="27"/>
       <c r="N15" s="29"/>
@@ -2511,16 +2505,16 @@
         <v>44</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -2529,7 +2523,7 @@
         <v>5</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
@@ -2537,22 +2531,22 @@
     </row>
     <row r="17" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="50"/>
@@ -2575,22 +2569,22 @@
     </row>
     <row r="18" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="50"/>
@@ -2613,22 +2607,22 @@
     </row>
     <row r="19" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="50"/>
@@ -2651,22 +2645,22 @@
     </row>
     <row r="20" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="50"/>
@@ -2689,22 +2683,22 @@
     </row>
     <row r="21" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="50"/>
@@ -2727,22 +2721,22 @@
     </row>
     <row r="22" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="50"/>
@@ -2765,22 +2759,22 @@
     </row>
     <row r="23" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="50"/>
@@ -2803,22 +2797,22 @@
     </row>
     <row r="24" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="50"/>
@@ -2841,22 +2835,22 @@
     </row>
     <row r="25" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="50"/>
@@ -2879,22 +2873,22 @@
     </row>
     <row r="26" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G26" s="18"/>
       <c r="H26" s="50"/>
@@ -2917,22 +2911,22 @@
     </row>
     <row r="27" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="50"/>
@@ -2955,22 +2949,22 @@
     </row>
     <row r="28" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="50"/>
@@ -2993,7 +2987,7 @@
     </row>
     <row r="29" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>45</v>
@@ -3005,10 +2999,10 @@
         <v>36</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
@@ -3017,7 +3011,7 @@
         <v>3</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
@@ -3038,7 +3032,7 @@
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
@@ -3048,7 +3042,7 @@
       </c>
       <c r="K30" s="16"/>
       <c r="L30" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M30" s="14"/>
       <c r="N30" s="15"/>
@@ -3068,7 +3062,7 @@
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
@@ -3078,27 +3072,27 @@
       </c>
       <c r="K31" s="16"/>
       <c r="L31" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M31" s="14"/>
       <c r="N31" s="15"/>
     </row>
     <row r="32" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
@@ -3121,20 +3115,20 @@
     </row>
     <row r="33" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
@@ -3157,20 +3151,20 @@
     </row>
     <row r="34" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
@@ -3193,20 +3187,20 @@
     </row>
     <row r="35" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -3229,20 +3223,20 @@
     </row>
     <row r="36" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
@@ -3265,20 +3259,20 @@
     </row>
     <row r="37" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="44" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B37" s="45" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="46" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D37" s="47"/>
       <c r="E37" s="45" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
@@ -3287,7 +3281,7 @@
         <v>5</v>
       </c>
       <c r="K37" s="51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L37" s="36"/>
       <c r="M37" s="36"/>
@@ -3301,16 +3295,16 @@
         <v>46</v>
       </c>
       <c r="C38" s="46" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D38" s="47" t="s">
         <v>36</v>
       </c>
       <c r="E38" s="45" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F38" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
@@ -3333,22 +3327,22 @@
     </row>
     <row r="39" spans="1:14" ht="170" x14ac:dyDescent="0.2">
       <c r="A39" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B39" s="45" t="s">
         <v>46</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D39" s="47" t="s">
         <v>37</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F39" s="44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
@@ -3377,7 +3371,7 @@
         <v>46</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D40" s="47" t="s">
         <v>36</v>
@@ -3386,13 +3380,13 @@
         <v>24</v>
       </c>
       <c r="F40" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G40" s="44">
         <v>0.25</v>
       </c>
       <c r="H40" s="49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I40" s="44"/>
       <c r="J40" s="48" t="s">
@@ -3419,20 +3413,20 @@
         <v>46</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D41" s="47" t="s">
         <v>36</v>
       </c>
       <c r="E41" s="45"/>
       <c r="F41" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G41" s="44">
         <v>0.25</v>
       </c>
       <c r="H41" s="49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I41" s="44"/>
       <c r="J41" s="48" t="s">
@@ -3459,20 +3453,20 @@
         <v>46</v>
       </c>
       <c r="C42" s="46" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D42" s="47" t="s">
         <v>36</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G42" s="44">
         <v>2</v>
       </c>
       <c r="H42" s="49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I42" s="44"/>
       <c r="J42" s="48" t="s">
@@ -3499,20 +3493,20 @@
         <v>46</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D43" s="47" t="s">
         <v>36</v>
       </c>
       <c r="E43" s="45"/>
       <c r="F43" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G43" s="44">
         <v>2</v>
       </c>
       <c r="H43" s="49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I43" s="44"/>
       <c r="J43" s="48" t="s">
@@ -3539,20 +3533,20 @@
         <v>46</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D44" s="47" t="s">
         <v>36</v>
       </c>
       <c r="E44" s="45"/>
       <c r="F44" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G44" s="44">
         <v>2</v>
       </c>
       <c r="H44" s="49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I44" s="44"/>
       <c r="J44" s="48" t="s">
@@ -3579,20 +3573,20 @@
         <v>46</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D45" s="47" t="s">
         <v>36</v>
       </c>
       <c r="E45" s="45"/>
       <c r="F45" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G45" s="44">
         <v>1</v>
       </c>
       <c r="H45" s="49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I45" s="44"/>
       <c r="J45" s="48" t="s">
@@ -3613,7 +3607,7 @@
     </row>
     <row r="46" spans="1:14" ht="276" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>43</v>
@@ -3625,16 +3619,16 @@
         <v>37</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G46" s="60" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H46" s="60" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I46" s="31"/>
       <c r="J46" s="8" t="s">
@@ -3642,31 +3636,31 @@
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N46" s="32"/>
     </row>
     <row r="47" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
@@ -3689,22 +3683,22 @@
     </row>
     <row r="48" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
@@ -3727,7 +3721,7 @@
     </row>
     <row r="49" spans="1:14" ht="214" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>43</v>
@@ -3739,7 +3733,7 @@
         <v>37</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>11</v>
@@ -3748,7 +3742,7 @@
         <v>10</v>
       </c>
       <c r="H49" s="31" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I49" s="31"/>
       <c r="J49" s="8" t="s">
@@ -3756,33 +3750,33 @@
       </c>
       <c r="K49" s="20"/>
       <c r="L49" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M49" s="31"/>
       <c r="N49" s="32"/>
     </row>
     <row r="50" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C50" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="F50" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G50" s="18"/>
       <c r="H50" s="57" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I50" s="18"/>
       <c r="J50" s="8" t="s">
@@ -3803,26 +3797,26 @@
     </row>
     <row r="51" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G51" s="18"/>
       <c r="H51" s="57" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I51" s="18"/>
       <c r="J51" s="8" t="s">
@@ -3843,26 +3837,26 @@
     </row>
     <row r="52" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G52" s="18"/>
       <c r="H52" s="57" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I52" s="18"/>
       <c r="J52" s="8" t="s">
@@ -3883,26 +3877,26 @@
     </row>
     <row r="53" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G53" s="18"/>
       <c r="H53" s="57" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I53" s="18"/>
       <c r="J53" s="8" t="s">
@@ -3923,22 +3917,22 @@
     </row>
     <row r="54" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G54" s="6">
         <v>0.1392621</v>
@@ -3950,27 +3944,27 @@
       </c>
       <c r="K54" s="20"/>
       <c r="L54" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M54" s="31"/>
       <c r="N54" s="32"/>
     </row>
     <row r="55" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G55" s="6">
         <v>0.1025866</v>
@@ -3982,33 +3976,33 @@
       </c>
       <c r="K55" s="20"/>
       <c r="L55" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M55" s="31"/>
       <c r="N55" s="32"/>
     </row>
     <row r="56" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G56" s="6">
         <v>0.67328849999999996</v>
       </c>
       <c r="H56" s="31" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I56" s="31"/>
       <c r="J56" s="8" t="s">
@@ -4016,7 +4010,7 @@
       </c>
       <c r="K56" s="20"/>
       <c r="L56" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M56" s="31"/>
       <c r="N56" s="32"/>
@@ -4029,14 +4023,14 @@
         <v>43</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G57" s="6">
         <v>0.67328849999999996</v>
@@ -4048,7 +4042,7 @@
       </c>
       <c r="K57" s="20"/>
       <c r="L57" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M57" s="31"/>
       <c r="N57" s="32"/>
@@ -4061,14 +4055,14 @@
         <v>43</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G58" s="6">
         <v>0.1971601</v>
@@ -4080,7 +4074,7 @@
       </c>
       <c r="K58" s="20"/>
       <c r="L58" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M58" s="31"/>
       <c r="N58" s="32"/>
@@ -4093,18 +4087,18 @@
         <v>43</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G59" s="18"/>
       <c r="H59" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I59" s="18"/>
       <c r="J59" s="8" t="s">
@@ -4131,18 +4125,18 @@
         <v>43</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G60" s="18"/>
       <c r="H60" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I60" s="18"/>
       <c r="J60" s="8" t="s">
@@ -4169,18 +4163,18 @@
         <v>43</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G61" s="18"/>
       <c r="H61" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I61" s="18"/>
       <c r="J61" s="8" t="s">
@@ -4201,46 +4195,46 @@
     </row>
     <row r="62" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E8195D-88E8-DB4C-A7AC-AD7FC5A1FD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C6FC81-69ED-014C-B47B-A65861E713D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19540" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="params" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">params!$A$1:$N$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">params!$A$1:$N$59</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="192">
   <si>
     <t>Parameter</t>
   </si>
@@ -105,12 +105,6 @@
   </si>
   <si>
     <t>log(3)/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logistic regression providing estimates for all years </t>
-  </si>
-  <si>
-    <t>Varies by year</t>
   </si>
   <si>
     <t xml:space="preserve">Annual suppression rate in/after 2003  </t>
@@ -290,26 +284,6 @@
 Constant</t>
   </si>
   <si>
-    <t xml:space="preserve">0
-Normal
-Constant </t>
-  </si>
-  <si>
-    <t>0
-Normal
-Until 2016</t>
-  </si>
-  <si>
-    <t>0
-Normal
-2016-2017</t>
-  </si>
-  <si>
-    <t>0
-Normal
-After 2017</t>
-  </si>
-  <si>
     <t>0.04
 Begins at this value in 1990, interpolates to hiv.specific.mortality.rates.1 from 1990-2005</t>
   </si>
@@ -591,7 +565,8 @@
         <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
-      <t xml:space="preserve">REVIEW THIS </t>
+      <t>REVIEW THIS 
+(calculated from AIDS info data)</t>
     </r>
     <r>
       <rPr>
@@ -602,12 +577,22 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Calculated using the number of individuals starting ART/those off of ART based on data from AIDS info 
-Forecasted for all years; with spline points at 2016 and 2017 to allow for increased engagement rate at the start of universal treatment era 
-(e.g., rate of 2 means people take 6 months to start ART (0.5 year); rate of 0.5 means people take two years) </t>
-    </r>
-  </si>
-  <si>
+Excess mortality rate among PWH with unsuppressed HIV; (e.g., rate of 0.02 means 2/100 people die per year) </t>
+    </r>
+  </si>
+  <si>
+    <t>Annual disengagement rate, unsuppressed</t>
+  </si>
+  <si>
+    <t>Annual disengagement rate, suppressed</t>
+  </si>
+  <si>
+    <t>e.g., rate of 0.2 means people disengage after 5 years [1/0.2 = 5]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Probability derived from literature; converted to rate - </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -615,62 +600,11 @@
         <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
-      <t>REVIEW THIS 
-(calculated from AIDS info data)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Excess mortality rate among PWH with unsuppressed HIV; (e.g., rate of 0.02 means 2/100 people die per year) </t>
-    </r>
-  </si>
-  <si>
-    <t>Engagement rate INTERCEPT multiplier</t>
-  </si>
-  <si>
-    <t>Engagement rate PRE-2016 SLOPE multiplier</t>
-  </si>
-  <si>
-    <t>Engagement rate 2016-2017 SLOPE multiplier</t>
-  </si>
-  <si>
-    <t>Engagement rate POST-2017 SLOPE multiplier</t>
-  </si>
-  <si>
-    <t>Annual disengagement rate, unsuppressed</t>
-  </si>
-  <si>
-    <t>Annual disengagement rate, suppressed</t>
-  </si>
-  <si>
-    <t>e.g., rate of 0.2 means people disengage after 5 years [1/0.2 = 5]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Probability derived from literature; converted to rate - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
       <t>CHECK</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">Annual suppression rate in 1993 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Different spline times for other countries?
-</t>
   </si>
   <si>
     <t>Rate directly from data</t>
@@ -699,22 +633,6 @@
   </si>
   <si>
     <t>Log odds ratio for the slope of the regression model fit to forecast testing rates for all ages; added on the log scale
-0 added on log scale = multiplier of 1 on normal scale</t>
-  </si>
-  <si>
-    <t>Log odds ratio for the intercept of the regression model fit to forecast engagement rates for all ages; added on the log scale  
-0 added on log scale = multiplier of 1 on normal scale</t>
-  </si>
-  <si>
-    <t>Log odds ratio for the pre-2016 slope of the regression model fit to forecast engagement rates for all ages; added on the log scale
-0 added on log scale = multiplier of 1 on normal scale</t>
-  </si>
-  <si>
-    <t>Log odds ratio for the 2016-2017 slope of the regression model fit to forecast engagement rates for all ages; added on the log scale
-0 added on log scale = multiplier of 1 on normal scale</t>
-  </si>
-  <si>
-    <t>Log odds ratio for the post-2017 slope of the regression model fit to forecast engagement rates for all ages; added on the log scale
 0 added on log scale = multiplier of 1 on normal scale</t>
   </si>
   <si>
@@ -736,9 +654,6 @@
 Then projected until 2040</t>
   </si>
   <si>
-    <t>Consider making the regression a spline instead of only for select years - different slope post-spline</t>
-  </si>
-  <si>
     <t xml:space="preserve">45-64 general mortality INTERCEPT multiplier, male </t>
   </si>
   <si>
@@ -854,6 +769,107 @@
     <t>KDHS 2003 (Table 12.10), 2008 (Tables 13.9.1-2), and 2014 (Tables 13.12.1-2)</t>
   </si>
   <si>
+    <t>SA DHS 2003 (Table 5.6), 2016 (Tables 12.4.1-2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ages &lt;50: SA DHS 2003 (Table 5.13), 2016 (Tables 12.2.1-2) 
+Ages 50-80: Mojola et al, 2015 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>See age_mixing.R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Table 3 of De Oliveira: Used Mean diff in age (years) for HIV positive women in male-female clusters</t>
+    </r>
+  </si>
+  <si>
+    <t>Varies by age; linear interpolation between spline points 
+Splines at 2003, 2008, 2014; linear interpolation
+South Africa: using 2003 DHS for 2008 and 2016 DHS for 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate parameter table using "get_engagement_disengagement_projection_and_param_table.R" 
+See country-specific notes and engagement_disengagement_projection.R in each parameter_mappings/country folder; logistic regression based on proportion starting ART in the past 12 months; forecasted for all years based on regressing by year
+(e.g., rate of 2 means people take 6 months to start ART (0.5 year); rate of 0.5 means people take two years) </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Generate parameter table using "get_testing_projection_and_param_table.R"
+See country-specific notes and  testing_projection.R in each parameter_mappings/country folder; logistic regression based on proportion receiving a test  in the past 12 months;  forecasted for all years and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>older age groups</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> based on regressing on age and year
+(e.g., rate of 2 means people tested twice a year; rate of 0.5 means tested every two years)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Varies by year (age age/sex for South Africa) </t>
+  </si>
+  <si>
+    <t>Engagement rate SLOPE multiplier</t>
+  </si>
+  <si>
+    <t>Log odds ratio for the slope of the regression model fit to forecast engagement rates for all ages; added on the log scale; intercept anchored in 1990
+0 added on log scale = multiplier of 1 on normal scale</t>
+  </si>
+  <si>
+    <t>0
+Normal</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>See calculations in parameter_mappings/calculate_death_rates.R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve">
+Consider making the regression a spline instead of only for select years - different slope post-spline</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -898,6 +914,228 @@
 - DHS: 15-19, 20-24, 25-29, 30-39, 40-49
 Percentage who have been tested for HIV in past 12 months and received result </t>
     </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Log linear model, fit the model: 
+fit = glm(log(prop) ~ year), for age &lt;17
+fit = glm(log(prop) ~ year + age + year:age), for age 18+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Years </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- DHS: 2003, 2008, 2016
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Age groups </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- DHS: 15-19, 20-24, 25-29, 30-39, 40-49
+Percentage who have been tested for HIV in past 12 months and received result </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Log linear model, fit the model: 
+fit = glm(log(prop) ~ year), for age &lt;17
+fit = glm(log(prop) ~ year + age + year:age), for age 18+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">AIDS Info: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">data on # PWH on ART (calculated # starting each year)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Years:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2011-2021
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ages:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Total only
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Calculated using the total number of individuals starting ART/those off of ART
+Log linear model, fit the model: 
+fit = glm(log(prop) ~ year)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IeDEA Dashboard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Proportion initiating ART within 12 months after enrollment
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Years:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2010, 2014, 2017 (fixed 1990 at 0)  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Age groups</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 10-19, 20-29, 30-39, 40-49, 50+; by sex
+Log linear model, fit the model: 
+fit = glm(log(prop) ~ year+age+sex)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>CHECK WITH TODD RE: RATE (KEN)  VS. PROPORTION (SA); also testing</t>
+    </r>
   </si>
   <si>
     <r>
@@ -941,7 +1179,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-- DHS: 15-19, 20-24, 25-29, 30-39, 40-49; reference age= 30-39
+- DHS: 15-19, 20-24, 25-29, 30-39, 40-49; reference age = 30-39
 - Mojola et al: 40-49, 50-59, 60-69, 70-79; reference age = 40-49
 </t>
     </r>
@@ -977,95 +1215,6 @@
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Years </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- DHS: 2003, 2008, 2016
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Age groups </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- DHS: 15-19, 20-24, 25-29, 30-39, 40-49
-Percentage who have been tested for HIV in past 12 months and received result </t>
-    </r>
-  </si>
-  <si>
-    <t>SA DHS 2003 (Table 5.6), 2016 (Tables 12.4.1-2)</t>
-  </si>
-  <si>
-    <t>Generate parameter table using "get_testing_projection_and_param_table.R"
-See country-specific notes and  testing_projection.R in each parameter_mappings/country folder; logistic regression based on proportion receiving a test  in the past 12 months;  forecasted for all years and older age groups based on regressing on age and year
-(e.g., rate of 2 means people tested twice a year; rate of 0.5 means tested every two years)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ages &lt;50: SA DHS 2003 (Table 5.13), 2016 (Tables 12.2.1-2) 
-Ages 50-80: Mojola et al, 2015 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IeDEA Dashboard: Proportion initiating ART within 12 months after enrollment; 
-Age groups: 10-19, 20-29, 30-39, 40-49, 50+; by sex
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>See age_mixing.R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Table 3 of De Oliveira: Used Mean diff in age (years) for HIV positive women in male-female clusters</t>
-    </r>
-  </si>
-  <si>
-    <t>Varies by age; linear interpolation between spline points 
-Splines at 2003, 2008, 2014; linear interpolation
-South Africa: using 2003 DHS for 2008 and 2016 DHS for 2014</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Years
 </t>
     </r>
@@ -1098,7 +1247,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-- DHS: 15-19, 20-24, 25-29, 30-39, 40-49; reference age= 30-39 
+- DHS: 15-19, 20-24, 25-29, 30-39, 40-49; reference age = 30-39 
 - Mojola et al: 40-49, 50-59, 60-69, 70-79; reference age = 40-49
 </t>
     </r>
@@ -1930,13 +2079,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B2D996-732D-784F-96EB-809CE760E324}">
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1:N1048576"/>
+      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1945,7 +2094,7 @@
     <col min="2" max="2" width="17.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="32.1640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="37.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38" style="5" customWidth="1"/>
     <col min="6" max="6" width="55" style="5" customWidth="1"/>
     <col min="7" max="8" width="60.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" style="5" hidden="1" customWidth="1"/>
@@ -1962,25 +2111,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C1" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>32</v>
-      </c>
       <c r="E1" s="34" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G1" s="35"/>
       <c r="H1" s="35"/>
       <c r="I1" s="37"/>
       <c r="J1" s="35" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K1" s="43" t="s">
         <v>1</v>
@@ -1996,56 +2145,56 @@
       <c r="D2" s="42"/>
       <c r="E2" s="38"/>
       <c r="F2" s="38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="40" t="s">
         <v>26</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>28</v>
       </c>
       <c r="J2" s="39"/>
       <c r="K2" s="38" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L2" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="40" t="s">
         <v>26</v>
-      </c>
-      <c r="M2" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="40" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="211" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J3" s="26"/>
       <c r="K3" s="26" t="s">
@@ -2066,17 +2215,17 @@
         <v>4</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -2099,28 +2248,28 @@
     </row>
     <row r="5" spans="1:14" ht="204" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H5" s="59" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="I5" s="31"/>
       <c r="J5" s="30" t="s">
@@ -2128,35 +2277,35 @@
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="27" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="N5" s="32"/>
     </row>
     <row r="6" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" s="27"/>
       <c r="F6" s="30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="30" t="s">
@@ -2164,31 +2313,31 @@
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="27" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="N6" s="32"/>
     </row>
     <row r="7" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="50"/>
@@ -2211,22 +2360,22 @@
     </row>
     <row r="8" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="50"/>
@@ -2249,22 +2398,22 @@
     </row>
     <row r="9" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="50"/>
@@ -2287,22 +2436,22 @@
     </row>
     <row r="10" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="50"/>
@@ -2328,19 +2477,19 @@
         <v>6</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -2349,7 +2498,7 @@
         <v>5</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
@@ -2360,25 +2509,25 @@
         <v>7</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="30" t="s">
@@ -2386,31 +2535,31 @@
       </c>
       <c r="K12" s="20"/>
       <c r="L12" s="27" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M12" s="27" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="N12" s="32"/>
     </row>
     <row r="13" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
@@ -2433,23 +2582,23 @@
     </row>
     <row r="14" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
@@ -2458,29 +2607,29 @@
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="27" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="M14" s="31"/>
       <c r="N14" s="32"/>
     </row>
     <row r="15" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -2489,32 +2638,32 @@
         <v>9</v>
       </c>
       <c r="K15" s="30" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="M15" s="27"/>
       <c r="N15" s="29"/>
     </row>
-    <row r="16" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -2523,7 +2672,7 @@
         <v>5</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
@@ -2531,22 +2680,22 @@
     </row>
     <row r="17" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="50"/>
@@ -2569,22 +2718,22 @@
     </row>
     <row r="18" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="50"/>
@@ -2607,22 +2756,22 @@
     </row>
     <row r="19" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="50"/>
@@ -2645,22 +2794,22 @@
     </row>
     <row r="20" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="50"/>
@@ -2683,22 +2832,22 @@
     </row>
     <row r="21" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="50"/>
@@ -2721,22 +2870,22 @@
     </row>
     <row r="22" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="50"/>
@@ -2759,22 +2908,22 @@
     </row>
     <row r="23" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="50"/>
@@ -2797,22 +2946,22 @@
     </row>
     <row r="24" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="50"/>
@@ -2835,22 +2984,22 @@
     </row>
     <row r="25" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="50"/>
@@ -2873,22 +3022,22 @@
     </row>
     <row r="26" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G26" s="18"/>
       <c r="H26" s="50"/>
@@ -2911,22 +3060,22 @@
     </row>
     <row r="27" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="50"/>
@@ -2949,22 +3098,22 @@
     </row>
     <row r="28" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="50"/>
@@ -2987,22 +3136,22 @@
     </row>
     <row r="29" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
@@ -3011,7 +3160,7 @@
         <v>3</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
@@ -3019,20 +3168,20 @@
     </row>
     <row r="30" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="14" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
@@ -3042,27 +3191,27 @@
       </c>
       <c r="K30" s="16"/>
       <c r="L30" s="14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M30" s="14"/>
       <c r="N30" s="15"/>
     </row>
     <row r="31" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="14" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
@@ -3072,27 +3221,27 @@
       </c>
       <c r="K31" s="16"/>
       <c r="L31" s="14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M31" s="14"/>
       <c r="N31" s="15"/>
     </row>
     <row r="32" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="14" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
@@ -3115,20 +3264,20 @@
     </row>
     <row r="33" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="14" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
@@ -3151,20 +3300,20 @@
     </row>
     <row r="34" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="14" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
@@ -3187,20 +3336,20 @@
     </row>
     <row r="35" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -3223,20 +3372,20 @@
     </row>
     <row r="36" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
@@ -3259,20 +3408,20 @@
     </row>
     <row r="37" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="44" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C37" s="46" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D37" s="47"/>
       <c r="E37" s="45" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
@@ -3281,7 +3430,7 @@
         <v>5</v>
       </c>
       <c r="K37" s="51" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="L37" s="36"/>
       <c r="M37" s="36"/>
@@ -3289,22 +3438,22 @@
     </row>
     <row r="38" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C38" s="46" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E38" s="45" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F38" s="44" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
@@ -3327,66 +3476,66 @@
     </row>
     <row r="39" spans="1:14" ht="170" x14ac:dyDescent="0.2">
       <c r="A39" s="44" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F39" s="44" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
       <c r="J39" s="48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K39" s="48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L39" s="44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M39" s="44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N39" s="45" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="44" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E40" s="45" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F40" s="44" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G40" s="44">
         <v>0.25</v>
       </c>
       <c r="H40" s="49" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I40" s="44"/>
       <c r="J40" s="48" t="s">
@@ -3407,26 +3556,26 @@
     </row>
     <row r="41" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="44" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E41" s="45"/>
       <c r="F41" s="44" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G41" s="44">
         <v>0.25</v>
       </c>
       <c r="H41" s="49" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I41" s="44"/>
       <c r="J41" s="48" t="s">
@@ -3447,26 +3596,26 @@
     </row>
     <row r="42" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C42" s="46" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="44" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G42" s="44">
         <v>2</v>
       </c>
       <c r="H42" s="49" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I42" s="44"/>
       <c r="J42" s="48" t="s">
@@ -3487,26 +3636,26 @@
     </row>
     <row r="43" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E43" s="45"/>
       <c r="F43" s="44" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G43" s="44">
         <v>2</v>
       </c>
       <c r="H43" s="49" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I43" s="44"/>
       <c r="J43" s="48" t="s">
@@ -3527,26 +3676,26 @@
     </row>
     <row r="44" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E44" s="45"/>
       <c r="F44" s="44" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G44" s="44">
         <v>2</v>
       </c>
       <c r="H44" s="49" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I44" s="44"/>
       <c r="J44" s="48" t="s">
@@ -3567,30 +3716,30 @@
     </row>
     <row r="45" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E45" s="45"/>
       <c r="F45" s="44" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G45" s="44">
         <v>1</v>
       </c>
       <c r="H45" s="49" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I45" s="44"/>
       <c r="J45" s="48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K45" s="48" t="s">
         <v>2</v>
@@ -3607,28 +3756,28 @@
     </row>
     <row r="46" spans="1:14" ht="276" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G46" s="60" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H46" s="60" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="I46" s="31"/>
       <c r="J46" s="8" t="s">
@@ -3636,31 +3785,31 @@
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="6" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="N46" s="32"/>
     </row>
     <row r="47" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
@@ -3683,22 +3832,22 @@
     </row>
     <row r="48" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
@@ -3719,30 +3868,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="214" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="227" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="31" t="s">
-        <v>198</v>
+        <v>181</v>
+      </c>
+      <c r="G49" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="H49" s="60" t="s">
+        <v>189</v>
       </c>
       <c r="I49" s="31"/>
       <c r="J49" s="8" t="s">
@@ -3750,34 +3899,32 @@
       </c>
       <c r="K49" s="20"/>
       <c r="L49" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M49" s="31"/>
       <c r="N49" s="32"/>
     </row>
-    <row r="50" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="G50" s="18"/>
-      <c r="H50" s="57" t="s">
-        <v>135</v>
-      </c>
+      <c r="H50" s="57"/>
       <c r="I50" s="18"/>
       <c r="J50" s="8" t="s">
         <v>3</v>
@@ -3795,147 +3942,125 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G51" s="18"/>
-      <c r="H51" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="I51" s="18"/>
+        <v>101</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0.1392621</v>
+      </c>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
       <c r="J51" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K51" s="8" t="s">
-        <v>2</v>
-      </c>
+      <c r="K51" s="20"/>
       <c r="L51" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N51" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="M51" s="31"/>
+      <c r="N51" s="32"/>
+    </row>
+    <row r="52" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>147</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E52" s="7"/>
       <c r="F52" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G52" s="18"/>
-      <c r="H52" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="I52" s="18"/>
+        <v>101</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0.1025866</v>
+      </c>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
       <c r="J52" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="8" t="s">
-        <v>2</v>
-      </c>
+      <c r="K52" s="20"/>
       <c r="L52" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M52" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N52" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="M52" s="31"/>
+      <c r="N52" s="32"/>
+    </row>
+    <row r="53" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>148</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E53" s="7"/>
       <c r="F53" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G53" s="18"/>
-      <c r="H53" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="I53" s="18"/>
+        <v>102</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0.67328849999999996</v>
+      </c>
+      <c r="H53" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="I53" s="31"/>
       <c r="J53" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K53" s="8" t="s">
-        <v>2</v>
-      </c>
+      <c r="K53" s="20"/>
       <c r="L53" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N53" s="7" t="s">
-        <v>2</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="M53" s="31"/>
+      <c r="N53" s="32"/>
     </row>
     <row r="54" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>132</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E54" s="7"/>
       <c r="F54" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G54" s="6">
-        <v>0.1392621</v>
+        <v>0.67328849999999996</v>
       </c>
       <c r="H54" s="31"/>
       <c r="I54" s="31"/>
@@ -3944,30 +4069,30 @@
       </c>
       <c r="K54" s="20"/>
       <c r="L54" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M54" s="31"/>
       <c r="N54" s="32"/>
     </row>
     <row r="55" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G55" s="6">
-        <v>0.1025866</v>
+        <v>0.1971601</v>
       </c>
       <c r="H55" s="31"/>
       <c r="I55" s="31"/>
@@ -3976,265 +4101,167 @@
       </c>
       <c r="K55" s="20"/>
       <c r="L55" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M55" s="31"/>
       <c r="N55" s="32"/>
     </row>
     <row r="56" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>133</v>
+        <v>41</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G56" s="6">
-        <v>0.67328849999999996</v>
-      </c>
-      <c r="H56" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="I56" s="31"/>
+        <v>55</v>
+      </c>
+      <c r="G56" s="18"/>
+      <c r="H56" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="I56" s="18"/>
       <c r="J56" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K56" s="20"/>
+      <c r="K56" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="L56" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="M56" s="31"/>
-      <c r="N56" s="32"/>
-    </row>
-    <row r="57" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N56" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>133</v>
+        <v>41</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G57" s="6">
-        <v>0.67328849999999996</v>
-      </c>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
+        <v>55</v>
+      </c>
+      <c r="G57" s="18"/>
+      <c r="H57" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="I57" s="18"/>
       <c r="J57" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="20"/>
+      <c r="K57" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="L57" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="M57" s="31"/>
-      <c r="N57" s="32"/>
-    </row>
-    <row r="58" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N57" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>133</v>
+        <v>41</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G58" s="6">
-        <v>0.1971601</v>
-      </c>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
+        <v>55</v>
+      </c>
+      <c r="G58" s="18"/>
+      <c r="H58" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="I58" s="18"/>
       <c r="J58" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="20"/>
+        <v>15</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="L58" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M58" s="31"/>
-      <c r="N58" s="32"/>
-    </row>
-    <row r="59" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G59" s="18"/>
-      <c r="H59" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="I59" s="18"/>
-      <c r="J59" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L59" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M59" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N59" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G60" s="18"/>
-      <c r="H60" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="I60" s="18"/>
-      <c r="J60" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L60" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M60" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N60" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G61" s="18"/>
-      <c r="H61" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="I61" s="18"/>
-      <c r="J61" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K61" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L61" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M61" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N61" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J62" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="K62" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="L62" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="M62" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="N62" s="5" t="s">
-        <v>103</v>
+        <v>2</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N58" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C6FC81-69ED-014C-B47B-A65861E713D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24E866B-F875-0B42-A123-F8603BE66527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19540" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="193">
   <si>
     <t>Parameter</t>
   </si>
@@ -188,19 +188,994 @@
     <t>Transmission rates</t>
   </si>
   <si>
-    <t>SD of r0:r1 ratio = log(4)/2
-SD of r1:r2 ratio = log(4)/2
-SD of r2 = log(4)/2
-SD of r3:r2 ratio = log(4)/2
-SD of r4:r3 ratio = log(4)/2</t>
-  </si>
-  <si>
-    <t>Joint lognormal distribution: 
-Trate.0 = 8 * trate.1
-Trate.1 (1997) = 1 * trate.2
-Trate.2 (2008) = 0.1
-Trate.3 (2018) = 1 * trate.2
-Trate.4 (2030) = 1 *  trate.3
+    <t>Parameter category</t>
+  </si>
+  <si>
+    <t>Transmission</t>
+  </si>
+  <si>
+    <t>Cascade</t>
+  </si>
+  <si>
+    <t>General mortality</t>
+  </si>
+  <si>
+    <t>HIV-specific mortality</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Age 15-19 aging rate multiplier</t>
+  </si>
+  <si>
+    <t>Age 20-24 aging rate multiplier</t>
+  </si>
+  <si>
+    <t>Age 25-50 aging rate multiplier</t>
+  </si>
+  <si>
+    <t>Over age 50 aging rate multiplier</t>
+  </si>
+  <si>
+    <t>Estimate/ functional form/time</t>
+  </si>
+  <si>
+    <t>1
+Lognormal
+Constant</t>
+  </si>
+  <si>
+    <t>Varies by age; linear interpolation between spline points
+Splines at 2003, 2008, 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1
+Lognormal
+4 separate multipliers at trate times: 1990, 1997, 2008, 2018 </t>
+  </si>
+  <si>
+    <t>0.33
+Constant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varies by age/sex
+Constant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1
+Lognormal
+Constant </t>
+  </si>
+  <si>
+    <t>0.42
+Logitnormal
+Begins at this value in 1990, interpolates to birth.transmission.risk.1 from 1990-2020</t>
+  </si>
+  <si>
+    <t>0.3
+Logitnormal
+Arrives at this value in 2020, constant after</t>
+  </si>
+  <si>
+    <t>0
+Normal
+Constant</t>
+  </si>
+  <si>
+    <t>0.04
+Begins at this value in 1990, interpolates to hiv.specific.mortality.rates.1 from 1990-2005</t>
+  </si>
+  <si>
+    <t>0.07
+Arrives at this value in 2005, interpolates to hiv.specific.mortality.rates.2 from 2005-2020</t>
+  </si>
+  <si>
+    <t>0.018
+Arrives at this value in 2020, constant after</t>
+  </si>
+  <si>
+    <t>1
+Lognormal
+3 separate multipliers at HIV mortality times: 1990, 2005, 2030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1
+Constant </t>
+  </si>
+  <si>
+    <t>1/(age range in bracket)
+Constant</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>All countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De Oliveira et al 2017 </t>
+  </si>
+  <si>
+    <t>De Oliveira et al 2017</t>
+  </si>
+  <si>
+    <t>Marks et al 2005, Marks et al 2006</t>
+  </si>
+  <si>
+    <t>Kenya eMTCT Framework 2016-2021 - NOT REALLY; THIS IS A GLOBAL ESTIMATE</t>
+  </si>
+  <si>
+    <t>Dabis et al, 1995</t>
+  </si>
+  <si>
+    <t>"In the absence of intervention, the rate of transmission of HIV from a mother living with HIV to her child during pregnancy, labour, delivery or breastfeeding ranges from 15% to 45%."</t>
+  </si>
+  <si>
+    <t>AIDSinfo</t>
+  </si>
+  <si>
+    <t>Lee et al</t>
+  </si>
+  <si>
+    <t>Njuguna et al</t>
+  </si>
+  <si>
+    <t>Maina et al</t>
+  </si>
+  <si>
+    <t>AIDSinfo (global values)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ages &lt;50: Kenya DHS 2003 (Table 12.12), 2008 (Table 13.7.1), 2014 (Table 13.9.1)
+Ages 50-80: Mojola et al, 2015 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ages &lt;50: Kenya DHS 2003 (Table 12.12), 2008 (Table 13.7.2), 2014 (Table 13.9.2)
+Ages 50-80: Mojola et al, 2015 </t>
+  </si>
+  <si>
+    <t>15-19 vs 30-39 transmission multiplier</t>
+  </si>
+  <si>
+    <t>40-49 vs 30-39 transmission multiplier</t>
+  </si>
+  <si>
+    <t>20-29 vs 30-39 transmission multiplier</t>
+  </si>
+  <si>
+    <t>50+ vs 30-39 transmission multiplier</t>
+  </si>
+  <si>
+    <t>Lower probability of transmission just by knowing diagnoses; used a US-based estimate</t>
+  </si>
+  <si>
+    <t>https://www.who.int/teams/global-hiv-hepatitis-and-stis-programmes/hiv/prevention/mother-to-child-transmission-of-hiv</t>
+  </si>
+  <si>
+    <t>Dispersion of age of sexual partnerships</t>
+  </si>
+  <si>
+    <t>Inverse multiplier for standard deviation of age mixing proportion matrix by age, i.e., higher age assortativity --&gt; smaller standard deviation allowed (mean partner age difference more tightly enforced)  
+Applied in "age_sex_mixing_proportions.R"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unsuppressed maternal-fetal transmission risk in 1990 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of babies born to UNSUPPRESSED mothers living with HIV who become infected;  historial (pre-ART era) 
+Table 1 estimate for Kenya: 42% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unsuppressed maternal-fetal transmission risk in 2020 </t>
+  </si>
+  <si>
+    <t>Annual testing rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiplier of transmission for  15-19 vs  30-39; in addition to female and male age multipliers  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiplier of transmission for  20-29 vs  30-39; in addition to female and male age multipliers  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiplier of transmission for  40-49 vs  30-39; in addition to female and male age multipliers  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiplier of transmission for 50+ vs  30-39; in addition to female and male age multipliers  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD of prior </t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May change spline times or SD of prior for these </t>
+  </si>
+  <si>
+    <t>(from de Oliveira)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varies by age, sex, and year
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lognormal
+Constant </t>
+  </si>
+  <si>
+    <t>Lognormal
+Begins at this value in 1993, interpolates to suppression.rate.1 from 1993-2003</t>
+  </si>
+  <si>
+    <t>Lognormal
+Arrives at this value in 2003, constant after</t>
+  </si>
+  <si>
+    <t>Country-specific deaths data (UN)</t>
+  </si>
+  <si>
+    <t>Annual HIV-specific mortality rate in 1990</t>
+  </si>
+  <si>
+    <t>Rate at which individuals age out of each age bracket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a default, this is set to the inverse of the number of years in the age bracket, meaning that individuals are equally distributed throughout the age bracket (e.g., we would expect that 1/5 of the individuals in the 15-19 age bracket are 19-year-olds and therefore 1/5 will age out each year). We allow this to vary for certain age groups in acknowledgement that some age brackets are not evenly distributed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Lognormal
+Constant</t>
+  </si>
+  <si>
+    <t>Change these?</t>
+  </si>
+  <si>
+    <t>Lognormal
+Low time: 2020; High time: (low time + age span)</t>
+  </si>
+  <si>
+    <t>Lognormal
+Low time: 2000; High time: (low time + age span)</t>
+  </si>
+  <si>
+    <t>Lognormal
+Low time: 1996; High time: (low time + age span)</t>
+  </si>
+  <si>
+    <t>Lognormal
+Low time: 1992; High time: (low time + age span)</t>
+  </si>
+  <si>
+    <t>Testing rate INTERCEPT multiplier</t>
+  </si>
+  <si>
+    <t>Testing rate SLOPE multiplier</t>
+  </si>
+  <si>
+    <t>Annual engagement rate</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>REVIEW THIS 
+(calculated from AIDS info data)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Excess mortality rate among PWH with unsuppressed HIV; (e.g., rate of 0.02 means 2/100 people die per year) </t>
+    </r>
+  </si>
+  <si>
+    <t>Annual disengagement rate, unsuppressed</t>
+  </si>
+  <si>
+    <t>Annual disengagement rate, suppressed</t>
+  </si>
+  <si>
+    <t>e.g., rate of 0.2 means people disengage after 5 years [1/0.2 = 5]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Probability derived from literature; converted to rate - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>CHECK</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual suppression rate in 1993 </t>
+  </si>
+  <si>
+    <t>Rate directly from data</t>
+  </si>
+  <si>
+    <t>Age-specific fertility rates reported directly from UN/WPP; in 5-year age groups from 15-49; and 5-year calendar time from 1950-55 through 2100</t>
+  </si>
+  <si>
+    <t>Directly pulled from UN/WPP projections</t>
+  </si>
+  <si>
+    <t>UN/WPP</t>
+  </si>
+  <si>
+    <t>Fertility rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single tuning parameter applied to all age groups </t>
+  </si>
+  <si>
+    <t>Multiplier</t>
+  </si>
+  <si>
+    <t>Log odds ratio for the intercept of the regression model fit to forecast testing rates for all ages; added on the log scale 
+0 added on log scale = multiplier of 1 on normal scale</t>
+  </si>
+  <si>
+    <t>Log odds ratio for the slope of the regression model fit to forecast testing rates for all ages; added on the log scale
+0 added on log scale = multiplier of 1 on normal scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampled rate </t>
+  </si>
+  <si>
+    <t>Calculated from span of age bracket</t>
+  </si>
+  <si>
+    <t>Probability calculated from deaths data; projected using regression</t>
+  </si>
+  <si>
+    <t>Might have age/sex data for South Africa</t>
+  </si>
+  <si>
+    <t>Calculated as a regression fit to deaths data from 1950-1987 and 2008-2019 (to remove AIDS and COVID deaths)
+Log linear model - for each stratum of age*sex, fit the model: 
+fit = lm(log(rates) ~ years)
+Then projected until 2040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45-64 general mortality INTERCEPT multiplier, male </t>
+  </si>
+  <si>
+    <t>45-64 general mortality SLOPE multiplier, male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65-79 general mortality INTERCEPT multiplier, male </t>
+  </si>
+  <si>
+    <t>65-79 general mortality SLOPE multiplier, male</t>
+  </si>
+  <si>
+    <t>80+ general mortality INTERCEPT multiplier, male</t>
+  </si>
+  <si>
+    <t>80+ general mortality SLOPE multiplier, male</t>
+  </si>
+  <si>
+    <t>Multiplier for the INTERCEPT of the regression model fit to smooth/forecast mortality for age 45-64, male</t>
+  </si>
+  <si>
+    <t>Multiplier for the SLOPE of the regression model fit to smooth/forecast mortality for age 45-64, male</t>
+  </si>
+  <si>
+    <t>Multiplier for the INTERCEPT of the regression model fit to smooth/forecast mortality for age 65-79, male</t>
+  </si>
+  <si>
+    <t>Multiplier for the SLOPE of the regression model fit to smooth/forecast mortality for age 65-79, male</t>
+  </si>
+  <si>
+    <t>Multiplier for the INTERCEPT of the regression model fit to smooth/forecast mortality for age 80+, male</t>
+  </si>
+  <si>
+    <t>Multiplier for the SLOPE of the regression model fit to smooth/forecast mortality for age 80+, male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45-64 general mortality INTERCEPT multiplier, female </t>
+  </si>
+  <si>
+    <t>45-64 general mortality SLOPE multiplier, female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65-79 general mortality INTERCEPT multiplier, female </t>
+  </si>
+  <si>
+    <t>65-79 general mortality SLOPE multiplier, female</t>
+  </si>
+  <si>
+    <t>80+ general mortality INTERCEPT multiplier, female</t>
+  </si>
+  <si>
+    <t>80+ general mortality SLOPE multiplier, female</t>
+  </si>
+  <si>
+    <t>Multiplier for the INTERCEPT of the regression model fit to smooth/forecast mortality for age 45-64, female</t>
+  </si>
+  <si>
+    <t>Multiplier for the SLOPE of the regression model fit to smooth/forecast mortality for age 45-64, female</t>
+  </si>
+  <si>
+    <t>Multiplier for the INTERCEPT of the regression model fit to smooth/forecast mortality for age 65-79, female</t>
+  </si>
+  <si>
+    <t>Multiplier for the SLOPE of the regression model fit to smooth/forecast mortality for age 65-79, female</t>
+  </si>
+  <si>
+    <t>Multiplier for the INTERCEPT of the regression model fit to smooth/forecast mortality for age 80+, female</t>
+  </si>
+  <si>
+    <t>Multiplier for the SLOPE of the regression model fit to smooth/forecast mortality for age 80+, female</t>
+  </si>
+  <si>
+    <t>1
+Lognormal
+2 separate multipliers at HIV mortality times: 2005, 2030</t>
+  </si>
+  <si>
+    <t>1
+Lognormal
+Split up youngest age group into 0-4 and 5-14 in 1990 only</t>
+  </si>
+  <si>
+    <t>0-4 HIV-specific mortality multiplier, 1990</t>
+  </si>
+  <si>
+    <t>0-14 HIV-specific mortality</t>
+  </si>
+  <si>
+    <t>15-24 HIV-specific mortality</t>
+  </si>
+  <si>
+    <t>50+ HIV-specific mortality</t>
+  </si>
+  <si>
+    <t>5-14 HIV-specific mortality multiplier, 1990</t>
+  </si>
+  <si>
+    <t>Relative risk of transmission by age group, female</t>
+  </si>
+  <si>
+    <t>(same as female)</t>
+  </si>
+  <si>
+    <t>Relative risk of transmission by age group, male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See country-specific notes and  transmission_multipliers.R in each parameter_mappings/country folder; each of these calculated as some probability of high-risk sex; relative to a reference age group </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(same as female) </t>
+  </si>
+  <si>
+    <t>KDHS 2003 (Table 12.10), 2008 (Tables 13.9.1-2), and 2014 (Tables 13.12.1-2)</t>
+  </si>
+  <si>
+    <t>SA DHS 2003 (Table 5.6), 2016 (Tables 12.4.1-2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ages &lt;50: SA DHS 2003 (Table 5.13), 2016 (Tables 12.2.1-2) 
+Ages 50-80: Mojola et al, 2015 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>See age_mixing.R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Table 3 of De Oliveira: Used Mean diff in age (years) for HIV positive women in male-female clusters</t>
+    </r>
+  </si>
+  <si>
+    <t>Varies by age; linear interpolation between spline points 
+Splines at 2003, 2008, 2014; linear interpolation
+South Africa: using 2003 DHS for 2008 and 2016 DHS for 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate parameter table using "get_engagement_disengagement_projection_and_param_table.R" 
+See country-specific notes and engagement_disengagement_projection.R in each parameter_mappings/country folder; logistic regression based on proportion starting ART in the past 12 months; forecasted for all years based on regressing by year
+(e.g., rate of 2 means people take 6 months to start ART (0.5 year); rate of 0.5 means people take two years) </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Generate parameter table using "get_testing_projection_and_param_table.R"
+See country-specific notes and  testing_projection.R in each parameter_mappings/country folder; logistic regression based on proportion receiving a test  in the past 12 months;  forecasted for all years and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>older age groups</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> based on regressing on age and year
+(e.g., rate of 2 means people tested twice a year; rate of 0.5 means tested every two years)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Varies by year (age age/sex for South Africa) </t>
+  </si>
+  <si>
+    <t>Engagement rate SLOPE multiplier</t>
+  </si>
+  <si>
+    <t>Log odds ratio for the slope of the regression model fit to forecast engagement rates for all ages; added on the log scale; intercept anchored in 1990
+0 added on log scale = multiplier of 1 on normal scale</t>
+  </si>
+  <si>
+    <t>0
+Normal</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>See calculations in parameter_mappings/calculate_death_rates.R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve">
+Consider making the regression a spline instead of only for select years - different slope post-spline</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Years </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- DHS: 2003, 2008, 2014
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Age groups </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- DHS: 15-19, 20-24, 25-29, 30-39, 40-49
+Percentage who have been tested for HIV in past 12 months and received result </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Log linear model, fit the model: 
+fit = glm(log(prop) ~ year), for age &lt;17
+fit = glm(log(prop) ~ year + age + year:age), for age 18+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Years </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- DHS: 2003, 2008, 2016
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Age groups </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- DHS: 15-19, 20-24, 25-29, 30-39, 40-49
+Percentage who have been tested for HIV in past 12 months and received result </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Log linear model, fit the model: 
+fit = glm(log(prop) ~ year), for age &lt;17
+fit = glm(log(prop) ~ year + age + year:age), for age 18+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">AIDS Info: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">data on # PWH on ART (calculated # starting each year)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Years:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2011-2021
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ages:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Total only
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Calculated using the total number of individuals starting ART/those off of ART
+Log linear model, fit the model: 
+fit = glm(log(prop) ~ year)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IeDEA Dashboard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Proportion initiating ART within 12 months after enrollment
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Years:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2010, 2014, 2017 (fixed 1990 at 0)  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Age groups</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 10-19, 20-29, 30-39, 40-49, 50+; by sex
+Log linear model, fit the model: 
+fit = glm(log(prop) ~ year+age+sex)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>CHECK WITH TODD RE: RATE (KEN)  VS. PROPORTION (SA); also testing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Years </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- DHS: 2003, 2008, 2014
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Age groups </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- DHS: 15-19, 20-24, 25-29, 30-39, 40-49; reference age = 30-39
+- Mojola et al: 40-49, 50-59, 60-69, 70-79; reference age = 40-49
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Calculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- DHS: (proportion with multiple partners or proportion high risk sex)* (proportion of condomless sex at last high risk sex)
+- Mojola: (proportion high risk sex)*(1-condom use among high risk sex) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Years
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- DHS: 2003, 2016 (using 2003 estimates for 2003 and 2008 spline points; 2016 estimates for 2014 spline point) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Age groups</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- DHS: 15-19, 20-24, 25-29, 30-39, 40-49; reference age = 30-39 
+- Mojola et al: 40-49, 50-59, 60-69, 70-79; reference age = 40-49
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Calculation: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- DHS: (proportion with multiple partners or proportion high risk sex)* (proportion of condomless sex at last high risk sex)
+- Mojola: (proportion high risk sex)*(1-condom use among high risk sex)</t>
+    </r>
+  </si>
+  <si>
+    <t>Joint lognormal distribution
 Time: 
 Constant 1975-1990, interpolates to trate.1 from 1990-1997
 Arrives at trate.1 in 1997, interpolates to trate.2 from 1997-2008 
@@ -209,245 +1184,13 @@
 Arrives at trate.4 in 2030, constant after</t>
   </si>
   <si>
-    <t>Parameter category</t>
-  </si>
-  <si>
-    <t>Transmission</t>
-  </si>
-  <si>
-    <t>Cascade</t>
-  </si>
-  <si>
-    <t>General mortality</t>
-  </si>
-  <si>
-    <t>HIV-specific mortality</t>
-  </si>
-  <si>
-    <t>Population</t>
-  </si>
-  <si>
-    <t>Age 15-19 aging rate multiplier</t>
-  </si>
-  <si>
-    <t>Age 20-24 aging rate multiplier</t>
-  </si>
-  <si>
-    <t>Age 25-50 aging rate multiplier</t>
-  </si>
-  <si>
-    <t>Over age 50 aging rate multiplier</t>
-  </si>
-  <si>
-    <t>Estimate/ functional form/time</t>
-  </si>
-  <si>
-    <t>1
-Lognormal
-Constant</t>
-  </si>
-  <si>
-    <t>Varies by age; linear interpolation between spline points
-Splines at 2003, 2008, 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1
-Lognormal
-4 separate multipliers at trate times: 1990, 1997, 2008, 2018 </t>
-  </si>
-  <si>
-    <t>0.33
-Constant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varies by age/sex
-Constant </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1
-Lognormal
-Constant </t>
-  </si>
-  <si>
-    <t>0.42
-Logitnormal
-Begins at this value in 1990, interpolates to birth.transmission.risk.1 from 1990-2020</t>
-  </si>
-  <si>
-    <t>0.3
-Logitnormal
-Arrives at this value in 2020, constant after</t>
-  </si>
-  <si>
-    <t>0
-Normal
-Constant</t>
-  </si>
-  <si>
-    <t>0.04
-Begins at this value in 1990, interpolates to hiv.specific.mortality.rates.1 from 1990-2005</t>
-  </si>
-  <si>
-    <t>0.07
-Arrives at this value in 2005, interpolates to hiv.specific.mortality.rates.2 from 2005-2020</t>
-  </si>
-  <si>
-    <t>0.018
-Arrives at this value in 2020, constant after</t>
-  </si>
-  <si>
-    <t>1
-Lognormal
-3 separate multipliers at HIV mortality times: 1990, 2005, 2030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1
-Constant </t>
-  </si>
-  <si>
-    <t>1/(age range in bracket)
-Constant</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>All countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De Oliveira et al 2017 </t>
-  </si>
-  <si>
-    <t>De Oliveira et al 2017</t>
-  </si>
-  <si>
-    <t>Marks et al 2005, Marks et al 2006</t>
-  </si>
-  <si>
-    <t>Kenya eMTCT Framework 2016-2021 - NOT REALLY; THIS IS A GLOBAL ESTIMATE</t>
-  </si>
-  <si>
-    <t>Dabis et al, 1995</t>
-  </si>
-  <si>
-    <t>"In the absence of intervention, the rate of transmission of HIV from a mother living with HIV to her child during pregnancy, labour, delivery or breastfeeding ranges from 15% to 45%."</t>
-  </si>
-  <si>
-    <t>AIDSinfo</t>
-  </si>
-  <si>
-    <t>Lee et al</t>
-  </si>
-  <si>
-    <t>Njuguna et al</t>
-  </si>
-  <si>
-    <t>Maina et al</t>
-  </si>
-  <si>
-    <t>AIDSinfo (global values)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ages &lt;50: Kenya DHS 2003 (Table 12.12), 2008 (Table 13.7.1), 2014 (Table 13.9.1)
-Ages 50-80: Mojola et al, 2015 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ages &lt;50: Kenya DHS 2003 (Table 12.12), 2008 (Table 13.7.2), 2014 (Table 13.9.2)
-Ages 50-80: Mojola et al, 2015 </t>
-  </si>
-  <si>
-    <t>15-19 vs 30-39 transmission multiplier</t>
-  </si>
-  <si>
-    <t>40-49 vs 30-39 transmission multiplier</t>
-  </si>
-  <si>
-    <t>20-29 vs 30-39 transmission multiplier</t>
-  </si>
-  <si>
-    <t>50+ vs 30-39 transmission multiplier</t>
-  </si>
-  <si>
-    <t>Lower probability of transmission just by knowing diagnoses; used a US-based estimate</t>
-  </si>
-  <si>
-    <t>https://www.who.int/teams/global-hiv-hepatitis-and-stis-programmes/hiv/prevention/mother-to-child-transmission-of-hiv</t>
-  </si>
-  <si>
-    <t>Dispersion of age of sexual partnerships</t>
-  </si>
-  <si>
-    <t>Inverse multiplier for standard deviation of age mixing proportion matrix by age, i.e., higher age assortativity --&gt; smaller standard deviation allowed (mean partner age difference more tightly enforced)  
-Applied in "age_sex_mixing_proportions.R"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unsuppressed maternal-fetal transmission risk in 1990 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of babies born to UNSUPPRESSED mothers living with HIV who become infected;  historial (pre-ART era) 
-Table 1 estimate for Kenya: 42% </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unsuppressed maternal-fetal transmission risk in 2020 </t>
-  </si>
-  <si>
-    <t>Annual testing rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiplier of transmission for  15-19 vs  30-39; in addition to female and male age multipliers  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiplier of transmission for  20-29 vs  30-39; in addition to female and male age multipliers  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiplier of transmission for  40-49 vs  30-39; in addition to female and male age multipliers  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiplier of transmission for 50+ vs  30-39; in addition to female and male age multipliers  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD of prior </t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May change spline times or SD of prior for these </t>
-  </si>
-  <si>
-    <t>(from de Oliveira)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varies by age, sex, and year
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lognormal
-Constant </t>
-  </si>
-  <si>
-    <t>Lognormal
-Begins at this value in 1993, interpolates to suppression.rate.1 from 1993-2003</t>
-  </si>
-  <si>
-    <t>Lognormal
-Arrives at this value in 2003, constant after</t>
-  </si>
-  <si>
-    <t>Country-specific deaths data (UN)</t>
-  </si>
-  <si>
-    <t>Annual HIV-specific mortality rate in 1990</t>
-  </si>
-  <si>
-    <t>Rate at which individuals age out of each age bracket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a default, this is set to the inverse of the number of years in the age bracket, meaning that individuals are equally distributed throughout the age bracket (e.g., we would expect that 1/5 of the individuals in the 15-19 age bracket are 19-year-olds and therefore 1/5 will age out each year). We allow this to vary for certain age groups in acknowledgement that some age brackets are not evenly distributed. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SD of r0:r1 ratio = </t>
+    <r>
+      <t xml:space="preserve">Trate.0 = 8 * trate.1
+Trate.1 (1997) = 1 * trate.2
+Trate.2 (2008) = 0.1
+Trate.3 (2018) = 1 * trate.2
+Trate.4 (2030) = 1 *  trate.3
+SD of r0:r1 ratio = </t>
     </r>
     <r>
       <rPr>
@@ -525,48 +1268,18 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">
-Lognormal
-Constant</t>
-  </si>
-  <si>
-    <t>Change these?</t>
-  </si>
-  <si>
-    <t>Lognormal
-Low time: 2020; High time: (low time + age span)</t>
-  </si>
-  <si>
-    <t>Lognormal
-Low time: 2000; High time: (low time + age span)</t>
-  </si>
-  <si>
-    <t>Lognormal
-Low time: 1996; High time: (low time + age span)</t>
-  </si>
-  <si>
-    <t>Lognormal
-Low time: 1992; High time: (low time + age span)</t>
-  </si>
-  <si>
-    <t>Testing rate INTERCEPT multiplier</t>
-  </si>
-  <si>
-    <t>Testing rate SLOPE multiplier</t>
-  </si>
-  <si>
-    <t>Annual engagement rate</t>
-  </si>
-  <si>
+    <r>
+      <t xml:space="preserve">Trate.0 = </t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
-      <t>REVIEW THIS 
-(calculated from AIDS info data)</t>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -576,213 +1289,52 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-Excess mortality rate among PWH with unsuppressed HIV; (e.g., rate of 0.02 means 2/100 people die per year) </t>
-    </r>
-  </si>
-  <si>
-    <t>Annual disengagement rate, unsuppressed</t>
-  </si>
-  <si>
-    <t>Annual disengagement rate, suppressed</t>
-  </si>
-  <si>
-    <t>e.g., rate of 0.2 means people disengage after 5 years [1/0.2 = 5]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Probability derived from literature; converted to rate - </t>
+      <t xml:space="preserve"> * trate.1
+Trate.1 (1997) = 1 * trate.2
+Trate.2 (2008) = 0.1
+Trate.3 (2018) = 1 * trate.2
+Trate.4 (2030) = 1 *  trate.3
+SD of r0:r1 ratio = log(4)/2
+SD of r1:r2 ratio = log(4)/2
+SD of r2 = log(4)/2
+SD of r3:r2 ratio = log(4)/2
+SD of r4:r3 ratio = log(4)/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trate.0 = </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
-      <t>CHECK</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Annual suppression rate in 1993 </t>
-  </si>
-  <si>
-    <t>Rate directly from data</t>
-  </si>
-  <si>
-    <t>Age-specific fertility rates reported directly from UN/WPP; in 5-year age groups from 15-49; and 5-year calendar time from 1950-55 through 2100</t>
-  </si>
-  <si>
-    <t>Directly pulled from UN/WPP projections</t>
-  </si>
-  <si>
-    <t>UN/WPP</t>
-  </si>
-  <si>
-    <t>Fertility rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single tuning parameter applied to all age groups </t>
-  </si>
-  <si>
-    <t>Multiplier</t>
-  </si>
-  <si>
-    <t>Log odds ratio for the intercept of the regression model fit to forecast testing rates for all ages; added on the log scale 
-0 added on log scale = multiplier of 1 on normal scale</t>
-  </si>
-  <si>
-    <t>Log odds ratio for the slope of the regression model fit to forecast testing rates for all ages; added on the log scale
-0 added on log scale = multiplier of 1 on normal scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sampled rate </t>
-  </si>
-  <si>
-    <t>Calculated from span of age bracket</t>
-  </si>
-  <si>
-    <t>Probability calculated from deaths data; projected using regression</t>
-  </si>
-  <si>
-    <t>Might have age/sex data for South Africa</t>
-  </si>
-  <si>
-    <t>Calculated as a regression fit to deaths data from 1950-1987 and 2008-2019 (to remove AIDS and COVID deaths)
-Log linear model - for each stratum of age*sex, fit the model: 
-fit = lm(log(rates) ~ years)
-Then projected until 2040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45-64 general mortality INTERCEPT multiplier, male </t>
-  </si>
-  <si>
-    <t>45-64 general mortality SLOPE multiplier, male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65-79 general mortality INTERCEPT multiplier, male </t>
-  </si>
-  <si>
-    <t>65-79 general mortality SLOPE multiplier, male</t>
-  </si>
-  <si>
-    <t>80+ general mortality INTERCEPT multiplier, male</t>
-  </si>
-  <si>
-    <t>80+ general mortality SLOPE multiplier, male</t>
-  </si>
-  <si>
-    <t>Multiplier for the INTERCEPT of the regression model fit to smooth/forecast mortality for age 45-64, male</t>
-  </si>
-  <si>
-    <t>Multiplier for the SLOPE of the regression model fit to smooth/forecast mortality for age 45-64, male</t>
-  </si>
-  <si>
-    <t>Multiplier for the INTERCEPT of the regression model fit to smooth/forecast mortality for age 65-79, male</t>
-  </si>
-  <si>
-    <t>Multiplier for the SLOPE of the regression model fit to smooth/forecast mortality for age 65-79, male</t>
-  </si>
-  <si>
-    <t>Multiplier for the INTERCEPT of the regression model fit to smooth/forecast mortality for age 80+, male</t>
-  </si>
-  <si>
-    <t>Multiplier for the SLOPE of the regression model fit to smooth/forecast mortality for age 80+, male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45-64 general mortality INTERCEPT multiplier, female </t>
-  </si>
-  <si>
-    <t>45-64 general mortality SLOPE multiplier, female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65-79 general mortality INTERCEPT multiplier, female </t>
-  </si>
-  <si>
-    <t>65-79 general mortality SLOPE multiplier, female</t>
-  </si>
-  <si>
-    <t>80+ general mortality INTERCEPT multiplier, female</t>
-  </si>
-  <si>
-    <t>80+ general mortality SLOPE multiplier, female</t>
-  </si>
-  <si>
-    <t>Multiplier for the INTERCEPT of the regression model fit to smooth/forecast mortality for age 45-64, female</t>
-  </si>
-  <si>
-    <t>Multiplier for the SLOPE of the regression model fit to smooth/forecast mortality for age 45-64, female</t>
-  </si>
-  <si>
-    <t>Multiplier for the INTERCEPT of the regression model fit to smooth/forecast mortality for age 65-79, female</t>
-  </si>
-  <si>
-    <t>Multiplier for the SLOPE of the regression model fit to smooth/forecast mortality for age 65-79, female</t>
-  </si>
-  <si>
-    <t>Multiplier for the INTERCEPT of the regression model fit to smooth/forecast mortality for age 80+, female</t>
-  </si>
-  <si>
-    <t>Multiplier for the SLOPE of the regression model fit to smooth/forecast mortality for age 80+, female</t>
-  </si>
-  <si>
-    <t>1
-Lognormal
-2 separate multipliers at HIV mortality times: 2005, 2030</t>
-  </si>
-  <si>
-    <t>1
-Lognormal
-Split up youngest age group into 0-4 and 5-14 in 1990 only</t>
-  </si>
-  <si>
-    <t>0-4 HIV-specific mortality multiplier, 1990</t>
-  </si>
-  <si>
-    <t>0-14 HIV-specific mortality</t>
-  </si>
-  <si>
-    <t>15-24 HIV-specific mortality</t>
-  </si>
-  <si>
-    <t>50+ HIV-specific mortality</t>
-  </si>
-  <si>
-    <t>5-14 HIV-specific mortality multiplier, 1990</t>
-  </si>
-  <si>
-    <t>Relative risk of transmission by age group, female</t>
-  </si>
-  <si>
-    <t>(same as female)</t>
-  </si>
-  <si>
-    <t>Relative risk of transmission by age group, male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">See country-specific notes and  transmission_multipliers.R in each parameter_mappings/country folder; each of these calculated as some probability of high-risk sex; relative to a reference age group </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(same as female) </t>
-  </si>
-  <si>
-    <t>KDHS 2003 (Table 12.10), 2008 (Tables 13.9.1-2), and 2014 (Tables 13.12.1-2)</t>
-  </si>
-  <si>
-    <t>SA DHS 2003 (Table 5.6), 2016 (Tables 12.4.1-2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ages &lt;50: SA DHS 2003 (Table 5.13), 2016 (Tables 12.2.1-2) 
-Ages 50-80: Mojola et al, 2015 </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * trate.1
+Trate.1 (1997) = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
-      <t>See age_mixing.R</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -792,486 +1344,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-Table 3 of De Oliveira: Used Mean diff in age (years) for HIV positive women in male-female clusters</t>
-    </r>
-  </si>
-  <si>
-    <t>Varies by age; linear interpolation between spline points 
-Splines at 2003, 2008, 2014; linear interpolation
-South Africa: using 2003 DHS for 2008 and 2016 DHS for 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate parameter table using "get_engagement_disengagement_projection_and_param_table.R" 
-See country-specific notes and engagement_disengagement_projection.R in each parameter_mappings/country folder; logistic regression based on proportion starting ART in the past 12 months; forecasted for all years based on regressing by year
-(e.g., rate of 2 means people take 6 months to start ART (0.5 year); rate of 0.5 means people take two years) </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Generate parameter table using "get_testing_projection_and_param_table.R"
-See country-specific notes and  testing_projection.R in each parameter_mappings/country folder; logistic regression based on proportion receiving a test  in the past 12 months;  forecasted for all years and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>older age groups</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> based on regressing on age and year
-(e.g., rate of 2 means people tested twice a year; rate of 0.5 means tested every two years)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Varies by year (age age/sex for South Africa) </t>
-  </si>
-  <si>
-    <t>Engagement rate SLOPE multiplier</t>
-  </si>
-  <si>
-    <t>Log odds ratio for the slope of the regression model fit to forecast engagement rates for all ages; added on the log scale; intercept anchored in 1990
-0 added on log scale = multiplier of 1 on normal scale</t>
-  </si>
-  <si>
-    <t>0
-Normal</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>See calculations in parameter_mappings/calculate_death_rates.R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve">
-Consider making the regression a spline instead of only for select years - different slope post-spline</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Years </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- DHS: 2003, 2008, 2014
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Age groups </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- DHS: 15-19, 20-24, 25-29, 30-39, 40-49
-Percentage who have been tested for HIV in past 12 months and received result </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Log linear model, fit the model: 
-fit = glm(log(prop) ~ year), for age &lt;17
-fit = glm(log(prop) ~ year + age + year:age), for age 18+</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Years </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- DHS: 2003, 2008, 2016
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Age groups </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- DHS: 15-19, 20-24, 25-29, 30-39, 40-49
-Percentage who have been tested for HIV in past 12 months and received result </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Log linear model, fit the model: 
-fit = glm(log(prop) ~ year), for age &lt;17
-fit = glm(log(prop) ~ year + age + year:age), for age 18+</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">AIDS Info: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">data on # PWH on ART (calculated # starting each year)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Years:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2011-2021
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ages:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Total only
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Calculated using the total number of individuals starting ART/those off of ART
-Log linear model, fit the model: 
-fit = glm(log(prop) ~ year)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IeDEA Dashboard</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Proportion initiating ART within 12 months after enrollment
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Years:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2010, 2014, 2017 (fixed 1990 at 0)  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Age groups</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 10-19, 20-29, 30-39, 40-49, 50+; by sex
-Log linear model, fit the model: 
-fit = glm(log(prop) ~ year+age+sex)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>CHECK WITH TODD RE: RATE (KEN)  VS. PROPORTION (SA); also testing</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Years </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- DHS: 2003, 2008, 2014
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Age groups </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- DHS: 15-19, 20-24, 25-29, 30-39, 40-49; reference age = 30-39
-- Mojola et al: 40-49, 50-59, 60-69, 70-79; reference age = 40-49
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Calculation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- DHS: (proportion with multiple partners or proportion high risk sex)* (proportion of condomless sex at last high risk sex)
-- Mojola: (proportion high risk sex)*(1-condom use among high risk sex) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Years
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- DHS: 2003, 2016 (using 2003 estimates for 2003 and 2008 spline points; 2016 estimates for 2014 spline point) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Age groups</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- DHS: 15-19, 20-24, 25-29, 30-39, 40-49; reference age = 30-39 
-- Mojola et al: 40-49, 50-59, 60-69, 70-79; reference age = 40-49
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Calculation: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- DHS: (proportion with multiple partners or proportion high risk sex)* (proportion of condomless sex at last high risk sex)
-- Mojola: (proportion high risk sex)*(1-condom use among high risk sex)</t>
+      <t xml:space="preserve"> * trate.2
+Trate.2 (2008) = 0.1
+Trate.3 (2018) = 1 * trate.2
+Trate.4 (2030) = 1 *  trate.3
+SD of r0:r1 ratio = log(4)/2
+SD of r1:r2 ratio = log(4)/2
+SD of r2 = log(4)/2
+SD of r3:r2 ratio = log(4)/2
+SD of r4:r3 ratio = log(4)/2</t>
     </r>
   </si>
 </sst>
@@ -1279,7 +1360,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1326,6 +1407,13 @@
       <name val="Aptos Narrow (Body)"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow (Body)"/>
@@ -2082,10 +2170,10 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2097,7 +2185,7 @@
     <col min="5" max="5" width="38" style="5" customWidth="1"/>
     <col min="6" max="6" width="55" style="5" customWidth="1"/>
     <col min="7" max="8" width="60.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22" style="5" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="40.83203125" style="5" customWidth="1"/>
     <col min="10" max="10" width="17" style="5" customWidth="1"/>
     <col min="11" max="11" width="24" style="5" customWidth="1"/>
     <col min="12" max="12" width="26" style="5" customWidth="1"/>
@@ -2111,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" s="41" t="s">
         <v>28</v>
@@ -2120,16 +2208,16 @@
         <v>30</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G1" s="35"/>
       <c r="H1" s="35"/>
       <c r="I1" s="37"/>
       <c r="J1" s="35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K1" s="43" t="s">
         <v>1</v>
@@ -2158,7 +2246,7 @@
       </c>
       <c r="J2" s="39"/>
       <c r="K2" s="38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L2" s="39" t="s">
         <v>24</v>
@@ -2175,26 +2263,26 @@
         <v>36</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>34</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="26" t="s">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="J3" s="26"/>
       <c r="K3" s="26" t="s">
@@ -2215,17 +2303,17 @@
         <v>4</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -2248,10 +2336,10 @@
     </row>
     <row r="5" spans="1:14" ht="204" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>29</v>
@@ -2260,16 +2348,16 @@
         <v>35</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H5" s="59" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I5" s="31"/>
       <c r="J5" s="30" t="s">
@@ -2277,19 +2365,19 @@
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N5" s="32"/>
     </row>
     <row r="6" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>29</v>
@@ -2299,13 +2387,13 @@
       </c>
       <c r="E6" s="27"/>
       <c r="F6" s="30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G6" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" s="27" t="s">
         <v>170</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>173</v>
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="30" t="s">
@@ -2313,31 +2401,31 @@
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N6" s="32"/>
     </row>
     <row r="7" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="50"/>
@@ -2360,22 +2448,22 @@
     </row>
     <row r="8" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="50"/>
@@ -2398,22 +2486,22 @@
     </row>
     <row r="9" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="50"/>
@@ -2436,22 +2524,22 @@
     </row>
     <row r="10" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="50"/>
@@ -2477,7 +2565,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>29</v>
@@ -2486,10 +2574,10 @@
         <v>35</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -2498,7 +2586,7 @@
         <v>5</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
@@ -2509,7 +2597,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>29</v>
@@ -2518,16 +2606,16 @@
         <v>35</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="30" t="s">
@@ -2535,31 +2623,31 @@
       </c>
       <c r="K12" s="20"/>
       <c r="L12" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M12" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N12" s="32"/>
     </row>
     <row r="13" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
@@ -2582,10 +2670,10 @@
     </row>
     <row r="14" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>29</v>
@@ -2594,11 +2682,11 @@
         <v>34</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
@@ -2607,17 +2695,17 @@
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M14" s="31"/>
       <c r="N14" s="32"/>
     </row>
     <row r="15" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>29</v>
@@ -2626,10 +2714,10 @@
         <v>34</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -2638,32 +2726,32 @@
         <v>9</v>
       </c>
       <c r="K15" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M15" s="27"/>
       <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -2672,7 +2760,7 @@
         <v>5</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
@@ -2680,22 +2768,22 @@
     </row>
     <row r="17" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="50"/>
@@ -2718,22 +2806,22 @@
     </row>
     <row r="18" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="50"/>
@@ -2756,22 +2844,22 @@
     </row>
     <row r="19" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="50"/>
@@ -2794,22 +2882,22 @@
     </row>
     <row r="20" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="50"/>
@@ -2832,22 +2920,22 @@
     </row>
     <row r="21" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="50"/>
@@ -2870,22 +2958,22 @@
     </row>
     <row r="22" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="50"/>
@@ -2908,22 +2996,22 @@
     </row>
     <row r="23" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="50"/>
@@ -2946,22 +3034,22 @@
     </row>
     <row r="24" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="50"/>
@@ -2984,22 +3072,22 @@
     </row>
     <row r="25" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="50"/>
@@ -3022,22 +3110,22 @@
     </row>
     <row r="26" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G26" s="18"/>
       <c r="H26" s="50"/>
@@ -3060,22 +3148,22 @@
     </row>
     <row r="27" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="50"/>
@@ -3098,22 +3186,22 @@
     </row>
     <row r="28" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="50"/>
@@ -3136,10 +3224,10 @@
     </row>
     <row r="29" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>32</v>
@@ -3148,10 +3236,10 @@
         <v>34</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
@@ -3160,7 +3248,7 @@
         <v>3</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
@@ -3171,7 +3259,7 @@
         <v>16</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>32</v>
@@ -3181,7 +3269,7 @@
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
@@ -3191,7 +3279,7 @@
       </c>
       <c r="K30" s="16"/>
       <c r="L30" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M30" s="14"/>
       <c r="N30" s="15"/>
@@ -3201,7 +3289,7 @@
         <v>17</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>32</v>
@@ -3211,7 +3299,7 @@
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
@@ -3221,27 +3309,27 @@
       </c>
       <c r="K31" s="16"/>
       <c r="L31" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M31" s="14"/>
       <c r="N31" s="15"/>
     </row>
     <row r="32" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
@@ -3264,20 +3352,20 @@
     </row>
     <row r="33" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
@@ -3300,20 +3388,20 @@
     </row>
     <row r="34" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
@@ -3336,20 +3424,20 @@
     </row>
     <row r="35" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -3372,20 +3460,20 @@
     </row>
     <row r="36" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
@@ -3408,20 +3496,20 @@
     </row>
     <row r="37" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C37" s="46" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D37" s="47"/>
       <c r="E37" s="45" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
@@ -3430,7 +3518,7 @@
         <v>5</v>
       </c>
       <c r="K37" s="51" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L37" s="36"/>
       <c r="M37" s="36"/>
@@ -3441,19 +3529,19 @@
         <v>18</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C38" s="46" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D38" s="47" t="s">
         <v>34</v>
       </c>
       <c r="E38" s="45" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F38" s="44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
@@ -3476,22 +3564,22 @@
     </row>
     <row r="39" spans="1:14" ht="170" x14ac:dyDescent="0.2">
       <c r="A39" s="44" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D39" s="47" t="s">
         <v>35</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F39" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
@@ -3517,10 +3605,10 @@
         <v>21</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D40" s="47" t="s">
         <v>34</v>
@@ -3529,13 +3617,13 @@
         <v>22</v>
       </c>
       <c r="F40" s="44" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G40" s="44">
         <v>0.25</v>
       </c>
       <c r="H40" s="49" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I40" s="44"/>
       <c r="J40" s="48" t="s">
@@ -3559,23 +3647,23 @@
         <v>23</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D41" s="47" t="s">
         <v>34</v>
       </c>
       <c r="E41" s="45"/>
       <c r="F41" s="44" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G41" s="44">
         <v>0.25</v>
       </c>
       <c r="H41" s="49" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I41" s="44"/>
       <c r="J41" s="48" t="s">
@@ -3596,26 +3684,26 @@
     </row>
     <row r="42" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C42" s="46" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D42" s="47" t="s">
         <v>34</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="44" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G42" s="44">
         <v>2</v>
       </c>
       <c r="H42" s="49" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I42" s="44"/>
       <c r="J42" s="48" t="s">
@@ -3636,26 +3724,26 @@
     </row>
     <row r="43" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D43" s="47" t="s">
         <v>34</v>
       </c>
       <c r="E43" s="45"/>
       <c r="F43" s="44" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G43" s="44">
         <v>2</v>
       </c>
       <c r="H43" s="49" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I43" s="44"/>
       <c r="J43" s="48" t="s">
@@ -3676,26 +3764,26 @@
     </row>
     <row r="44" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D44" s="47" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="45"/>
       <c r="F44" s="44" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G44" s="44">
         <v>2</v>
       </c>
       <c r="H44" s="49" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I44" s="44"/>
       <c r="J44" s="48" t="s">
@@ -3716,26 +3804,26 @@
     </row>
     <row r="45" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D45" s="47" t="s">
         <v>34</v>
       </c>
       <c r="E45" s="45"/>
       <c r="F45" s="44" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G45" s="44">
         <v>1</v>
       </c>
       <c r="H45" s="49" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I45" s="44"/>
       <c r="J45" s="48" t="s">
@@ -3756,10 +3844,10 @@
     </row>
     <row r="46" spans="1:14" ht="276" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>31</v>
@@ -3768,16 +3856,16 @@
         <v>35</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G46" s="60" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H46" s="60" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I46" s="31"/>
       <c r="J46" s="8" t="s">
@@ -3785,31 +3873,31 @@
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N46" s="32"/>
     </row>
     <row r="47" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
@@ -3832,22 +3920,22 @@
     </row>
     <row r="48" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
@@ -3870,10 +3958,10 @@
     </row>
     <row r="49" spans="1:14" ht="227" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>31</v>
@@ -3882,16 +3970,16 @@
         <v>35</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G49" s="60" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H49" s="60" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I49" s="31"/>
       <c r="J49" s="8" t="s">
@@ -3899,29 +3987,29 @@
       </c>
       <c r="K49" s="20"/>
       <c r="L49" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M49" s="31"/>
       <c r="N49" s="32"/>
     </row>
     <row r="50" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G50" s="18"/>
       <c r="H50" s="57"/>
@@ -3944,22 +4032,22 @@
     </row>
     <row r="51" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="D51" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G51" s="6">
         <v>0.1392621</v>
@@ -3971,27 +4059,27 @@
       </c>
       <c r="K51" s="20"/>
       <c r="L51" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M51" s="31"/>
       <c r="N51" s="32"/>
     </row>
     <row r="52" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G52" s="6">
         <v>0.1025866</v>
@@ -4003,33 +4091,33 @@
       </c>
       <c r="K52" s="20"/>
       <c r="L52" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M52" s="31"/>
       <c r="N52" s="32"/>
     </row>
     <row r="53" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G53" s="6">
         <v>0.67328849999999996</v>
       </c>
       <c r="H53" s="31" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I53" s="31"/>
       <c r="J53" s="8" t="s">
@@ -4037,7 +4125,7 @@
       </c>
       <c r="K53" s="20"/>
       <c r="L53" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M53" s="31"/>
       <c r="N53" s="32"/>
@@ -4047,17 +4135,17 @@
         <v>10</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G54" s="6">
         <v>0.67328849999999996</v>
@@ -4069,7 +4157,7 @@
       </c>
       <c r="K54" s="20"/>
       <c r="L54" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M54" s="31"/>
       <c r="N54" s="32"/>
@@ -4079,17 +4167,17 @@
         <v>11</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G55" s="6">
         <v>0.1971601</v>
@@ -4101,7 +4189,7 @@
       </c>
       <c r="K55" s="20"/>
       <c r="L55" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M55" s="31"/>
       <c r="N55" s="32"/>
@@ -4111,21 +4199,21 @@
         <v>12</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G56" s="18"/>
       <c r="H56" s="50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I56" s="18"/>
       <c r="J56" s="8" t="s">
@@ -4149,21 +4237,21 @@
         <v>13</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G57" s="18"/>
       <c r="H57" s="50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I57" s="18"/>
       <c r="J57" s="8" t="s">
@@ -4187,21 +4275,21 @@
         <v>14</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G58" s="18"/>
       <c r="H58" s="50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I58" s="18"/>
       <c r="J58" s="8" t="s">
@@ -4222,46 +4310,46 @@
     </row>
     <row r="59" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24E866B-F875-0B42-A123-F8603BE66527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFB12AE-5E90-5449-9A53-5B41D1E676B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19540" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
+    <workbookView xWindow="11600" yWindow="500" windowWidth="26800" windowHeight="19540" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="192">
   <si>
     <t>Parameter</t>
   </si>
@@ -263,18 +263,6 @@
 Constant</t>
   </si>
   <si>
-    <t>0.04
-Begins at this value in 1990, interpolates to hiv.specific.mortality.rates.1 from 1990-2005</t>
-  </si>
-  <si>
-    <t>0.07
-Arrives at this value in 2005, interpolates to hiv.specific.mortality.rates.2 from 2005-2020</t>
-  </si>
-  <si>
-    <t>0.018
-Arrives at this value in 2020, constant after</t>
-  </si>
-  <si>
     <t>1
 Lognormal
 3 separate multipliers at HIV mortality times: 1990, 2005, 2030</t>
@@ -324,9 +312,6 @@
     <t>Maina et al</t>
   </si>
   <si>
-    <t>AIDSinfo (global values)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ages &lt;50: Kenya DHS 2003 (Table 12.12), 2008 (Table 13.7.1), 2014 (Table 13.9.1)
 Ages 50-80: Mojola et al, 2015 </t>
   </si>
@@ -456,29 +441,6 @@
   </si>
   <si>
     <t>Annual engagement rate</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>REVIEW THIS 
-(calculated from AIDS info data)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Excess mortality rate among PWH with unsuppressed HIV; (e.g., rate of 0.02 means 2/100 people die per year) </t>
-    </r>
   </si>
   <si>
     <t>Annual disengagement rate, unsuppressed</t>
@@ -1175,8 +1137,146 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">
+Begins at this value in 1990, interpolates to hiv.specific.mortality.rates.1 from 1990-2005</t>
+  </si>
+  <si>
+    <t>Arrives at this value in 2005, interpolates to hiv.specific.mortality.rates.2 from 2005-2020</t>
+  </si>
+  <si>
+    <t>Arrives at this value in 2020, constant after</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Excess mortality rate among PWH with unsuppressed HIV; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e.g., rate of 0.02 means 2/100 people die per year</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Calculated from AIDS Info data: total AIDS-related deaths/ total HIV prevalence</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trate.0 (1990) = 8 * trate.1
+Trate.1 (1997) = 1 * trate.2
+Trate.2 (2008) = 0.1
+Trate.3 (2018) = 1 * trate.2
+Trate.4 (2030) = 1 *  trate.3
+SD of r0:r1 ratio = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log(2)/2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+SD of r1:r2 ratio = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log(2)/2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+SD of r2 = log(4)/2
+SD of r3:r2 ratio = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log(2)/2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+SD of r4:r3 ratio = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log(2)/2</t>
+    </r>
+  </si>
+  <si>
     <t>Joint lognormal distribution
 Time: 
+For most countries, spline points at 1990, 1997, 2008, 2018, 2030
+France: 1980, 1993, 2005, 2018, 2030
 Constant 1975-1990, interpolates to trate.1 from 1990-1997
 Arrives at trate.1 in 1997, interpolates to trate.2 from 1997-2008 
 Arrives at trate.2 in 2008, interpolates to trate.3 from 2008-2018
@@ -1185,96 +1285,11 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Trate.0 = 8 * trate.1
-Trate.1 (1997) = 1 * trate.2
-Trate.2 (2008) = 0.1
-Trate.3 (2018) = 1 * trate.2
-Trate.4 (2030) = 1 *  trate.3
-SD of r0:r1 ratio = </t>
+      <t xml:space="preserve">Trate.0 (1990) = </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>log(2)/2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-SD of r1:r2 ratio = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>log(2)/2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-SD of r2 = log(4)/2
-SD of r3:r2 ratio = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>log(2)/2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-SD of r4:r3 ratio = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>log(2)/2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trate.0 = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow (Body)"/>
@@ -1303,17 +1318,36 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Trate.0 = </t>
+      <t>Trate.0 (</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1980</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
-      <t>0.5</t>
+      <t>10</t>
     </r>
     <r>
       <rPr>
@@ -1324,17 +1358,16 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> * trate.1
-Trate.1 (1997) = </t>
+Trate.1 (</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <u/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
-      <t>2</t>
+      <t>1993</t>
     </r>
     <r>
       <rPr>
@@ -1344,8 +1377,48 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">) = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.75</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> * trate.2
-Trate.2 (2008) = 0.1
+Trate.2 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) = 0.1
 Trate.3 (2018) = 1 * trate.2
 Trate.4 (2030) = 1 *  trate.3
 SD of r0:r1 ratio = log(4)/2
@@ -1413,7 +1486,6 @@
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow (Body)"/>
@@ -2170,10 +2242,10 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2208,7 +2280,7 @@
         <v>30</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F1" s="43" t="s">
         <v>47</v>
@@ -2217,7 +2289,7 @@
       <c r="H1" s="35"/>
       <c r="I1" s="37"/>
       <c r="J1" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K1" s="43" t="s">
         <v>1</v>
@@ -2246,7 +2318,7 @@
       </c>
       <c r="J2" s="39"/>
       <c r="K2" s="38" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L2" s="39" t="s">
         <v>24</v>
@@ -2266,7 +2338,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>34</v>
@@ -2276,13 +2348,13 @@
         <v>189</v>
       </c>
       <c r="G3" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="H3" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="I3" s="25" t="s">
         <v>191</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>192</v>
       </c>
       <c r="J3" s="26"/>
       <c r="K3" s="26" t="s">
@@ -2306,7 +2378,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>34</v>
@@ -2336,7 +2408,7 @@
     </row>
     <row r="5" spans="1:14" ht="204" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>38</v>
@@ -2348,16 +2420,16 @@
         <v>35</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H5" s="59" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I5" s="31"/>
       <c r="J5" s="30" t="s">
@@ -2365,16 +2437,16 @@
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N5" s="32"/>
     </row>
     <row r="6" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>38</v>
@@ -2390,10 +2462,10 @@
         <v>49</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="30" t="s">
@@ -2401,28 +2473,28 @@
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N6" s="32"/>
     </row>
     <row r="7" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>50</v>
@@ -2448,19 +2520,19 @@
     </row>
     <row r="8" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>50</v>
@@ -2486,19 +2558,19 @@
     </row>
     <row r="9" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B9" s="28" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>50</v>
@@ -2524,19 +2596,19 @@
     </row>
     <row r="10" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F10" s="30" t="s">
         <v>50</v>
@@ -2574,7 +2646,7 @@
         <v>35</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F11" s="30" t="s">
         <v>51</v>
@@ -2586,7 +2658,7 @@
         <v>5</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
@@ -2606,16 +2678,16 @@
         <v>35</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F12" s="30" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="30" t="s">
@@ -2623,28 +2695,28 @@
       </c>
       <c r="K12" s="20"/>
       <c r="L12" s="27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M12" s="27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N12" s="32"/>
     </row>
     <row r="13" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>53</v>
@@ -2670,7 +2742,7 @@
     </row>
     <row r="14" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>38</v>
@@ -2682,7 +2754,7 @@
         <v>34</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="27" t="s">
@@ -2695,14 +2767,14 @@
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M14" s="31"/>
       <c r="N14" s="32"/>
     </row>
     <row r="15" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>38</v>
@@ -2714,7 +2786,7 @@
         <v>34</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F15" s="30" t="s">
         <v>55</v>
@@ -2726,10 +2798,10 @@
         <v>9</v>
       </c>
       <c r="K15" s="30" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M15" s="27"/>
       <c r="N15" s="29"/>
@@ -2742,16 +2814,16 @@
         <v>40</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -2760,7 +2832,7 @@
         <v>5</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
@@ -2768,19 +2840,19 @@
     </row>
     <row r="17" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>53</v>
@@ -2806,19 +2878,19 @@
     </row>
     <row r="18" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>53</v>
@@ -2844,19 +2916,19 @@
     </row>
     <row r="19" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>53</v>
@@ -2882,19 +2954,19 @@
     </row>
     <row r="20" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>53</v>
@@ -2920,19 +2992,19 @@
     </row>
     <row r="21" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>53</v>
@@ -2958,19 +3030,19 @@
     </row>
     <row r="22" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>53</v>
@@ -2996,19 +3068,19 @@
     </row>
     <row r="23" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>53</v>
@@ -3034,19 +3106,19 @@
     </row>
     <row r="24" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>53</v>
@@ -3072,19 +3144,19 @@
     </row>
     <row r="25" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>53</v>
@@ -3110,19 +3182,19 @@
     </row>
     <row r="26" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>53</v>
@@ -3148,19 +3220,19 @@
     </row>
     <row r="27" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>53</v>
@@ -3186,19 +3258,19 @@
     </row>
     <row r="28" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>53</v>
@@ -3222,9 +3294,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>41</v>
@@ -3236,25 +3308,31 @@
         <v>34</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
+        <v>184</v>
+      </c>
+      <c r="G29" s="14">
+        <v>4.0579709999999998E-2</v>
+      </c>
+      <c r="H29" s="14">
+        <v>3.0303030000000002E-2</v>
+      </c>
+      <c r="I29" s="14">
+        <v>5.3571430000000003E-2</v>
+      </c>
       <c r="J29" s="16" t="s">
         <v>3</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="L29" s="14"/>
+        <v>68</v>
+      </c>
+      <c r="L29" s="16"/>
       <c r="M29" s="14"/>
       <c r="N29" s="15"/>
     </row>
-    <row r="30" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>16</v>
       </c>
@@ -3269,18 +3347,24 @@
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
+        <v>185</v>
+      </c>
+      <c r="G30" s="14">
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="H30" s="14">
+        <v>5.3061219999999999E-2</v>
+      </c>
+      <c r="I30" s="14">
+        <v>2.272727E-3</v>
+      </c>
       <c r="J30" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K30" s="16"/>
-      <c r="L30" s="14" t="s">
-        <v>71</v>
-      </c>
+      <c r="K30" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="L30" s="16"/>
       <c r="M30" s="14"/>
       <c r="N30" s="15"/>
     </row>
@@ -3299,37 +3383,43 @@
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
+        <v>186</v>
+      </c>
+      <c r="G31" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="H31" s="14">
+        <v>7.4324320000000001E-3</v>
+      </c>
+      <c r="I31" s="14">
+        <v>3.9473679999999997E-3</v>
+      </c>
       <c r="J31" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K31" s="16"/>
-      <c r="L31" s="14" t="s">
-        <v>71</v>
-      </c>
+      <c r="K31" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="L31" s="16"/>
       <c r="M31" s="14"/>
       <c r="N31" s="15"/>
     </row>
     <row r="32" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="14" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
@@ -3352,20 +3442,20 @@
     </row>
     <row r="33" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="14" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
@@ -3388,20 +3478,20 @@
     </row>
     <row r="34" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
@@ -3424,20 +3514,20 @@
     </row>
     <row r="35" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -3460,20 +3550,20 @@
     </row>
     <row r="36" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
@@ -3496,20 +3586,20 @@
     </row>
     <row r="37" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="44" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B37" s="45" t="s">
         <v>42</v>
       </c>
       <c r="C37" s="46" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D37" s="47"/>
       <c r="E37" s="45" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
@@ -3518,7 +3608,7 @@
         <v>5</v>
       </c>
       <c r="K37" s="51" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L37" s="36"/>
       <c r="M37" s="36"/>
@@ -3532,16 +3622,16 @@
         <v>42</v>
       </c>
       <c r="C38" s="46" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D38" s="47" t="s">
         <v>34</v>
       </c>
       <c r="E38" s="45" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F38" s="44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
@@ -3564,22 +3654,22 @@
     </row>
     <row r="39" spans="1:14" ht="170" x14ac:dyDescent="0.2">
       <c r="A39" s="44" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B39" s="45" t="s">
         <v>42</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D39" s="47" t="s">
         <v>35</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F39" s="44" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
@@ -3608,7 +3698,7 @@
         <v>42</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D40" s="47" t="s">
         <v>34</v>
@@ -3617,13 +3707,13 @@
         <v>22</v>
       </c>
       <c r="F40" s="44" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G40" s="44">
         <v>0.25</v>
       </c>
       <c r="H40" s="49" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I40" s="44"/>
       <c r="J40" s="48" t="s">
@@ -3650,20 +3740,20 @@
         <v>42</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D41" s="47" t="s">
         <v>34</v>
       </c>
       <c r="E41" s="45"/>
       <c r="F41" s="44" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G41" s="44">
         <v>0.25</v>
       </c>
       <c r="H41" s="49" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I41" s="44"/>
       <c r="J41" s="48" t="s">
@@ -3690,20 +3780,20 @@
         <v>42</v>
       </c>
       <c r="C42" s="46" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D42" s="47" t="s">
         <v>34</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="44" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G42" s="44">
         <v>2</v>
       </c>
       <c r="H42" s="49" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I42" s="44"/>
       <c r="J42" s="48" t="s">
@@ -3730,20 +3820,20 @@
         <v>42</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D43" s="47" t="s">
         <v>34</v>
       </c>
       <c r="E43" s="45"/>
       <c r="F43" s="44" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G43" s="44">
         <v>2</v>
       </c>
       <c r="H43" s="49" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I43" s="44"/>
       <c r="J43" s="48" t="s">
@@ -3770,20 +3860,20 @@
         <v>42</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D44" s="47" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="45"/>
       <c r="F44" s="44" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G44" s="44">
         <v>2</v>
       </c>
       <c r="H44" s="49" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I44" s="44"/>
       <c r="J44" s="48" t="s">
@@ -3810,20 +3900,20 @@
         <v>42</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D45" s="47" t="s">
         <v>34</v>
       </c>
       <c r="E45" s="45"/>
       <c r="F45" s="44" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G45" s="44">
         <v>1</v>
       </c>
       <c r="H45" s="49" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I45" s="44"/>
       <c r="J45" s="48" t="s">
@@ -3844,7 +3934,7 @@
     </row>
     <row r="46" spans="1:14" ht="276" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>39</v>
@@ -3856,16 +3946,16 @@
         <v>35</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G46" s="60" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H46" s="60" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I46" s="31"/>
       <c r="J46" s="8" t="s">
@@ -3873,28 +3963,28 @@
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="N46" s="32"/>
     </row>
     <row r="47" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>56</v>
@@ -3920,19 +4010,19 @@
     </row>
     <row r="48" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>56</v>
@@ -3958,7 +4048,7 @@
     </row>
     <row r="49" spans="1:14" ht="227" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>39</v>
@@ -3970,16 +4060,16 @@
         <v>35</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G49" s="60" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H49" s="60" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I49" s="31"/>
       <c r="J49" s="8" t="s">
@@ -3987,29 +4077,29 @@
       </c>
       <c r="K49" s="20"/>
       <c r="L49" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M49" s="31"/>
       <c r="N49" s="32"/>
     </row>
     <row r="50" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G50" s="18"/>
       <c r="H50" s="57"/>
@@ -4032,22 +4122,22 @@
     </row>
     <row r="51" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G51" s="6">
         <v>0.1392621</v>
@@ -4059,27 +4149,27 @@
       </c>
       <c r="K51" s="20"/>
       <c r="L51" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="M51" s="31"/>
       <c r="N51" s="32"/>
     </row>
     <row r="52" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G52" s="6">
         <v>0.1025866</v>
@@ -4091,33 +4181,33 @@
       </c>
       <c r="K52" s="20"/>
       <c r="L52" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="M52" s="31"/>
       <c r="N52" s="32"/>
     </row>
     <row r="53" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G53" s="6">
         <v>0.67328849999999996</v>
       </c>
       <c r="H53" s="31" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I53" s="31"/>
       <c r="J53" s="8" t="s">
@@ -4125,7 +4215,7 @@
       </c>
       <c r="K53" s="20"/>
       <c r="L53" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M53" s="31"/>
       <c r="N53" s="32"/>
@@ -4138,14 +4228,14 @@
         <v>39</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G54" s="6">
         <v>0.67328849999999996</v>
@@ -4157,7 +4247,7 @@
       </c>
       <c r="K54" s="20"/>
       <c r="L54" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M54" s="31"/>
       <c r="N54" s="32"/>
@@ -4170,14 +4260,14 @@
         <v>39</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G55" s="6">
         <v>0.1971601</v>
@@ -4189,7 +4279,7 @@
       </c>
       <c r="K55" s="20"/>
       <c r="L55" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M55" s="31"/>
       <c r="N55" s="32"/>
@@ -4202,7 +4292,7 @@
         <v>39</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>34</v>
@@ -4213,7 +4303,7 @@
       </c>
       <c r="G56" s="18"/>
       <c r="H56" s="50" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I56" s="18"/>
       <c r="J56" s="8" t="s">
@@ -4240,7 +4330,7 @@
         <v>39</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>34</v>
@@ -4251,7 +4341,7 @@
       </c>
       <c r="G57" s="18"/>
       <c r="H57" s="50" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I57" s="18"/>
       <c r="J57" s="8" t="s">
@@ -4278,7 +4368,7 @@
         <v>39</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>34</v>
@@ -4289,7 +4379,7 @@
       </c>
       <c r="G58" s="18"/>
       <c r="H58" s="50" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I58" s="18"/>
       <c r="J58" s="8" t="s">
@@ -4310,46 +4400,46 @@
     </row>
     <row r="59" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFB12AE-5E90-5449-9A53-5B41D1E676B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF4D183-CFBC-5A4B-B6E3-183DCBF5A0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11600" yWindow="500" windowWidth="26800" windowHeight="19540" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19540" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -41,12 +41,34 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={0ABF0B4F-7147-1846-9DC7-3352A8B74C22}</author>
+    <author>tc={2864E438-E4F2-6B4C-813C-2C3820520647}</author>
     <author>tc={32A8BCDF-158B-7E4E-A7CC-897560825B58}</author>
     <author>tc={04385ABF-366F-F14D-B686-003B7FD6A102}</author>
     <author>tc={51F972CD-9F3E-FF43-98B5-159579D7B474}</author>
+    <author>tc={0B839532-569D-4D4C-A381-33FADF98442B}</author>
+    <author>tc={00E16E41-5E5A-A346-873A-EE4F844290A8}</author>
+    <author>tc={3B29515A-DA97-DE4B-9218-64B49449A19B}</author>
+    <author>tc={753F56CD-B2B7-304A-8622-25D8DD0D1979}</author>
   </authors>
   <commentList>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{32A8BCDF-158B-7E4E-A7CC-897560825B58}">
+    <comment ref="M5" authorId="0" shapeId="0" xr:uid="{0ABF0B4F-7147-1846-9DC7-3352A8B74C22}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Add to EndNote</t>
+      </text>
+    </comment>
+    <comment ref="M6" authorId="1" shapeId="0" xr:uid="{2864E438-E4F2-6B4C-813C-2C3820520647}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Add to EndNote</t>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="2" shapeId="0" xr:uid="{32A8BCDF-158B-7E4E-A7CC-897560825B58}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,7 +76,7 @@
     This used to say “prior to/in 1990” - look into why; looks like I always had 4 parameters?</t>
       </text>
     </comment>
-    <comment ref="L14" authorId="1" shapeId="0" xr:uid="{04385ABF-366F-F14D-B686-003B7FD6A102}">
+    <comment ref="L14" authorId="3" shapeId="0" xr:uid="{04385ABF-366F-F14D-B686-003B7FD6A102}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -62,7 +84,7 @@
     This includes 13 prospective studies from different regions; 0.42 estimate was Kenya-specific but they have Europe, France specifically, and other African countries</t>
       </text>
     </comment>
-    <comment ref="K15" authorId="2" shapeId="0" xr:uid="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
+    <comment ref="K15" authorId="4" shapeId="0" xr:uid="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -70,12 +92,44 @@
     Update to WHO reference because this is actually a global estimate</t>
       </text>
     </comment>
+    <comment ref="M46" authorId="5" shapeId="0" xr:uid="{0B839532-569D-4D4C-A381-33FADF98442B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Add to EndNote</t>
+      </text>
+    </comment>
+    <comment ref="M49" authorId="6" shapeId="0" xr:uid="{00E16E41-5E5A-A346-873A-EE4F844290A8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Add to EndNote</t>
+      </text>
+    </comment>
+    <comment ref="M51" authorId="7" shapeId="0" xr:uid="{3B29515A-DA97-DE4B-9218-64B49449A19B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Add to EndNote</t>
+      </text>
+    </comment>
+    <comment ref="M52" authorId="8" shapeId="0" xr:uid="{753F56CD-B2B7-304A-8622-25D8DD0D1979}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Add to EndNote</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="195">
   <si>
     <t>Parameter</t>
   </si>
@@ -171,9 +225,6 @@
   </si>
   <si>
     <t>Probability derived from literature; converted to rate; projected using regression</t>
-  </si>
-  <si>
-    <t>Probability derived from literature; converted to rate - CHECK</t>
   </si>
   <si>
     <t>log(2)/2</t>
@@ -707,29 +758,6 @@
   <si>
     <t>0
 Normal</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>See calculations in parameter_mappings/calculate_death_rates.R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve">
-Consider making the regression a spline instead of only for select years - different slope post-spline</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1428,12 +1456,39 @@
 SD of r4:r3 ratio = log(4)/2</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>See calculations in parameter_mappings/calculate_death_rates.R</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Probability derived from literature; converted to rate </t>
+  </si>
+  <si>
+    <t>Probability derived from literature; converted to rate \</t>
+  </si>
+  <si>
+    <t>Cornell et al 2010 (IeDEA-SA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IeDEA Dashboard: https://iedeadashboard.org/data/treatment-outcomes-enrollment/
+Can also cite cohort profile (Egger 2011; Chammartin 2020; Cornell 2009) </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1489,6 +1544,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2225,6 +2286,12 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="M5" dT="2025-02-11T17:27:06.77" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{0ABF0B4F-7147-1846-9DC7-3352A8B74C22}">
+    <text>Add to EndNote</text>
+  </threadedComment>
+  <threadedComment ref="M6" dT="2025-02-11T17:27:06.77" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{2864E438-E4F2-6B4C-813C-2C3820520647}">
+    <text>Add to EndNote</text>
+  </threadedComment>
   <threadedComment ref="E10" dT="2025-01-22T18:30:30.03" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{32A8BCDF-158B-7E4E-A7CC-897560825B58}">
     <text>This used to say “prior to/in 1990” - look into why; looks like I always had 4 parameters?</text>
   </threadedComment>
@@ -2234,6 +2301,18 @@
   <threadedComment ref="K15" dT="2025-01-22T18:20:02.26" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
     <text>Update to WHO reference because this is actually a global estimate</text>
   </threadedComment>
+  <threadedComment ref="M46" dT="2025-02-11T17:27:31.17" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{0B839532-569D-4D4C-A381-33FADF98442B}">
+    <text>Add to EndNote</text>
+  </threadedComment>
+  <threadedComment ref="M49" dT="2025-02-11T17:30:23.24" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{00E16E41-5E5A-A346-873A-EE4F844290A8}">
+    <text>Add to EndNote</text>
+  </threadedComment>
+  <threadedComment ref="M51" dT="2025-02-11T17:26:46.97" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{3B29515A-DA97-DE4B-9218-64B49449A19B}">
+    <text>Add to EndNote</text>
+  </threadedComment>
+  <threadedComment ref="M52" dT="2025-02-11T17:26:46.97" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{753F56CD-B2B7-304A-8622-25D8DD0D1979}">
+    <text>Add to EndNote</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -2242,22 +2321,21 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
+      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="28.5" style="5" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="38" style="5" customWidth="1"/>
     <col min="6" max="6" width="55" style="5" customWidth="1"/>
-    <col min="7" max="8" width="60.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.83203125" style="5" customWidth="1"/>
+    <col min="7" max="9" width="53.5" style="5" customWidth="1"/>
     <col min="10" max="10" width="17" style="5" customWidth="1"/>
     <col min="11" max="11" width="24" style="5" customWidth="1"/>
     <col min="12" max="12" width="26" style="5" customWidth="1"/>
@@ -2271,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="41" t="s">
         <v>28</v>
@@ -2280,16 +2358,16 @@
         <v>30</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G1" s="35"/>
       <c r="H1" s="35"/>
       <c r="I1" s="37"/>
       <c r="J1" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K1" s="43" t="s">
         <v>1</v>
@@ -2318,7 +2396,7 @@
       </c>
       <c r="J2" s="39"/>
       <c r="K2" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L2" s="39" t="s">
         <v>24</v>
@@ -2332,29 +2410,29 @@
     </row>
     <row r="3" spans="1:14" ht="211" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="I3" s="25" t="s">
         <v>189</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>191</v>
       </c>
       <c r="J3" s="26"/>
       <c r="K3" s="26" t="s">
@@ -2375,17 +2453,17 @@
         <v>4</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -2408,28 +2486,28 @@
     </row>
     <row r="5" spans="1:14" ht="204" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H5" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I5" s="31"/>
       <c r="J5" s="30" t="s">
@@ -2437,35 +2515,35 @@
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N5" s="32"/>
     </row>
     <row r="6" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="27"/>
       <c r="F6" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="30" t="s">
@@ -2473,31 +2551,31 @@
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N6" s="32"/>
     </row>
     <row r="7" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="50"/>
@@ -2520,22 +2598,22 @@
     </row>
     <row r="8" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="50"/>
@@ -2558,22 +2636,22 @@
     </row>
     <row r="9" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="50"/>
@@ -2596,22 +2674,22 @@
     </row>
     <row r="10" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="50"/>
@@ -2637,19 +2715,19 @@
         <v>6</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -2658,7 +2736,7 @@
         <v>5</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
@@ -2669,25 +2747,25 @@
         <v>7</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="30" t="s">
@@ -2695,31 +2773,31 @@
       </c>
       <c r="K12" s="20"/>
       <c r="L12" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="27" t="s">
         <v>62</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>63</v>
       </c>
       <c r="N12" s="32"/>
     </row>
     <row r="13" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>81</v>
-      </c>
       <c r="F13" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
@@ -2742,23 +2820,23 @@
     </row>
     <row r="14" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
@@ -2767,29 +2845,29 @@
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M14" s="31"/>
       <c r="N14" s="32"/>
     </row>
     <row r="15" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -2798,32 +2876,32 @@
         <v>9</v>
       </c>
       <c r="K15" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M15" s="27"/>
       <c r="N15" s="29"/>
     </row>
-    <row r="16" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -2832,7 +2910,7 @@
         <v>5</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
@@ -2840,22 +2918,22 @@
     </row>
     <row r="17" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="50"/>
@@ -2878,22 +2956,22 @@
     </row>
     <row r="18" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="50"/>
@@ -2916,22 +2994,22 @@
     </row>
     <row r="19" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="50"/>
@@ -2954,22 +3032,22 @@
     </row>
     <row r="20" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="50"/>
@@ -2992,22 +3070,22 @@
     </row>
     <row r="21" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="50"/>
@@ -3030,22 +3108,22 @@
     </row>
     <row r="22" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="50"/>
@@ -3068,22 +3146,22 @@
     </row>
     <row r="23" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="50"/>
@@ -3106,22 +3184,22 @@
     </row>
     <row r="24" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="50"/>
@@ -3144,22 +3222,22 @@
     </row>
     <row r="25" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="50"/>
@@ -3182,22 +3260,22 @@
     </row>
     <row r="26" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G26" s="18"/>
       <c r="H26" s="50"/>
@@ -3220,22 +3298,22 @@
     </row>
     <row r="27" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="50"/>
@@ -3258,22 +3336,22 @@
     </row>
     <row r="28" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="50"/>
@@ -3296,22 +3374,22 @@
     </row>
     <row r="29" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G29" s="14">
         <v>4.0579709999999998E-2</v>
@@ -3326,7 +3404,7 @@
         <v>3</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L29" s="16"/>
       <c r="M29" s="14"/>
@@ -3337,17 +3415,17 @@
         <v>16</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G30" s="14">
         <v>8.1250000000000003E-2</v>
@@ -3362,7 +3440,7 @@
         <v>3</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L30" s="16"/>
       <c r="M30" s="14"/>
@@ -3373,17 +3451,17 @@
         <v>17</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G31" s="14">
         <v>0.02</v>
@@ -3398,7 +3476,7 @@
         <v>3</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L31" s="16"/>
       <c r="M31" s="14"/>
@@ -3406,20 +3484,20 @@
     </row>
     <row r="32" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
@@ -3442,20 +3520,20 @@
     </row>
     <row r="33" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
@@ -3478,20 +3556,20 @@
     </row>
     <row r="34" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
@@ -3514,20 +3592,20 @@
     </row>
     <row r="35" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -3550,20 +3628,20 @@
     </row>
     <row r="36" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
@@ -3586,20 +3664,20 @@
     </row>
     <row r="37" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="47"/>
       <c r="E37" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="44" t="s">
         <v>117</v>
-      </c>
-      <c r="F37" s="44" t="s">
-        <v>118</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
@@ -3608,7 +3686,7 @@
         <v>5</v>
       </c>
       <c r="K37" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L37" s="36"/>
       <c r="M37" s="36"/>
@@ -3619,19 +3697,19 @@
         <v>18</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E38" s="45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F38" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
@@ -3654,22 +3732,22 @@
     </row>
     <row r="39" spans="1:14" ht="170" x14ac:dyDescent="0.2">
       <c r="A39" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="D39" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" s="45" t="s">
-        <v>101</v>
-      </c>
       <c r="F39" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
@@ -3695,25 +3773,25 @@
         <v>21</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E40" s="45" t="s">
         <v>22</v>
       </c>
       <c r="F40" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G40" s="44">
         <v>0.25</v>
       </c>
       <c r="H40" s="49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I40" s="44"/>
       <c r="J40" s="48" t="s">
@@ -3737,23 +3815,23 @@
         <v>23</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E41" s="45"/>
       <c r="F41" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G41" s="44">
         <v>0.25</v>
       </c>
       <c r="H41" s="49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I41" s="44"/>
       <c r="J41" s="48" t="s">
@@ -3774,26 +3852,26 @@
     </row>
     <row r="42" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G42" s="44">
         <v>2</v>
       </c>
       <c r="H42" s="49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I42" s="44"/>
       <c r="J42" s="48" t="s">
@@ -3814,26 +3892,26 @@
     </row>
     <row r="43" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E43" s="45"/>
       <c r="F43" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G43" s="44">
         <v>2</v>
       </c>
       <c r="H43" s="49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I43" s="44"/>
       <c r="J43" s="48" t="s">
@@ -3854,26 +3932,26 @@
     </row>
     <row r="44" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E44" s="45"/>
       <c r="F44" s="44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G44" s="44">
         <v>2</v>
       </c>
       <c r="H44" s="49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I44" s="44"/>
       <c r="J44" s="48" t="s">
@@ -3894,30 +3972,30 @@
     </row>
     <row r="45" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E45" s="45"/>
       <c r="F45" s="44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G45" s="44">
         <v>1</v>
       </c>
       <c r="H45" s="49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I45" s="44"/>
       <c r="J45" s="48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K45" s="48" t="s">
         <v>2</v>
@@ -3934,28 +4012,28 @@
     </row>
     <row r="46" spans="1:14" ht="276" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G46" s="60" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H46" s="60" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I46" s="31"/>
       <c r="J46" s="8" t="s">
@@ -3963,31 +4041,31 @@
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="M46" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="N46" s="32"/>
     </row>
     <row r="47" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="F47" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
@@ -4010,22 +4088,22 @@
     </row>
     <row r="48" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
@@ -4048,28 +4126,28 @@
     </row>
     <row r="49" spans="1:14" ht="227" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G49" s="60" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H49" s="60" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I49" s="31"/>
       <c r="J49" s="8" t="s">
@@ -4077,29 +4155,31 @@
       </c>
       <c r="K49" s="20"/>
       <c r="L49" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M49" s="31"/>
+        <v>67</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="N49" s="32"/>
     </row>
     <row r="50" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" s="7" t="s">
+      <c r="F50" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>176</v>
       </c>
       <c r="G50" s="18"/>
       <c r="H50" s="57"/>
@@ -4122,92 +4202,100 @@
     </row>
     <row r="51" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G51" s="6">
         <v>0.1392621</v>
       </c>
-      <c r="H51" s="31"/>
+      <c r="H51" s="6">
+        <v>0.15548490000000001</v>
+      </c>
       <c r="I51" s="31"/>
       <c r="J51" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K51" s="20"/>
       <c r="L51" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="M51" s="31"/>
+        <v>68</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="N51" s="32"/>
     </row>
     <row r="52" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G52" s="6">
         <v>0.1025866</v>
       </c>
-      <c r="H52" s="31"/>
+      <c r="H52" s="6">
+        <v>0.15548490000000001</v>
+      </c>
       <c r="I52" s="31"/>
       <c r="J52" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K52" s="20"/>
       <c r="L52" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="M52" s="31"/>
+        <v>68</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="N52" s="32"/>
     </row>
     <row r="53" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G53" s="6">
         <v>0.67328849999999996</v>
       </c>
       <c r="H53" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I53" s="31"/>
       <c r="J53" s="8" t="s">
@@ -4215,7 +4303,7 @@
       </c>
       <c r="K53" s="20"/>
       <c r="L53" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M53" s="31"/>
       <c r="N53" s="32"/>
@@ -4225,17 +4313,17 @@
         <v>10</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G54" s="6">
         <v>0.67328849999999996</v>
@@ -4247,7 +4335,7 @@
       </c>
       <c r="K54" s="20"/>
       <c r="L54" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M54" s="31"/>
       <c r="N54" s="32"/>
@@ -4257,17 +4345,17 @@
         <v>11</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G55" s="6">
         <v>0.1971601</v>
@@ -4279,7 +4367,7 @@
       </c>
       <c r="K55" s="20"/>
       <c r="L55" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M55" s="31"/>
       <c r="N55" s="32"/>
@@ -4289,21 +4377,21 @@
         <v>12</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G56" s="18"/>
       <c r="H56" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="18"/>
       <c r="J56" s="8" t="s">
@@ -4327,21 +4415,21 @@
         <v>13</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G57" s="18"/>
       <c r="H57" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="18"/>
       <c r="J57" s="8" t="s">
@@ -4365,21 +4453,21 @@
         <v>14</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G58" s="18"/>
       <c r="H58" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="18"/>
       <c r="J58" s="8" t="s">
@@ -4400,46 +4488,46 @@
     </row>
     <row r="59" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF4D183-CFBC-5A4B-B6E3-183DCBF5A0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E013081-A019-3E49-B0EA-06E4D39346A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19540" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="195">
   <si>
     <t>Parameter</t>
   </si>
@@ -556,9 +556,6 @@
   </si>
   <si>
     <t>Probability calculated from deaths data; projected using regression</t>
-  </si>
-  <si>
-    <t>Might have age/sex data for South Africa</t>
   </si>
   <si>
     <t>Calculated as a regression fit to deaths data from 1950-1987 and 2008-2019 (to remove AIDS and COVID deaths)
@@ -1483,12 +1480,15 @@
     <t xml:space="preserve">IeDEA Dashboard: https://iedeadashboard.org/data/treatment-outcomes-enrollment/
 Can also cite cohort profile (Egger 2011; Chammartin 2020; Cornell 2009) </t>
   </si>
+  <si>
+    <t>Have age/sex data for South Africa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1544,12 +1544,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow (Body)"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2321,10 +2315,10 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
+      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2423,16 +2417,16 @@
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="H3" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="G3" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="H3" s="25" t="s">
+      <c r="I3" s="25" t="s">
         <v>188</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>189</v>
       </c>
       <c r="J3" s="26"/>
       <c r="K3" s="26" t="s">
@@ -2486,7 +2480,7 @@
     </row>
     <row r="5" spans="1:14" ht="204" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>37</v>
@@ -2498,16 +2492,16 @@
         <v>34</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G5" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="59" t="s">
         <v>180</v>
-      </c>
-      <c r="H5" s="59" t="s">
-        <v>181</v>
       </c>
       <c r="I5" s="31"/>
       <c r="J5" s="30" t="s">
@@ -2518,13 +2512,13 @@
         <v>71</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N5" s="32"/>
     </row>
     <row r="6" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>37</v>
@@ -2540,10 +2534,10 @@
         <v>48</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="30" t="s">
@@ -2554,7 +2548,7 @@
         <v>72</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N6" s="32"/>
     </row>
@@ -2756,7 +2750,7 @@
         <v>34</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F12" s="30" t="s">
         <v>51</v>
@@ -2898,10 +2892,10 @@
         <v>34</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -2918,7 +2912,7 @@
     </row>
     <row r="17" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>39</v>
@@ -2930,7 +2924,7 @@
         <v>33</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>52</v>
@@ -2956,7 +2950,7 @@
     </row>
     <row r="18" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>39</v>
@@ -2968,7 +2962,7 @@
         <v>33</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>52</v>
@@ -2994,7 +2988,7 @@
     </row>
     <row r="19" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>39</v>
@@ -3006,7 +3000,7 @@
         <v>33</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>52</v>
@@ -3032,7 +3026,7 @@
     </row>
     <row r="20" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>39</v>
@@ -3044,7 +3038,7 @@
         <v>33</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>52</v>
@@ -3070,7 +3064,7 @@
     </row>
     <row r="21" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>39</v>
@@ -3082,7 +3076,7 @@
         <v>33</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>52</v>
@@ -3108,7 +3102,7 @@
     </row>
     <row r="22" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>39</v>
@@ -3120,7 +3114,7 @@
         <v>33</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>52</v>
@@ -3146,7 +3140,7 @@
     </row>
     <row r="23" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>39</v>
@@ -3158,7 +3152,7 @@
         <v>33</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>52</v>
@@ -3184,7 +3178,7 @@
     </row>
     <row r="24" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>39</v>
@@ -3196,7 +3190,7 @@
         <v>33</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>52</v>
@@ -3222,7 +3216,7 @@
     </row>
     <row r="25" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>39</v>
@@ -3234,7 +3228,7 @@
         <v>33</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>52</v>
@@ -3260,7 +3254,7 @@
     </row>
     <row r="26" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>39</v>
@@ -3272,7 +3266,7 @@
         <v>33</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>52</v>
@@ -3298,7 +3292,7 @@
     </row>
     <row r="27" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>39</v>
@@ -3310,7 +3304,7 @@
         <v>33</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>52</v>
@@ -3336,7 +3330,7 @@
     </row>
     <row r="28" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>39</v>
@@ -3348,7 +3342,7 @@
         <v>33</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>52</v>
@@ -3380,16 +3374,16 @@
         <v>40</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G29" s="14">
         <v>4.0579709999999998E-2</v>
@@ -3418,14 +3412,14 @@
         <v>40</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G30" s="14">
         <v>8.1250000000000003E-2</v>
@@ -3454,14 +3448,14 @@
         <v>40</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G31" s="14">
         <v>0.02</v>
@@ -3484,7 +3478,7 @@
     </row>
     <row r="32" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>40</v>
@@ -3497,7 +3491,7 @@
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
@@ -3520,7 +3514,7 @@
     </row>
     <row r="33" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>40</v>
@@ -3533,7 +3527,7 @@
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
@@ -3556,7 +3550,7 @@
     </row>
     <row r="34" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>40</v>
@@ -3569,7 +3563,7 @@
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
@@ -3592,7 +3586,7 @@
     </row>
     <row r="35" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>40</v>
@@ -3628,7 +3622,7 @@
     </row>
     <row r="36" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>40</v>
@@ -4024,16 +4018,16 @@
         <v>34</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>93</v>
       </c>
       <c r="G46" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="H46" s="60" t="s">
         <v>176</v>
-      </c>
-      <c r="H46" s="60" t="s">
-        <v>177</v>
       </c>
       <c r="I46" s="31"/>
       <c r="J46" s="8" t="s">
@@ -4041,10 +4035,10 @@
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="M46" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="N46" s="32"/>
     </row>
@@ -4138,16 +4132,16 @@
         <v>34</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G49" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="H49" s="60" t="s">
         <v>178</v>
-      </c>
-      <c r="H49" s="60" t="s">
-        <v>179</v>
       </c>
       <c r="I49" s="31"/>
       <c r="J49" s="8" t="s">
@@ -4158,13 +4152,13 @@
         <v>67</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N49" s="32"/>
     </row>
     <row r="50" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>38</v>
@@ -4176,10 +4170,10 @@
         <v>33</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="G50" s="18"/>
       <c r="H50" s="57"/>
@@ -4208,7 +4202,7 @@
         <v>38</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>33</v>
@@ -4234,7 +4228,7 @@
         <v>68</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N51" s="32"/>
     </row>
@@ -4246,7 +4240,7 @@
         <v>38</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>33</v>
@@ -4270,7 +4264,7 @@
         <v>68</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N52" s="32"/>
     </row>
@@ -4295,7 +4289,7 @@
         <v>0.67328849999999996</v>
       </c>
       <c r="H53" s="31" t="s">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="I53" s="31"/>
       <c r="J53" s="8" t="s">
@@ -4308,7 +4302,7 @@
       <c r="M53" s="31"/>
       <c r="N53" s="32"/>
     </row>
-    <row r="54" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>10</v>
       </c>
@@ -4328,7 +4322,9 @@
       <c r="G54" s="6">
         <v>0.67328849999999996</v>
       </c>
-      <c r="H54" s="31"/>
+      <c r="H54" s="31" t="s">
+        <v>194</v>
+      </c>
       <c r="I54" s="31"/>
       <c r="J54" s="8" t="s">
         <v>3</v>

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E013081-A019-3E49-B0EA-06E4D39346A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F19CEC5-5A85-DD43-8C97-22FE5CA308E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19540" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>
@@ -47,9 +47,11 @@
     <author>tc={04385ABF-366F-F14D-B686-003B7FD6A102}</author>
     <author>tc={51F972CD-9F3E-FF43-98B5-159579D7B474}</author>
     <author>tc={0B839532-569D-4D4C-A381-33FADF98442B}</author>
+    <author>tc={41F30597-8EA5-6B4E-BC92-48BBEE4F0910}</author>
     <author>tc={00E16E41-5E5A-A346-873A-EE4F844290A8}</author>
     <author>tc={3B29515A-DA97-DE4B-9218-64B49449A19B}</author>
     <author>tc={753F56CD-B2B7-304A-8622-25D8DD0D1979}</author>
+    <author>tc={DF732643-5046-054A-B155-7120A7E9DFEB}</author>
   </authors>
   <commentList>
     <comment ref="M5" authorId="0" shapeId="0" xr:uid="{0ABF0B4F-7147-1846-9DC7-3352A8B74C22}">
@@ -100,7 +102,15 @@
     Add to EndNote</t>
       </text>
     </comment>
-    <comment ref="M49" authorId="6" shapeId="0" xr:uid="{00E16E41-5E5A-A346-873A-EE4F844290A8}">
+    <comment ref="G49" authorId="6" shapeId="0" xr:uid="{41F30597-8EA5-6B4E-BC92-48BBEE4F0910}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Consider using IeDEA data for Kenya as well and fit a similar model</t>
+      </text>
+    </comment>
+    <comment ref="M49" authorId="7" shapeId="0" xr:uid="{00E16E41-5E5A-A346-873A-EE4F844290A8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -108,7 +118,7 @@
     Add to EndNote</t>
       </text>
     </comment>
-    <comment ref="M51" authorId="7" shapeId="0" xr:uid="{3B29515A-DA97-DE4B-9218-64B49449A19B}">
+    <comment ref="M51" authorId="8" shapeId="0" xr:uid="{3B29515A-DA97-DE4B-9218-64B49449A19B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -116,12 +126,20 @@
     Add to EndNote</t>
       </text>
     </comment>
-    <comment ref="M52" authorId="8" shapeId="0" xr:uid="{753F56CD-B2B7-304A-8622-25D8DD0D1979}">
+    <comment ref="M52" authorId="9" shapeId="0" xr:uid="{753F56CD-B2B7-304A-8622-25D8DD0D1979}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Add to EndNote</t>
+      </text>
+    </comment>
+    <comment ref="H53" authorId="10" shapeId="0" xr:uid="{DF732643-5046-054A-B155-7120A7E9DFEB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Changed this to a similar method that we used for engagement - also did it for Kenya; regressed on year + age + sex; only sampled the logOR slope multiplier</t>
       </text>
     </comment>
   </commentList>
@@ -1296,17 +1314,6 @@
       </rPr>
       <t>log(2)/2</t>
     </r>
-  </si>
-  <si>
-    <t>Joint lognormal distribution
-Time: 
-For most countries, spline points at 1990, 1997, 2008, 2018, 2030
-France: 1980, 1993, 2005, 2018, 2030
-Constant 1975-1990, interpolates to trate.1 from 1990-1997
-Arrives at trate.1 in 1997, interpolates to trate.2 from 1997-2008 
-Arrives at trate.2 in 2008, interpolates to trate.3 from 2008-2018
-Arrives at trate.3 in 2018, interpolates to trate.4 from 2018-2030
-Arrives at trate.4 in 2030, constant after</t>
   </si>
   <si>
     <r>
@@ -1482,6 +1489,17 @@
   </si>
   <si>
     <t>Have age/sex data for South Africa</t>
+  </si>
+  <si>
+    <t>Joint lognormal distribution
+Time: 
+For most countries, spline points at 1990, 1997, 2008, 2018, 2030
+France: 1980, 1993, 2005, 2018, 2030
+Constant 1975-1990, interpolates to trate.1 from 1990-1997
+Arrives at trate.1 in 1997, interpolates to trate.2 from 1997-2008 
+Arrives at trate.2 in 2008, interpolates to trate.3 from 2008-2018
+Arrives at trate.3 in 2018, interpolates to trate.4 from 2018-2030
+Arrives at trate.4 in 2040, constant after</t>
   </si>
 </sst>
 </file>
@@ -2298,6 +2316,9 @@
   <threadedComment ref="M46" dT="2025-02-11T17:27:31.17" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{0B839532-569D-4D4C-A381-33FADF98442B}">
     <text>Add to EndNote</text>
   </threadedComment>
+  <threadedComment ref="G49" dT="2025-02-12T20:18:59.04" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{41F30597-8EA5-6B4E-BC92-48BBEE4F0910}">
+    <text>Consider using IeDEA data for Kenya as well and fit a similar model</text>
+  </threadedComment>
   <threadedComment ref="M49" dT="2025-02-11T17:30:23.24" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{00E16E41-5E5A-A346-873A-EE4F844290A8}">
     <text>Add to EndNote</text>
   </threadedComment>
@@ -2307,6 +2328,9 @@
   <threadedComment ref="M52" dT="2025-02-11T17:26:46.97" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{753F56CD-B2B7-304A-8622-25D8DD0D1979}">
     <text>Add to EndNote</text>
   </threadedComment>
+  <threadedComment ref="H53" dT="2025-02-12T20:18:44.91" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{DF732643-5046-054A-B155-7120A7E9DFEB}">
+    <text>Changed this to a similar method that we used for engagement - also did it for Kenya; regressed on year + age + sex; only sampled the logOR slope multiplier</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -2315,10 +2339,10 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2417,16 +2441,16 @@
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="26" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="G3" s="25" t="s">
         <v>185</v>
       </c>
       <c r="H3" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" s="25" t="s">
         <v>187</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>188</v>
       </c>
       <c r="J3" s="26"/>
       <c r="K3" s="26" t="s">
@@ -2892,7 +2916,7 @@
         <v>34</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>127</v>
@@ -3374,7 +3398,7 @@
         <v>40</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>33</v>
@@ -3412,7 +3436,7 @@
         <v>40</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>33</v>
@@ -3448,7 +3472,7 @@
         <v>40</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>33</v>
@@ -4152,7 +4176,7 @@
         <v>67</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N49" s="32"/>
     </row>
@@ -4202,7 +4226,7 @@
         <v>38</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>33</v>
@@ -4228,7 +4252,7 @@
         <v>68</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N51" s="32"/>
     </row>
@@ -4240,7 +4264,7 @@
         <v>38</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>33</v>
@@ -4264,7 +4288,7 @@
         <v>68</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N52" s="32"/>
     </row>
@@ -4289,7 +4313,7 @@
         <v>0.67328849999999996</v>
       </c>
       <c r="H53" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I53" s="31"/>
       <c r="J53" s="8" t="s">
@@ -4323,7 +4347,7 @@
         <v>0.67328849999999996</v>
       </c>
       <c r="H54" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I54" s="31"/>
       <c r="J54" s="8" t="s">

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F19CEC5-5A85-DD43-8C97-22FE5CA308E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B981966C-0B23-574E-B3F2-28A1FE32B0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19540" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
+    <workbookView xWindow="9600" yWindow="500" windowWidth="28800" windowHeight="19540" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,9 @@
     <author>tc={00E16E41-5E5A-A346-873A-EE4F844290A8}</author>
     <author>tc={3B29515A-DA97-DE4B-9218-64B49449A19B}</author>
     <author>tc={753F56CD-B2B7-304A-8622-25D8DD0D1979}</author>
-    <author>tc={DF732643-5046-054A-B155-7120A7E9DFEB}</author>
+    <author>tc={D3CE5D2B-CCB6-5F4A-AAD4-428FBBB80B79}</author>
+    <author>tc={46BFBF6F-DC78-CA41-85B1-E00E390885A9}</author>
+    <author>tc={423D72A7-D8AD-7D4E-812F-C2F4BDA9AA5D}</author>
   </authors>
   <commentList>
     <comment ref="M5" authorId="0" shapeId="0" xr:uid="{0ABF0B4F-7147-1846-9DC7-3352A8B74C22}">
@@ -134,12 +136,28 @@
     Add to EndNote</t>
       </text>
     </comment>
-    <comment ref="H53" authorId="10" shapeId="0" xr:uid="{DF732643-5046-054A-B155-7120A7E9DFEB}">
+    <comment ref="L53" authorId="10" shapeId="0" xr:uid="{D3CE5D2B-CCB6-5F4A-AAD4-428FBBB80B79}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Changed this to a similar method that we used for engagement - also did it for Kenya; regressed on year + age + sex; only sampled the logOR slope multiplier</t>
+    Add to EndNote</t>
+      </text>
+    </comment>
+    <comment ref="M53" authorId="11" shapeId="0" xr:uid="{46BFBF6F-DC78-CA41-85B1-E00E390885A9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Add to EndNote</t>
+      </text>
+    </comment>
+    <comment ref="M55" authorId="12" shapeId="0" xr:uid="{423D72A7-D8AD-7D4E-812F-C2F4BDA9AA5D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Add to EndNote</t>
       </text>
     </comment>
   </commentList>
@@ -147,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="197">
   <si>
     <t>Parameter</t>
   </si>
@@ -179,9 +197,6 @@
     <t>log(3)/2</t>
   </si>
   <si>
-    <t xml:space="preserve">Annual suppression rate in/after 2003  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Annual unsuppression rate </t>
   </si>
   <si>
@@ -192,9 +207,6 @@
   </si>
   <si>
     <t xml:space="preserve">Reduction multiplier for male suppression rates </t>
-  </si>
-  <si>
-    <t xml:space="preserve">log(4)/2 </t>
   </si>
   <si>
     <t>Annual HIV-specific mortality rate in 2005</t>
@@ -375,12 +387,6 @@
     <t>Lee et al</t>
   </si>
   <si>
-    <t>Njuguna et al</t>
-  </si>
-  <si>
-    <t>Maina et al</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ages &lt;50: Kenya DHS 2003 (Table 12.12), 2008 (Table 13.7.1), 2014 (Table 13.9.1)
 Ages 50-80: Mojola et al, 2015 </t>
   </si>
@@ -445,9 +451,6 @@
     <t>.</t>
   </si>
   <si>
-    <t xml:space="preserve">May change spline times or SD of prior for these </t>
-  </si>
-  <si>
     <t>(from de Oliveira)</t>
   </si>
   <si>
@@ -457,14 +460,6 @@
   <si>
     <t xml:space="preserve">Lognormal
 Constant </t>
-  </si>
-  <si>
-    <t>Lognormal
-Begins at this value in 1993, interpolates to suppression.rate.1 from 1993-2003</t>
-  </si>
-  <si>
-    <t>Lognormal
-Arrives at this value in 2003, constant after</t>
   </si>
   <si>
     <t>Country-specific deaths data (UN)</t>
@@ -533,9 +528,6 @@
       </rPr>
       <t>CHECK</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Annual suppression rate in 1993 </t>
   </si>
   <si>
     <t>Rate directly from data</t>
@@ -759,9 +751,6 @@
       <t xml:space="preserve"> based on regressing on age and year
 (e.g., rate of 2 means people tested twice a year; rate of 0.5 means tested every two years)</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Varies by year (age age/sex for South Africa) </t>
   </si>
   <si>
     <t>Engagement rate SLOPE multiplier</t>
@@ -1488,9 +1477,6 @@
 Can also cite cohort profile (Egger 2011; Chammartin 2020; Cornell 2009) </t>
   </si>
   <si>
-    <t>Have age/sex data for South Africa</t>
-  </si>
-  <si>
     <t>Joint lognormal distribution
 Time: 
 For most countries, spline points at 1990, 1997, 2008, 2018, 2030
@@ -1501,12 +1487,136 @@
 Arrives at trate.3 in 2018, interpolates to trate.4 from 2018-2030
 Arrives at trate.4 in 2040, constant after</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">IeDEA Dashboard: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Viral load suppression among patients 12 months after initiating ART
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Years:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2010, 2014, 2017 (fixed 1990 at 0)  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groups:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 10-19, 20-29, 30-39, 40-49, 50+; by sex
+Log linear model, fit the model: 
+fit = glm(log(prop) ~ year+age+sex)</t>
+    </r>
+  </si>
+  <si>
+    <t>Suppression rate SLOPE multiplier</t>
+  </si>
+  <si>
+    <t>Annual suppression rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate parameter table using "get_suppression_rebound_data.R" 
+See country-specific notes and suppression_rebound_rates.R in each parameter_mappings/country folder; logistic regression based on proportion virally suppressed 12 months after initiating ART; forecasted for all years based on regressing by year
+(e.g., rate of 2 means people take 6 months to become suppressed (0.5 year); rate of 0.5 means people take two years) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varies by year (age/sex for South Africa) </t>
+  </si>
+  <si>
+    <t>Varies by year, age, sex</t>
+  </si>
+  <si>
+    <t>Log odds ratio for the slope of the regression model fit to forecast suppression rates for all ages; added on the log scale; intercept anchored in 1990
+0 added on log scale = multiplier of 1 on normal scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IeDEA Dashboard: https://iedeadashboard.org/data/treatment-outcomes-art/
+Different link from engagement - this is among peopke initiating ART
+Can also cite cohort profile (Egger 2011; Chammartin 2020; Cornell 2009) </t>
+  </si>
+  <si>
+    <t>Hermans et al, 2020</t>
+  </si>
+  <si>
+    <t>Maina et al 2020</t>
+  </si>
+  <si>
+    <t>log(8)/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log(8)/2 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1562,6 +1672,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1766,7 +1882,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1949,6 +2065,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2328,8 +2447,14 @@
   <threadedComment ref="M52" dT="2025-02-11T17:26:46.97" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{753F56CD-B2B7-304A-8622-25D8DD0D1979}">
     <text>Add to EndNote</text>
   </threadedComment>
-  <threadedComment ref="H53" dT="2025-02-12T20:18:44.91" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{DF732643-5046-054A-B155-7120A7E9DFEB}">
-    <text>Changed this to a similar method that we used for engagement - also did it for Kenya; regressed on year + age + sex; only sampled the logOR slope multiplier</text>
+  <threadedComment ref="L53" dT="2025-02-11T17:30:23.24" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{D3CE5D2B-CCB6-5F4A-AAD4-428FBBB80B79}">
+    <text>Add to EndNote</text>
+  </threadedComment>
+  <threadedComment ref="M53" dT="2025-02-11T17:30:23.24" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{46BFBF6F-DC78-CA41-85B1-E00E390885A9}">
+    <text>Add to EndNote</text>
+  </threadedComment>
+  <threadedComment ref="M55" dT="2025-02-18T21:04:34.13" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{423D72A7-D8AD-7D4E-812F-C2F4BDA9AA5D}">
+    <text>Add to EndNote</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -2339,10 +2464,10 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="G53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="J56" sqref="J56:J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2358,7 +2483,7 @@
     <col min="11" max="11" width="24" style="5" customWidth="1"/>
     <col min="12" max="12" width="26" style="5" customWidth="1"/>
     <col min="13" max="13" width="37.5" style="5" customWidth="1"/>
-    <col min="14" max="14" width="24" style="5" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="24" style="5" customWidth="1"/>
     <col min="15" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
@@ -2367,25 +2492,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>30</v>
-      </c>
       <c r="E1" s="34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G1" s="35"/>
       <c r="H1" s="35"/>
       <c r="I1" s="37"/>
       <c r="J1" s="35" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K1" s="43" t="s">
         <v>1</v>
@@ -2401,56 +2526,56 @@
       <c r="D2" s="42"/>
       <c r="E2" s="38"/>
       <c r="F2" s="38" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="40" t="s">
         <v>24</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>26</v>
       </c>
       <c r="J2" s="39"/>
       <c r="K2" s="38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="40" t="s">
         <v>24</v>
-      </c>
-      <c r="M2" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="40" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="211" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>37</v>
-      </c>
       <c r="C3" s="23" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="26" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J3" s="26"/>
       <c r="K3" s="26" t="s">
@@ -2471,17 +2596,17 @@
         <v>4</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -2504,28 +2629,28 @@
     </row>
     <row r="5" spans="1:14" ht="204" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="H5" s="59" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I5" s="31"/>
       <c r="J5" s="30" t="s">
@@ -2533,35 +2658,35 @@
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="27" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="N5" s="32"/>
     </row>
     <row r="6" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6" s="27"/>
       <c r="F6" s="30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="30" t="s">
@@ -2569,31 +2694,31 @@
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="N6" s="32"/>
     </row>
     <row r="7" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="50"/>
@@ -2616,22 +2741,22 @@
     </row>
     <row r="8" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="50"/>
@@ -2654,22 +2779,22 @@
     </row>
     <row r="9" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="50"/>
@@ -2692,22 +2817,22 @@
     </row>
     <row r="10" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="50"/>
@@ -2733,19 +2858,19 @@
         <v>6</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -2754,7 +2879,7 @@
         <v>5</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
@@ -2765,25 +2890,25 @@
         <v>7</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="30" t="s">
@@ -2791,31 +2916,31 @@
       </c>
       <c r="K12" s="20"/>
       <c r="L12" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M12" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N12" s="32"/>
     </row>
     <row r="13" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
@@ -2838,54 +2963,56 @@
     </row>
     <row r="14" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="31"/>
+        <v>51</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="I14" s="31"/>
       <c r="J14" s="30" t="s">
         <v>9</v>
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M14" s="31"/>
       <c r="N14" s="32"/>
     </row>
     <row r="15" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -2894,32 +3021,32 @@
         <v>9</v>
       </c>
       <c r="K15" s="30" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M15" s="27"/>
       <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -2928,7 +3055,7 @@
         <v>5</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
@@ -2936,22 +3063,22 @@
     </row>
     <row r="17" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="50"/>
@@ -2974,22 +3101,22 @@
     </row>
     <row r="18" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="50"/>
@@ -3012,22 +3139,22 @@
     </row>
     <row r="19" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="50"/>
@@ -3050,22 +3177,22 @@
     </row>
     <row r="20" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="50"/>
@@ -3088,22 +3215,22 @@
     </row>
     <row r="21" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="50"/>
@@ -3126,22 +3253,22 @@
     </row>
     <row r="22" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="50"/>
@@ -3164,22 +3291,22 @@
     </row>
     <row r="23" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="50"/>
@@ -3202,22 +3329,22 @@
     </row>
     <row r="24" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="50"/>
@@ -3240,22 +3367,22 @@
     </row>
     <row r="25" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="50"/>
@@ -3278,22 +3405,22 @@
     </row>
     <row r="26" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" s="18"/>
       <c r="H26" s="50"/>
@@ -3316,22 +3443,22 @@
     </row>
     <row r="27" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="50"/>
@@ -3354,22 +3481,22 @@
     </row>
     <row r="28" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="50"/>
@@ -3392,22 +3519,22 @@
     </row>
     <row r="29" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G29" s="14">
         <v>4.0579709999999998E-2</v>
@@ -3422,7 +3549,7 @@
         <v>3</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L29" s="16"/>
       <c r="M29" s="14"/>
@@ -3430,20 +3557,20 @@
     </row>
     <row r="30" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="14" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="G30" s="14">
         <v>8.1250000000000003E-2</v>
@@ -3458,7 +3585,7 @@
         <v>3</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L30" s="16"/>
       <c r="M30" s="14"/>
@@ -3466,20 +3593,20 @@
     </row>
     <row r="31" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="14" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G31" s="14">
         <v>0.02</v>
@@ -3494,7 +3621,7 @@
         <v>3</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L31" s="16"/>
       <c r="M31" s="14"/>
@@ -3502,20 +3629,20 @@
     </row>
     <row r="32" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="14" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
@@ -3538,20 +3665,20 @@
     </row>
     <row r="33" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="14" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
@@ -3574,20 +3701,20 @@
     </row>
     <row r="34" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="14" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
@@ -3610,20 +3737,20 @@
     </row>
     <row r="35" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -3646,20 +3773,20 @@
     </row>
     <row r="36" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
@@ -3682,20 +3809,20 @@
     </row>
     <row r="37" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="44" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C37" s="46" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D37" s="47"/>
       <c r="E37" s="45" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
@@ -3704,7 +3831,7 @@
         <v>5</v>
       </c>
       <c r="K37" s="51" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="L37" s="36"/>
       <c r="M37" s="36"/>
@@ -3712,22 +3839,22 @@
     </row>
     <row r="38" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C38" s="46" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E38" s="45" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F38" s="44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
@@ -3750,66 +3877,66 @@
     </row>
     <row r="39" spans="1:14" ht="170" x14ac:dyDescent="0.2">
       <c r="A39" s="44" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F39" s="44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
       <c r="J39" s="48" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K39" s="48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L39" s="44" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M39" s="44" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N39" s="45" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E40" s="45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F40" s="44" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G40" s="44">
         <v>0.25</v>
       </c>
       <c r="H40" s="49" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I40" s="44"/>
       <c r="J40" s="48" t="s">
@@ -3830,26 +3957,26 @@
     </row>
     <row r="41" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="44" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E41" s="45"/>
       <c r="F41" s="44" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G41" s="44">
         <v>0.25</v>
       </c>
       <c r="H41" s="49" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I41" s="44"/>
       <c r="J41" s="48" t="s">
@@ -3870,26 +3997,26 @@
     </row>
     <row r="42" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C42" s="46" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="44" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G42" s="44">
         <v>2</v>
       </c>
       <c r="H42" s="49" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I42" s="44"/>
       <c r="J42" s="48" t="s">
@@ -3910,26 +4037,26 @@
     </row>
     <row r="43" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E43" s="45"/>
       <c r="F43" s="44" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G43" s="44">
         <v>2</v>
       </c>
       <c r="H43" s="49" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I43" s="44"/>
       <c r="J43" s="48" t="s">
@@ -3950,26 +4077,26 @@
     </row>
     <row r="44" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E44" s="45"/>
       <c r="F44" s="44" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G44" s="44">
         <v>2</v>
       </c>
       <c r="H44" s="49" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I44" s="44"/>
       <c r="J44" s="48" t="s">
@@ -3990,30 +4117,30 @@
     </row>
     <row r="45" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E45" s="45"/>
       <c r="F45" s="44" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G45" s="44">
         <v>1</v>
       </c>
       <c r="H45" s="49" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I45" s="44"/>
       <c r="J45" s="48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K45" s="48" t="s">
         <v>2</v>
@@ -4030,28 +4157,28 @@
     </row>
     <row r="46" spans="1:14" ht="276" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G46" s="60" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="H46" s="60" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="I46" s="31"/>
       <c r="J46" s="8" t="s">
@@ -4059,31 +4186,31 @@
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="6" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="N46" s="32"/>
     </row>
     <row r="47" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
@@ -4106,22 +4233,22 @@
     </row>
     <row r="48" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
@@ -4144,28 +4271,28 @@
     </row>
     <row r="49" spans="1:14" ht="227" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G49" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="H49" s="60" t="s">
         <v>169</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G49" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="H49" s="60" t="s">
-        <v>178</v>
       </c>
       <c r="I49" s="31"/>
       <c r="J49" s="8" t="s">
@@ -4173,31 +4300,31 @@
       </c>
       <c r="K49" s="20"/>
       <c r="L49" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="N49" s="32"/>
     </row>
     <row r="50" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="G50" s="18"/>
       <c r="H50" s="57"/>
@@ -4220,22 +4347,22 @@
     </row>
     <row r="51" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G51" s="6">
         <v>0.1392621</v>
@@ -4249,29 +4376,29 @@
       </c>
       <c r="K51" s="20"/>
       <c r="L51" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="N51" s="32"/>
     </row>
     <row r="52" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G52" s="6">
         <v>0.1025866</v>
@@ -4285,137 +4412,145 @@
       </c>
       <c r="K52" s="20"/>
       <c r="L52" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="N52" s="32"/>
     </row>
-    <row r="53" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="238" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>114</v>
+        <v>187</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E53" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="F53" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G53" s="6">
-        <v>0.67328849999999996</v>
-      </c>
-      <c r="H53" s="31" t="s">
-        <v>193</v>
+        <v>190</v>
+      </c>
+      <c r="G53" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="H53" s="60" t="s">
+        <v>185</v>
       </c>
       <c r="I53" s="31"/>
-      <c r="J53" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="J53" s="8"/>
       <c r="K53" s="20"/>
       <c r="L53" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="M53" s="31"/>
+        <v>192</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>192</v>
+      </c>
       <c r="N53" s="32"/>
     </row>
-    <row r="54" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>113</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E54" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>191</v>
+      </c>
       <c r="F54" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G54" s="6">
-        <v>0.67328849999999996</v>
-      </c>
-      <c r="H54" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="I54" s="31"/>
+        <v>165</v>
+      </c>
+      <c r="G54" s="18"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="18"/>
       <c r="J54" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="20"/>
+      <c r="K54" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="L54" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="M54" s="31"/>
-      <c r="N54" s="32"/>
-    </row>
-    <row r="55" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N54" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G55" s="6">
-        <v>0.1971601</v>
-      </c>
-      <c r="H55" s="31"/>
+        <v>0.21959999999999999</v>
+      </c>
+      <c r="H55" s="6">
+        <v>7.5484389999999998E-2</v>
+      </c>
       <c r="I55" s="31"/>
       <c r="J55" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K55" s="20"/>
       <c r="L55" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M55" s="31"/>
+        <v>194</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="N55" s="32"/>
     </row>
     <row r="56" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G56" s="18"/>
-      <c r="H56" s="50" t="s">
-        <v>91</v>
-      </c>
+      <c r="H56" s="50"/>
       <c r="I56" s="18"/>
-      <c r="J56" s="8" t="s">
-        <v>3</v>
+      <c r="J56" s="62" t="s">
+        <v>195</v>
       </c>
       <c r="K56" s="8" t="s">
         <v>2</v>
@@ -4432,28 +4567,26 @@
     </row>
     <row r="57" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G57" s="18"/>
-      <c r="H57" s="50" t="s">
-        <v>91</v>
-      </c>
+      <c r="H57" s="50"/>
       <c r="I57" s="18"/>
-      <c r="J57" s="8" t="s">
-        <v>3</v>
+      <c r="J57" s="62" t="s">
+        <v>195</v>
       </c>
       <c r="K57" s="8" t="s">
         <v>2</v>
@@ -4470,28 +4603,26 @@
     </row>
     <row r="58" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G58" s="18"/>
-      <c r="H58" s="50" t="s">
-        <v>91</v>
-      </c>
+      <c r="H58" s="50"/>
       <c r="I58" s="18"/>
-      <c r="J58" s="8" t="s">
-        <v>15</v>
+      <c r="J58" s="62" t="s">
+        <v>196</v>
       </c>
       <c r="K58" s="8" t="s">
         <v>2</v>
@@ -4508,46 +4639,46 @@
     </row>
     <row r="59" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B981966C-0B23-574E-B3F2-28A1FE32B0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9375C7C7-D79E-3C40-96F0-9DEF27462149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="500" windowWidth="28800" windowHeight="19540" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19540" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -42,8 +42,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={0ABF0B4F-7147-1846-9DC7-3352A8B74C22}</author>
+    <author>tc={DEEFC1FC-4AE3-B547-B2E2-4F72BF97885B}</author>
     <author>tc={2864E438-E4F2-6B4C-813C-2C3820520647}</author>
     <author>tc={32A8BCDF-158B-7E4E-A7CC-897560825B58}</author>
+    <author>tc={511899CD-0E64-1040-9092-AC4D3967D5AE}</author>
     <author>tc={04385ABF-366F-F14D-B686-003B7FD6A102}</author>
     <author>tc={51F972CD-9F3E-FF43-98B5-159579D7B474}</author>
     <author>tc={0B839532-569D-4D4C-A381-33FADF98442B}</author>
@@ -64,7 +66,15 @@
     Add to EndNote</t>
       </text>
     </comment>
-    <comment ref="M6" authorId="1" shapeId="0" xr:uid="{2864E438-E4F2-6B4C-813C-2C3820520647}">
+    <comment ref="N5" authorId="1" shapeId="0" xr:uid="{DEEFC1FC-4AE3-B547-B2E2-4F72BF97885B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Add to Endnote</t>
+      </text>
+    </comment>
+    <comment ref="M6" authorId="2" shapeId="0" xr:uid="{2864E438-E4F2-6B4C-813C-2C3820520647}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -72,7 +82,7 @@
     Add to EndNote</t>
       </text>
     </comment>
-    <comment ref="E10" authorId="2" shapeId="0" xr:uid="{32A8BCDF-158B-7E4E-A7CC-897560825B58}">
+    <comment ref="E10" authorId="3" shapeId="0" xr:uid="{32A8BCDF-158B-7E4E-A7CC-897560825B58}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -80,7 +90,15 @@
     This used to say “prior to/in 1990” - look into why; looks like I always had 4 parameters?</t>
       </text>
     </comment>
-    <comment ref="L14" authorId="3" shapeId="0" xr:uid="{04385ABF-366F-F14D-B686-003B7FD6A102}">
+    <comment ref="N12" authorId="4" shapeId="0" xr:uid="{511899CD-0E64-1040-9092-AC4D3967D5AE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Add to EndNote</t>
+      </text>
+    </comment>
+    <comment ref="L14" authorId="5" shapeId="0" xr:uid="{04385ABF-366F-F14D-B686-003B7FD6A102}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -88,7 +106,7 @@
     This includes 13 prospective studies from different regions; 0.42 estimate was Kenya-specific but they have Europe, France specifically, and other African countries</t>
       </text>
     </comment>
-    <comment ref="K15" authorId="4" shapeId="0" xr:uid="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
+    <comment ref="K15" authorId="6" shapeId="0" xr:uid="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -96,7 +114,7 @@
     Update to WHO reference because this is actually a global estimate</t>
       </text>
     </comment>
-    <comment ref="M46" authorId="5" shapeId="0" xr:uid="{0B839532-569D-4D4C-A381-33FADF98442B}">
+    <comment ref="M46" authorId="7" shapeId="0" xr:uid="{0B839532-569D-4D4C-A381-33FADF98442B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -104,7 +122,7 @@
     Add to EndNote</t>
       </text>
     </comment>
-    <comment ref="G49" authorId="6" shapeId="0" xr:uid="{41F30597-8EA5-6B4E-BC92-48BBEE4F0910}">
+    <comment ref="G49" authorId="8" shapeId="0" xr:uid="{41F30597-8EA5-6B4E-BC92-48BBEE4F0910}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -112,7 +130,7 @@
     Consider using IeDEA data for Kenya as well and fit a similar model</t>
       </text>
     </comment>
-    <comment ref="M49" authorId="7" shapeId="0" xr:uid="{00E16E41-5E5A-A346-873A-EE4F844290A8}">
+    <comment ref="M49" authorId="9" shapeId="0" xr:uid="{00E16E41-5E5A-A346-873A-EE4F844290A8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -120,7 +138,7 @@
     Add to EndNote</t>
       </text>
     </comment>
-    <comment ref="M51" authorId="8" shapeId="0" xr:uid="{3B29515A-DA97-DE4B-9218-64B49449A19B}">
+    <comment ref="M51" authorId="10" shapeId="0" xr:uid="{3B29515A-DA97-DE4B-9218-64B49449A19B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -128,7 +146,7 @@
     Add to EndNote</t>
       </text>
     </comment>
-    <comment ref="M52" authorId="9" shapeId="0" xr:uid="{753F56CD-B2B7-304A-8622-25D8DD0D1979}">
+    <comment ref="M52" authorId="11" shapeId="0" xr:uid="{753F56CD-B2B7-304A-8622-25D8DD0D1979}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -136,7 +154,7 @@
     Add to EndNote</t>
       </text>
     </comment>
-    <comment ref="L53" authorId="10" shapeId="0" xr:uid="{D3CE5D2B-CCB6-5F4A-AAD4-428FBBB80B79}">
+    <comment ref="L53" authorId="12" shapeId="0" xr:uid="{D3CE5D2B-CCB6-5F4A-AAD4-428FBBB80B79}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -144,7 +162,7 @@
     Add to EndNote</t>
       </text>
     </comment>
-    <comment ref="M53" authorId="11" shapeId="0" xr:uid="{46BFBF6F-DC78-CA41-85B1-E00E390885A9}">
+    <comment ref="M53" authorId="13" shapeId="0" xr:uid="{46BFBF6F-DC78-CA41-85B1-E00E390885A9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -152,7 +170,7 @@
     Add to EndNote</t>
       </text>
     </comment>
-    <comment ref="M55" authorId="12" shapeId="0" xr:uid="{423D72A7-D8AD-7D4E-812F-C2F4BDA9AA5D}">
+    <comment ref="M55" authorId="14" shapeId="0" xr:uid="{423D72A7-D8AD-7D4E-812F-C2F4BDA9AA5D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -165,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="200">
   <si>
     <t>Parameter</t>
   </si>
@@ -363,12 +381,6 @@
     <t>All countries</t>
   </si>
   <si>
-    <t xml:space="preserve">De Oliveira et al 2017 </t>
-  </si>
-  <si>
-    <t>De Oliveira et al 2017</t>
-  </si>
-  <si>
     <t>Marks et al 2005, Marks et al 2006</t>
   </si>
   <si>
@@ -514,20 +526,6 @@
   </si>
   <si>
     <t>e.g., rate of 0.2 means people disengage after 5 years [1/0.2 = 5]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Probability derived from literature; converted to rate - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>CHECK</t>
-    </r>
   </si>
   <si>
     <t>Rate directly from data</t>
@@ -1467,9 +1465,6 @@
     <t xml:space="preserve">Probability derived from literature; converted to rate </t>
   </si>
   <si>
-    <t>Probability derived from literature; converted to rate \</t>
-  </si>
-  <si>
     <t>Cornell et al 2010 (IeDEA-SA)</t>
   </si>
   <si>
@@ -1610,6 +1605,96 @@
   </si>
   <si>
     <t xml:space="preserve">log(8)/2 </t>
+  </si>
+  <si>
+    <t>NO LONGER SAMPLING THIS - 2/21</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Years
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- CSF (Sexual Behavior survey): 1992, 2007, 2023 (using 2007 estimates for 2003 and 2008 spline points; 2023 estimates for 2014 spline point) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Age groups</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- 2007: 18-19, 20-24, 25-34, 35-39, 40-49, 50-59, 60-69; reference age = 35-39
+- 2023: 18-29, 30-39, 40-49, 50-59, 60-69, 70-89; reference age = 30-39
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Calculation: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- 2007: (proportion with multiple partners or proportion high risk sex)
+- 2023: (proportion met partner online)*(1-condom use with new partner)*(sex in the past year)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2007 CSF: Extracted from figure 3 (pg. 11)
+2023 CSF: Figure 3 (online partner); figure 8 (sexual activity in past year); figure 17 (condom use) </t>
+  </si>
+  <si>
+    <t>Bajos, 1995: Analysis of data from 1992 CSF (France's sexual behavior survey); age-mixing matrices for heterosexual partnerships formed in the last 12 months
+Age groups: 18-21, 22-24, 25-34, 45-59 (includes % partners who are &lt;18 and &gt;60)</t>
+  </si>
+  <si>
+    <t>- De Oliveira, 2017: genotyping of transmission clusters in South Africa
+- Male-to-female transmission: used mean difference in age between HIV-positive women and their male partners in male-female clusters (male partners are also HIV-positive)
+- Female-to-male transmission: used mean difference in age between HIV-positive women and their male partners in the community survey (male partners are negative)</t>
+  </si>
+  <si>
+    <t>Bajos 1995 (Table 9)</t>
+  </si>
+  <si>
+    <t>De Oliveira et al 2017 (Table 3)</t>
   </si>
 </sst>
 </file>
@@ -1882,7 +1967,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2068,6 +2153,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2420,11 +2508,17 @@
   <threadedComment ref="M5" dT="2025-02-11T17:27:06.77" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{0ABF0B4F-7147-1846-9DC7-3352A8B74C22}">
     <text>Add to EndNote</text>
   </threadedComment>
+  <threadedComment ref="N5" dT="2025-02-21T14:49:43.98" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{DEEFC1FC-4AE3-B547-B2E2-4F72BF97885B}">
+    <text>Add to Endnote</text>
+  </threadedComment>
   <threadedComment ref="M6" dT="2025-02-11T17:27:06.77" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{2864E438-E4F2-6B4C-813C-2C3820520647}">
     <text>Add to EndNote</text>
   </threadedComment>
   <threadedComment ref="E10" dT="2025-01-22T18:30:30.03" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{32A8BCDF-158B-7E4E-A7CC-897560825B58}">
     <text>This used to say “prior to/in 1990” - look into why; looks like I always had 4 parameters?</text>
+  </threadedComment>
+  <threadedComment ref="N12" dT="2025-02-21T15:07:09.65" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{511899CD-0E64-1040-9092-AC4D3967D5AE}">
+    <text>Add to EndNote</text>
   </threadedComment>
   <threadedComment ref="L14" dT="2025-01-22T18:42:38.64" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{04385ABF-366F-F14D-B686-003B7FD6A102}">
     <text>This includes 13 prospective studies from different regions; 0.42 estimate was Kenya-specific but they have Europe, France specifically, and other African countries</text>
@@ -2464,10 +2558,10 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="G53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J56" sqref="J56:J58"/>
+      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2483,7 +2577,7 @@
     <col min="11" max="11" width="24" style="5" customWidth="1"/>
     <col min="12" max="12" width="26" style="5" customWidth="1"/>
     <col min="13" max="13" width="37.5" style="5" customWidth="1"/>
-    <col min="14" max="14" width="24" style="5" customWidth="1"/>
+    <col min="14" max="14" width="30.5" style="5" customWidth="1"/>
     <col min="15" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
@@ -2510,7 +2604,7 @@
       <c r="H1" s="35"/>
       <c r="I1" s="37"/>
       <c r="J1" s="35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K1" s="43" t="s">
         <v>1</v>
@@ -2559,23 +2653,23 @@
         <v>35</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="26" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J3" s="26"/>
       <c r="K3" s="26" t="s">
@@ -2599,7 +2693,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
@@ -2627,9 +2721,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="204" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="272" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>35</v>
@@ -2641,33 +2735,37 @@
         <v>32</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H5" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="I5" s="31"/>
+        <v>168</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>194</v>
+      </c>
       <c r="J5" s="30" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="N5" s="32"/>
+        <v>155</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>35</v>
@@ -2683,39 +2781,43 @@
         <v>46</v>
       </c>
       <c r="G6" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="H6" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="I6" s="31"/>
+      <c r="I6" s="27" t="s">
+        <v>152</v>
+      </c>
       <c r="J6" s="30" t="s">
         <v>5</v>
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="N6" s="32"/>
+        <v>155</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>47</v>
@@ -2741,19 +2843,19 @@
     </row>
     <row r="8" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>47</v>
@@ -2779,19 +2881,19 @@
     </row>
     <row r="9" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="28" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>47</v>
@@ -2817,19 +2919,19 @@
     </row>
     <row r="10" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F10" s="30" t="s">
         <v>47</v>
@@ -2867,7 +2969,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F11" s="30" t="s">
         <v>48</v>
@@ -2879,13 +2981,13 @@
         <v>5</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
       <c r="N11" s="29"/>
     </row>
-    <row r="12" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>7</v>
       </c>
@@ -2899,45 +3001,49 @@
         <v>32</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F12" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="27" t="s">
-        <v>87</v>
+      <c r="G12" s="63" t="s">
+        <v>197</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" s="31"/>
+        <v>85</v>
+      </c>
+      <c r="I12" s="63" t="s">
+        <v>196</v>
+      </c>
       <c r="J12" s="30" t="s">
         <v>5</v>
       </c>
       <c r="K12" s="20"/>
       <c r="L12" s="27" t="s">
-        <v>59</v>
+        <v>199</v>
       </c>
       <c r="M12" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="N12" s="32"/>
+        <v>199</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>50</v>
@@ -2963,7 +3069,7 @@
     </row>
     <row r="14" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>35</v>
@@ -2975,7 +3081,7 @@
         <v>31</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="27" t="s">
@@ -2990,14 +3096,16 @@
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="M14" s="31"/>
+        <v>61</v>
+      </c>
+      <c r="M14" s="27" t="s">
+        <v>61</v>
+      </c>
       <c r="N14" s="32"/>
     </row>
     <row r="15" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>35</v>
@@ -3009,7 +3117,7 @@
         <v>31</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F15" s="30" t="s">
         <v>52</v>
@@ -3021,13 +3129,13 @@
         <v>9</v>
       </c>
       <c r="K15" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="L15" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="M15" s="27"/>
-      <c r="N15" s="29"/>
+        <v>72</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" s="18"/>
+      <c r="N15" s="19"/>
     </row>
     <row r="16" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
@@ -3037,16 +3145,16 @@
         <v>37</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -3055,7 +3163,7 @@
         <v>5</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
@@ -3063,19 +3171,19 @@
     </row>
     <row r="17" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>50</v>
@@ -3101,19 +3209,19 @@
     </row>
     <row r="18" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>50</v>
@@ -3139,19 +3247,19 @@
     </row>
     <row r="19" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>50</v>
@@ -3177,19 +3285,19 @@
     </row>
     <row r="20" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>50</v>
@@ -3215,19 +3323,19 @@
     </row>
     <row r="21" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>50</v>
@@ -3253,19 +3361,19 @@
     </row>
     <row r="22" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>50</v>
@@ -3291,19 +3399,19 @@
     </row>
     <row r="23" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>50</v>
@@ -3329,19 +3437,19 @@
     </row>
     <row r="24" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>50</v>
@@ -3367,19 +3475,19 @@
     </row>
     <row r="25" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>50</v>
@@ -3405,19 +3513,19 @@
     </row>
     <row r="26" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>50</v>
@@ -3443,19 +3551,19 @@
     </row>
     <row r="27" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>50</v>
@@ -3481,19 +3589,19 @@
     </row>
     <row r="28" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>50</v>
@@ -3519,22 +3627,22 @@
     </row>
     <row r="29" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G29" s="14">
         <v>4.0579709999999998E-2</v>
@@ -3549,7 +3657,7 @@
         <v>3</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L29" s="16"/>
       <c r="M29" s="14"/>
@@ -3563,14 +3671,14 @@
         <v>38</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G30" s="14">
         <v>8.1250000000000003E-2</v>
@@ -3585,7 +3693,7 @@
         <v>3</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L30" s="16"/>
       <c r="M30" s="14"/>
@@ -3599,14 +3707,14 @@
         <v>38</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G31" s="14">
         <v>0.02</v>
@@ -3621,7 +3729,7 @@
         <v>3</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L31" s="16"/>
       <c r="M31" s="14"/>
@@ -3629,20 +3737,20 @@
     </row>
     <row r="32" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
@@ -3665,20 +3773,20 @@
     </row>
     <row r="33" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
@@ -3701,20 +3809,20 @@
     </row>
     <row r="34" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
@@ -3737,13 +3845,13 @@
     </row>
     <row r="35" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>31</v>
@@ -3773,13 +3881,13 @@
     </row>
     <row r="36" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>31</v>
@@ -3809,20 +3917,20 @@
     </row>
     <row r="37" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="44" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B37" s="45" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="46" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D37" s="47"/>
       <c r="E37" s="45" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
@@ -3831,7 +3939,7 @@
         <v>5</v>
       </c>
       <c r="K37" s="51" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L37" s="36"/>
       <c r="M37" s="36"/>
@@ -3845,13 +3953,13 @@
         <v>39</v>
       </c>
       <c r="C38" s="46" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D38" s="47" t="s">
         <v>31</v>
       </c>
       <c r="E38" s="45" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F38" s="44" t="s">
         <v>55</v>
@@ -3877,19 +3985,19 @@
     </row>
     <row r="39" spans="1:14" ht="170" x14ac:dyDescent="0.2">
       <c r="A39" s="44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B39" s="45" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D39" s="47" t="s">
         <v>32</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F39" s="44" t="s">
         <v>56</v>
@@ -3921,7 +4029,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D40" s="47" t="s">
         <v>31</v>
@@ -3930,13 +4038,13 @@
         <v>20</v>
       </c>
       <c r="F40" s="44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G40" s="44">
         <v>0.25</v>
       </c>
       <c r="H40" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I40" s="44"/>
       <c r="J40" s="48" t="s">
@@ -3963,20 +4071,20 @@
         <v>39</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D41" s="47" t="s">
         <v>31</v>
       </c>
       <c r="E41" s="45"/>
       <c r="F41" s="44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G41" s="44">
         <v>0.25</v>
       </c>
       <c r="H41" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I41" s="44"/>
       <c r="J41" s="48" t="s">
@@ -4003,20 +4111,20 @@
         <v>39</v>
       </c>
       <c r="C42" s="46" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D42" s="47" t="s">
         <v>31</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="44" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G42" s="44">
         <v>2</v>
       </c>
       <c r="H42" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I42" s="44"/>
       <c r="J42" s="48" t="s">
@@ -4043,20 +4151,20 @@
         <v>39</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D43" s="47" t="s">
         <v>31</v>
       </c>
       <c r="E43" s="45"/>
       <c r="F43" s="44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G43" s="44">
         <v>2</v>
       </c>
       <c r="H43" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I43" s="44"/>
       <c r="J43" s="48" t="s">
@@ -4083,20 +4191,20 @@
         <v>39</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D44" s="47" t="s">
         <v>31</v>
       </c>
       <c r="E44" s="45"/>
       <c r="F44" s="44" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G44" s="44">
         <v>2</v>
       </c>
       <c r="H44" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I44" s="44"/>
       <c r="J44" s="48" t="s">
@@ -4123,20 +4231,20 @@
         <v>39</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D45" s="47" t="s">
         <v>31</v>
       </c>
       <c r="E45" s="45"/>
       <c r="F45" s="44" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G45" s="44">
         <v>1</v>
       </c>
       <c r="H45" s="49" t="s">
-        <v>95</v>
+        <v>193</v>
       </c>
       <c r="I45" s="44"/>
       <c r="J45" s="48" t="s">
@@ -4157,7 +4265,7 @@
     </row>
     <row r="46" spans="1:14" ht="276" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>36</v>
@@ -4169,16 +4277,16 @@
         <v>32</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G46" s="60" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H46" s="60" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I46" s="31"/>
       <c r="J46" s="8" t="s">
@@ -4186,28 +4294,28 @@
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N46" s="32"/>
     </row>
     <row r="47" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>53</v>
@@ -4233,19 +4341,19 @@
     </row>
     <row r="48" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>53</v>
@@ -4271,7 +4379,7 @@
     </row>
     <row r="49" spans="1:14" ht="227" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>36</v>
@@ -4283,16 +4391,16 @@
         <v>32</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G49" s="60" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H49" s="60" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I49" s="31"/>
       <c r="J49" s="8" t="s">
@@ -4300,31 +4408,31 @@
       </c>
       <c r="K49" s="20"/>
       <c r="L49" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="N49" s="32"/>
     </row>
     <row r="50" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G50" s="18"/>
       <c r="H50" s="57"/>
@@ -4347,22 +4455,22 @@
     </row>
     <row r="51" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G51" s="6">
         <v>0.1392621</v>
@@ -4376,29 +4484,29 @@
       </c>
       <c r="K51" s="20"/>
       <c r="L51" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N51" s="32"/>
     </row>
     <row r="52" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G52" s="6">
         <v>0.1025866</v>
@@ -4412,16 +4520,16 @@
       </c>
       <c r="K52" s="20"/>
       <c r="L52" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N52" s="32"/>
     </row>
     <row r="53" spans="1:14" ht="238" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>36</v>
@@ -4433,46 +4541,46 @@
         <v>32</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G53" s="60" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H53" s="60" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I53" s="31"/>
       <c r="J53" s="8"/>
       <c r="K53" s="20"/>
       <c r="L53" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="N53" s="32"/>
     </row>
     <row r="54" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G54" s="18"/>
       <c r="H54" s="57"/>
@@ -4493,7 +4601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>10</v>
       </c>
@@ -4501,14 +4609,14 @@
         <v>36</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G55" s="6">
         <v>0.21959999999999999</v>
@@ -4522,10 +4630,10 @@
       </c>
       <c r="K55" s="20"/>
       <c r="L55" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N55" s="32"/>
     </row>
@@ -4537,7 +4645,7 @@
         <v>36</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>31</v>
@@ -4550,7 +4658,7 @@
       <c r="H56" s="50"/>
       <c r="I56" s="18"/>
       <c r="J56" s="62" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K56" s="8" t="s">
         <v>2</v>
@@ -4573,7 +4681,7 @@
         <v>36</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>31</v>
@@ -4586,7 +4694,7 @@
       <c r="H57" s="50"/>
       <c r="I57" s="18"/>
       <c r="J57" s="62" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K57" s="8" t="s">
         <v>2</v>
@@ -4609,7 +4717,7 @@
         <v>36</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>31</v>
@@ -4622,7 +4730,7 @@
       <c r="H58" s="50"/>
       <c r="I58" s="18"/>
       <c r="J58" s="62" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K58" s="8" t="s">
         <v>2</v>
@@ -4639,46 +4747,46 @@
     </row>
     <row r="59" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9375C7C7-D79E-3C40-96F0-9DEF27462149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4302551-1415-844B-9C2C-77C01A4E39EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19540" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>
@@ -1701,7 +1701,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1757,12 +1757,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow (Body)"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2558,10 +2552,10 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
+      <selection pane="bottomRight" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4302551-1415-844B-9C2C-77C01A4E39EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE147F7-D4D5-5D44-9E35-14B0359EFB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19540" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>
@@ -2552,7 +2552,7 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="F55" sqref="F55"/>

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE147F7-D4D5-5D44-9E35-14B0359EFB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D085E6C5-78E3-7D48-B869-FCDB2A3E400C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19540" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="params" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">params!$A$1:$N$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">params!$A$1:$O$59</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -53,12 +53,11 @@
     <author>tc={00E16E41-5E5A-A346-873A-EE4F844290A8}</author>
     <author>tc={3B29515A-DA97-DE4B-9218-64B49449A19B}</author>
     <author>tc={753F56CD-B2B7-304A-8622-25D8DD0D1979}</author>
-    <author>tc={D3CE5D2B-CCB6-5F4A-AAD4-428FBBB80B79}</author>
     <author>tc={46BFBF6F-DC78-CA41-85B1-E00E390885A9}</author>
     <author>tc={423D72A7-D8AD-7D4E-812F-C2F4BDA9AA5D}</author>
   </authors>
   <commentList>
-    <comment ref="M5" authorId="0" shapeId="0" xr:uid="{0ABF0B4F-7147-1846-9DC7-3352A8B74C22}">
+    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{0ABF0B4F-7147-1846-9DC7-3352A8B74C22}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -66,7 +65,7 @@
     Add to EndNote</t>
       </text>
     </comment>
-    <comment ref="N5" authorId="1" shapeId="0" xr:uid="{DEEFC1FC-4AE3-B547-B2E2-4F72BF97885B}">
+    <comment ref="O5" authorId="1" shapeId="0" xr:uid="{DEEFC1FC-4AE3-B547-B2E2-4F72BF97885B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -74,7 +73,7 @@
     Add to Endnote</t>
       </text>
     </comment>
-    <comment ref="M6" authorId="2" shapeId="0" xr:uid="{2864E438-E4F2-6B4C-813C-2C3820520647}">
+    <comment ref="N6" authorId="2" shapeId="0" xr:uid="{2864E438-E4F2-6B4C-813C-2C3820520647}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -90,7 +89,7 @@
     This used to say “prior to/in 1990” - look into why; looks like I always had 4 parameters?</t>
       </text>
     </comment>
-    <comment ref="N12" authorId="4" shapeId="0" xr:uid="{511899CD-0E64-1040-9092-AC4D3967D5AE}">
+    <comment ref="O12" authorId="4" shapeId="0" xr:uid="{511899CD-0E64-1040-9092-AC4D3967D5AE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -98,7 +97,7 @@
     Add to EndNote</t>
       </text>
     </comment>
-    <comment ref="L14" authorId="5" shapeId="0" xr:uid="{04385ABF-366F-F14D-B686-003B7FD6A102}">
+    <comment ref="M14" authorId="5" shapeId="0" xr:uid="{04385ABF-366F-F14D-B686-003B7FD6A102}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -106,7 +105,7 @@
     This includes 13 prospective studies from different regions; 0.42 estimate was Kenya-specific but they have Europe, France specifically, and other African countries</t>
       </text>
     </comment>
-    <comment ref="K15" authorId="6" shapeId="0" xr:uid="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
+    <comment ref="L15" authorId="6" shapeId="0" xr:uid="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -114,7 +113,7 @@
     Update to WHO reference because this is actually a global estimate</t>
       </text>
     </comment>
-    <comment ref="M46" authorId="7" shapeId="0" xr:uid="{0B839532-569D-4D4C-A381-33FADF98442B}">
+    <comment ref="N46" authorId="7" shapeId="0" xr:uid="{0B839532-569D-4D4C-A381-33FADF98442B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -130,7 +129,7 @@
     Consider using IeDEA data for Kenya as well and fit a similar model</t>
       </text>
     </comment>
-    <comment ref="M49" authorId="9" shapeId="0" xr:uid="{00E16E41-5E5A-A346-873A-EE4F844290A8}">
+    <comment ref="N49" authorId="9" shapeId="0" xr:uid="{00E16E41-5E5A-A346-873A-EE4F844290A8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -138,7 +137,7 @@
     Add to EndNote</t>
       </text>
     </comment>
-    <comment ref="M51" authorId="10" shapeId="0" xr:uid="{3B29515A-DA97-DE4B-9218-64B49449A19B}">
+    <comment ref="N51" authorId="10" shapeId="0" xr:uid="{3B29515A-DA97-DE4B-9218-64B49449A19B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -146,7 +145,7 @@
     Add to EndNote</t>
       </text>
     </comment>
-    <comment ref="M52" authorId="11" shapeId="0" xr:uid="{753F56CD-B2B7-304A-8622-25D8DD0D1979}">
+    <comment ref="N52" authorId="11" shapeId="0" xr:uid="{753F56CD-B2B7-304A-8622-25D8DD0D1979}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -154,7 +153,7 @@
     Add to EndNote</t>
       </text>
     </comment>
-    <comment ref="L53" authorId="12" shapeId="0" xr:uid="{D3CE5D2B-CCB6-5F4A-AAD4-428FBBB80B79}">
+    <comment ref="N53" authorId="12" shapeId="0" xr:uid="{46BFBF6F-DC78-CA41-85B1-E00E390885A9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -162,15 +161,7 @@
     Add to EndNote</t>
       </text>
     </comment>
-    <comment ref="M53" authorId="13" shapeId="0" xr:uid="{46BFBF6F-DC78-CA41-85B1-E00E390885A9}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Add to EndNote</t>
-      </text>
-    </comment>
-    <comment ref="M55" authorId="14" shapeId="0" xr:uid="{423D72A7-D8AD-7D4E-812F-C2F4BDA9AA5D}">
+    <comment ref="N55" authorId="13" shapeId="0" xr:uid="{423D72A7-D8AD-7D4E-812F-C2F4BDA9AA5D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -183,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="211">
   <si>
     <t>Parameter</t>
   </si>
@@ -1695,6 +1686,48 @@
   </si>
   <si>
     <t>De Oliveira et al 2017 (Table 3)</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>DHS 2003, 2011, 2022 - see "DHS_tables.xlsx"</t>
+  </si>
+  <si>
+    <t>Use either Kenya or SA engagement data</t>
+  </si>
+  <si>
+    <t>Use either Kenya or SA disengagement data</t>
+  </si>
+  <si>
+    <t>Use either Kenya or SA suppression data</t>
+  </si>
+  <si>
+    <t>Use either Kenya or SA unsuppression data</t>
+  </si>
+  <si>
+    <t>Trate.0 (1990) = 8 * trate.1
+Trate.1 (1997) = 1 * trate.2
+Trate.2 (2008) = 0.1
+Trate.3 (2018) = 1 * trate.2
+Trate.4 (2030) = 1 *  trate.3
+SD of r0:r1 ratio = log(4)/2
+SD of r1:r2 ratio = log(4)/2
+SD of r2 = log(4)/2
+SD of r3:r2 ratio = log(4)/2
+SD of r4:r3 ratio = log(4)/2</t>
+  </si>
+  <si>
+    <t>Using SOUTH AFRICA engagement data</t>
+  </si>
+  <si>
+    <t>Use KENYA disengagement data</t>
+  </si>
+  <si>
+    <t>Use KENYA suppression data</t>
+  </si>
+  <si>
+    <t>Use KENYA unsuppression data</t>
   </si>
 </sst>
 </file>
@@ -1961,7 +1994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2150,6 +2183,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2499,49 +2553,46 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="M5" dT="2025-02-11T17:27:06.77" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{0ABF0B4F-7147-1846-9DC7-3352A8B74C22}">
+  <threadedComment ref="N5" dT="2025-02-11T17:27:06.77" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{0ABF0B4F-7147-1846-9DC7-3352A8B74C22}">
     <text>Add to EndNote</text>
   </threadedComment>
-  <threadedComment ref="N5" dT="2025-02-21T14:49:43.98" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{DEEFC1FC-4AE3-B547-B2E2-4F72BF97885B}">
+  <threadedComment ref="O5" dT="2025-02-21T14:49:43.98" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{DEEFC1FC-4AE3-B547-B2E2-4F72BF97885B}">
     <text>Add to Endnote</text>
   </threadedComment>
-  <threadedComment ref="M6" dT="2025-02-11T17:27:06.77" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{2864E438-E4F2-6B4C-813C-2C3820520647}">
+  <threadedComment ref="N6" dT="2025-02-11T17:27:06.77" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{2864E438-E4F2-6B4C-813C-2C3820520647}">
     <text>Add to EndNote</text>
   </threadedComment>
   <threadedComment ref="E10" dT="2025-01-22T18:30:30.03" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{32A8BCDF-158B-7E4E-A7CC-897560825B58}">
     <text>This used to say “prior to/in 1990” - look into why; looks like I always had 4 parameters?</text>
   </threadedComment>
-  <threadedComment ref="N12" dT="2025-02-21T15:07:09.65" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{511899CD-0E64-1040-9092-AC4D3967D5AE}">
+  <threadedComment ref="O12" dT="2025-02-21T15:07:09.65" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{511899CD-0E64-1040-9092-AC4D3967D5AE}">
     <text>Add to EndNote</text>
   </threadedComment>
-  <threadedComment ref="L14" dT="2025-01-22T18:42:38.64" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{04385ABF-366F-F14D-B686-003B7FD6A102}">
+  <threadedComment ref="M14" dT="2025-01-22T18:42:38.64" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{04385ABF-366F-F14D-B686-003B7FD6A102}">
     <text>This includes 13 prospective studies from different regions; 0.42 estimate was Kenya-specific but they have Europe, France specifically, and other African countries</text>
   </threadedComment>
-  <threadedComment ref="K15" dT="2025-01-22T18:20:02.26" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
+  <threadedComment ref="L15" dT="2025-01-22T18:20:02.26" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
     <text>Update to WHO reference because this is actually a global estimate</text>
   </threadedComment>
-  <threadedComment ref="M46" dT="2025-02-11T17:27:31.17" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{0B839532-569D-4D4C-A381-33FADF98442B}">
+  <threadedComment ref="N46" dT="2025-02-11T17:27:31.17" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{0B839532-569D-4D4C-A381-33FADF98442B}">
     <text>Add to EndNote</text>
   </threadedComment>
   <threadedComment ref="G49" dT="2025-02-12T20:18:59.04" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{41F30597-8EA5-6B4E-BC92-48BBEE4F0910}">
     <text>Consider using IeDEA data for Kenya as well and fit a similar model</text>
   </threadedComment>
-  <threadedComment ref="M49" dT="2025-02-11T17:30:23.24" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{00E16E41-5E5A-A346-873A-EE4F844290A8}">
+  <threadedComment ref="N49" dT="2025-02-11T17:30:23.24" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{00E16E41-5E5A-A346-873A-EE4F844290A8}">
     <text>Add to EndNote</text>
   </threadedComment>
-  <threadedComment ref="M51" dT="2025-02-11T17:26:46.97" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{3B29515A-DA97-DE4B-9218-64B49449A19B}">
+  <threadedComment ref="N51" dT="2025-02-11T17:26:46.97" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{3B29515A-DA97-DE4B-9218-64B49449A19B}">
     <text>Add to EndNote</text>
   </threadedComment>
-  <threadedComment ref="M52" dT="2025-02-11T17:26:46.97" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{753F56CD-B2B7-304A-8622-25D8DD0D1979}">
+  <threadedComment ref="N52" dT="2025-02-11T17:26:46.97" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{753F56CD-B2B7-304A-8622-25D8DD0D1979}">
     <text>Add to EndNote</text>
   </threadedComment>
-  <threadedComment ref="L53" dT="2025-02-11T17:30:23.24" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{D3CE5D2B-CCB6-5F4A-AAD4-428FBBB80B79}">
+  <threadedComment ref="N53" dT="2025-02-11T17:30:23.24" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{46BFBF6F-DC78-CA41-85B1-E00E390885A9}">
     <text>Add to EndNote</text>
   </threadedComment>
-  <threadedComment ref="M53" dT="2025-02-11T17:30:23.24" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{46BFBF6F-DC78-CA41-85B1-E00E390885A9}">
-    <text>Add to EndNote</text>
-  </threadedComment>
-  <threadedComment ref="M55" dT="2025-02-18T21:04:34.13" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{423D72A7-D8AD-7D4E-812F-C2F4BDA9AA5D}">
+  <threadedComment ref="N55" dT="2025-02-18T21:04:34.13" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{423D72A7-D8AD-7D4E-812F-C2F4BDA9AA5D}">
     <text>Add to EndNote</text>
   </threadedComment>
 </ThreadedComments>
@@ -2549,13 +2600,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B2D996-732D-784F-96EB-809CE760E324}">
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="G49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F55" sqref="F55"/>
+      <selection pane="bottomRight" activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2566,16 +2617,19 @@
     <col min="4" max="4" width="10.6640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="38" style="5" customWidth="1"/>
     <col min="6" max="6" width="55" style="5" customWidth="1"/>
-    <col min="7" max="9" width="53.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="17" style="5" customWidth="1"/>
-    <col min="11" max="11" width="24" style="5" customWidth="1"/>
-    <col min="12" max="12" width="26" style="5" customWidth="1"/>
-    <col min="13" max="13" width="37.5" style="5" customWidth="1"/>
-    <col min="14" max="14" width="30.5" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="5"/>
+    <col min="7" max="8" width="53.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="53.5" style="5" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="53.5" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17" style="5" customWidth="1"/>
+    <col min="12" max="12" width="24" style="5" customWidth="1"/>
+    <col min="13" max="13" width="26" style="5" customWidth="1"/>
+    <col min="14" max="14" width="37.5" style="5" customWidth="1"/>
+    <col min="15" max="15" width="30.5" style="5" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="30.5" style="5" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -2597,17 +2651,19 @@
       <c r="G1" s="35"/>
       <c r="H1" s="35"/>
       <c r="I1" s="37"/>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="35"/>
+      <c r="K1" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="L1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="37"/>
-    </row>
-    <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="M1" s="36"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="64"/>
+    </row>
+    <row r="2" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="38"/>
       <c r="B2" s="40"/>
       <c r="C2" s="42"/>
@@ -2625,21 +2681,27 @@
       <c r="I2" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="38" t="s">
+      <c r="J2" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="M2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="N2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="O2" s="40" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="211" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P2" s="64" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="211" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>33</v>
       </c>
@@ -2665,21 +2727,25 @@
       <c r="I3" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="25" t="s">
+      <c r="J3" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="N3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="65"/>
+    </row>
+    <row r="4" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
@@ -2699,23 +2765,25 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="18"/>
+      <c r="K4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="26" t="s">
         <v>2</v>
       </c>
       <c r="M4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="272" x14ac:dyDescent="0.2">
+      <c r="N4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="65"/>
+    </row>
+    <row r="5" spans="1:16" ht="272" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>148</v>
       </c>
@@ -2743,21 +2811,27 @@
       <c r="I5" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="K5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="20"/>
+      <c r="M5" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="N5" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="O5" s="29" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P5" s="65" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>150</v>
       </c>
@@ -2783,21 +2857,27 @@
       <c r="I6" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="K6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="27" t="s">
+      <c r="L6" s="20"/>
+      <c r="M6" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="M6" s="27" t="s">
+      <c r="N6" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="N6" s="29" t="s">
+      <c r="O6" s="29" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P6" s="65" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>67</v>
       </c>
@@ -2819,23 +2899,25 @@
       <c r="G7" s="18"/>
       <c r="H7" s="50"/>
       <c r="I7" s="18"/>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="18"/>
+      <c r="K7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" s="25" t="s">
+      <c r="L7" s="26" t="s">
         <v>2</v>
       </c>
       <c r="M7" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="N7" s="23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="N7" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="65"/>
+    </row>
+    <row r="8" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>69</v>
       </c>
@@ -2857,23 +2939,25 @@
       <c r="G8" s="18"/>
       <c r="H8" s="50"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="18"/>
+      <c r="K8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="26" t="s">
         <v>2</v>
       </c>
       <c r="M8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="N8" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="65"/>
+    </row>
+    <row r="9" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>68</v>
       </c>
@@ -2895,23 +2979,25 @@
       <c r="G9" s="18"/>
       <c r="H9" s="50"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="18"/>
+      <c r="K9" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="L9" s="25" t="s">
+      <c r="L9" s="26" t="s">
         <v>2</v>
       </c>
       <c r="M9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="N9" s="23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="N9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="65"/>
+    </row>
+    <row r="10" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>70</v>
       </c>
@@ -2933,23 +3019,25 @@
       <c r="G10" s="18"/>
       <c r="H10" s="50"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="18"/>
+      <c r="K10" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="L10" s="25" t="s">
+      <c r="L10" s="26" t="s">
         <v>2</v>
       </c>
       <c r="M10" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="N10" s="23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="N10" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="65"/>
+    </row>
+    <row r="11" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>6</v>
       </c>
@@ -2971,17 +3059,19 @@
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="18"/>
+      <c r="K11" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="30" t="s">
+      <c r="L11" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="27"/>
       <c r="M11" s="27"/>
-      <c r="N11" s="29"/>
-    </row>
-    <row r="12" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+      <c r="N11" s="27"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="65"/>
+    </row>
+    <row r="12" spans="1:16" ht="136" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>7</v>
       </c>
@@ -3009,21 +3099,25 @@
       <c r="I12" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="63"/>
+      <c r="K12" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="27" t="s">
-        <v>199</v>
-      </c>
+      <c r="L12" s="20"/>
       <c r="M12" s="27" t="s">
         <v>199</v>
       </c>
       <c r="N12" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="O12" s="27" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="P12" s="65" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>73</v>
       </c>
@@ -3045,23 +3139,25 @@
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
-      <c r="J13" s="30" t="s">
+      <c r="J13" s="18"/>
+      <c r="K13" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="L13" s="25" t="s">
+      <c r="L13" s="26" t="s">
         <v>2</v>
       </c>
       <c r="M13" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="N13" s="23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="N13" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="65"/>
+    </row>
+    <row r="14" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>75</v>
       </c>
@@ -3085,19 +3181,25 @@
         <v>51</v>
       </c>
       <c r="I14" s="31"/>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="27" t="s">
-        <v>61</v>
-      </c>
+      <c r="L14" s="20"/>
       <c r="M14" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="N14" s="32"/>
-    </row>
-    <row r="15" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="N14" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="O14" s="32"/>
+      <c r="P14" s="65" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>77</v>
       </c>
@@ -3119,19 +3221,21 @@
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
-      <c r="J15" s="30" t="s">
+      <c r="J15" s="18"/>
+      <c r="K15" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="30" t="s">
+      <c r="L15" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="L15" s="18" t="s">
+      <c r="M15" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="19"/>
-    </row>
-    <row r="16" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="N15" s="18"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="66"/>
+    </row>
+    <row r="16" spans="1:16" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
@@ -3153,17 +3257,19 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="18"/>
+      <c r="K16" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="L16" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="L16" s="18"/>
       <c r="M16" s="18"/>
-      <c r="N16" s="19"/>
-    </row>
-    <row r="17" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="N16" s="18"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="66"/>
+    </row>
+    <row r="17" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>117</v>
       </c>
@@ -3185,23 +3291,25 @@
       <c r="G17" s="18"/>
       <c r="H17" s="50"/>
       <c r="I17" s="18"/>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="18"/>
+      <c r="K17" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="13" t="s">
         <v>2</v>
       </c>
       <c r="M17" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N17" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="N17" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="67"/>
+    </row>
+    <row r="18" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>118</v>
       </c>
@@ -3223,23 +3331,25 @@
       <c r="G18" s="18"/>
       <c r="H18" s="50"/>
       <c r="I18" s="18"/>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="18"/>
+      <c r="K18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="L18" s="10" t="s">
+      <c r="L18" s="13" t="s">
         <v>2</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N18" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="N18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="67"/>
+    </row>
+    <row r="19" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>119</v>
       </c>
@@ -3261,23 +3371,25 @@
       <c r="G19" s="18"/>
       <c r="H19" s="50"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="18"/>
+      <c r="K19" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K19" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="13" t="s">
         <v>2</v>
       </c>
       <c r="M19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N19" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="N19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="67"/>
+    </row>
+    <row r="20" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>120</v>
       </c>
@@ -3299,23 +3411,25 @@
       <c r="G20" s="18"/>
       <c r="H20" s="50"/>
       <c r="I20" s="18"/>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="18"/>
+      <c r="K20" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="L20" s="10" t="s">
+      <c r="L20" s="13" t="s">
         <v>2</v>
       </c>
       <c r="M20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="N20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="67"/>
+    </row>
+    <row r="21" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>121</v>
       </c>
@@ -3337,23 +3451,25 @@
       <c r="G21" s="18"/>
       <c r="H21" s="50"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="18"/>
+      <c r="K21" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="13" t="s">
         <v>2</v>
       </c>
       <c r="M21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N21" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="N21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="67"/>
+    </row>
+    <row r="22" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>122</v>
       </c>
@@ -3375,23 +3491,25 @@
       <c r="G22" s="18"/>
       <c r="H22" s="50"/>
       <c r="I22" s="18"/>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="18"/>
+      <c r="K22" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="L22" s="10" t="s">
+      <c r="L22" s="13" t="s">
         <v>2</v>
       </c>
       <c r="M22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N22" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="N22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22" s="67"/>
+    </row>
+    <row r="23" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>129</v>
       </c>
@@ -3413,23 +3531,25 @@
       <c r="G23" s="18"/>
       <c r="H23" s="50"/>
       <c r="I23" s="18"/>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="18"/>
+      <c r="K23" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="L23" s="10" t="s">
+      <c r="L23" s="13" t="s">
         <v>2</v>
       </c>
       <c r="M23" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N23" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="N23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23" s="67"/>
+    </row>
+    <row r="24" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>130</v>
       </c>
@@ -3451,23 +3571,25 @@
       <c r="G24" s="18"/>
       <c r="H24" s="50"/>
       <c r="I24" s="18"/>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="18"/>
+      <c r="K24" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="L24" s="10" t="s">
+      <c r="L24" s="13" t="s">
         <v>2</v>
       </c>
       <c r="M24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N24" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="N24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P24" s="67"/>
+    </row>
+    <row r="25" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>131</v>
       </c>
@@ -3489,23 +3611,25 @@
       <c r="G25" s="18"/>
       <c r="H25" s="50"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="13" t="s">
+      <c r="J25" s="18"/>
+      <c r="K25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K25" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="L25" s="10" t="s">
+      <c r="L25" s="13" t="s">
         <v>2</v>
       </c>
       <c r="M25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="N25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P25" s="67"/>
+    </row>
+    <row r="26" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>132</v>
       </c>
@@ -3527,23 +3651,25 @@
       <c r="G26" s="18"/>
       <c r="H26" s="50"/>
       <c r="I26" s="18"/>
-      <c r="J26" s="13" t="s">
+      <c r="J26" s="18"/>
+      <c r="K26" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="L26" s="10" t="s">
+      <c r="L26" s="13" t="s">
         <v>2</v>
       </c>
       <c r="M26" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N26" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="N26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" s="67"/>
+    </row>
+    <row r="27" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>133</v>
       </c>
@@ -3565,23 +3691,25 @@
       <c r="G27" s="18"/>
       <c r="H27" s="50"/>
       <c r="I27" s="18"/>
-      <c r="J27" s="13" t="s">
+      <c r="J27" s="18"/>
+      <c r="K27" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="L27" s="10" t="s">
+      <c r="L27" s="13" t="s">
         <v>2</v>
       </c>
       <c r="M27" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N27" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="N27" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O27" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P27" s="67"/>
+    </row>
+    <row r="28" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>134</v>
       </c>
@@ -3603,23 +3731,25 @@
       <c r="G28" s="18"/>
       <c r="H28" s="50"/>
       <c r="I28" s="18"/>
-      <c r="J28" s="13" t="s">
+      <c r="J28" s="18"/>
+      <c r="K28" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K28" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="10" t="s">
+      <c r="L28" s="13" t="s">
         <v>2</v>
       </c>
       <c r="M28" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N28" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="N28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P28" s="67"/>
+    </row>
+    <row r="29" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>89</v>
       </c>
@@ -3647,17 +3777,19 @@
       <c r="I29" s="14">
         <v>5.3571430000000003E-2</v>
       </c>
-      <c r="J29" s="16" t="s">
+      <c r="J29" s="14"/>
+      <c r="K29" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="16" t="s">
+      <c r="L29" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="L29" s="16"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="15"/>
-    </row>
-    <row r="30" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="M29" s="16"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="68"/>
+    </row>
+    <row r="30" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>14</v>
       </c>
@@ -3683,17 +3815,19 @@
       <c r="I30" s="14">
         <v>2.272727E-3</v>
       </c>
-      <c r="J30" s="16" t="s">
+      <c r="J30" s="14"/>
+      <c r="K30" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K30" s="16" t="s">
+      <c r="L30" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="L30" s="16"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="15"/>
-    </row>
-    <row r="31" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="M30" s="16"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="68"/>
+    </row>
+    <row r="31" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>15</v>
       </c>
@@ -3719,17 +3853,19 @@
       <c r="I31" s="14">
         <v>3.9473679999999997E-3</v>
       </c>
-      <c r="J31" s="16" t="s">
+      <c r="J31" s="14"/>
+      <c r="K31" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K31" s="16" t="s">
+      <c r="L31" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="L31" s="16"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="15"/>
-    </row>
-    <row r="32" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="M31" s="16"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="68"/>
+    </row>
+    <row r="32" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>143</v>
       </c>
@@ -3749,23 +3885,25 @@
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
-      <c r="J32" s="16" t="s">
+      <c r="J32" s="18"/>
+      <c r="K32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="14" t="s">
+      <c r="L32" s="16" t="s">
         <v>2</v>
       </c>
       <c r="M32" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="N32" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="N32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P32" s="68"/>
+    </row>
+    <row r="33" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>147</v>
       </c>
@@ -3785,23 +3923,25 @@
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
-      <c r="J33" s="16" t="s">
+      <c r="J33" s="18"/>
+      <c r="K33" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="14" t="s">
+      <c r="L33" s="16" t="s">
         <v>2</v>
       </c>
       <c r="M33" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="N33" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="N33" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="O33" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P33" s="68"/>
+    </row>
+    <row r="34" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>144</v>
       </c>
@@ -3821,23 +3961,25 @@
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
-      <c r="J34" s="16" t="s">
+      <c r="J34" s="18"/>
+      <c r="K34" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K34" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="L34" s="14" t="s">
+      <c r="L34" s="16" t="s">
         <v>2</v>
       </c>
       <c r="M34" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="N34" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="N34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="O34" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P34" s="68"/>
+    </row>
+    <row r="35" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>145</v>
       </c>
@@ -3857,23 +3999,25 @@
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
-      <c r="J35" s="16" t="s">
+      <c r="J35" s="18"/>
+      <c r="K35" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="L35" s="14" t="s">
+      <c r="L35" s="16" t="s">
         <v>2</v>
       </c>
       <c r="M35" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="N35" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="N35" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="O35" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P35" s="68"/>
+    </row>
+    <row r="36" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>146</v>
       </c>
@@ -3893,23 +4037,25 @@
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
-      <c r="J36" s="16" t="s">
+      <c r="J36" s="18"/>
+      <c r="K36" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K36" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="L36" s="14" t="s">
+      <c r="L36" s="16" t="s">
         <v>2</v>
       </c>
       <c r="M36" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="N36" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="N36" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="O36" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P36" s="68"/>
+    </row>
+    <row r="37" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="44" t="s">
         <v>108</v>
       </c>
@@ -3929,17 +4075,19 @@
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
-      <c r="J37" s="48" t="s">
+      <c r="J37" s="18"/>
+      <c r="K37" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="K37" s="51" t="s">
+      <c r="L37" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="L37" s="36"/>
       <c r="M37" s="36"/>
-      <c r="N37" s="58"/>
-    </row>
-    <row r="38" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="N37" s="36"/>
+      <c r="O37" s="58"/>
+      <c r="P37" s="66"/>
+    </row>
+    <row r="38" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="44" t="s">
         <v>16</v>
       </c>
@@ -3961,23 +4109,25 @@
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
       <c r="I38" s="18"/>
-      <c r="J38" s="48" t="s">
+      <c r="J38" s="18"/>
+      <c r="K38" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="L38" s="52" t="s">
+      <c r="L38" s="51" t="s">
         <v>2</v>
       </c>
       <c r="M38" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N38" s="53" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="170" x14ac:dyDescent="0.2">
+      <c r="N38" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="O38" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="P38" s="69"/>
+    </row>
+    <row r="39" spans="1:16" ht="170" x14ac:dyDescent="0.2">
       <c r="A39" s="44" t="s">
         <v>90</v>
       </c>
@@ -3999,23 +4149,25 @@
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
-      <c r="J39" s="48" t="s">
+      <c r="J39" s="18"/>
+      <c r="K39" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="K39" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="L39" s="44" t="s">
+      <c r="L39" s="48" t="s">
         <v>17</v>
       </c>
       <c r="M39" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="N39" s="45" t="s">
+      <c r="N39" s="44" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O39" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="P39" s="69"/>
+    </row>
+    <row r="40" spans="1:16" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="44" t="s">
         <v>19</v>
       </c>
@@ -4041,23 +4193,25 @@
         <v>93</v>
       </c>
       <c r="I40" s="44"/>
-      <c r="J40" s="48" t="s">
+      <c r="J40" s="44"/>
+      <c r="K40" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="K40" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="L40" s="55" t="s">
+      <c r="L40" s="54" t="s">
         <v>2</v>
       </c>
       <c r="M40" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="N40" s="56" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N40" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="O40" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="P40" s="69"/>
+    </row>
+    <row r="41" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="44" t="s">
         <v>21</v>
       </c>
@@ -4081,23 +4235,25 @@
         <v>93</v>
       </c>
       <c r="I41" s="44"/>
-      <c r="J41" s="48" t="s">
+      <c r="J41" s="44"/>
+      <c r="K41" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="L41" s="44" t="s">
+      <c r="L41" s="48" t="s">
         <v>2</v>
       </c>
       <c r="M41" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="N41" s="45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="N41" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O41" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P41" s="69"/>
+    </row>
+    <row r="42" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="44" t="s">
         <v>40</v>
       </c>
@@ -4121,23 +4277,25 @@
         <v>93</v>
       </c>
       <c r="I42" s="44"/>
-      <c r="J42" s="48" t="s">
+      <c r="J42" s="44"/>
+      <c r="K42" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="L42" s="44" t="s">
+      <c r="L42" s="48" t="s">
         <v>2</v>
       </c>
       <c r="M42" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="N42" s="45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="N42" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O42" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P42" s="69"/>
+    </row>
+    <row r="43" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="44" t="s">
         <v>41</v>
       </c>
@@ -4161,23 +4319,25 @@
         <v>93</v>
       </c>
       <c r="I43" s="44"/>
-      <c r="J43" s="48" t="s">
+      <c r="J43" s="44"/>
+      <c r="K43" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="L43" s="44" t="s">
+      <c r="L43" s="48" t="s">
         <v>2</v>
       </c>
       <c r="M43" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="N43" s="45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="N43" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O43" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P43" s="69"/>
+    </row>
+    <row r="44" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="44" t="s">
         <v>42</v>
       </c>
@@ -4201,23 +4361,25 @@
         <v>93</v>
       </c>
       <c r="I44" s="44"/>
-      <c r="J44" s="48" t="s">
+      <c r="J44" s="44"/>
+      <c r="K44" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="L44" s="44" t="s">
+      <c r="L44" s="48" t="s">
         <v>2</v>
       </c>
       <c r="M44" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="N44" s="45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="N44" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O44" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P44" s="69"/>
+    </row>
+    <row r="45" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="44" t="s">
         <v>43</v>
       </c>
@@ -4241,23 +4403,25 @@
         <v>193</v>
       </c>
       <c r="I45" s="44"/>
-      <c r="J45" s="48" t="s">
+      <c r="J45" s="44"/>
+      <c r="K45" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="K45" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="L45" s="44" t="s">
+      <c r="L45" s="48" t="s">
         <v>2</v>
       </c>
       <c r="M45" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="N45" s="45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="276" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N45" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O45" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P45" s="69"/>
+    </row>
+    <row r="46" spans="1:16" ht="276" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>78</v>
       </c>
@@ -4283,19 +4447,25 @@
         <v>164</v>
       </c>
       <c r="I46" s="31"/>
-      <c r="J46" s="8" t="s">
+      <c r="J46" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="K46" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K46" s="20"/>
-      <c r="L46" s="6" t="s">
+      <c r="L46" s="20"/>
+      <c r="M46" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="M46" s="6" t="s">
+      <c r="N46" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="N46" s="32"/>
-    </row>
-    <row r="47" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="O46" s="32"/>
+      <c r="P46" s="70" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>98</v>
       </c>
@@ -4317,23 +4487,25 @@
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
       <c r="I47" s="18"/>
-      <c r="J47" s="8" t="s">
+      <c r="J47" s="18"/>
+      <c r="K47" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L47" s="6" t="s">
+      <c r="L47" s="8" t="s">
         <v>2</v>
       </c>
       <c r="M47" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N47" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="N47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P47" s="70"/>
+    </row>
+    <row r="48" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>99</v>
       </c>
@@ -4355,23 +4527,25 @@
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
       <c r="I48" s="18"/>
-      <c r="J48" s="8" t="s">
+      <c r="J48" s="18"/>
+      <c r="K48" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L48" s="6" t="s">
+      <c r="L48" s="8" t="s">
         <v>2</v>
       </c>
       <c r="M48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N48" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="227" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P48" s="70"/>
+    </row>
+    <row r="49" spans="1:16" ht="227" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>100</v>
       </c>
@@ -4397,19 +4571,25 @@
         <v>166</v>
       </c>
       <c r="I49" s="31"/>
-      <c r="J49" s="8" t="s">
+      <c r="J49" s="70" t="s">
+        <v>207</v>
+      </c>
+      <c r="K49" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="20"/>
-      <c r="L49" s="6" t="s">
+      <c r="L49" s="20"/>
+      <c r="M49" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M49" s="6" t="s">
+      <c r="N49" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="N49" s="32"/>
-    </row>
-    <row r="50" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="O49" s="32"/>
+      <c r="P49" s="70" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="119" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>160</v>
       </c>
@@ -4431,23 +4611,25 @@
       <c r="G50" s="18"/>
       <c r="H50" s="57"/>
       <c r="I50" s="18"/>
-      <c r="J50" s="8" t="s">
+      <c r="J50" s="18"/>
+      <c r="K50" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K50" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L50" s="6" t="s">
+      <c r="L50" s="8" t="s">
         <v>2</v>
       </c>
       <c r="M50" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N50" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="N50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P50" s="70"/>
+    </row>
+    <row r="51" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>101</v>
       </c>
@@ -4473,19 +4655,25 @@
         <v>0.15548490000000001</v>
       </c>
       <c r="I51" s="31"/>
-      <c r="J51" s="8" t="s">
+      <c r="J51" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="K51" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K51" s="20"/>
-      <c r="L51" s="6" t="s">
+      <c r="L51" s="20"/>
+      <c r="M51" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="M51" s="6" t="s">
+      <c r="N51" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="N51" s="32"/>
-    </row>
-    <row r="52" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="O51" s="32"/>
+      <c r="P51" s="70" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>102</v>
       </c>
@@ -4509,19 +4697,25 @@
         <v>0.15548490000000001</v>
       </c>
       <c r="I52" s="31"/>
-      <c r="J52" s="8" t="s">
+      <c r="J52" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="K52" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="20"/>
-      <c r="L52" s="6" t="s">
+      <c r="L52" s="20"/>
+      <c r="M52" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="M52" s="6" t="s">
+      <c r="N52" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="N52" s="32"/>
-    </row>
-    <row r="53" spans="1:14" ht="238" x14ac:dyDescent="0.2">
+      <c r="O52" s="32"/>
+      <c r="P52" s="70" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="238" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>183</v>
       </c>
@@ -4547,17 +4741,23 @@
         <v>181</v>
       </c>
       <c r="I53" s="31"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="6" t="s">
-        <v>188</v>
-      </c>
+      <c r="J53" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="K53" s="8"/>
+      <c r="L53" s="20"/>
       <c r="M53" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="N53" s="32"/>
-    </row>
-    <row r="54" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="N53" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="O53" s="32"/>
+      <c r="P53" s="70" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="119" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>182</v>
       </c>
@@ -4579,23 +4779,25 @@
       <c r="G54" s="18"/>
       <c r="H54" s="57"/>
       <c r="I54" s="18"/>
-      <c r="J54" s="8" t="s">
+      <c r="J54" s="18"/>
+      <c r="K54" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L54" s="6" t="s">
+      <c r="L54" s="8" t="s">
         <v>2</v>
       </c>
       <c r="M54" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N54" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="N54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P54" s="70"/>
+    </row>
+    <row r="55" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>10</v>
       </c>
@@ -4619,19 +4821,25 @@
         <v>7.5484389999999998E-2</v>
       </c>
       <c r="I55" s="31"/>
-      <c r="J55" s="8" t="s">
+      <c r="J55" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="K55" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K55" s="20"/>
-      <c r="L55" s="6" t="s">
+      <c r="L55" s="20"/>
+      <c r="M55" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="M55" s="6" t="s">
+      <c r="N55" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="N55" s="32"/>
-    </row>
-    <row r="56" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="O55" s="32"/>
+      <c r="P55" s="70" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>11</v>
       </c>
@@ -4651,23 +4859,25 @@
       <c r="G56" s="18"/>
       <c r="H56" s="50"/>
       <c r="I56" s="18"/>
-      <c r="J56" s="62" t="s">
+      <c r="J56" s="18"/>
+      <c r="K56" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="K56" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L56" s="6" t="s">
+      <c r="L56" s="8" t="s">
         <v>2</v>
       </c>
       <c r="M56" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N56" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="N56" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P56" s="70"/>
+    </row>
+    <row r="57" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>12</v>
       </c>
@@ -4687,23 +4897,25 @@
       <c r="G57" s="18"/>
       <c r="H57" s="50"/>
       <c r="I57" s="18"/>
-      <c r="J57" s="62" t="s">
+      <c r="J57" s="18"/>
+      <c r="K57" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="K57" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L57" s="6" t="s">
+      <c r="L57" s="8" t="s">
         <v>2</v>
       </c>
       <c r="M57" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N57" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="N57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P57" s="70"/>
+    </row>
+    <row r="58" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>13</v>
       </c>
@@ -4723,23 +4935,25 @@
       <c r="G58" s="18"/>
       <c r="H58" s="50"/>
       <c r="I58" s="18"/>
-      <c r="J58" s="62" t="s">
+      <c r="J58" s="18"/>
+      <c r="K58" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="K58" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L58" s="6" t="s">
+      <c r="L58" s="8" t="s">
         <v>2</v>
       </c>
       <c r="M58" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N58" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="N58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P58" s="70"/>
+    </row>
+    <row r="59" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>84</v>
       </c>
@@ -4767,9 +4981,6 @@
       <c r="I59" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J59" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="K59" s="5" t="s">
         <v>84</v>
       </c>
@@ -4780,6 +4991,9 @@
         <v>84</v>
       </c>
       <c r="N59" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O59" s="5" t="s">
         <v>84</v>
       </c>
     </row>

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D085E6C5-78E3-7D48-B869-FCDB2A3E400C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0F903A-C2A2-204D-BE4A-FCD65644B942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19540" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="params" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">params!$A$1:$O$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">params!$A$1:$P$59</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,63 +41,12 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={0ABF0B4F-7147-1846-9DC7-3352A8B74C22}</author>
-    <author>tc={DEEFC1FC-4AE3-B547-B2E2-4F72BF97885B}</author>
-    <author>tc={2864E438-E4F2-6B4C-813C-2C3820520647}</author>
-    <author>tc={32A8BCDF-158B-7E4E-A7CC-897560825B58}</author>
-    <author>tc={511899CD-0E64-1040-9092-AC4D3967D5AE}</author>
     <author>tc={04385ABF-366F-F14D-B686-003B7FD6A102}</author>
     <author>tc={51F972CD-9F3E-FF43-98B5-159579D7B474}</author>
-    <author>tc={0B839532-569D-4D4C-A381-33FADF98442B}</author>
     <author>tc={41F30597-8EA5-6B4E-BC92-48BBEE4F0910}</author>
-    <author>tc={00E16E41-5E5A-A346-873A-EE4F844290A8}</author>
-    <author>tc={3B29515A-DA97-DE4B-9218-64B49449A19B}</author>
-    <author>tc={753F56CD-B2B7-304A-8622-25D8DD0D1979}</author>
-    <author>tc={46BFBF6F-DC78-CA41-85B1-E00E390885A9}</author>
-    <author>tc={423D72A7-D8AD-7D4E-812F-C2F4BDA9AA5D}</author>
   </authors>
   <commentList>
-    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{0ABF0B4F-7147-1846-9DC7-3352A8B74C22}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Add to EndNote</t>
-      </text>
-    </comment>
-    <comment ref="O5" authorId="1" shapeId="0" xr:uid="{DEEFC1FC-4AE3-B547-B2E2-4F72BF97885B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Add to Endnote</t>
-      </text>
-    </comment>
-    <comment ref="N6" authorId="2" shapeId="0" xr:uid="{2864E438-E4F2-6B4C-813C-2C3820520647}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Add to EndNote</t>
-      </text>
-    </comment>
-    <comment ref="E10" authorId="3" shapeId="0" xr:uid="{32A8BCDF-158B-7E4E-A7CC-897560825B58}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This used to say “prior to/in 1990” - look into why; looks like I always had 4 parameters?</t>
-      </text>
-    </comment>
-    <comment ref="O12" authorId="4" shapeId="0" xr:uid="{511899CD-0E64-1040-9092-AC4D3967D5AE}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Add to EndNote</t>
-      </text>
-    </comment>
-    <comment ref="M14" authorId="5" shapeId="0" xr:uid="{04385ABF-366F-F14D-B686-003B7FD6A102}">
+    <comment ref="N14" authorId="0" shapeId="0" xr:uid="{04385ABF-366F-F14D-B686-003B7FD6A102}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -105,7 +54,7 @@
     This includes 13 prospective studies from different regions; 0.42 estimate was Kenya-specific but they have Europe, France specifically, and other African countries</t>
       </text>
     </comment>
-    <comment ref="L15" authorId="6" shapeId="0" xr:uid="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
+    <comment ref="M15" authorId="1" shapeId="0" xr:uid="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -113,15 +62,7 @@
     Update to WHO reference because this is actually a global estimate</t>
       </text>
     </comment>
-    <comment ref="N46" authorId="7" shapeId="0" xr:uid="{0B839532-569D-4D4C-A381-33FADF98442B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Add to EndNote</t>
-      </text>
-    </comment>
-    <comment ref="G49" authorId="8" shapeId="0" xr:uid="{41F30597-8EA5-6B4E-BC92-48BBEE4F0910}">
+    <comment ref="G49" authorId="2" shapeId="0" xr:uid="{41F30597-8EA5-6B4E-BC92-48BBEE4F0910}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -129,52 +70,12 @@
     Consider using IeDEA data for Kenya as well and fit a similar model</t>
       </text>
     </comment>
-    <comment ref="N49" authorId="9" shapeId="0" xr:uid="{00E16E41-5E5A-A346-873A-EE4F844290A8}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Add to EndNote</t>
-      </text>
-    </comment>
-    <comment ref="N51" authorId="10" shapeId="0" xr:uid="{3B29515A-DA97-DE4B-9218-64B49449A19B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Add to EndNote</t>
-      </text>
-    </comment>
-    <comment ref="N52" authorId="11" shapeId="0" xr:uid="{753F56CD-B2B7-304A-8622-25D8DD0D1979}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Add to EndNote</t>
-      </text>
-    </comment>
-    <comment ref="N53" authorId="12" shapeId="0" xr:uid="{46BFBF6F-DC78-CA41-85B1-E00E390885A9}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Add to EndNote</t>
-      </text>
-    </comment>
-    <comment ref="N55" authorId="13" shapeId="0" xr:uid="{423D72A7-D8AD-7D4E-812F-C2F4BDA9AA5D}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Add to EndNote</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="218">
   <si>
     <t>Parameter</t>
   </si>
@@ -685,27 +586,6 @@
 Ages 50-80: Mojola et al, 2015 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>See age_mixing.R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Table 3 of De Oliveira: Used Mean diff in age (years) for HIV positive women in male-female clusters</t>
-    </r>
-  </si>
-  <si>
     <t>Varies by age; linear interpolation between spline points 
 Splines at 2003, 2008, 2014; linear interpolation
 South Africa: using 2003 DHS for 2008 and 2016 DHS for 2014</t>
@@ -1018,143 +898,6 @@
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
       <t>CHECK WITH TODD RE: RATE (KEN)  VS. PROPORTION (SA); also testing</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Years </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- DHS: 2003, 2008, 2014
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Age groups </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- DHS: 15-19, 20-24, 25-29, 30-39, 40-49; reference age = 30-39
-- Mojola et al: 40-49, 50-59, 60-69, 70-79; reference age = 40-49
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Calculation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- DHS: (proportion with multiple partners or proportion high risk sex)* (proportion of condomless sex at last high risk sex)
-- Mojola: (proportion high risk sex)*(1-condom use among high risk sex) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Years
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- DHS: 2003, 2016 (using 2003 estimates for 2003 and 2008 spline points; 2016 estimates for 2014 spline point) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Age groups</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- DHS: 15-19, 20-24, 25-29, 30-39, 40-49; reference age = 30-39 
-- Mojola et al: 40-49, 50-59, 60-69, 70-79; reference age = 40-49
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Calculation: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- DHS: (proportion with multiple partners or proportion high risk sex)* (proportion of condomless sex at last high risk sex)
-- Mojola: (proportion high risk sex)*(1-condom use among high risk sex)</t>
     </r>
   </si>
   <si>
@@ -1601,74 +1344,6 @@
     <t>NO LONGER SAMPLING THIS - 2/21</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Years
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- CSF (Sexual Behavior survey): 1992, 2007, 2023 (using 2007 estimates for 2003 and 2008 spline points; 2023 estimates for 2014 spline point) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Age groups</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- 2007: 18-19, 20-24, 25-34, 35-39, 40-49, 50-59, 60-69; reference age = 35-39
-- 2023: 18-29, 30-39, 40-49, 50-59, 60-69, 70-89; reference age = 30-39
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Calculation: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- 2007: (proportion with multiple partners or proportion high risk sex)
-- 2023: (proportion met partner online)*(1-condom use with new partner)*(sex in the past year)</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">2007 CSF: Extracted from figure 3 (pg. 11)
 2023 CSF: Figure 3 (online partner); figure 8 (sexual activity in past year); figure 17 (condom use) </t>
   </si>
@@ -1692,18 +1367,6 @@
   </si>
   <si>
     <t>DHS 2003, 2011, 2022 - see "DHS_tables.xlsx"</t>
-  </si>
-  <si>
-    <t>Use either Kenya or SA engagement data</t>
-  </si>
-  <si>
-    <t>Use either Kenya or SA disengagement data</t>
-  </si>
-  <si>
-    <t>Use either Kenya or SA suppression data</t>
-  </si>
-  <si>
-    <t>Use either Kenya or SA unsuppression data</t>
   </si>
   <si>
     <t>Trate.0 (1990) = 8 * trate.1
@@ -1718,16 +1381,83 @@
 SD of r4:r3 ratio = log(4)/2</t>
   </si>
   <si>
-    <t>Using SOUTH AFRICA engagement data</t>
-  </si>
-  <si>
-    <t>Use KENYA disengagement data</t>
-  </si>
-  <si>
-    <t>Use KENYA suppression data</t>
-  </si>
-  <si>
-    <t>Use KENYA unsuppression data</t>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>(see hiv.mortality.priors.R)</t>
+  </si>
+  <si>
+    <t>Using SA engagement data (IeDEA dashboard values suppressed for Moz)</t>
+  </si>
+  <si>
+    <t>Using SOUTH AFRICA engagement data (IeDEA dashboard values suppressed for Moz)</t>
+  </si>
+  <si>
+    <t>Years
+- CSF (Sexual Behavior survey): 1992, 2007, 2023 (using 2007 estimates for 2003 and 2008 spline points; 2023 estimates for 2014 spline point) 
+Age groups
+- 2007: 18-19, 20-24, 25-34, 35-39, 40-49, 50-59, 60-69; reference age = 35-39
+- 2023: 18-29, 30-39, 40-49, 50-59, 60-69, 70-89; reference age = 30-39
+Calculation: 
+- 2007: (proportion with multiple partners or proportion high risk sex)
+- 2023: (proportion met partner online)*(1-condom Using with new partner)*(sex in the past year)</t>
+  </si>
+  <si>
+    <t>Using KENYA disengagement data</t>
+  </si>
+  <si>
+    <t>Using Kenya disengagement data</t>
+  </si>
+  <si>
+    <t>Using KENYA suppression data (IeDEA dashboard values suppressed for Moz)</t>
+  </si>
+  <si>
+    <t>Using Kenya suppression data (IeDEA dashboard values suppressed for Moz)</t>
+  </si>
+  <si>
+    <t>Using KENYA unsuppression data</t>
+  </si>
+  <si>
+    <t>Using Kenya unsuppression data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Years 
+- DHS: 2003, 2008, 2014
+Age groups 
+- DHS: 15-19, 20-24, 25-29, 30-39, 40-49; reference age = 30-39
+- Mojola et al: 40-49, 50-59, 60-69, 70-79; reference age = 40-49
+Calculation
+- DHS: (proportion with multiple partners or proportion high risk sex)* (proportion of condomless sex at last high risk sex)
+- Mojola: (proportion high risk sex)*(1-condom use among high risk sex) </t>
+  </si>
+  <si>
+    <t>Years
+- DHS: 2003, 2016 (using 2003 estimates for 2003 and 2008 spline points; 2016 estimates for 2014 spline point) 
+Age groups
+- DHS: 15-19, 20-24, 25-29, 30-39, 40-49; reference age = 30-39 
+- Mojola et al: 40-49, 50-59, 60-69, 70-79; reference age = 40-49
+Calculation: 
+- DHS: (proportion with multiple partners or proportion high risk sex)* (proportion of condomless sex at last high risk sex)
+- Mojola: (proportion high risk sex)*(1-condom use among high risk sex)</t>
+  </si>
+  <si>
+    <t>See age_mixing.R
+Table 3 of De Oliveira: used Mean diff in age (years) for HIV positive women in male-female clusters</t>
+  </si>
+  <si>
+    <t>DHS 2004, 2010, 2022 (also have 1996, 1999) - see "DHS_tables.xlsx"</t>
+  </si>
+  <si>
+    <t>Using SOUTH AFRICA suppression data (IeDEA dashboard values suppressed for Tanzania; for the few values that are there, they look closer to SA's data than Kenya)</t>
+  </si>
+  <si>
+    <t>Using SA suppression data (IeDEA dashboard values suppressed for Tanz); values look closer to SA than Kenya</t>
+  </si>
+  <si>
+    <t>IeDEA Dashboard</t>
+  </si>
+  <si>
+    <t>IeDEA dashboard</t>
   </si>
 </sst>
 </file>
@@ -1994,7 +1724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2185,25 +1915,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2553,83 +2268,50 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="N5" dT="2025-02-11T17:27:06.77" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{0ABF0B4F-7147-1846-9DC7-3352A8B74C22}">
-    <text>Add to EndNote</text>
-  </threadedComment>
-  <threadedComment ref="O5" dT="2025-02-21T14:49:43.98" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{DEEFC1FC-4AE3-B547-B2E2-4F72BF97885B}">
-    <text>Add to Endnote</text>
-  </threadedComment>
-  <threadedComment ref="N6" dT="2025-02-11T17:27:06.77" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{2864E438-E4F2-6B4C-813C-2C3820520647}">
-    <text>Add to EndNote</text>
-  </threadedComment>
-  <threadedComment ref="E10" dT="2025-01-22T18:30:30.03" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{32A8BCDF-158B-7E4E-A7CC-897560825B58}">
-    <text>This used to say “prior to/in 1990” - look into why; looks like I always had 4 parameters?</text>
-  </threadedComment>
-  <threadedComment ref="O12" dT="2025-02-21T15:07:09.65" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{511899CD-0E64-1040-9092-AC4D3967D5AE}">
-    <text>Add to EndNote</text>
-  </threadedComment>
-  <threadedComment ref="M14" dT="2025-01-22T18:42:38.64" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{04385ABF-366F-F14D-B686-003B7FD6A102}">
+  <threadedComment ref="N14" dT="2025-01-22T18:42:38.64" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{04385ABF-366F-F14D-B686-003B7FD6A102}">
     <text>This includes 13 prospective studies from different regions; 0.42 estimate was Kenya-specific but they have Europe, France specifically, and other African countries</text>
   </threadedComment>
-  <threadedComment ref="L15" dT="2025-01-22T18:20:02.26" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
+  <threadedComment ref="M15" dT="2025-01-22T18:20:02.26" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
     <text>Update to WHO reference because this is actually a global estimate</text>
-  </threadedComment>
-  <threadedComment ref="N46" dT="2025-02-11T17:27:31.17" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{0B839532-569D-4D4C-A381-33FADF98442B}">
-    <text>Add to EndNote</text>
   </threadedComment>
   <threadedComment ref="G49" dT="2025-02-12T20:18:59.04" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{41F30597-8EA5-6B4E-BC92-48BBEE4F0910}">
     <text>Consider using IeDEA data for Kenya as well and fit a similar model</text>
-  </threadedComment>
-  <threadedComment ref="N49" dT="2025-02-11T17:30:23.24" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{00E16E41-5E5A-A346-873A-EE4F844290A8}">
-    <text>Add to EndNote</text>
-  </threadedComment>
-  <threadedComment ref="N51" dT="2025-02-11T17:26:46.97" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{3B29515A-DA97-DE4B-9218-64B49449A19B}">
-    <text>Add to EndNote</text>
-  </threadedComment>
-  <threadedComment ref="N52" dT="2025-02-11T17:26:46.97" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{753F56CD-B2B7-304A-8622-25D8DD0D1979}">
-    <text>Add to EndNote</text>
-  </threadedComment>
-  <threadedComment ref="N53" dT="2025-02-11T17:30:23.24" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{46BFBF6F-DC78-CA41-85B1-E00E390885A9}">
-    <text>Add to EndNote</text>
-  </threadedComment>
-  <threadedComment ref="N55" dT="2025-02-18T21:04:34.13" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{423D72A7-D8AD-7D4E-812F-C2F4BDA9AA5D}">
-    <text>Add to EndNote</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B2D996-732D-784F-96EB-809CE760E324}">
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="G49" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="H51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J56" sqref="J56"/>
+      <selection pane="bottomRight" activeCell="R55" sqref="R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="28.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="5" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5" style="5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="5" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="38" style="5" customWidth="1"/>
     <col min="6" max="6" width="55" style="5" customWidth="1"/>
     <col min="7" max="8" width="53.5" style="5" customWidth="1"/>
     <col min="9" max="9" width="53.5" style="5" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="53.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="17" style="5" customWidth="1"/>
-    <col min="12" max="12" width="24" style="5" customWidth="1"/>
-    <col min="13" max="13" width="26" style="5" customWidth="1"/>
-    <col min="14" max="14" width="37.5" style="5" customWidth="1"/>
-    <col min="15" max="15" width="30.5" style="5" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="30.5" style="5" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="5"/>
+    <col min="10" max="11" width="53.5" style="5" customWidth="1"/>
+    <col min="12" max="12" width="17" style="5" customWidth="1"/>
+    <col min="13" max="13" width="24" style="5" customWidth="1"/>
+    <col min="14" max="14" width="26" style="5" customWidth="1"/>
+    <col min="15" max="15" width="37.5" style="5" customWidth="1"/>
+    <col min="16" max="16" width="30.5" style="5" hidden="1" customWidth="1"/>
+    <col min="17" max="18" width="30.5" style="5" customWidth="1"/>
+    <col min="19" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -2650,20 +2332,22 @@
       </c>
       <c r="G1" s="35"/>
       <c r="H1" s="35"/>
-      <c r="I1" s="37"/>
+      <c r="I1" s="35"/>
       <c r="J1" s="35"/>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="35"/>
+      <c r="L1" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="M1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="64"/>
-    </row>
-    <row r="2" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="N1" s="36"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+    </row>
+    <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="38"/>
       <c r="B2" s="40"/>
       <c r="C2" s="42"/>
@@ -2678,30 +2362,36 @@
       <c r="H2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="39" t="s">
         <v>24</v>
       </c>
       <c r="J2" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="L2" s="39"/>
+      <c r="M2" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="N2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="O2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="P2" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="64" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="211" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q2" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="R2" s="64" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="211" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>33</v>
       </c>
@@ -2716,36 +2406,38 @@
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26" t="s">
         <v>2</v>
       </c>
       <c r="N3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="65"/>
-    </row>
-    <row r="4" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="O3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+    </row>
+    <row r="4" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
@@ -2766,24 +2458,26 @@
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="18"/>
+      <c r="L4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="26" t="s">
         <v>2</v>
       </c>
       <c r="N4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="65"/>
-    </row>
-    <row r="5" spans="1:16" ht="272" x14ac:dyDescent="0.2">
+      <c r="O4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+    </row>
+    <row r="5" spans="1:18" ht="272" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>148</v>
       </c>
@@ -2800,38 +2494,44 @@
         <v>151</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="H5" s="59" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="I5" s="59" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="J5" s="59" t="s">
-        <v>201</v>
-      </c>
-      <c r="K5" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="K5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="L5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="20"/>
+      <c r="N5" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="O5" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="O5" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="P5" s="65" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="85" x14ac:dyDescent="0.2">
+      <c r="P5" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="R5" s="59" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>150</v>
       </c>
@@ -2858,26 +2558,32 @@
         <v>152</v>
       </c>
       <c r="J6" s="59" t="s">
-        <v>201</v>
-      </c>
-      <c r="K6" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="K6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="L6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="27" t="s">
+      <c r="M6" s="20"/>
+      <c r="N6" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="27" t="s">
+      <c r="O6" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="O6" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="P6" s="65" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="P6" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="R6" s="59" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>67</v>
       </c>
@@ -2900,24 +2606,26 @@
       <c r="H7" s="50"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
-      <c r="K7" s="30" t="s">
+      <c r="K7" s="18"/>
+      <c r="L7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" s="25" t="s">
+      <c r="M7" s="26" t="s">
         <v>2</v>
       </c>
       <c r="N7" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" s="65"/>
-    </row>
-    <row r="8" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="O7" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+    </row>
+    <row r="8" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>69</v>
       </c>
@@ -2940,24 +2648,26 @@
       <c r="H8" s="50"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="18"/>
+      <c r="L8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="25" t="s">
+      <c r="M8" s="26" t="s">
         <v>2</v>
       </c>
       <c r="N8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="P8" s="65"/>
-    </row>
-    <row r="9" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="O8" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+    </row>
+    <row r="9" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>68</v>
       </c>
@@ -2980,24 +2690,26 @@
       <c r="H9" s="50"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
-      <c r="K9" s="30" t="s">
+      <c r="K9" s="18"/>
+      <c r="L9" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="M9" s="25" t="s">
+      <c r="M9" s="26" t="s">
         <v>2</v>
       </c>
       <c r="N9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="O9" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="P9" s="65"/>
-    </row>
-    <row r="10" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="O9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+    </row>
+    <row r="10" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>70</v>
       </c>
@@ -3020,24 +2732,26 @@
       <c r="H10" s="50"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="30" t="s">
+      <c r="K10" s="18"/>
+      <c r="L10" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="M10" s="25" t="s">
+      <c r="M10" s="26" t="s">
         <v>2</v>
       </c>
       <c r="N10" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="O10" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="P10" s="65"/>
-    </row>
-    <row r="11" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="O10" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+    </row>
+    <row r="11" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>6</v>
       </c>
@@ -3060,18 +2774,20 @@
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="30" t="s">
+      <c r="K11" s="18"/>
+      <c r="L11" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="30" t="s">
+      <c r="M11" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="M11" s="27"/>
       <c r="N11" s="27"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="65"/>
-    </row>
-    <row r="12" spans="1:16" ht="136" x14ac:dyDescent="0.2">
+      <c r="O11" s="27"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+    </row>
+    <row r="12" spans="1:18" ht="136" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>7</v>
       </c>
@@ -3085,39 +2801,47 @@
         <v>32</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="F12" s="30" t="s">
         <v>49</v>
       </c>
       <c r="G12" s="63" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H12" s="27" t="s">
         <v>85</v>
       </c>
       <c r="I12" s="63" t="s">
-        <v>196</v>
-      </c>
-      <c r="J12" s="63"/>
-      <c r="K12" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="27" t="s">
-        <v>199</v>
-      </c>
+      <c r="M12" s="20"/>
       <c r="N12" s="27" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O12" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="P12" s="65" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="119" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="P12" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q12" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="R12" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>73</v>
       </c>
@@ -3140,24 +2864,26 @@
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="30" t="s">
+      <c r="K13" s="18"/>
+      <c r="L13" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="M13" s="25" t="s">
+      <c r="M13" s="26" t="s">
         <v>2</v>
       </c>
       <c r="N13" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="O13" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="P13" s="65"/>
-    </row>
-    <row r="14" spans="1:16" ht="85" x14ac:dyDescent="0.2">
+      <c r="O13" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+    </row>
+    <row r="14" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>75</v>
       </c>
@@ -3184,22 +2910,28 @@
       <c r="J14" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="30" t="s">
+      <c r="K14" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="27" t="s">
-        <v>61</v>
-      </c>
+      <c r="M14" s="20"/>
       <c r="N14" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="O14" s="32"/>
-      <c r="P14" s="65" t="s">
+      <c r="O14" s="27" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="102" x14ac:dyDescent="0.2">
+      <c r="P14" s="32"/>
+      <c r="Q14" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="R14" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>77</v>
       </c>
@@ -3222,20 +2954,22 @@
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
-      <c r="K15" s="30" t="s">
+      <c r="K15" s="18"/>
+      <c r="L15" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="30" t="s">
+      <c r="M15" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="M15" s="18" t="s">
+      <c r="N15" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="N15" s="18"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="66"/>
-    </row>
-    <row r="16" spans="1:16" ht="119" x14ac:dyDescent="0.2">
+      <c r="O15" s="18"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+    </row>
+    <row r="16" spans="1:18" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
@@ -3249,7 +2983,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>116</v>
@@ -3258,18 +2992,20 @@
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="18"/>
+      <c r="L16" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="M16" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="M16" s="18"/>
       <c r="N16" s="18"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="66"/>
-    </row>
-    <row r="17" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="O16" s="18"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+    </row>
+    <row r="17" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>117</v>
       </c>
@@ -3292,24 +3028,26 @@
       <c r="H17" s="50"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="18"/>
+      <c r="L17" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M17" s="10" t="s">
+      <c r="M17" s="13" t="s">
         <v>2</v>
       </c>
       <c r="N17" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="O17" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="P17" s="67"/>
-    </row>
-    <row r="18" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="O17" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+    </row>
+    <row r="18" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>118</v>
       </c>
@@ -3332,24 +3070,26 @@
       <c r="H18" s="50"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="18"/>
+      <c r="L18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M18" s="10" t="s">
+      <c r="M18" s="13" t="s">
         <v>2</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="O18" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="P18" s="67"/>
-    </row>
-    <row r="19" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="O18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+    </row>
+    <row r="19" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>119</v>
       </c>
@@ -3372,24 +3112,26 @@
       <c r="H19" s="50"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="18"/>
+      <c r="L19" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="L19" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="13" t="s">
         <v>2</v>
       </c>
       <c r="N19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="O19" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="P19" s="67"/>
-    </row>
-    <row r="20" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="O19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+    </row>
+    <row r="20" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>120</v>
       </c>
@@ -3412,24 +3154,26 @@
       <c r="H20" s="50"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="18"/>
+      <c r="L20" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M20" s="10" t="s">
+      <c r="M20" s="13" t="s">
         <v>2</v>
       </c>
       <c r="N20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="O20" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="P20" s="67"/>
-    </row>
-    <row r="21" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="O20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+    </row>
+    <row r="21" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>121</v>
       </c>
@@ -3452,24 +3196,26 @@
       <c r="H21" s="50"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="18"/>
+      <c r="L21" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M21" s="10" t="s">
+      <c r="M21" s="13" t="s">
         <v>2</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="O21" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="P21" s="67"/>
-    </row>
-    <row r="22" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="O21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+    </row>
+    <row r="22" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>122</v>
       </c>
@@ -3492,24 +3238,26 @@
       <c r="H22" s="50"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
-      <c r="K22" s="13" t="s">
+      <c r="K22" s="18"/>
+      <c r="L22" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M22" s="10" t="s">
+      <c r="M22" s="13" t="s">
         <v>2</v>
       </c>
       <c r="N22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="O22" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="P22" s="67"/>
-    </row>
-    <row r="23" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="O22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+    </row>
+    <row r="23" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>129</v>
       </c>
@@ -3532,24 +3280,26 @@
       <c r="H23" s="50"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="18"/>
+      <c r="L23" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M23" s="10" t="s">
+      <c r="M23" s="13" t="s">
         <v>2</v>
       </c>
       <c r="N23" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="O23" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="P23" s="67"/>
-    </row>
-    <row r="24" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="O23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+    </row>
+    <row r="24" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>130</v>
       </c>
@@ -3572,24 +3322,26 @@
       <c r="H24" s="50"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
-      <c r="K24" s="13" t="s">
+      <c r="K24" s="18"/>
+      <c r="L24" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M24" s="10" t="s">
+      <c r="M24" s="13" t="s">
         <v>2</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="O24" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="P24" s="67"/>
-    </row>
-    <row r="25" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="O24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+    </row>
+    <row r="25" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>131</v>
       </c>
@@ -3612,24 +3364,26 @@
       <c r="H25" s="50"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="13" t="s">
+      <c r="K25" s="18"/>
+      <c r="L25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M25" s="10" t="s">
+      <c r="M25" s="13" t="s">
         <v>2</v>
       </c>
       <c r="N25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="O25" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="P25" s="67"/>
-    </row>
-    <row r="26" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="O25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P25" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+    </row>
+    <row r="26" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>132</v>
       </c>
@@ -3652,24 +3406,26 @@
       <c r="H26" s="50"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
-      <c r="K26" s="13" t="s">
+      <c r="K26" s="18"/>
+      <c r="L26" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M26" s="10" t="s">
+      <c r="M26" s="13" t="s">
         <v>2</v>
       </c>
       <c r="N26" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="O26" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="P26" s="67"/>
-    </row>
-    <row r="27" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="O26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+    </row>
+    <row r="27" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>133</v>
       </c>
@@ -3692,24 +3448,26 @@
       <c r="H27" s="50"/>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
-      <c r="K27" s="13" t="s">
+      <c r="K27" s="18"/>
+      <c r="L27" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M27" s="10" t="s">
+      <c r="M27" s="13" t="s">
         <v>2</v>
       </c>
       <c r="N27" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="O27" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="P27" s="67"/>
-    </row>
-    <row r="28" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="O27" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+    </row>
+    <row r="28" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>134</v>
       </c>
@@ -3732,24 +3490,26 @@
       <c r="H28" s="50"/>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
-      <c r="K28" s="13" t="s">
+      <c r="K28" s="18"/>
+      <c r="L28" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="L28" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M28" s="10" t="s">
+      <c r="M28" s="13" t="s">
         <v>2</v>
       </c>
       <c r="N28" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="O28" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="P28" s="67"/>
-    </row>
-    <row r="29" spans="1:16" ht="102" x14ac:dyDescent="0.2">
+      <c r="O28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+    </row>
+    <row r="29" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>89</v>
       </c>
@@ -3757,16 +3517,16 @@
         <v>38</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G29" s="14">
         <v>4.0579709999999998E-2</v>
@@ -3777,19 +3537,25 @@
       <c r="I29" s="14">
         <v>5.3571430000000003E-2</v>
       </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="16" t="s">
+      <c r="J29" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="L29" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="16" t="s">
+      <c r="M29" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="M29" s="16"/>
       <c r="N29" s="14"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="68"/>
-    </row>
-    <row r="30" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="O29" s="14"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+    </row>
+    <row r="30" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>14</v>
       </c>
@@ -3797,14 +3563,14 @@
         <v>38</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G30" s="14">
         <v>8.1250000000000003E-2</v>
@@ -3815,19 +3581,25 @@
       <c r="I30" s="14">
         <v>2.272727E-3</v>
       </c>
-      <c r="J30" s="14"/>
-      <c r="K30" s="16" t="s">
+      <c r="J30" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="L30" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L30" s="16" t="s">
+      <c r="M30" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="M30" s="16"/>
       <c r="N30" s="14"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="68"/>
-    </row>
-    <row r="31" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="O30" s="14"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+    </row>
+    <row r="31" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>15</v>
       </c>
@@ -3835,14 +3607,14 @@
         <v>38</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G31" s="14">
         <v>0.02</v>
@@ -3853,19 +3625,25 @@
       <c r="I31" s="14">
         <v>3.9473679999999997E-3</v>
       </c>
-      <c r="J31" s="14"/>
-      <c r="K31" s="16" t="s">
+      <c r="J31" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="L31" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L31" s="16" t="s">
+      <c r="M31" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="M31" s="16"/>
       <c r="N31" s="14"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="68"/>
-    </row>
-    <row r="32" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="O31" s="14"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+    </row>
+    <row r="32" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>143</v>
       </c>
@@ -3886,24 +3664,26 @@
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
-      <c r="K32" s="16" t="s">
+      <c r="K32" s="18"/>
+      <c r="L32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="M32" s="14" t="s">
+      <c r="M32" s="16" t="s">
         <v>2</v>
       </c>
       <c r="N32" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O32" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P32" s="68"/>
-    </row>
-    <row r="33" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="O32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P32" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+    </row>
+    <row r="33" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>147</v>
       </c>
@@ -3924,24 +3704,26 @@
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
-      <c r="K33" s="16" t="s">
+      <c r="K33" s="18"/>
+      <c r="L33" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="M33" s="14" t="s">
+      <c r="M33" s="16" t="s">
         <v>2</v>
       </c>
       <c r="N33" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O33" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P33" s="68"/>
-    </row>
-    <row r="34" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="O33" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P33" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+    </row>
+    <row r="34" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>144</v>
       </c>
@@ -3962,24 +3744,26 @@
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
-      <c r="K34" s="16" t="s">
+      <c r="K34" s="18"/>
+      <c r="L34" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L34" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="M34" s="14" t="s">
+      <c r="M34" s="16" t="s">
         <v>2</v>
       </c>
       <c r="N34" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O34" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P34" s="68"/>
-    </row>
-    <row r="35" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="O34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P34" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+    </row>
+    <row r="35" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>145</v>
       </c>
@@ -4000,24 +3784,26 @@
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
-      <c r="K35" s="16" t="s">
+      <c r="K35" s="18"/>
+      <c r="L35" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="M35" s="14" t="s">
+      <c r="M35" s="16" t="s">
         <v>2</v>
       </c>
       <c r="N35" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O35" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P35" s="68"/>
-    </row>
-    <row r="36" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="O35" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P35" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+    </row>
+    <row r="36" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>146</v>
       </c>
@@ -4038,24 +3824,26 @@
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
-      <c r="K36" s="16" t="s">
+      <c r="K36" s="18"/>
+      <c r="L36" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L36" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="M36" s="14" t="s">
+      <c r="M36" s="16" t="s">
         <v>2</v>
       </c>
       <c r="N36" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O36" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P36" s="68"/>
-    </row>
-    <row r="37" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+      <c r="O36" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P36" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+    </row>
+    <row r="37" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="44" t="s">
         <v>108</v>
       </c>
@@ -4076,18 +3864,20 @@
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
-      <c r="K37" s="48" t="s">
+      <c r="K37" s="18"/>
+      <c r="L37" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="L37" s="51" t="s">
+      <c r="M37" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="M37" s="36"/>
       <c r="N37" s="36"/>
-      <c r="O37" s="58"/>
-      <c r="P37" s="66"/>
-    </row>
-    <row r="38" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="O37" s="36"/>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+    </row>
+    <row r="38" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="44" t="s">
         <v>16</v>
       </c>
@@ -4110,24 +3900,26 @@
       <c r="H38" s="18"/>
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
-      <c r="K38" s="48" t="s">
+      <c r="K38" s="18"/>
+      <c r="L38" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="M38" s="52" t="s">
+      <c r="M38" s="51" t="s">
         <v>2</v>
       </c>
       <c r="N38" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="O38" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="P38" s="69"/>
-    </row>
-    <row r="39" spans="1:16" ht="170" x14ac:dyDescent="0.2">
+      <c r="O38" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="P38" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="52"/>
+    </row>
+    <row r="39" spans="1:18" ht="170" x14ac:dyDescent="0.2">
       <c r="A39" s="44" t="s">
         <v>90</v>
       </c>
@@ -4150,24 +3942,26 @@
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
-      <c r="K39" s="48" t="s">
+      <c r="K39" s="18"/>
+      <c r="L39" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="L39" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="M39" s="44" t="s">
+      <c r="M39" s="48" t="s">
         <v>17</v>
       </c>
       <c r="N39" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="O39" s="45" t="s">
+      <c r="O39" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="P39" s="69"/>
-    </row>
-    <row r="40" spans="1:16" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P39" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="44"/>
+    </row>
+    <row r="40" spans="1:18" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="44" t="s">
         <v>19</v>
       </c>
@@ -4194,24 +3988,26 @@
       </c>
       <c r="I40" s="44"/>
       <c r="J40" s="44"/>
-      <c r="K40" s="48" t="s">
+      <c r="K40" s="44"/>
+      <c r="L40" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="L40" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="M40" s="55" t="s">
+      <c r="M40" s="54" t="s">
         <v>2</v>
       </c>
       <c r="N40" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="O40" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="P40" s="69"/>
-    </row>
-    <row r="41" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O40" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="P40" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="55"/>
+    </row>
+    <row r="41" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="44" t="s">
         <v>21</v>
       </c>
@@ -4236,24 +4032,26 @@
       </c>
       <c r="I41" s="44"/>
       <c r="J41" s="44"/>
-      <c r="K41" s="48" t="s">
+      <c r="K41" s="44"/>
+      <c r="L41" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="M41" s="44" t="s">
+      <c r="M41" s="48" t="s">
         <v>2</v>
       </c>
       <c r="N41" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="O41" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P41" s="69"/>
-    </row>
-    <row r="42" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="O41" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P41" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+    </row>
+    <row r="42" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="44" t="s">
         <v>40</v>
       </c>
@@ -4278,24 +4076,26 @@
       </c>
       <c r="I42" s="44"/>
       <c r="J42" s="44"/>
-      <c r="K42" s="48" t="s">
+      <c r="K42" s="44"/>
+      <c r="L42" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="M42" s="44" t="s">
+      <c r="M42" s="48" t="s">
         <v>2</v>
       </c>
       <c r="N42" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="O42" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P42" s="69"/>
-    </row>
-    <row r="43" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="O42" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P42" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="44"/>
+    </row>
+    <row r="43" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="44" t="s">
         <v>41</v>
       </c>
@@ -4320,24 +4120,26 @@
       </c>
       <c r="I43" s="44"/>
       <c r="J43" s="44"/>
-      <c r="K43" s="48" t="s">
+      <c r="K43" s="44"/>
+      <c r="L43" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="M43" s="44" t="s">
+      <c r="M43" s="48" t="s">
         <v>2</v>
       </c>
       <c r="N43" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="O43" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P43" s="69"/>
-    </row>
-    <row r="44" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="O43" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P43" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="44"/>
+    </row>
+    <row r="44" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="44" t="s">
         <v>42</v>
       </c>
@@ -4362,24 +4164,26 @@
       </c>
       <c r="I44" s="44"/>
       <c r="J44" s="44"/>
-      <c r="K44" s="48" t="s">
+      <c r="K44" s="44"/>
+      <c r="L44" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="M44" s="44" t="s">
+      <c r="M44" s="48" t="s">
         <v>2</v>
       </c>
       <c r="N44" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="O44" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P44" s="69"/>
-    </row>
-    <row r="45" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="O44" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P44" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="44"/>
+    </row>
+    <row r="45" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="44" t="s">
         <v>43</v>
       </c>
@@ -4400,28 +4204,30 @@
         <v>1</v>
       </c>
       <c r="H45" s="49" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I45" s="44"/>
       <c r="J45" s="44"/>
-      <c r="K45" s="48" t="s">
+      <c r="K45" s="44"/>
+      <c r="L45" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="L45" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="M45" s="44" t="s">
+      <c r="M45" s="48" t="s">
         <v>2</v>
       </c>
       <c r="N45" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="O45" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="P45" s="69"/>
-    </row>
-    <row r="46" spans="1:16" ht="276" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O45" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="P45" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="44"/>
+    </row>
+    <row r="46" spans="1:18" ht="276" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>78</v>
       </c>
@@ -4435,37 +4241,43 @@
         <v>32</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>86</v>
       </c>
       <c r="G46" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="H46" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="H46" s="60" t="s">
-        <v>164</v>
-      </c>
       <c r="I46" s="31"/>
-      <c r="J46" s="70" t="s">
-        <v>201</v>
-      </c>
-      <c r="K46" s="8" t="s">
+      <c r="J46" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="K46" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="L46" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L46" s="20"/>
-      <c r="M46" s="6" t="s">
+      <c r="M46" s="20"/>
+      <c r="N46" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="N46" s="6" t="s">
+      <c r="O46" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="O46" s="32"/>
-      <c r="P46" s="70" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="102" x14ac:dyDescent="0.2">
+      <c r="P46" s="32"/>
+      <c r="Q46" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="R46" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>98</v>
       </c>
@@ -4488,24 +4300,26 @@
       <c r="H47" s="18"/>
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
-      <c r="K47" s="8" t="s">
+      <c r="K47" s="18"/>
+      <c r="L47" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M47" s="6" t="s">
+      <c r="M47" s="8" t="s">
         <v>2</v>
       </c>
       <c r="N47" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O47" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P47" s="70"/>
-    </row>
-    <row r="48" spans="1:16" ht="102" x14ac:dyDescent="0.2">
+      <c r="O47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+    </row>
+    <row r="48" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>99</v>
       </c>
@@ -4528,24 +4342,26 @@
       <c r="H48" s="18"/>
       <c r="I48" s="18"/>
       <c r="J48" s="18"/>
-      <c r="K48" s="8" t="s">
+      <c r="K48" s="18"/>
+      <c r="L48" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M48" s="6" t="s">
+      <c r="M48" s="8" t="s">
         <v>2</v>
       </c>
       <c r="N48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O48" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P48" s="70"/>
-    </row>
-    <row r="49" spans="1:16" ht="227" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+    </row>
+    <row r="49" spans="1:18" ht="227" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>100</v>
       </c>
@@ -4559,39 +4375,45 @@
         <v>32</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G49" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="H49" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="H49" s="60" t="s">
-        <v>166</v>
-      </c>
       <c r="I49" s="31"/>
-      <c r="J49" s="70" t="s">
-        <v>207</v>
-      </c>
-      <c r="K49" s="8" t="s">
+      <c r="J49" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="K49" s="65" t="s">
+        <v>217</v>
+      </c>
+      <c r="L49" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L49" s="20"/>
-      <c r="M49" s="6" t="s">
+      <c r="M49" s="20"/>
+      <c r="N49" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="N49" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="O49" s="32"/>
-      <c r="P49" s="70" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="119" x14ac:dyDescent="0.2">
+      <c r="O49" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="R49" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="119" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>36</v>
@@ -4603,33 +4425,35 @@
         <v>31</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="G50" s="18"/>
       <c r="H50" s="57"/>
       <c r="I50" s="18"/>
       <c r="J50" s="18"/>
-      <c r="K50" s="8" t="s">
+      <c r="K50" s="18"/>
+      <c r="L50" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L50" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M50" s="6" t="s">
+      <c r="M50" s="8" t="s">
         <v>2</v>
       </c>
       <c r="N50" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O50" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P50" s="70"/>
-    </row>
-    <row r="51" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="O50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+    </row>
+    <row r="51" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>101</v>
       </c>
@@ -4637,7 +4461,7 @@
         <v>36</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>31</v>
@@ -4656,24 +4480,30 @@
       </c>
       <c r="I51" s="31"/>
       <c r="J51" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="K51" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="L51" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L51" s="20"/>
-      <c r="M51" s="6" t="s">
+      <c r="M51" s="20"/>
+      <c r="N51" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N51" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="O51" s="32"/>
-      <c r="P51" s="70" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="O51" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="R51" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>102</v>
       </c>
@@ -4681,7 +4511,7 @@
         <v>36</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>31</v>
@@ -4698,26 +4528,32 @@
       </c>
       <c r="I52" s="31"/>
       <c r="J52" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="K52" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="L52" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="20"/>
-      <c r="M52" s="6" t="s">
+      <c r="M52" s="20"/>
+      <c r="N52" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N52" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="O52" s="32"/>
-      <c r="P52" s="70" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="238" x14ac:dyDescent="0.2">
+      <c r="O52" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="R52" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="238" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>36</v>
@@ -4729,37 +4565,43 @@
         <v>32</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G53" s="60" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H53" s="60" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I53" s="31"/>
-      <c r="J53" s="70" t="s">
-        <v>209</v>
-      </c>
-      <c r="K53" s="8"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="6" t="s">
-        <v>188</v>
-      </c>
+      <c r="J53" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="K53" s="65" t="s">
+        <v>214</v>
+      </c>
+      <c r="L53" s="8"/>
+      <c r="M53" s="20"/>
       <c r="N53" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="O53" s="32"/>
-      <c r="P53" s="70" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="119" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="R53" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="119" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>36</v>
@@ -4771,33 +4613,35 @@
         <v>31</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G54" s="18"/>
       <c r="H54" s="57"/>
       <c r="I54" s="18"/>
       <c r="J54" s="18"/>
-      <c r="K54" s="8" t="s">
+      <c r="K54" s="18"/>
+      <c r="L54" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M54" s="6" t="s">
+      <c r="M54" s="8" t="s">
         <v>2</v>
       </c>
       <c r="N54" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O54" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P54" s="70"/>
-    </row>
-    <row r="55" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="O54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+    </row>
+    <row r="55" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>10</v>
       </c>
@@ -4805,7 +4649,7 @@
         <v>36</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>31</v>
@@ -4821,25 +4665,29 @@
         <v>7.5484389999999998E-2</v>
       </c>
       <c r="I55" s="31"/>
-      <c r="J55" s="70" t="s">
-        <v>210</v>
-      </c>
-      <c r="K55" s="8" t="s">
+      <c r="J55" s="65" t="s">
+        <v>208</v>
+      </c>
+      <c r="K55" s="65"/>
+      <c r="L55" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L55" s="20"/>
-      <c r="M55" s="6" t="s">
-        <v>190</v>
-      </c>
+      <c r="M55" s="20"/>
       <c r="N55" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="O55" s="32"/>
-      <c r="P55" s="70" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="R55" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>11</v>
       </c>
@@ -4860,24 +4708,26 @@
       <c r="H56" s="50"/>
       <c r="I56" s="18"/>
       <c r="J56" s="18"/>
-      <c r="K56" s="62" t="s">
-        <v>191</v>
-      </c>
-      <c r="L56" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M56" s="6" t="s">
+      <c r="K56" s="18"/>
+      <c r="L56" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="M56" s="8" t="s">
         <v>2</v>
       </c>
       <c r="N56" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O56" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P56" s="70"/>
-    </row>
-    <row r="57" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="O56" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+    </row>
+    <row r="57" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>12</v>
       </c>
@@ -4898,24 +4748,26 @@
       <c r="H57" s="50"/>
       <c r="I57" s="18"/>
       <c r="J57" s="18"/>
-      <c r="K57" s="62" t="s">
-        <v>191</v>
-      </c>
-      <c r="L57" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M57" s="6" t="s">
+      <c r="K57" s="18"/>
+      <c r="L57" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="M57" s="8" t="s">
         <v>2</v>
       </c>
       <c r="N57" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O57" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P57" s="70"/>
-    </row>
-    <row r="58" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="O57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+    </row>
+    <row r="58" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>13</v>
       </c>
@@ -4936,24 +4788,26 @@
       <c r="H58" s="50"/>
       <c r="I58" s="18"/>
       <c r="J58" s="18"/>
-      <c r="K58" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="L58" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M58" s="6" t="s">
+      <c r="K58" s="18"/>
+      <c r="L58" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="M58" s="8" t="s">
         <v>2</v>
       </c>
       <c r="N58" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O58" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P58" s="70"/>
-    </row>
-    <row r="59" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="O58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+    </row>
+    <row r="59" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>84</v>
       </c>
@@ -4981,9 +4835,6 @@
       <c r="I59" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="K59" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="L59" s="5" t="s">
         <v>84</v>
       </c>
@@ -4994,6 +4845,9 @@
         <v>84</v>
       </c>
       <c r="O59" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P59" s="5" t="s">
         <v>84</v>
       </c>
     </row>

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0F903A-C2A2-204D-BE4A-FCD65644B942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86043F77-F371-5C46-8E56-4B9630922BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19540" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="34040" windowHeight="19540" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">params!$A$1:$P$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">params!$A$1:$Q$59</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,10 +43,9 @@
   <authors>
     <author>tc={04385ABF-366F-F14D-B686-003B7FD6A102}</author>
     <author>tc={51F972CD-9F3E-FF43-98B5-159579D7B474}</author>
-    <author>tc={41F30597-8EA5-6B4E-BC92-48BBEE4F0910}</author>
   </authors>
   <commentList>
-    <comment ref="N14" authorId="0" shapeId="0" xr:uid="{04385ABF-366F-F14D-B686-003B7FD6A102}">
+    <comment ref="O14" authorId="0" shapeId="0" xr:uid="{04385ABF-366F-F14D-B686-003B7FD6A102}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,7 +53,7 @@
     This includes 13 prospective studies from different regions; 0.42 estimate was Kenya-specific but they have Europe, France specifically, and other African countries</t>
       </text>
     </comment>
-    <comment ref="M15" authorId="1" shapeId="0" xr:uid="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
+    <comment ref="N15" authorId="1" shapeId="0" xr:uid="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -62,20 +61,12 @@
     Update to WHO reference because this is actually a global estimate</t>
       </text>
     </comment>
-    <comment ref="G49" authorId="2" shapeId="0" xr:uid="{41F30597-8EA5-6B4E-BC92-48BBEE4F0910}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Consider using IeDEA data for Kenya as well and fit a similar model</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="222">
   <si>
     <t>Parameter</t>
   </si>
@@ -746,82 +737,6 @@
 Log linear model, fit the model: 
 fit = glm(log(prop) ~ year), for age &lt;17
 fit = glm(log(prop) ~ year + age + year:age), for age 18+</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">AIDS Info: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">data on # PWH on ART (calculated # starting each year)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Years:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2011-2021
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ages:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Total only
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Calculated using the total number of individuals starting ART/those off of ART
-Log linear model, fit the model: 
-fit = glm(log(prop) ~ year)</t>
     </r>
   </si>
   <si>
@@ -1448,16 +1363,105 @@
     <t>DHS 2004, 2010, 2022 (also have 1996, 1999) - see "DHS_tables.xlsx"</t>
   </si>
   <si>
-    <t>Using SOUTH AFRICA suppression data (IeDEA dashboard values suppressed for Tanzania; for the few values that are there, they look closer to SA's data than Kenya)</t>
-  </si>
-  <si>
-    <t>Using SA suppression data (IeDEA dashboard values suppressed for Tanz); values look closer to SA than Kenya</t>
-  </si>
-  <si>
     <t>IeDEA Dashboard</t>
   </si>
   <si>
     <t>IeDEA dashboard</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Using SOUTH AFRICA suppression data (IeDEA dashboard values mostly NA for Tanzania; for the few values that are there, they look closer to SA's data than Kenya)</t>
+  </si>
+  <si>
+    <t>Using SA suppression data (IeDEA dashboard values mostly NA for Tanz); values look closer to SA than Kenya</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">***3/25 switched to IeDEA method***
+AIDS Info: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">data on # PWH on ART (calculated # starting each year)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Years:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2011-2021
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ages:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Total only
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Calculated using the total number of individuals starting ART/those off of ART
+Log linear model, fit the model: 
+fit = glm(log(prop) ~ year)</t>
+    </r>
+  </si>
+  <si>
+    <t>Using SOUTH AFRICA suppression data (IeDEA dashboard values mostly NA for Uganda; for the few values that are there, they look closer to SA's data than Kenya)</t>
+  </si>
+  <si>
+    <t>Using SA suppression data (IeDEA dashboard values mostly NA for Uganda); values look closer to SA than Kenya</t>
+  </si>
+  <si>
+    <t>DHS 2000 2006, 2016 (also have 1995, 2011) - see "DHS_tables.xlsx"</t>
   </si>
 </sst>
 </file>
@@ -2268,27 +2272,24 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="N14" dT="2025-01-22T18:42:38.64" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{04385ABF-366F-F14D-B686-003B7FD6A102}">
+  <threadedComment ref="O14" dT="2025-01-22T18:42:38.64" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{04385ABF-366F-F14D-B686-003B7FD6A102}">
     <text>This includes 13 prospective studies from different regions; 0.42 estimate was Kenya-specific but they have Europe, France specifically, and other African countries</text>
   </threadedComment>
-  <threadedComment ref="M15" dT="2025-01-22T18:20:02.26" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
+  <threadedComment ref="N15" dT="2025-01-22T18:20:02.26" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
     <text>Update to WHO reference because this is actually a global estimate</text>
-  </threadedComment>
-  <threadedComment ref="G49" dT="2025-02-12T20:18:59.04" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{41F30597-8EA5-6B4E-BC92-48BBEE4F0910}">
-    <text>Consider using IeDEA data for Kenya as well and fit a similar model</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B2D996-732D-784F-96EB-809CE760E324}">
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="H51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R55" sqref="R55"/>
+      <selection pane="bottomRight" activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2301,17 +2302,17 @@
     <col min="6" max="6" width="55" style="5" customWidth="1"/>
     <col min="7" max="8" width="53.5" style="5" customWidth="1"/>
     <col min="9" max="9" width="53.5" style="5" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="53.5" style="5" customWidth="1"/>
-    <col min="12" max="12" width="17" style="5" customWidth="1"/>
-    <col min="13" max="13" width="24" style="5" customWidth="1"/>
-    <col min="14" max="14" width="26" style="5" customWidth="1"/>
-    <col min="15" max="15" width="37.5" style="5" customWidth="1"/>
-    <col min="16" max="16" width="30.5" style="5" hidden="1" customWidth="1"/>
-    <col min="17" max="18" width="30.5" style="5" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="5"/>
+    <col min="10" max="12" width="53.5" style="5" customWidth="1"/>
+    <col min="13" max="13" width="17" style="5" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="24" style="5" customWidth="1"/>
+    <col min="15" max="15" width="26" style="5" customWidth="1"/>
+    <col min="16" max="16" width="37.5" style="5" customWidth="1"/>
+    <col min="17" max="17" width="30.5" style="5" hidden="1" customWidth="1"/>
+    <col min="18" max="20" width="30.5" style="5" customWidth="1"/>
+    <col min="21" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -2335,19 +2336,21 @@
       <c r="I1" s="35"/>
       <c r="J1" s="35"/>
       <c r="K1" s="35"/>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="N1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="64"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="37"/>
       <c r="R1" s="64"/>
-    </row>
-    <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+    </row>
+    <row r="2" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="38"/>
       <c r="B2" s="40"/>
       <c r="C2" s="42"/>
@@ -2366,32 +2369,38 @@
         <v>24</v>
       </c>
       <c r="J2" s="39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="O2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="P2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="40" t="s">
+      <c r="Q2" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="64" t="s">
-        <v>196</v>
-      </c>
       <c r="R2" s="64" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="211" customHeight="1" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="S2" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="T2" s="64" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="211" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>33</v>
       </c>
@@ -2406,38 +2415,44 @@
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G3" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="I3" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="I3" s="25" t="s">
-        <v>172</v>
-      </c>
       <c r="J3" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26" t="s">
         <v>2</v>
       </c>
       <c r="O3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="25"/>
+      <c r="P3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="R3" s="25"/>
-    </row>
-    <row r="4" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+    </row>
+    <row r="4" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
@@ -2459,25 +2474,27 @@
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="18"/>
+      <c r="M4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="26" t="s">
         <v>2</v>
       </c>
       <c r="O4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="25"/>
+      <c r="P4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="R4" s="25"/>
-    </row>
-    <row r="5" spans="1:18" ht="272" x14ac:dyDescent="0.2">
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+    </row>
+    <row r="5" spans="1:20" ht="272" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>148</v>
       </c>
@@ -2497,41 +2514,47 @@
         <v>156</v>
       </c>
       <c r="G5" s="59" t="s">
+        <v>209</v>
+      </c>
+      <c r="H5" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="H5" s="59" t="s">
-        <v>211</v>
-      </c>
       <c r="I5" s="59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J5" s="59" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K5" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="L5" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="L5" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="M5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="27" t="s">
+      <c r="N5" s="20"/>
+      <c r="O5" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="27" t="s">
+      <c r="P5" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="P5" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q5" s="59" t="s">
-        <v>213</v>
+      <c r="Q5" s="29" t="s">
+        <v>190</v>
       </c>
       <c r="R5" s="59" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+      <c r="S5" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="T5" s="59" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>150</v>
       </c>
@@ -2558,32 +2581,38 @@
         <v>152</v>
       </c>
       <c r="J6" s="59" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K6" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="L6" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="L6" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="M6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="27" t="s">
+      <c r="N6" s="20"/>
+      <c r="O6" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="O6" s="27" t="s">
+      <c r="P6" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="P6" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q6" s="59" t="s">
-        <v>213</v>
+      <c r="Q6" s="29" t="s">
+        <v>190</v>
       </c>
       <c r="R6" s="59" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+      <c r="S6" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="T6" s="59" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>67</v>
       </c>
@@ -2607,25 +2636,27 @@
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
-      <c r="L7" s="30" t="s">
+      <c r="L7" s="18"/>
+      <c r="M7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="N7" s="25" t="s">
+      <c r="N7" s="26" t="s">
         <v>2</v>
       </c>
       <c r="O7" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="P7" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="25"/>
+      <c r="P7" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="R7" s="25"/>
-    </row>
-    <row r="8" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+    </row>
+    <row r="8" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>69</v>
       </c>
@@ -2649,25 +2680,27 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="18"/>
+      <c r="M8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="N8" s="25" t="s">
+      <c r="N8" s="26" t="s">
         <v>2</v>
       </c>
       <c r="O8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="P8" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="25"/>
+      <c r="P8" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="R8" s="25"/>
-    </row>
-    <row r="9" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+    </row>
+    <row r="9" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>68</v>
       </c>
@@ -2691,25 +2724,27 @@
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
-      <c r="L9" s="30" t="s">
+      <c r="L9" s="18"/>
+      <c r="M9" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="N9" s="25" t="s">
+      <c r="N9" s="26" t="s">
         <v>2</v>
       </c>
       <c r="O9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="P9" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="25"/>
+      <c r="P9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="R9" s="25"/>
-    </row>
-    <row r="10" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+    </row>
+    <row r="10" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>70</v>
       </c>
@@ -2733,25 +2768,27 @@
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
-      <c r="L10" s="30" t="s">
+      <c r="L10" s="18"/>
+      <c r="M10" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="N10" s="25" t="s">
+      <c r="N10" s="26" t="s">
         <v>2</v>
       </c>
       <c r="O10" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="25"/>
+      <c r="P10" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="R10" s="25"/>
-    </row>
-    <row r="11" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+    </row>
+    <row r="11" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>6</v>
       </c>
@@ -2775,19 +2812,21 @@
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
-      <c r="L11" s="30" t="s">
+      <c r="L11" s="18"/>
+      <c r="M11" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="30" t="s">
+      <c r="N11" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="N11" s="27"/>
       <c r="O11" s="27"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="25"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="29"/>
       <c r="R11" s="25"/>
-    </row>
-    <row r="12" spans="1:18" ht="136" x14ac:dyDescent="0.2">
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+    </row>
+    <row r="12" spans="1:20" ht="136" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>7</v>
       </c>
@@ -2801,19 +2840,19 @@
         <v>32</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F12" s="30" t="s">
         <v>49</v>
       </c>
       <c r="G12" s="63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H12" s="27" t="s">
         <v>85</v>
       </c>
       <c r="I12" s="63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J12" s="27" t="s">
         <v>85</v>
@@ -2821,27 +2860,33 @@
       <c r="K12" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="L12" s="30" t="s">
+      <c r="L12" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="20"/>
-      <c r="N12" s="27" t="s">
-        <v>195</v>
-      </c>
+      <c r="N12" s="20"/>
       <c r="O12" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P12" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="Q12" s="25" t="s">
-        <v>195</v>
+      <c r="Q12" s="27" t="s">
+        <v>193</v>
       </c>
       <c r="R12" s="25" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="S12" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="T12" s="25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>73</v>
       </c>
@@ -2865,25 +2910,27 @@
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
-      <c r="L13" s="30" t="s">
+      <c r="L13" s="18"/>
+      <c r="M13" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="N13" s="25" t="s">
+      <c r="N13" s="26" t="s">
         <v>2</v>
       </c>
       <c r="O13" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="P13" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="25"/>
+      <c r="P13" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="R13" s="25"/>
-    </row>
-    <row r="14" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+    </row>
+    <row r="14" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>75</v>
       </c>
@@ -2913,25 +2960,31 @@
       <c r="K14" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="L14" s="30" t="s">
+      <c r="L14" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="20"/>
-      <c r="N14" s="27" t="s">
-        <v>61</v>
-      </c>
+      <c r="N14" s="20"/>
       <c r="O14" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="25" t="s">
+      <c r="P14" s="27" t="s">
         <v>61</v>
       </c>
+      <c r="Q14" s="32"/>
       <c r="R14" s="25" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+      <c r="S14" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="T14" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>77</v>
       </c>
@@ -2955,21 +3008,23 @@
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
-      <c r="L15" s="30" t="s">
+      <c r="L15" s="18"/>
+      <c r="M15" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="M15" s="30" t="s">
+      <c r="N15" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="N15" s="18" t="s">
+      <c r="O15" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="O15" s="18"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="19"/>
       <c r="R15" s="18"/>
-    </row>
-    <row r="16" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+    </row>
+    <row r="16" spans="1:20" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
@@ -2983,7 +3038,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>116</v>
@@ -2993,19 +3048,21 @@
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="18"/>
+      <c r="M16" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="M16" s="13" t="s">
+      <c r="N16" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N16" s="18"/>
       <c r="O16" s="18"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="19"/>
       <c r="R16" s="18"/>
-    </row>
-    <row r="17" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+    </row>
+    <row r="17" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>117</v>
       </c>
@@ -3029,25 +3086,27 @@
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="18"/>
+      <c r="M17" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N17" s="10" t="s">
+      <c r="N17" s="13" t="s">
         <v>2</v>
       </c>
       <c r="O17" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P17" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="10"/>
+      <c r="P17" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="R17" s="10"/>
-    </row>
-    <row r="18" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+    </row>
+    <row r="18" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>118</v>
       </c>
@@ -3071,25 +3130,27 @@
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
-      <c r="L18" s="13" t="s">
+      <c r="L18" s="18"/>
+      <c r="M18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N18" s="10" t="s">
+      <c r="N18" s="13" t="s">
         <v>2</v>
       </c>
       <c r="O18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P18" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="10"/>
+      <c r="P18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="R18" s="10"/>
-    </row>
-    <row r="19" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+    </row>
+    <row r="19" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>119</v>
       </c>
@@ -3113,25 +3174,27 @@
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
-      <c r="L19" s="13" t="s">
+      <c r="L19" s="18"/>
+      <c r="M19" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M19" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N19" s="10" t="s">
+      <c r="N19" s="13" t="s">
         <v>2</v>
       </c>
       <c r="O19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P19" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="10"/>
+      <c r="P19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="R19" s="10"/>
-    </row>
-    <row r="20" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+    </row>
+    <row r="20" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>120</v>
       </c>
@@ -3155,25 +3218,27 @@
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="18"/>
+      <c r="M20" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N20" s="10" t="s">
+      <c r="N20" s="13" t="s">
         <v>2</v>
       </c>
       <c r="O20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P20" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="10"/>
+      <c r="P20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="R20" s="10"/>
-    </row>
-    <row r="21" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+    </row>
+    <row r="21" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>121</v>
       </c>
@@ -3197,25 +3262,27 @@
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
-      <c r="L21" s="13" t="s">
+      <c r="L21" s="18"/>
+      <c r="M21" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N21" s="10" t="s">
+      <c r="N21" s="13" t="s">
         <v>2</v>
       </c>
       <c r="O21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P21" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q21" s="10"/>
+      <c r="P21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="R21" s="10"/>
-    </row>
-    <row r="22" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+    </row>
+    <row r="22" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>122</v>
       </c>
@@ -3239,25 +3306,27 @@
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
-      <c r="L22" s="13" t="s">
+      <c r="L22" s="18"/>
+      <c r="M22" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N22" s="10" t="s">
+      <c r="N22" s="13" t="s">
         <v>2</v>
       </c>
       <c r="O22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P22" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="10"/>
+      <c r="P22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="R22" s="10"/>
-    </row>
-    <row r="23" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+    </row>
+    <row r="23" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>129</v>
       </c>
@@ -3281,25 +3350,27 @@
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
-      <c r="L23" s="13" t="s">
+      <c r="L23" s="18"/>
+      <c r="M23" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N23" s="10" t="s">
+      <c r="N23" s="13" t="s">
         <v>2</v>
       </c>
       <c r="O23" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P23" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="10"/>
+      <c r="P23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="R23" s="10"/>
-    </row>
-    <row r="24" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+    </row>
+    <row r="24" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>130</v>
       </c>
@@ -3323,25 +3394,27 @@
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
-      <c r="L24" s="13" t="s">
+      <c r="L24" s="18"/>
+      <c r="M24" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N24" s="10" t="s">
+      <c r="N24" s="13" t="s">
         <v>2</v>
       </c>
       <c r="O24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P24" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="10"/>
+      <c r="P24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="R24" s="10"/>
-    </row>
-    <row r="25" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+    </row>
+    <row r="25" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>131</v>
       </c>
@@ -3365,25 +3438,27 @@
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
-      <c r="L25" s="13" t="s">
+      <c r="L25" s="18"/>
+      <c r="M25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M25" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N25" s="10" t="s">
+      <c r="N25" s="13" t="s">
         <v>2</v>
       </c>
       <c r="O25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P25" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="10"/>
+      <c r="P25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="R25" s="10"/>
-    </row>
-    <row r="26" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+    </row>
+    <row r="26" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>132</v>
       </c>
@@ -3407,25 +3482,27 @@
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
-      <c r="L26" s="13" t="s">
+      <c r="L26" s="18"/>
+      <c r="M26" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N26" s="10" t="s">
+      <c r="N26" s="13" t="s">
         <v>2</v>
       </c>
       <c r="O26" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P26" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="10"/>
+      <c r="P26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="R26" s="10"/>
-    </row>
-    <row r="27" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+    </row>
+    <row r="27" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>133</v>
       </c>
@@ -3449,25 +3526,27 @@
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
-      <c r="L27" s="13" t="s">
+      <c r="L27" s="18"/>
+      <c r="M27" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N27" s="10" t="s">
+      <c r="N27" s="13" t="s">
         <v>2</v>
       </c>
       <c r="O27" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P27" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q27" s="10"/>
+      <c r="P27" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="R27" s="10"/>
-    </row>
-    <row r="28" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+    </row>
+    <row r="28" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>134</v>
       </c>
@@ -3491,25 +3570,27 @@
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
       <c r="K28" s="18"/>
-      <c r="L28" s="13" t="s">
+      <c r="L28" s="18"/>
+      <c r="M28" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M28" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N28" s="10" t="s">
+      <c r="N28" s="13" t="s">
         <v>2</v>
       </c>
       <c r="O28" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P28" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q28" s="10"/>
+      <c r="P28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="R28" s="10"/>
-    </row>
-    <row r="29" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+    </row>
+    <row r="29" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>89</v>
       </c>
@@ -3517,16 +3598,16 @@
         <v>38</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G29" s="14">
         <v>4.0579709999999998E-2</v>
@@ -3538,24 +3619,26 @@
         <v>5.3571430000000003E-2</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="L29" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="L29" s="14"/>
+      <c r="M29" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="16" t="s">
+      <c r="N29" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="N29" s="14"/>
       <c r="O29" s="14"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="15"/>
       <c r="R29" s="14"/>
-    </row>
-    <row r="30" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+    </row>
+    <row r="30" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>14</v>
       </c>
@@ -3563,14 +3646,14 @@
         <v>38</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G30" s="14">
         <v>8.1250000000000003E-2</v>
@@ -3582,24 +3665,26 @@
         <v>2.272727E-3</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="L30" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="L30" s="14"/>
+      <c r="M30" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M30" s="16" t="s">
+      <c r="N30" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="N30" s="14"/>
       <c r="O30" s="14"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="15"/>
       <c r="R30" s="14"/>
-    </row>
-    <row r="31" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+    </row>
+    <row r="31" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>15</v>
       </c>
@@ -3607,14 +3692,14 @@
         <v>38</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G31" s="14">
         <v>0.02</v>
@@ -3626,24 +3711,26 @@
         <v>3.9473679999999997E-3</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="L31" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="L31" s="14"/>
+      <c r="M31" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M31" s="16" t="s">
+      <c r="N31" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="N31" s="14"/>
       <c r="O31" s="14"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="15"/>
       <c r="R31" s="14"/>
-    </row>
-    <row r="32" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+    </row>
+    <row r="32" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>143</v>
       </c>
@@ -3665,25 +3752,27 @@
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
-      <c r="L32" s="16" t="s">
+      <c r="L32" s="18"/>
+      <c r="M32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="N32" s="14" t="s">
+      <c r="N32" s="16" t="s">
         <v>2</v>
       </c>
       <c r="O32" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="P32" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="14"/>
+      <c r="P32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="R32" s="14"/>
-    </row>
-    <row r="33" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+    </row>
+    <row r="33" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>147</v>
       </c>
@@ -3705,25 +3794,27 @@
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
-      <c r="L33" s="16" t="s">
+      <c r="L33" s="18"/>
+      <c r="M33" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="N33" s="14" t="s">
+      <c r="N33" s="16" t="s">
         <v>2</v>
       </c>
       <c r="O33" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="P33" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q33" s="14"/>
+      <c r="P33" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q33" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="R33" s="14"/>
-    </row>
-    <row r="34" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+    </row>
+    <row r="34" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>144</v>
       </c>
@@ -3745,25 +3836,27 @@
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
       <c r="K34" s="18"/>
-      <c r="L34" s="16" t="s">
+      <c r="L34" s="18"/>
+      <c r="M34" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M34" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="N34" s="14" t="s">
+      <c r="N34" s="16" t="s">
         <v>2</v>
       </c>
       <c r="O34" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="P34" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q34" s="14"/>
+      <c r="P34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="R34" s="14"/>
-    </row>
-    <row r="35" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+    </row>
+    <row r="35" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>145</v>
       </c>
@@ -3785,25 +3878,27 @@
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
       <c r="K35" s="18"/>
-      <c r="L35" s="16" t="s">
+      <c r="L35" s="18"/>
+      <c r="M35" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="N35" s="14" t="s">
+      <c r="N35" s="16" t="s">
         <v>2</v>
       </c>
       <c r="O35" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="P35" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q35" s="14"/>
+      <c r="P35" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="R35" s="14"/>
-    </row>
-    <row r="36" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+    </row>
+    <row r="36" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>146</v>
       </c>
@@ -3825,25 +3920,27 @@
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
-      <c r="L36" s="16" t="s">
+      <c r="L36" s="18"/>
+      <c r="M36" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M36" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="N36" s="14" t="s">
+      <c r="N36" s="16" t="s">
         <v>2</v>
       </c>
       <c r="O36" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="P36" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q36" s="14"/>
+      <c r="P36" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="R36" s="14"/>
-    </row>
-    <row r="37" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+    </row>
+    <row r="37" spans="1:20" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="44" t="s">
         <v>108</v>
       </c>
@@ -3865,19 +3962,21 @@
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
       <c r="K37" s="18"/>
-      <c r="L37" s="48" t="s">
+      <c r="L37" s="18"/>
+      <c r="M37" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="M37" s="51" t="s">
+      <c r="N37" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="N37" s="36"/>
       <c r="O37" s="36"/>
-      <c r="P37" s="58"/>
-      <c r="Q37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="58"/>
       <c r="R37" s="36"/>
-    </row>
-    <row r="38" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+    </row>
+    <row r="38" spans="1:20" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="44" t="s">
         <v>16</v>
       </c>
@@ -3901,25 +4000,27 @@
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
       <c r="K38" s="18"/>
-      <c r="L38" s="48" t="s">
+      <c r="L38" s="18"/>
+      <c r="M38" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="N38" s="52" t="s">
+      <c r="N38" s="51" t="s">
         <v>2</v>
       </c>
       <c r="O38" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="P38" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q38" s="52"/>
+      <c r="P38" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="53" t="s">
+        <v>2</v>
+      </c>
       <c r="R38" s="52"/>
-    </row>
-    <row r="39" spans="1:18" ht="170" x14ac:dyDescent="0.2">
+      <c r="S38" s="52"/>
+      <c r="T38" s="52"/>
+    </row>
+    <row r="39" spans="1:20" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="44" t="s">
         <v>90</v>
       </c>
@@ -3943,25 +4044,27 @@
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
       <c r="K39" s="18"/>
-      <c r="L39" s="48" t="s">
+      <c r="L39" s="18"/>
+      <c r="M39" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="M39" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="N39" s="44" t="s">
+      <c r="N39" s="48" t="s">
         <v>17</v>
       </c>
       <c r="O39" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="P39" s="45" t="s">
+      <c r="P39" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="Q39" s="44"/>
+      <c r="Q39" s="45" t="s">
+        <v>17</v>
+      </c>
       <c r="R39" s="44"/>
-    </row>
-    <row r="40" spans="1:18" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
+    </row>
+    <row r="40" spans="1:20" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="44" t="s">
         <v>19</v>
       </c>
@@ -3989,25 +4092,27 @@
       <c r="I40" s="44"/>
       <c r="J40" s="44"/>
       <c r="K40" s="44"/>
-      <c r="L40" s="48" t="s">
+      <c r="L40" s="44"/>
+      <c r="M40" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="M40" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="N40" s="55" t="s">
+      <c r="N40" s="54" t="s">
         <v>2</v>
       </c>
       <c r="O40" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="P40" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q40" s="55"/>
+      <c r="P40" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="56" t="s">
+        <v>2</v>
+      </c>
       <c r="R40" s="55"/>
-    </row>
-    <row r="41" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S40" s="55"/>
+      <c r="T40" s="55"/>
+    </row>
+    <row r="41" spans="1:20" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="44" t="s">
         <v>21</v>
       </c>
@@ -4033,25 +4138,27 @@
       <c r="I41" s="44"/>
       <c r="J41" s="44"/>
       <c r="K41" s="44"/>
-      <c r="L41" s="48" t="s">
+      <c r="L41" s="44"/>
+      <c r="M41" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="N41" s="44" t="s">
+      <c r="N41" s="48" t="s">
         <v>2</v>
       </c>
       <c r="O41" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="P41" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q41" s="44"/>
+      <c r="P41" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="45" t="s">
+        <v>2</v>
+      </c>
       <c r="R41" s="44"/>
-    </row>
-    <row r="42" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="S41" s="44"/>
+      <c r="T41" s="44"/>
+    </row>
+    <row r="42" spans="1:20" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="44" t="s">
         <v>40</v>
       </c>
@@ -4077,25 +4184,27 @@
       <c r="I42" s="44"/>
       <c r="J42" s="44"/>
       <c r="K42" s="44"/>
-      <c r="L42" s="48" t="s">
+      <c r="L42" s="44"/>
+      <c r="M42" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="N42" s="44" t="s">
+      <c r="N42" s="48" t="s">
         <v>2</v>
       </c>
       <c r="O42" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="P42" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q42" s="44"/>
+      <c r="P42" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="45" t="s">
+        <v>2</v>
+      </c>
       <c r="R42" s="44"/>
-    </row>
-    <row r="43" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="S42" s="44"/>
+      <c r="T42" s="44"/>
+    </row>
+    <row r="43" spans="1:20" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="44" t="s">
         <v>41</v>
       </c>
@@ -4121,25 +4230,27 @@
       <c r="I43" s="44"/>
       <c r="J43" s="44"/>
       <c r="K43" s="44"/>
-      <c r="L43" s="48" t="s">
+      <c r="L43" s="44"/>
+      <c r="M43" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="N43" s="44" t="s">
+      <c r="N43" s="48" t="s">
         <v>2</v>
       </c>
       <c r="O43" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="P43" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q43" s="44"/>
+      <c r="P43" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="45" t="s">
+        <v>2</v>
+      </c>
       <c r="R43" s="44"/>
-    </row>
-    <row r="44" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="S43" s="44"/>
+      <c r="T43" s="44"/>
+    </row>
+    <row r="44" spans="1:20" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="44" t="s">
         <v>42</v>
       </c>
@@ -4165,25 +4276,27 @@
       <c r="I44" s="44"/>
       <c r="J44" s="44"/>
       <c r="K44" s="44"/>
-      <c r="L44" s="48" t="s">
+      <c r="L44" s="44"/>
+      <c r="M44" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="N44" s="44" t="s">
+      <c r="N44" s="48" t="s">
         <v>2</v>
       </c>
       <c r="O44" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="P44" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q44" s="44"/>
+      <c r="P44" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q44" s="45" t="s">
+        <v>2</v>
+      </c>
       <c r="R44" s="44"/>
-    </row>
-    <row r="45" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+    </row>
+    <row r="45" spans="1:20" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="44" t="s">
         <v>43</v>
       </c>
@@ -4204,30 +4317,32 @@
         <v>1</v>
       </c>
       <c r="H45" s="49" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I45" s="44"/>
       <c r="J45" s="44"/>
       <c r="K45" s="44"/>
-      <c r="L45" s="48" t="s">
+      <c r="L45" s="44"/>
+      <c r="M45" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="M45" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="N45" s="44" t="s">
+      <c r="N45" s="48" t="s">
         <v>2</v>
       </c>
       <c r="O45" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="P45" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q45" s="44"/>
+      <c r="P45" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q45" s="45" t="s">
+        <v>2</v>
+      </c>
       <c r="R45" s="44"/>
-    </row>
-    <row r="46" spans="1:18" ht="276" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+    </row>
+    <row r="46" spans="1:20" ht="276" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>78</v>
       </c>
@@ -4253,31 +4368,37 @@
         <v>163</v>
       </c>
       <c r="I46" s="31"/>
-      <c r="J46" s="65" t="s">
-        <v>197</v>
-      </c>
-      <c r="K46" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="L46" s="8" t="s">
+      <c r="J46" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="M46" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M46" s="20"/>
-      <c r="N46" s="6" t="s">
+      <c r="N46" s="20"/>
+      <c r="O46" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="O46" s="6" t="s">
+      <c r="P46" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="6" t="s">
-        <v>213</v>
-      </c>
+      <c r="Q46" s="32"/>
       <c r="R46" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+      <c r="S46" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="T46" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>98</v>
       </c>
@@ -4301,25 +4422,27 @@
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
       <c r="K47" s="18"/>
-      <c r="L47" s="8" t="s">
+      <c r="L47" s="18"/>
+      <c r="M47" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="N47" s="6" t="s">
+      <c r="N47" s="8" t="s">
         <v>2</v>
       </c>
       <c r="O47" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P47" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q47" s="6"/>
+      <c r="P47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="R47" s="6"/>
-    </row>
-    <row r="48" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+    </row>
+    <row r="48" spans="1:20" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>99</v>
       </c>
@@ -4343,25 +4466,27 @@
       <c r="I48" s="18"/>
       <c r="J48" s="18"/>
       <c r="K48" s="18"/>
-      <c r="L48" s="8" t="s">
+      <c r="L48" s="18"/>
+      <c r="M48" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="N48" s="6" t="s">
+      <c r="N48" s="8" t="s">
         <v>2</v>
       </c>
       <c r="O48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P48" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q48" s="6"/>
+      <c r="P48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="R48" s="6"/>
-    </row>
-    <row r="49" spans="1:18" ht="227" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+    </row>
+    <row r="49" spans="1:20" ht="227" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>100</v>
       </c>
@@ -4378,40 +4503,46 @@
         <v>157</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G49" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="H49" s="60" t="s">
         <v>164</v>
-      </c>
-      <c r="H49" s="60" t="s">
-        <v>165</v>
       </c>
       <c r="I49" s="31"/>
       <c r="J49" s="65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K49" s="65" t="s">
-        <v>217</v>
-      </c>
-      <c r="L49" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="L49" s="65" t="s">
+        <v>214</v>
+      </c>
+      <c r="M49" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M49" s="20"/>
-      <c r="N49" s="6" t="s">
+      <c r="N49" s="20"/>
+      <c r="O49" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="O49" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="P49" s="32"/>
-      <c r="Q49" s="6" t="s">
-        <v>201</v>
-      </c>
+      <c r="P49" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q49" s="32"/>
       <c r="R49" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="S49" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="T49" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>159</v>
       </c>
@@ -4435,25 +4566,27 @@
       <c r="I50" s="18"/>
       <c r="J50" s="18"/>
       <c r="K50" s="18"/>
-      <c r="L50" s="8" t="s">
+      <c r="L50" s="18"/>
+      <c r="M50" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M50" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="N50" s="6" t="s">
+      <c r="N50" s="8" t="s">
         <v>2</v>
       </c>
       <c r="O50" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P50" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q50" s="6"/>
+      <c r="P50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="R50" s="6"/>
-    </row>
-    <row r="51" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+    </row>
+    <row r="51" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>101</v>
       </c>
@@ -4461,7 +4594,7 @@
         <v>36</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>31</v>
@@ -4480,30 +4613,36 @@
       </c>
       <c r="I51" s="31"/>
       <c r="J51" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N51" s="20"/>
+      <c r="O51" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="K51" s="6" t="s">
+      <c r="S51" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="L51" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="M51" s="20"/>
-      <c r="N51" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="O51" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="R51" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="T51" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>102</v>
       </c>
@@ -4511,7 +4650,7 @@
         <v>36</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>31</v>
@@ -4528,32 +4667,38 @@
       </c>
       <c r="I52" s="31"/>
       <c r="J52" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="20"/>
+      <c r="O52" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P52" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="K52" s="6" t="s">
+      <c r="S52" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="L52" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="20"/>
-      <c r="N52" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="O52" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="P52" s="32"/>
-      <c r="Q52" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="R52" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="238" x14ac:dyDescent="0.2">
+      <c r="T52" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="238" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>36</v>
@@ -4565,43 +4710,49 @@
         <v>32</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G53" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="H53" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="I53" s="31"/>
+      <c r="J53" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="M53" s="8"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="S53" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="T53" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="119" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="H53" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="I53" s="31"/>
-      <c r="J53" s="65" t="s">
-        <v>206</v>
-      </c>
-      <c r="K53" s="65" t="s">
-        <v>214</v>
-      </c>
-      <c r="L53" s="8"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="O53" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="R53" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" ht="119" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>36</v>
@@ -4613,7 +4764,7 @@
         <v>31</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>161</v>
@@ -4621,27 +4772,29 @@
       <c r="G54" s="18"/>
       <c r="H54" s="57"/>
       <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="8" t="s">
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="N54" s="6" t="s">
+      <c r="N54" s="8" t="s">
         <v>2</v>
       </c>
       <c r="O54" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P54" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q54" s="6"/>
+      <c r="P54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q54" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="R54" s="6"/>
-    </row>
-    <row r="55" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+    </row>
+    <row r="55" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>10</v>
       </c>
@@ -4649,7 +4802,7 @@
         <v>36</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>31</v>
@@ -4665,29 +4818,37 @@
         <v>7.5484389999999998E-2</v>
       </c>
       <c r="I55" s="31"/>
-      <c r="J55" s="65" t="s">
-        <v>208</v>
-      </c>
-      <c r="K55" s="65"/>
-      <c r="L55" s="8" t="s">
+      <c r="J55" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="M55" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M55" s="20"/>
-      <c r="N55" s="6" t="s">
-        <v>187</v>
-      </c>
+      <c r="N55" s="20"/>
       <c r="O55" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="6" t="s">
-        <v>209</v>
-      </c>
+      <c r="P55" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q55" s="32"/>
       <c r="R55" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="S55" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="T55" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>11</v>
       </c>
@@ -4709,25 +4870,27 @@
       <c r="I56" s="18"/>
       <c r="J56" s="18"/>
       <c r="K56" s="18"/>
-      <c r="L56" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="M56" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="N56" s="6" t="s">
+      <c r="L56" s="18"/>
+      <c r="M56" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="N56" s="8" t="s">
         <v>2</v>
       </c>
       <c r="O56" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P56" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q56" s="6"/>
+      <c r="P56" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q56" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="R56" s="6"/>
-    </row>
-    <row r="57" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+    </row>
+    <row r="57" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>12</v>
       </c>
@@ -4749,25 +4912,27 @@
       <c r="I57" s="18"/>
       <c r="J57" s="18"/>
       <c r="K57" s="18"/>
-      <c r="L57" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="M57" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="N57" s="6" t="s">
+      <c r="L57" s="18"/>
+      <c r="M57" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="N57" s="8" t="s">
         <v>2</v>
       </c>
       <c r="O57" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P57" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q57" s="6"/>
+      <c r="P57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="R57" s="6"/>
-    </row>
-    <row r="58" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+    </row>
+    <row r="58" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>13</v>
       </c>
@@ -4789,25 +4954,27 @@
       <c r="I58" s="18"/>
       <c r="J58" s="18"/>
       <c r="K58" s="18"/>
-      <c r="L58" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="M58" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="N58" s="6" t="s">
+      <c r="L58" s="18"/>
+      <c r="M58" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="N58" s="8" t="s">
         <v>2</v>
       </c>
       <c r="O58" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P58" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q58" s="6"/>
+      <c r="P58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q58" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="R58" s="6"/>
-    </row>
-    <row r="59" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+    </row>
+    <row r="59" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>84</v>
       </c>
@@ -4835,9 +5002,6 @@
       <c r="I59" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L59" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="M59" s="5" t="s">
         <v>84</v>
       </c>
@@ -4848,6 +5012,9 @@
         <v>84</v>
       </c>
       <c r="P59" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q59" s="5" t="s">
         <v>84</v>
       </c>
     </row>

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86043F77-F371-5C46-8E56-4B9630922BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4FAA89-9C6C-7F4B-9120-962C60B3B4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="34040" windowHeight="19540" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="38280" windowHeight="19540" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -740,82 +740,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IeDEA Dashboard</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Proportion initiating ART within 12 months after enrollment
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Years:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2010, 2014, 2017 (fixed 1990 at 0)  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Age groups</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 10-19, 20-29, 30-39, 40-49, 50+; by sex
-Log linear model, fit the model: 
-fit = glm(log(prop) ~ year+age+sex)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>CHECK WITH TODD RE: RATE (KEN)  VS. PROPORTION (SA); also testing</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">
 Begins at this value in 1990, interpolates to hiv.specific.mortality.rates.1 from 1990-2005</t>
   </si>
@@ -1462,6 +1386,72 @@
   </si>
   <si>
     <t>DHS 2000 2006, 2016 (also have 1995, 2011) - see "DHS_tables.xlsx"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IeDEA Dashboard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Proportion initiating ART within 12 months after enrollment
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Years:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2010, 2014, 2017 (fixed 1990 at 0)  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Age groups</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 10-19, 20-29, 30-39, 40-49, 50+; by sex
+Log linear model, fit the model: 
+fit = glm(log(prop) ~ year+age+sex)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2286,10 +2276,10 @@
   <dimension ref="A1:T59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="G12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S46" sqref="S46"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2369,13 +2359,13 @@
         <v>24</v>
       </c>
       <c r="J2" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M2" s="39"/>
       <c r="N2" s="38" t="s">
@@ -2391,13 +2381,13 @@
         <v>24</v>
       </c>
       <c r="R2" s="64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S2" s="64" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T2" s="64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="211" customHeight="1" x14ac:dyDescent="0.2">
@@ -2415,25 +2405,25 @@
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G3" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="I3" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="I3" s="25" t="s">
-        <v>171</v>
-      </c>
       <c r="J3" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M3" s="26"/>
       <c r="N3" s="26" t="s">
@@ -2514,22 +2504,22 @@
         <v>156</v>
       </c>
       <c r="G5" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="H5" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="H5" s="59" t="s">
-        <v>210</v>
-      </c>
       <c r="I5" s="59" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J5" s="59" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K5" s="59" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L5" s="59" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M5" s="30" t="s">
         <v>5</v>
@@ -2542,16 +2532,16 @@
         <v>155</v>
       </c>
       <c r="Q5" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R5" s="59" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S5" s="59" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T5" s="59" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="85" x14ac:dyDescent="0.2">
@@ -2581,13 +2571,13 @@
         <v>152</v>
       </c>
       <c r="J6" s="59" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K6" s="59" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L6" s="59" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M6" s="30" t="s">
         <v>5</v>
@@ -2600,16 +2590,16 @@
         <v>155</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R6" s="59" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S6" s="59" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T6" s="59" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
@@ -2840,19 +2830,19 @@
         <v>32</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F12" s="30" t="s">
         <v>49</v>
       </c>
       <c r="G12" s="63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H12" s="27" t="s">
         <v>85</v>
       </c>
       <c r="I12" s="63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J12" s="27" t="s">
         <v>85</v>
@@ -2868,22 +2858,22 @@
       </c>
       <c r="N12" s="20"/>
       <c r="O12" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P12" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q12" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="R12" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="R12" s="25" t="s">
-        <v>194</v>
-      </c>
       <c r="S12" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T12" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="119" hidden="1" x14ac:dyDescent="0.2">
@@ -3038,7 +3028,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>116</v>
@@ -3598,16 +3588,16 @@
         <v>38</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G29" s="14">
         <v>4.0579709999999998E-2</v>
@@ -3619,10 +3609,10 @@
         <v>5.3571430000000003E-2</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="16" t="s">
@@ -3646,14 +3636,14 @@
         <v>38</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G30" s="14">
         <v>8.1250000000000003E-2</v>
@@ -3665,10 +3655,10 @@
         <v>2.272727E-3</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L30" s="14"/>
       <c r="M30" s="16" t="s">
@@ -3692,14 +3682,14 @@
         <v>38</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G31" s="14">
         <v>0.02</v>
@@ -3711,10 +3701,10 @@
         <v>3.9473679999999997E-3</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L31" s="14"/>
       <c r="M31" s="16" t="s">
@@ -4317,7 +4307,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="49" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I45" s="44"/>
       <c r="J45" s="44"/>
@@ -4369,13 +4359,13 @@
       </c>
       <c r="I46" s="31"/>
       <c r="J46" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M46" s="8" t="s">
         <v>5</v>
@@ -4389,13 +4379,13 @@
       </c>
       <c r="Q46" s="32"/>
       <c r="R46" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S46" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T46" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="102" hidden="1" x14ac:dyDescent="0.2">
@@ -4503,23 +4493,23 @@
         <v>157</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G49" s="60" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H49" s="60" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="I49" s="31"/>
       <c r="J49" s="65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K49" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L49" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M49" s="8" t="s">
         <v>5</v>
@@ -4529,17 +4519,17 @@
         <v>63</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q49" s="32"/>
       <c r="R49" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S49" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="T49" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="119" hidden="1" x14ac:dyDescent="0.2">
@@ -4594,7 +4584,7 @@
         <v>36</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>31</v>
@@ -4613,13 +4603,13 @@
       </c>
       <c r="I51" s="31"/>
       <c r="J51" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M51" s="8" t="s">
         <v>3</v>
@@ -4629,17 +4619,17 @@
         <v>64</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q51" s="32"/>
       <c r="R51" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S51" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T51" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="34" x14ac:dyDescent="0.2">
@@ -4650,7 +4640,7 @@
         <v>36</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>31</v>
@@ -4667,13 +4657,13 @@
       </c>
       <c r="I52" s="31"/>
       <c r="J52" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M52" s="8" t="s">
         <v>3</v>
@@ -4683,22 +4673,22 @@
         <v>64</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q52" s="32"/>
       <c r="R52" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S52" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T52" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="238" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>36</v>
@@ -4710,49 +4700,49 @@
         <v>32</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G53" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H53" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I53" s="31"/>
       <c r="J53" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M53" s="8"/>
       <c r="N53" s="20"/>
       <c r="O53" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q53" s="32"/>
       <c r="R53" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S53" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T53" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>36</v>
@@ -4764,7 +4754,7 @@
         <v>31</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>161</v>
@@ -4802,7 +4792,7 @@
         <v>36</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>31</v>
@@ -4819,33 +4809,33 @@
       </c>
       <c r="I55" s="31"/>
       <c r="J55" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M55" s="8" t="s">
         <v>3</v>
       </c>
       <c r="N55" s="20"/>
       <c r="O55" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q55" s="32"/>
       <c r="R55" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S55" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T55" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
@@ -4872,7 +4862,7 @@
       <c r="K56" s="18"/>
       <c r="L56" s="18"/>
       <c r="M56" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N56" s="8" t="s">
         <v>2</v>
@@ -4914,7 +4904,7 @@
       <c r="K57" s="18"/>
       <c r="L57" s="18"/>
       <c r="M57" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N57" s="8" t="s">
         <v>2</v>
@@ -4956,7 +4946,7 @@
       <c r="K58" s="18"/>
       <c r="L58" s="18"/>
       <c r="M58" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N58" s="8" t="s">
         <v>2</v>

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4FAA89-9C6C-7F4B-9120-962C60B3B4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCFDA7F-46D0-C64A-A6E4-512BF5FA1AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="38280" windowHeight="19540" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19560" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">params!$A$1:$Q$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">params!$A$1:$S$59</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,9 +43,10 @@
   <authors>
     <author>tc={04385ABF-366F-F14D-B686-003B7FD6A102}</author>
     <author>tc={51F972CD-9F3E-FF43-98B5-159579D7B474}</author>
+    <author>tc={27AC355D-4290-8945-B347-C6E9119A89EA}</author>
   </authors>
   <commentList>
-    <comment ref="O14" authorId="0" shapeId="0" xr:uid="{04385ABF-366F-F14D-B686-003B7FD6A102}">
+    <comment ref="Q14" authorId="0" shapeId="0" xr:uid="{04385ABF-366F-F14D-B686-003B7FD6A102}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -53,7 +54,7 @@
     This includes 13 prospective studies from different regions; 0.42 estimate was Kenya-specific but they have Europe, France specifically, and other African countries</t>
       </text>
     </comment>
-    <comment ref="N15" authorId="1" shapeId="0" xr:uid="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
+    <comment ref="P15" authorId="1" shapeId="0" xr:uid="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -61,12 +62,20 @@
     Update to WHO reference because this is actually a global estimate</t>
       </text>
     </comment>
+    <comment ref="H49" authorId="2" shapeId="0" xr:uid="{27AC355D-4290-8945-B347-C6E9119A89EA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    CHECK WITH TODD RE: RATE (KEN)  VS. PROPORTION (SA); also testing</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="231">
   <si>
     <t>Parameter</t>
   </si>
@@ -1248,9 +1257,6 @@
     <t>Using Kenya disengagement data</t>
   </si>
   <si>
-    <t>Using KENYA suppression data (IeDEA dashboard values suppressed for Moz)</t>
-  </si>
-  <si>
     <t>Using Kenya suppression data (IeDEA dashboard values suppressed for Moz)</t>
   </si>
   <si>
@@ -1453,12 +1459,53 @@
 fit = glm(log(prop) ~ year+age+sex)</t>
     </r>
   </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using SOUTH AFRICA suppression data </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Using KENYA suppression data (IeDEA dashboard values suppressed for Moz) - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>CONSIDER SWITCHING TO SA?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Using SOUTH AFRICA engagement data </t>
+  </si>
+  <si>
+    <t>Using SA data</t>
+  </si>
+  <si>
+    <t>DHS 2007, 2013, 2018</t>
+  </si>
+  <si>
+    <t>DHS 2001, 2007, 2018</t>
+  </si>
+  <si>
+    <t>DHS 2005, 2010, 2015</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1514,6 +1561,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1718,7 +1772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1819,9 +1873,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1834,21 +1885,12 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1913,6 +1955,30 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2262,24 +2328,27 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="O14" dT="2025-01-22T18:42:38.64" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{04385ABF-366F-F14D-B686-003B7FD6A102}">
+  <threadedComment ref="Q14" dT="2025-01-22T18:42:38.64" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{04385ABF-366F-F14D-B686-003B7FD6A102}">
     <text>This includes 13 prospective studies from different regions; 0.42 estimate was Kenya-specific but they have Europe, France specifically, and other African countries</text>
   </threadedComment>
-  <threadedComment ref="N15" dT="2025-01-22T18:20:02.26" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
+  <threadedComment ref="P15" dT="2025-01-22T18:20:02.26" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
     <text>Update to WHO reference because this is actually a global estimate</text>
+  </threadedComment>
+  <threadedComment ref="H49" dT="2025-03-26T15:43:17.15" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{27AC355D-4290-8945-B347-C6E9119A89EA}">
+    <text>CHECK WITH TODD RE: RATE (KEN)  VS. PROPORTION (SA); also testing</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B2D996-732D-784F-96EB-809CE760E324}">
-  <dimension ref="A1:T59"/>
+  <dimension ref="A1:X59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="G12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="H46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2:L2"/>
+      <selection pane="bottomRight" activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2292,105 +2361,121 @@
     <col min="6" max="6" width="55" style="5" customWidth="1"/>
     <col min="7" max="8" width="53.5" style="5" customWidth="1"/>
     <col min="9" max="9" width="53.5" style="5" hidden="1" customWidth="1"/>
-    <col min="10" max="12" width="53.5" style="5" customWidth="1"/>
-    <col min="13" max="13" width="17" style="5" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="24" style="5" customWidth="1"/>
-    <col min="15" max="15" width="26" style="5" customWidth="1"/>
-    <col min="16" max="16" width="37.5" style="5" customWidth="1"/>
-    <col min="17" max="17" width="30.5" style="5" hidden="1" customWidth="1"/>
-    <col min="18" max="20" width="30.5" style="5" customWidth="1"/>
-    <col min="21" max="16384" width="10.83203125" style="5"/>
+    <col min="10" max="14" width="53.5" style="5" customWidth="1"/>
+    <col min="15" max="15" width="17" style="5" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="24" style="5" customWidth="1"/>
+    <col min="17" max="17" width="26" style="5" customWidth="1"/>
+    <col min="18" max="18" width="37.5" style="5" customWidth="1"/>
+    <col min="19" max="19" width="30.5" style="5" hidden="1" customWidth="1"/>
+    <col min="20" max="24" width="30.5" style="5" customWidth="1"/>
+    <col min="25" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35" t="s">
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="P1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-    </row>
-    <row r="2" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="38"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38" t="s">
+      <c r="Q1" s="35"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+    </row>
+    <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.35">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="63" t="s">
         <v>194</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="L2" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="38" t="s">
+      <c r="L2" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="M2" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="N2" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="O2" s="63"/>
+      <c r="P2" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="Q2" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="R2" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="40" t="s">
+      <c r="S2" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="64" t="s">
+      <c r="T2" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="S2" s="64" t="s">
+      <c r="U2" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="T2" s="64" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="211" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V2" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="W2" s="65" t="s">
+        <v>221</v>
+      </c>
+      <c r="X2" s="65" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="211" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>33</v>
       </c>
@@ -2425,24 +2510,32 @@
       <c r="L3" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
+      <c r="M3" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="T3" s="25"/>
-    </row>
-    <row r="4" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+    </row>
+    <row r="4" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
@@ -2465,26 +2558,30 @@
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
-      <c r="M4" s="30" t="s">
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
+      <c r="P4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="T4" s="25"/>
-    </row>
-    <row r="5" spans="1:20" ht="272" x14ac:dyDescent="0.2">
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+    </row>
+    <row r="5" spans="1:24" ht="272" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>148</v>
       </c>
@@ -2503,48 +2600,60 @@
       <c r="F5" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="H5" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="H5" s="59" t="s">
-        <v>209</v>
-      </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="J5" s="59" t="s">
+      <c r="J5" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="K5" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="L5" s="59" t="s">
-        <v>220</v>
-      </c>
-      <c r="M5" s="30" t="s">
+      <c r="K5" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="L5" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="M5" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="N5" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="O5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="27" t="s">
+      <c r="P5" s="20"/>
+      <c r="Q5" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="P5" s="27" t="s">
+      <c r="R5" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="Q5" s="29" t="s">
+      <c r="S5" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="R5" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="S5" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="T5" s="59" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="85" x14ac:dyDescent="0.2">
+      <c r="T5" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="U5" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="V5" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="W5" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="X5" s="55" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>150</v>
       </c>
@@ -2570,39 +2679,51 @@
       <c r="I6" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="J6" s="59" t="s">
-        <v>195</v>
-      </c>
-      <c r="K6" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="L6" s="59" t="s">
-        <v>220</v>
-      </c>
-      <c r="M6" s="30" t="s">
+      <c r="J6" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="O6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="27" t="s">
+      <c r="P6" s="20"/>
+      <c r="Q6" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="27" t="s">
+      <c r="R6" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="Q6" s="29" t="s">
+      <c r="S6" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="R6" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="S6" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="T6" s="59" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="T6" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="U6" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="V6" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="W6" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="X6" s="55" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>67</v>
       </c>
@@ -2622,31 +2743,35 @@
         <v>47</v>
       </c>
       <c r="G7" s="18"/>
-      <c r="H7" s="50"/>
+      <c r="H7" s="46"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
-      <c r="M7" s="30" t="s">
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="O7" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
+      <c r="P7" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="T7" s="25"/>
-    </row>
-    <row r="8" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+    </row>
+    <row r="8" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>69</v>
       </c>
@@ -2666,31 +2791,35 @@
         <v>47</v>
       </c>
       <c r="G8" s="18"/>
-      <c r="H8" s="50"/>
+      <c r="H8" s="46"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
-      <c r="M8" s="30" t="s">
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="P8" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
+      <c r="P8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="T8" s="25"/>
-    </row>
-    <row r="9" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+    </row>
+    <row r="9" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>68</v>
       </c>
@@ -2710,31 +2839,35 @@
         <v>47</v>
       </c>
       <c r="G9" s="18"/>
-      <c r="H9" s="50"/>
+      <c r="H9" s="46"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
-      <c r="M9" s="30" t="s">
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="O9" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="P9" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
+      <c r="P9" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="T9" s="25"/>
-    </row>
-    <row r="10" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+    </row>
+    <row r="10" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>70</v>
       </c>
@@ -2754,31 +2887,35 @@
         <v>47</v>
       </c>
       <c r="G10" s="18"/>
-      <c r="H10" s="50"/>
+      <c r="H10" s="46"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
-      <c r="M10" s="30" t="s">
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="O10" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="P10" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
+      <c r="P10" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="S10" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="T10" s="25"/>
-    </row>
-    <row r="11" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+    </row>
+    <row r="11" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>6</v>
       </c>
@@ -2803,20 +2940,24 @@
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
-      <c r="M11" s="30" t="s">
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="N11" s="30" t="s">
+      <c r="P11" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="29"/>
       <c r="T11" s="25"/>
-    </row>
-    <row r="12" spans="1:20" ht="136" x14ac:dyDescent="0.2">
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+    </row>
+    <row r="12" spans="1:24" ht="136" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>7</v>
       </c>
@@ -2830,18 +2971,18 @@
         <v>32</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F12" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="63" t="s">
+      <c r="G12" s="59" t="s">
         <v>191</v>
       </c>
       <c r="H12" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="I12" s="63" t="s">
+      <c r="I12" s="59" t="s">
         <v>190</v>
       </c>
       <c r="J12" s="27" t="s">
@@ -2853,30 +2994,42 @@
       <c r="L12" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="M12" s="30" t="s">
+      <c r="M12" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="O12" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="20"/>
-      <c r="O12" s="27" t="s">
+      <c r="P12" s="20"/>
+      <c r="Q12" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="P12" s="27" t="s">
+      <c r="R12" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="Q12" s="27" t="s">
+      <c r="S12" s="27" t="s">
         <v>192</v>
-      </c>
-      <c r="R12" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="S12" s="25" t="s">
-        <v>193</v>
       </c>
       <c r="T12" s="25" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" ht="119" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U12" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="V12" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="W12" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="X12" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>73</v>
       </c>
@@ -2901,26 +3054,30 @@
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
-      <c r="M13" s="30" t="s">
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="O13" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="P13" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
+      <c r="P13" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="S13" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="T13" s="25"/>
-    </row>
-    <row r="14" spans="1:20" ht="85" x14ac:dyDescent="0.2">
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+    </row>
+    <row r="14" spans="1:24" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>75</v>
       </c>
@@ -2953,28 +3110,40 @@
       <c r="L14" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="M14" s="30" t="s">
+      <c r="M14" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="20"/>
-      <c r="O14" s="27" t="s">
+      <c r="P14" s="20"/>
+      <c r="Q14" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="P14" s="27" t="s">
+      <c r="R14" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="S14" s="25" t="s">
-        <v>61</v>
-      </c>
+      <c r="S14" s="32"/>
       <c r="T14" s="25" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" ht="102" x14ac:dyDescent="0.2">
+      <c r="U14" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="V14" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="W14" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="X14" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>77</v>
       </c>
@@ -2999,22 +3168,26 @@
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
-      <c r="M15" s="30" t="s">
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="N15" s="30" t="s">
+      <c r="P15" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="O15" s="18" t="s">
+      <c r="Q15" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="19"/>
       <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
+      <c r="S15" s="19"/>
       <c r="T15" s="18"/>
-    </row>
-    <row r="16" spans="1:20" ht="119" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+    </row>
+    <row r="16" spans="1:24" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
@@ -3027,7 +3200,7 @@
       <c r="D16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="57" t="s">
         <v>171</v>
       </c>
       <c r="F16" s="10" t="s">
@@ -3039,20 +3212,24 @@
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
-      <c r="M16" s="13" t="s">
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N16" s="13" t="s">
+      <c r="P16" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="19"/>
+      <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
+      <c r="S16" s="19"/>
       <c r="T16" s="18"/>
-    </row>
-    <row r="17" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+    </row>
+    <row r="17" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>117</v>
       </c>
@@ -3072,31 +3249,35 @@
         <v>50</v>
       </c>
       <c r="G17" s="18"/>
-      <c r="H17" s="50"/>
+      <c r="H17" s="46"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
-      <c r="M17" s="13" t="s">
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="O17" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P17" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
+      <c r="P17" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="T17" s="10"/>
-    </row>
-    <row r="18" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+    </row>
+    <row r="18" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>118</v>
       </c>
@@ -3116,31 +3297,35 @@
         <v>50</v>
       </c>
       <c r="G18" s="18"/>
-      <c r="H18" s="50"/>
+      <c r="H18" s="46"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
-      <c r="M18" s="13" t="s">
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
+      <c r="P18" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S18" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="T18" s="10"/>
-    </row>
-    <row r="19" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+    </row>
+    <row r="19" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>119</v>
       </c>
@@ -3160,31 +3345,35 @@
         <v>50</v>
       </c>
       <c r="G19" s="18"/>
-      <c r="H19" s="50"/>
+      <c r="H19" s="46"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
-      <c r="M19" s="13" t="s">
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N19" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P19" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
+      <c r="P19" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S19" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="T19" s="10"/>
-    </row>
-    <row r="20" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+    </row>
+    <row r="20" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>120</v>
       </c>
@@ -3204,31 +3393,35 @@
         <v>50</v>
       </c>
       <c r="G20" s="18"/>
-      <c r="H20" s="50"/>
+      <c r="H20" s="46"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
-      <c r="M20" s="13" t="s">
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
+      <c r="P20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S20" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="T20" s="10"/>
-    </row>
-    <row r="21" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+    </row>
+    <row r="21" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>121</v>
       </c>
@@ -3248,31 +3441,35 @@
         <v>50</v>
       </c>
       <c r="G21" s="18"/>
-      <c r="H21" s="50"/>
+      <c r="H21" s="46"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
-      <c r="M21" s="13" t="s">
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P21" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q21" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
+      <c r="P21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S21" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="T21" s="10"/>
-    </row>
-    <row r="22" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+    </row>
+    <row r="22" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>122</v>
       </c>
@@ -3292,31 +3489,35 @@
         <v>50</v>
       </c>
       <c r="G22" s="18"/>
-      <c r="H22" s="50"/>
+      <c r="H22" s="46"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
-      <c r="M22" s="13" t="s">
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
+      <c r="P22" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S22" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="T22" s="10"/>
-    </row>
-    <row r="23" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+    </row>
+    <row r="23" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>129</v>
       </c>
@@ -3336,31 +3537,35 @@
         <v>50</v>
       </c>
       <c r="G23" s="18"/>
-      <c r="H23" s="50"/>
+      <c r="H23" s="46"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
-      <c r="M23" s="13" t="s">
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="O23" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P23" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
+      <c r="P23" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S23" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="T23" s="10"/>
-    </row>
-    <row r="24" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+    </row>
+    <row r="24" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>130</v>
       </c>
@@ -3380,31 +3585,35 @@
         <v>50</v>
       </c>
       <c r="G24" s="18"/>
-      <c r="H24" s="50"/>
+      <c r="H24" s="46"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
-      <c r="M24" s="13" t="s">
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="O24" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P24" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
+      <c r="P24" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S24" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="T24" s="10"/>
-    </row>
-    <row r="25" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+    </row>
+    <row r="25" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>131</v>
       </c>
@@ -3424,31 +3633,35 @@
         <v>50</v>
       </c>
       <c r="G25" s="18"/>
-      <c r="H25" s="50"/>
+      <c r="H25" s="46"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
-      <c r="M25" s="13" t="s">
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N25" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="O25" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P25" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
+      <c r="P25" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S25" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="T25" s="10"/>
-    </row>
-    <row r="26" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+    </row>
+    <row r="26" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>132</v>
       </c>
@@ -3468,31 +3681,35 @@
         <v>50</v>
       </c>
       <c r="G26" s="18"/>
-      <c r="H26" s="50"/>
+      <c r="H26" s="46"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
-      <c r="M26" s="13" t="s">
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="O26" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P26" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
+      <c r="P26" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S26" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="T26" s="10"/>
-    </row>
-    <row r="27" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+    </row>
+    <row r="27" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>133</v>
       </c>
@@ -3512,31 +3729,35 @@
         <v>50</v>
       </c>
       <c r="G27" s="18"/>
-      <c r="H27" s="50"/>
+      <c r="H27" s="46"/>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
-      <c r="M27" s="13" t="s">
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="O27" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P27" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q27" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
+      <c r="P27" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S27" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="T27" s="10"/>
-    </row>
-    <row r="28" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+    </row>
+    <row r="28" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>134</v>
       </c>
@@ -3556,31 +3777,35 @@
         <v>50</v>
       </c>
       <c r="G28" s="18"/>
-      <c r="H28" s="50"/>
+      <c r="H28" s="46"/>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
-      <c r="M28" s="13" t="s">
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N28" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="O28" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P28" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q28" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
+      <c r="P28" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S28" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="T28" s="10"/>
-    </row>
-    <row r="29" spans="1:20" ht="102" x14ac:dyDescent="0.2">
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+    </row>
+    <row r="29" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>89</v>
       </c>
@@ -3615,20 +3840,24 @@
         <v>198</v>
       </c>
       <c r="L29" s="14"/>
-      <c r="M29" s="16" t="s">
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N29" s="16" t="s">
+      <c r="P29" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="15"/>
+      <c r="Q29" s="14"/>
       <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
+      <c r="S29" s="15"/>
       <c r="T29" s="14"/>
-    </row>
-    <row r="30" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+    </row>
+    <row r="30" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>14</v>
       </c>
@@ -3661,20 +3890,24 @@
         <v>198</v>
       </c>
       <c r="L30" s="14"/>
-      <c r="M30" s="16" t="s">
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N30" s="16" t="s">
+      <c r="P30" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="15"/>
+      <c r="Q30" s="14"/>
       <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
+      <c r="S30" s="15"/>
       <c r="T30" s="14"/>
-    </row>
-    <row r="31" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+    </row>
+    <row r="31" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>15</v>
       </c>
@@ -3707,20 +3940,24 @@
         <v>198</v>
       </c>
       <c r="L31" s="14"/>
-      <c r="M31" s="16" t="s">
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N31" s="16" t="s">
+      <c r="P31" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="15"/>
+      <c r="Q31" s="14"/>
       <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
+      <c r="S31" s="15"/>
       <c r="T31" s="14"/>
-    </row>
-    <row r="32" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+    </row>
+    <row r="32" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>143</v>
       </c>
@@ -3743,26 +3980,30 @@
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
       <c r="L32" s="18"/>
-      <c r="M32" s="16" t="s">
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="O32" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="P32" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
+      <c r="P32" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="S32" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="T32" s="14"/>
-    </row>
-    <row r="33" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+    </row>
+    <row r="33" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>147</v>
       </c>
@@ -3785,26 +4026,30 @@
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
-      <c r="M33" s="16" t="s">
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="O33" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="P33" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q33" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
+      <c r="P33" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q33" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R33" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="S33" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="T33" s="14"/>
-    </row>
-    <row r="34" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+    </row>
+    <row r="34" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>144</v>
       </c>
@@ -3827,26 +4072,30 @@
       <c r="J34" s="18"/>
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
-      <c r="M34" s="16" t="s">
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N34" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="O34" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="P34" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q34" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
+      <c r="P34" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="S34" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="T34" s="14"/>
-    </row>
-    <row r="35" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+    </row>
+    <row r="35" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>145</v>
       </c>
@@ -3869,26 +4118,30 @@
       <c r="J35" s="18"/>
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
-      <c r="M35" s="16" t="s">
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="O35" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="P35" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q35" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
+      <c r="P35" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R35" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="S35" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="T35" s="14"/>
-    </row>
-    <row r="36" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+    </row>
+    <row r="36" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>146</v>
       </c>
@@ -3911,40 +4164,44 @@
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
-      <c r="M36" s="16" t="s">
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N36" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="O36" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="P36" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q36" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
+      <c r="P36" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R36" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="S36" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="T36" s="14"/>
-    </row>
-    <row r="37" spans="1:20" ht="68" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="44" t="s">
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+    </row>
+    <row r="37" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="47"/>
-      <c r="E37" s="45" t="s">
+      <c r="D37" s="43"/>
+      <c r="E37" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="F37" s="44" t="s">
+      <c r="F37" s="40" t="s">
         <v>106</v>
       </c>
       <c r="G37" s="18"/>
@@ -3953,36 +4210,40 @@
       <c r="J37" s="18"/>
       <c r="K37" s="18"/>
       <c r="L37" s="18"/>
-      <c r="M37" s="48" t="s">
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="N37" s="51" t="s">
+      <c r="P37" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="58"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="36"/>
-      <c r="T37" s="36"/>
-    </row>
-    <row r="38" spans="1:20" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="44" t="s">
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+    </row>
+    <row r="38" spans="1:24" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="47" t="s">
+      <c r="D38" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="F38" s="44" t="s">
+      <c r="F38" s="40" t="s">
         <v>55</v>
       </c>
       <c r="G38" s="18"/>
@@ -3991,42 +4252,46 @@
       <c r="J38" s="18"/>
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
-      <c r="M38" s="48" t="s">
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="O38" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="P38" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q38" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="R38" s="52"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="52"/>
-    </row>
-    <row r="39" spans="1:20" ht="170" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="44" t="s">
+      <c r="P38" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="R38" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="S38" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="48"/>
+      <c r="W38" s="48"/>
+      <c r="X38" s="48"/>
+    </row>
+    <row r="39" spans="1:24" ht="170" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="47" t="s">
+      <c r="D39" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="45" t="s">
+      <c r="E39" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="F39" s="44" t="s">
+      <c r="F39" s="40" t="s">
         <v>56</v>
       </c>
       <c r="G39" s="18"/>
@@ -4035,304 +4300,332 @@
       <c r="J39" s="18"/>
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
-      <c r="M39" s="48" t="s">
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="44" t="s">
         <v>18</v>
-      </c>
-      <c r="N39" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="O39" s="44" t="s">
-        <v>17</v>
       </c>
       <c r="P39" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="Q39" s="45" t="s">
+      <c r="Q39" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="R39" s="44"/>
-      <c r="S39" s="44"/>
-      <c r="T39" s="44"/>
-    </row>
-    <row r="40" spans="1:20" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="44" t="s">
+      <c r="R39" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="S39" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="T39" s="40"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="40"/>
+    </row>
+    <row r="40" spans="1:24" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="47" t="s">
+      <c r="D40" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="44" t="s">
+      <c r="F40" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="G40" s="44">
+      <c r="G40" s="40">
         <v>0.25</v>
       </c>
-      <c r="H40" s="49" t="s">
+      <c r="H40" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="48" t="s">
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="N40" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="O40" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="P40" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q40" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="R40" s="55"/>
-      <c r="S40" s="55"/>
-      <c r="T40" s="55"/>
-    </row>
-    <row r="41" spans="1:20" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="44" t="s">
+      <c r="P40" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="R40" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="S40" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="T40" s="51"/>
+      <c r="U40" s="51"/>
+      <c r="V40" s="51"/>
+      <c r="W40" s="51"/>
+      <c r="X40" s="51"/>
+    </row>
+    <row r="41" spans="1:24" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="D41" s="47" t="s">
+      <c r="D41" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="45"/>
-      <c r="F41" s="44" t="s">
+      <c r="E41" s="41"/>
+      <c r="F41" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="G41" s="44">
+      <c r="G41" s="40">
         <v>0.25</v>
       </c>
-      <c r="H41" s="49" t="s">
+      <c r="H41" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="48" t="s">
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="O41" s="44" t="s">
-        <v>2</v>
-      </c>
       <c r="P41" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="Q41" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="R41" s="44"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="44"/>
-    </row>
-    <row r="42" spans="1:20" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="44" t="s">
+      <c r="Q41" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="R41" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="S41" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="T41" s="40"/>
+      <c r="U41" s="40"/>
+      <c r="V41" s="40"/>
+      <c r="W41" s="40"/>
+      <c r="X41" s="40"/>
+    </row>
+    <row r="42" spans="1:24" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="46" t="s">
+      <c r="C42" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="47" t="s">
+      <c r="D42" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="45"/>
-      <c r="F42" s="44" t="s">
+      <c r="E42" s="41"/>
+      <c r="F42" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="44">
-        <v>2</v>
-      </c>
-      <c r="H42" s="49" t="s">
+      <c r="G42" s="40">
+        <v>2</v>
+      </c>
+      <c r="H42" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="48" t="s">
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="O42" s="44" t="s">
-        <v>2</v>
-      </c>
       <c r="P42" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="Q42" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="R42" s="44"/>
-      <c r="S42" s="44"/>
-      <c r="T42" s="44"/>
-    </row>
-    <row r="43" spans="1:20" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="44" t="s">
+      <c r="Q42" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="R42" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="S42" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="T42" s="40"/>
+      <c r="U42" s="40"/>
+      <c r="V42" s="40"/>
+      <c r="W42" s="40"/>
+      <c r="X42" s="40"/>
+    </row>
+    <row r="43" spans="1:24" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="46" t="s">
+      <c r="C43" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="47" t="s">
+      <c r="D43" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="45"/>
-      <c r="F43" s="44" t="s">
+      <c r="E43" s="41"/>
+      <c r="F43" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="G43" s="44">
-        <v>2</v>
-      </c>
-      <c r="H43" s="49" t="s">
+      <c r="G43" s="40">
+        <v>2</v>
+      </c>
+      <c r="H43" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="48" t="s">
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="O43" s="44" t="s">
-        <v>2</v>
-      </c>
       <c r="P43" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="Q43" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="R43" s="44"/>
-      <c r="S43" s="44"/>
-      <c r="T43" s="44"/>
-    </row>
-    <row r="44" spans="1:20" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="44" t="s">
+      <c r="Q43" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="R43" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="S43" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="T43" s="40"/>
+      <c r="U43" s="40"/>
+      <c r="V43" s="40"/>
+      <c r="W43" s="40"/>
+      <c r="X43" s="40"/>
+    </row>
+    <row r="44" spans="1:24" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="47" t="s">
+      <c r="D44" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="45"/>
-      <c r="F44" s="44" t="s">
+      <c r="E44" s="41"/>
+      <c r="F44" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="G44" s="44">
-        <v>2</v>
-      </c>
-      <c r="H44" s="49" t="s">
+      <c r="G44" s="40">
+        <v>2</v>
+      </c>
+      <c r="H44" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="48" t="s">
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="O44" s="44" t="s">
-        <v>2</v>
-      </c>
       <c r="P44" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="Q44" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="R44" s="44"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="44"/>
-    </row>
-    <row r="45" spans="1:20" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="44" t="s">
+      <c r="Q44" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="R44" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="S44" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="T44" s="40"/>
+      <c r="U44" s="40"/>
+      <c r="V44" s="40"/>
+      <c r="W44" s="40"/>
+      <c r="X44" s="40"/>
+    </row>
+    <row r="45" spans="1:24" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="46" t="s">
+      <c r="C45" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="D45" s="47" t="s">
+      <c r="D45" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="45"/>
-      <c r="F45" s="44" t="s">
+      <c r="E45" s="41"/>
+      <c r="F45" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="G45" s="44">
+      <c r="G45" s="40">
         <v>1</v>
       </c>
-      <c r="H45" s="49" t="s">
+      <c r="H45" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="48" t="s">
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="N45" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="O45" s="44" t="s">
-        <v>2</v>
-      </c>
       <c r="P45" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="Q45" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="R45" s="44"/>
-      <c r="S45" s="44"/>
-      <c r="T45" s="44"/>
-    </row>
-    <row r="46" spans="1:20" ht="276" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q45" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="R45" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="S45" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="T45" s="40"/>
+      <c r="U45" s="40"/>
+      <c r="V45" s="40"/>
+      <c r="W45" s="40"/>
+      <c r="X45" s="40"/>
+    </row>
+    <row r="46" spans="1:24" ht="276" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>78</v>
       </c>
@@ -4351,10 +4644,10 @@
       <c r="F46" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G46" s="60" t="s">
+      <c r="G46" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="H46" s="60" t="s">
+      <c r="H46" s="56" t="s">
         <v>163</v>
       </c>
       <c r="I46" s="31"/>
@@ -4362,33 +4655,45 @@
         <v>195</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="M46" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="O46" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N46" s="20"/>
-      <c r="O46" s="6" t="s">
+      <c r="P46" s="20"/>
+      <c r="Q46" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="P46" s="6" t="s">
+      <c r="R46" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="Q46" s="32"/>
-      <c r="R46" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="S46" s="6" t="s">
-        <v>211</v>
-      </c>
+      <c r="S46" s="32"/>
       <c r="T46" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="102" hidden="1" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+      <c r="U46" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="V46" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="W46" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="X46" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>98</v>
       </c>
@@ -4413,26 +4718,30 @@
       <c r="J47" s="18"/>
       <c r="K47" s="18"/>
       <c r="L47" s="18"/>
-      <c r="M47" s="8" t="s">
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="O47" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P47" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
+      <c r="P47" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="T47" s="6"/>
-    </row>
-    <row r="48" spans="1:20" ht="102" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+    </row>
+    <row r="48" spans="1:24" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>99</v>
       </c>
@@ -4457,26 +4766,30 @@
       <c r="J48" s="18"/>
       <c r="K48" s="18"/>
       <c r="L48" s="18"/>
-      <c r="M48" s="8" t="s">
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="O48" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P48" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
+      <c r="P48" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S48" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="T48" s="6"/>
-    </row>
-    <row r="49" spans="1:20" ht="227" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+    </row>
+    <row r="49" spans="1:24" ht="227" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>100</v>
       </c>
@@ -4495,44 +4808,56 @@
       <c r="F49" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G49" s="60" t="s">
-        <v>217</v>
-      </c>
-      <c r="H49" s="60" t="s">
-        <v>221</v>
+      <c r="G49" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="H49" s="56" t="s">
+        <v>220</v>
       </c>
       <c r="I49" s="31"/>
-      <c r="J49" s="65" t="s">
+      <c r="J49" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="K49" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="L49" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="M49" s="8" t="s">
+      <c r="K49" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="L49" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="M49" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="N49" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="O49" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="20"/>
-      <c r="O49" s="6" t="s">
+      <c r="P49" s="20"/>
+      <c r="Q49" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="P49" s="6" t="s">
+      <c r="R49" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="Q49" s="32"/>
-      <c r="R49" s="6" t="s">
+      <c r="S49" s="32"/>
+      <c r="T49" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="S49" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="T49" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" ht="119" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U49" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="V49" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="W49" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="X49" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>159</v>
       </c>
@@ -4552,31 +4877,35 @@
         <v>161</v>
       </c>
       <c r="G50" s="18"/>
-      <c r="H50" s="57"/>
+      <c r="H50" s="53"/>
       <c r="I50" s="18"/>
       <c r="J50" s="18"/>
       <c r="K50" s="18"/>
       <c r="L50" s="18"/>
-      <c r="M50" s="8" t="s">
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N50" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="O50" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P50" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
+      <c r="P50" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S50" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="T50" s="6"/>
-    </row>
-    <row r="51" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+    </row>
+    <row r="51" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>101</v>
       </c>
@@ -4611,28 +4940,40 @@
       <c r="L51" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="M51" s="8" t="s">
+      <c r="M51" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="O51" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N51" s="20"/>
-      <c r="O51" s="6" t="s">
+      <c r="P51" s="20"/>
+      <c r="Q51" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="P51" s="6" t="s">
+      <c r="R51" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="Q51" s="32"/>
-      <c r="R51" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="S51" s="6" t="s">
-        <v>203</v>
-      </c>
+      <c r="S51" s="32"/>
       <c r="T51" s="6" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+      <c r="U51" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="V51" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="W51" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="X51" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>102</v>
       </c>
@@ -4665,28 +5006,40 @@
       <c r="L52" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="M52" s="8" t="s">
+      <c r="M52" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="O52" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="20"/>
-      <c r="O52" s="6" t="s">
+      <c r="P52" s="20"/>
+      <c r="Q52" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="P52" s="6" t="s">
+      <c r="R52" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="S52" s="6" t="s">
-        <v>203</v>
-      </c>
+      <c r="S52" s="32"/>
       <c r="T52" s="6" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" ht="238" x14ac:dyDescent="0.2">
+      <c r="U52" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="V52" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="W52" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="X52" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" ht="238" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>178</v>
       </c>
@@ -4705,42 +5058,54 @@
       <c r="F53" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G53" s="60" t="s">
+      <c r="G53" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="H53" s="60" t="s">
+      <c r="H53" s="56" t="s">
         <v>176</v>
       </c>
       <c r="I53" s="31"/>
       <c r="J53" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="R53" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="S53" s="32"/>
+      <c r="T53" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="K53" s="6" t="s">
+      <c r="U53" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="L53" s="6" t="s">
+      <c r="V53" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="M53" s="8"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="P53" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="S53" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="T53" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" ht="119" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W53" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="X53" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>177</v>
       </c>
@@ -4760,31 +5125,35 @@
         <v>161</v>
       </c>
       <c r="G54" s="18"/>
-      <c r="H54" s="57"/>
+      <c r="H54" s="53"/>
       <c r="I54" s="18"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
-      <c r="M54" s="8" t="s">
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="O54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
+      <c r="P54" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S54" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="T54" s="6"/>
-    </row>
-    <row r="55" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+    </row>
+    <row r="55" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>10</v>
       </c>
@@ -4809,36 +5178,48 @@
       </c>
       <c r="I55" s="31"/>
       <c r="J55" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="O55" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="R55" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="S55" s="32"/>
+      <c r="T55" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="K55" s="6" t="s">
+      <c r="U55" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="L55" s="6" t="s">
+      <c r="V55" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="M55" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="N55" s="20"/>
-      <c r="O55" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="P55" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="S55" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="T55" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W55" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="X55" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>11</v>
       </c>
@@ -4856,31 +5237,35 @@
         <v>50</v>
       </c>
       <c r="G56" s="18"/>
-      <c r="H56" s="50"/>
+      <c r="H56" s="46"/>
       <c r="I56" s="18"/>
       <c r="J56" s="18"/>
       <c r="K56" s="18"/>
       <c r="L56" s="18"/>
-      <c r="M56" s="62" t="s">
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="N56" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="O56" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P56" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
+      <c r="P56" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q56" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R56" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S56" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="T56" s="6"/>
-    </row>
-    <row r="57" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+    </row>
+    <row r="57" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>12</v>
       </c>
@@ -4898,31 +5283,35 @@
         <v>50</v>
       </c>
       <c r="G57" s="18"/>
-      <c r="H57" s="50"/>
+      <c r="H57" s="46"/>
       <c r="I57" s="18"/>
       <c r="J57" s="18"/>
       <c r="K57" s="18"/>
       <c r="L57" s="18"/>
-      <c r="M57" s="62" t="s">
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="N57" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="O57" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P57" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q57" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
+      <c r="P57" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S57" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="T57" s="6"/>
-    </row>
-    <row r="58" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+    </row>
+    <row r="58" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>13</v>
       </c>
@@ -4940,31 +5329,35 @@
         <v>50</v>
       </c>
       <c r="G58" s="18"/>
-      <c r="H58" s="50"/>
+      <c r="H58" s="46"/>
       <c r="I58" s="18"/>
       <c r="J58" s="18"/>
       <c r="K58" s="18"/>
       <c r="L58" s="18"/>
-      <c r="M58" s="62" t="s">
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="N58" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="O58" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P58" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
+      <c r="P58" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S58" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="T58" s="6"/>
-    </row>
-    <row r="59" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+    </row>
+    <row r="59" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>84</v>
       </c>
@@ -4992,12 +5385,6 @@
       <c r="I59" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="M59" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="N59" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="O59" s="5" t="s">
         <v>84</v>
       </c>
@@ -5005,6 +5392,12 @@
         <v>84</v>
       </c>
       <c r="Q59" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="R59" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S59" s="5" t="s">
         <v>84</v>
       </c>
     </row>

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCFDA7F-46D0-C64A-A6E4-512BF5FA1AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665B94E9-C15F-B74C-91FC-454F44E68C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19560" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
+    <workbookView xWindow="14500" yWindow="500" windowWidth="23900" windowHeight="19560" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">params!$A$1:$S$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">params!$A$1:$T$59</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +46,7 @@
     <author>tc={27AC355D-4290-8945-B347-C6E9119A89EA}</author>
   </authors>
   <commentList>
-    <comment ref="Q14" authorId="0" shapeId="0" xr:uid="{04385ABF-366F-F14D-B686-003B7FD6A102}">
+    <comment ref="R14" authorId="0" shapeId="0" xr:uid="{04385ABF-366F-F14D-B686-003B7FD6A102}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,7 +54,7 @@
     This includes 13 prospective studies from different regions; 0.42 estimate was Kenya-specific but they have Europe, France specifically, and other African countries</t>
       </text>
     </comment>
-    <comment ref="P15" authorId="1" shapeId="0" xr:uid="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
+    <comment ref="Q15" authorId="1" shapeId="0" xr:uid="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="234">
   <si>
     <t>Parameter</t>
   </si>
@@ -1499,6 +1499,15 @@
   </si>
   <si>
     <t>"</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>DHS 2004, 2010, 2015</t>
+  </si>
+  <si>
+    <t>Using SOUTH AFRICA engagement data</t>
   </si>
 </sst>
 </file>
@@ -2328,10 +2337,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="Q14" dT="2025-01-22T18:42:38.64" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{04385ABF-366F-F14D-B686-003B7FD6A102}">
+  <threadedComment ref="R14" dT="2025-01-22T18:42:38.64" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{04385ABF-366F-F14D-B686-003B7FD6A102}">
     <text>This includes 13 prospective studies from different regions; 0.42 estimate was Kenya-specific but they have Europe, France specifically, and other African countries</text>
   </threadedComment>
-  <threadedComment ref="P15" dT="2025-01-22T18:20:02.26" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
+  <threadedComment ref="Q15" dT="2025-01-22T18:20:02.26" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
     <text>Update to WHO reference because this is actually a global estimate</text>
   </threadedComment>
   <threadedComment ref="H49" dT="2025-03-26T15:43:17.15" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{27AC355D-4290-8945-B347-C6E9119A89EA}">
@@ -2342,13 +2351,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B2D996-732D-784F-96EB-809CE760E324}">
-  <dimension ref="A1:X59"/>
+  <dimension ref="A1:Z59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="H46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="U46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L49" sqref="L49"/>
+      <selection pane="bottomRight" activeCell="Z49" sqref="Z49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2361,17 +2370,17 @@
     <col min="6" max="6" width="55" style="5" customWidth="1"/>
     <col min="7" max="8" width="53.5" style="5" customWidth="1"/>
     <col min="9" max="9" width="53.5" style="5" hidden="1" customWidth="1"/>
-    <col min="10" max="14" width="53.5" style="5" customWidth="1"/>
-    <col min="15" max="15" width="17" style="5" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="24" style="5" customWidth="1"/>
-    <col min="17" max="17" width="26" style="5" customWidth="1"/>
-    <col min="18" max="18" width="37.5" style="5" customWidth="1"/>
-    <col min="19" max="19" width="30.5" style="5" hidden="1" customWidth="1"/>
-    <col min="20" max="24" width="30.5" style="5" customWidth="1"/>
-    <col min="25" max="16384" width="10.83203125" style="5"/>
+    <col min="10" max="15" width="53.5" style="5" customWidth="1"/>
+    <col min="16" max="16" width="17" style="5" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="24" style="5" customWidth="1"/>
+    <col min="18" max="18" width="26" style="5" customWidth="1"/>
+    <col min="19" max="19" width="37.5" style="5" customWidth="1"/>
+    <col min="20" max="20" width="30.5" style="5" hidden="1" customWidth="1"/>
+    <col min="21" max="26" width="30.5" style="5" customWidth="1"/>
+    <col min="27" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -2398,22 +2407,24 @@
       <c r="L1" s="69"/>
       <c r="M1" s="69"/>
       <c r="N1" s="69"/>
-      <c r="O1" s="69" t="s">
+      <c r="O1" s="69"/>
+      <c r="P1" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="P1" s="66" t="s">
+      <c r="Q1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="60"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="36"/>
       <c r="U1" s="60"/>
       <c r="V1" s="60"/>
       <c r="W1" s="60"/>
       <c r="X1" s="60"/>
-    </row>
-    <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.35">
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+    </row>
+    <row r="2" spans="1:26" ht="30" x14ac:dyDescent="0.35">
       <c r="A2" s="37"/>
       <c r="B2" s="38"/>
       <c r="C2" s="39"/>
@@ -2446,36 +2457,42 @@
       <c r="N2" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="O2" s="63"/>
-      <c r="P2" s="62" t="s">
+      <c r="O2" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="63" t="s">
+      <c r="R2" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="63" t="s">
+      <c r="S2" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="64" t="s">
+      <c r="T2" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="65" t="s">
+      <c r="U2" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="U2" s="65" t="s">
+      <c r="V2" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="V2" s="65" t="s">
+      <c r="W2" s="65" t="s">
         <v>213</v>
       </c>
-      <c r="W2" s="65" t="s">
+      <c r="X2" s="65" t="s">
         <v>221</v>
       </c>
-      <c r="X2" s="65" t="s">
+      <c r="Y2" s="65" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" ht="211" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z2" s="65" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="211" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>33</v>
       </c>
@@ -2516,26 +2533,30 @@
       <c r="N3" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="25" t="s">
+      <c r="O3" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="T3" s="25"/>
+      <c r="S3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="U3" s="25"/>
       <c r="V3" s="25"/>
       <c r="W3" s="25"/>
       <c r="X3" s="25"/>
-    </row>
-    <row r="4" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+    </row>
+    <row r="4" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
@@ -2560,28 +2581,30 @@
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
-      <c r="O4" s="30" t="s">
+      <c r="O4" s="18"/>
+      <c r="P4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="25" t="s">
+      <c r="Q4" s="26" t="s">
         <v>2</v>
       </c>
       <c r="R4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="T4" s="25"/>
+      <c r="S4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="U4" s="25"/>
       <c r="V4" s="25"/>
       <c r="W4" s="25"/>
       <c r="X4" s="25"/>
-    </row>
-    <row r="5" spans="1:24" ht="272" x14ac:dyDescent="0.2">
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+    </row>
+    <row r="5" spans="1:26" ht="272" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>148</v>
       </c>
@@ -2624,36 +2647,42 @@
       <c r="N5" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="O5" s="30" t="s">
+      <c r="O5" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="P5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="27" t="s">
+      <c r="Q5" s="20"/>
+      <c r="R5" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="R5" s="27" t="s">
+      <c r="S5" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="S5" s="29" t="s">
+      <c r="T5" s="29" t="s">
         <v>189</v>
-      </c>
-      <c r="T5" s="55" t="s">
-        <v>210</v>
       </c>
       <c r="U5" s="55" t="s">
         <v>210</v>
       </c>
       <c r="V5" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="W5" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="W5" s="55" t="s">
+      <c r="X5" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="X5" s="55" t="s">
+      <c r="Y5" s="55" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" ht="85" x14ac:dyDescent="0.2">
+      <c r="Z5" s="55" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>150</v>
       </c>
@@ -2694,21 +2723,21 @@
       <c r="N6" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="O6" s="30" t="s">
+      <c r="O6" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="P6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="27" t="s">
+      <c r="Q6" s="20"/>
+      <c r="R6" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="R6" s="27" t="s">
+      <c r="S6" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="S6" s="29" t="s">
+      <c r="T6" s="29" t="s">
         <v>189</v>
-      </c>
-      <c r="T6" s="55" t="s">
-        <v>230</v>
       </c>
       <c r="U6" s="55" t="s">
         <v>230</v>
@@ -2722,8 +2751,14 @@
       <c r="X6" s="55" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y6" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z6" s="55" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>67</v>
       </c>
@@ -2750,28 +2785,30 @@
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
-      <c r="O7" s="30" t="s">
+      <c r="O7" s="18"/>
+      <c r="P7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="25" t="s">
+      <c r="Q7" s="26" t="s">
         <v>2</v>
       </c>
       <c r="R7" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="S7" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="T7" s="25"/>
+      <c r="S7" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="U7" s="25"/>
       <c r="V7" s="25"/>
       <c r="W7" s="25"/>
       <c r="X7" s="25"/>
-    </row>
-    <row r="8" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+    </row>
+    <row r="8" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>69</v>
       </c>
@@ -2798,28 +2835,30 @@
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
-      <c r="O8" s="30" t="s">
+      <c r="O8" s="18"/>
+      <c r="P8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="25" t="s">
+      <c r="Q8" s="26" t="s">
         <v>2</v>
       </c>
       <c r="R8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="S8" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="T8" s="25"/>
+      <c r="S8" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="U8" s="25"/>
       <c r="V8" s="25"/>
       <c r="W8" s="25"/>
       <c r="X8" s="25"/>
-    </row>
-    <row r="9" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+    </row>
+    <row r="9" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>68</v>
       </c>
@@ -2846,28 +2885,30 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
-      <c r="O9" s="30" t="s">
+      <c r="O9" s="18"/>
+      <c r="P9" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="P9" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="25" t="s">
+      <c r="Q9" s="26" t="s">
         <v>2</v>
       </c>
       <c r="R9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="S9" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="T9" s="25"/>
+      <c r="S9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="U9" s="25"/>
       <c r="V9" s="25"/>
       <c r="W9" s="25"/>
       <c r="X9" s="25"/>
-    </row>
-    <row r="10" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+    </row>
+    <row r="10" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>70</v>
       </c>
@@ -2894,28 +2935,30 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
-      <c r="O10" s="30" t="s">
+      <c r="O10" s="18"/>
+      <c r="P10" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="P10" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="25" t="s">
+      <c r="Q10" s="26" t="s">
         <v>2</v>
       </c>
       <c r="R10" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="S10" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="T10" s="25"/>
+      <c r="S10" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="T10" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="U10" s="25"/>
       <c r="V10" s="25"/>
       <c r="W10" s="25"/>
       <c r="X10" s="25"/>
-    </row>
-    <row r="11" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+    </row>
+    <row r="11" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>6</v>
       </c>
@@ -2942,22 +2985,24 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
-      <c r="O11" s="30" t="s">
+      <c r="O11" s="18"/>
+      <c r="P11" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="P11" s="30" t="s">
+      <c r="Q11" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="25"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="29"/>
       <c r="U11" s="25"/>
       <c r="V11" s="25"/>
       <c r="W11" s="25"/>
       <c r="X11" s="25"/>
-    </row>
-    <row r="12" spans="1:24" ht="136" x14ac:dyDescent="0.2">
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+    </row>
+    <row r="12" spans="1:26" ht="136" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>7</v>
       </c>
@@ -3000,21 +3045,21 @@
       <c r="N12" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="O12" s="30" t="s">
+      <c r="O12" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="27" t="s">
-        <v>193</v>
-      </c>
+      <c r="Q12" s="20"/>
       <c r="R12" s="27" t="s">
         <v>193</v>
       </c>
       <c r="S12" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="T12" s="27" t="s">
         <v>192</v>
-      </c>
-      <c r="T12" s="25" t="s">
-        <v>193</v>
       </c>
       <c r="U12" s="25" t="s">
         <v>193</v>
@@ -3028,8 +3073,14 @@
       <c r="X12" s="25" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" ht="119" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y12" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z12" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>73</v>
       </c>
@@ -3056,28 +3107,30 @@
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
-      <c r="O13" s="30" t="s">
+      <c r="O13" s="18"/>
+      <c r="P13" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="P13" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="25" t="s">
+      <c r="Q13" s="26" t="s">
         <v>2</v>
       </c>
       <c r="R13" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="S13" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="T13" s="25"/>
+      <c r="S13" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="U13" s="25"/>
       <c r="V13" s="25"/>
       <c r="W13" s="25"/>
       <c r="X13" s="25"/>
-    </row>
-    <row r="14" spans="1:24" ht="85" x14ac:dyDescent="0.2">
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+    </row>
+    <row r="14" spans="1:26" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>75</v>
       </c>
@@ -3116,20 +3169,20 @@
       <c r="N14" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="O14" s="30" t="s">
+      <c r="O14" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="27" t="s">
-        <v>61</v>
-      </c>
+      <c r="Q14" s="20"/>
       <c r="R14" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="S14" s="32"/>
-      <c r="T14" s="25" t="s">
+      <c r="S14" s="27" t="s">
         <v>61</v>
       </c>
+      <c r="T14" s="32"/>
       <c r="U14" s="25" t="s">
         <v>61</v>
       </c>
@@ -3142,8 +3195,14 @@
       <c r="X14" s="25" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" ht="102" x14ac:dyDescent="0.2">
+      <c r="Y14" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z14" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>77</v>
       </c>
@@ -3170,24 +3229,26 @@
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
-      <c r="O15" s="30" t="s">
+      <c r="O15" s="18"/>
+      <c r="P15" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P15" s="30" t="s">
+      <c r="Q15" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="Q15" s="18" t="s">
+      <c r="R15" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="R15" s="18"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="19"/>
       <c r="U15" s="18"/>
       <c r="V15" s="18"/>
       <c r="W15" s="18"/>
       <c r="X15" s="18"/>
-    </row>
-    <row r="16" spans="1:24" ht="119" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+    </row>
+    <row r="16" spans="1:26" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
@@ -3214,22 +3275,24 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
-      <c r="O16" s="13" t="s">
+      <c r="O16" s="18"/>
+      <c r="P16" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="P16" s="13" t="s">
+      <c r="Q16" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="19"/>
       <c r="U16" s="18"/>
       <c r="V16" s="18"/>
       <c r="W16" s="18"/>
       <c r="X16" s="18"/>
-    </row>
-    <row r="17" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+    </row>
+    <row r="17" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>117</v>
       </c>
@@ -3256,28 +3319,30 @@
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
-      <c r="O17" s="13" t="s">
+      <c r="O17" s="18"/>
+      <c r="P17" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="P17" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="10" t="s">
+      <c r="Q17" s="13" t="s">
         <v>2</v>
       </c>
       <c r="R17" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="S17" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="T17" s="10"/>
+      <c r="S17" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T17" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
-    </row>
-    <row r="18" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+    </row>
+    <row r="18" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>118</v>
       </c>
@@ -3304,28 +3369,30 @@
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
-      <c r="O18" s="13" t="s">
+      <c r="O18" s="18"/>
+      <c r="P18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="10" t="s">
+      <c r="Q18" s="13" t="s">
         <v>2</v>
       </c>
       <c r="R18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="T18" s="10"/>
+      <c r="S18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T18" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
       <c r="W18" s="10"/>
       <c r="X18" s="10"/>
-    </row>
-    <row r="19" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+    </row>
+    <row r="19" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>119</v>
       </c>
@@ -3352,28 +3419,30 @@
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
-      <c r="O19" s="13" t="s">
+      <c r="O19" s="18"/>
+      <c r="P19" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="P19" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="10" t="s">
+      <c r="Q19" s="13" t="s">
         <v>2</v>
       </c>
       <c r="R19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="S19" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="T19" s="10"/>
+      <c r="S19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T19" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
       <c r="W19" s="10"/>
       <c r="X19" s="10"/>
-    </row>
-    <row r="20" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+    </row>
+    <row r="20" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>120</v>
       </c>
@@ -3400,28 +3469,30 @@
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
-      <c r="O20" s="13" t="s">
+      <c r="O20" s="18"/>
+      <c r="P20" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="10" t="s">
+      <c r="Q20" s="13" t="s">
         <v>2</v>
       </c>
       <c r="R20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="S20" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="T20" s="10"/>
+      <c r="S20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T20" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
-    </row>
-    <row r="21" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+    </row>
+    <row r="21" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>121</v>
       </c>
@@ -3448,28 +3519,30 @@
       <c r="L21" s="18"/>
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
-      <c r="O21" s="13" t="s">
+      <c r="O21" s="18"/>
+      <c r="P21" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q21" s="10" t="s">
+      <c r="Q21" s="13" t="s">
         <v>2</v>
       </c>
       <c r="R21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="S21" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="T21" s="10"/>
+      <c r="S21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T21" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
-    </row>
-    <row r="22" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+    </row>
+    <row r="22" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>122</v>
       </c>
@@ -3496,28 +3569,30 @@
       <c r="L22" s="18"/>
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
-      <c r="O22" s="13" t="s">
+      <c r="O22" s="18"/>
+      <c r="P22" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="10" t="s">
+      <c r="Q22" s="13" t="s">
         <v>2</v>
       </c>
       <c r="R22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="S22" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="T22" s="10"/>
+      <c r="S22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T22" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
       <c r="W22" s="10"/>
       <c r="X22" s="10"/>
-    </row>
-    <row r="23" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+    </row>
+    <row r="23" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>129</v>
       </c>
@@ -3544,28 +3619,30 @@
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
-      <c r="O23" s="13" t="s">
+      <c r="O23" s="18"/>
+      <c r="P23" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="P23" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="10" t="s">
+      <c r="Q23" s="13" t="s">
         <v>2</v>
       </c>
       <c r="R23" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="S23" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="T23" s="10"/>
+      <c r="S23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T23" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
       <c r="W23" s="10"/>
       <c r="X23" s="10"/>
-    </row>
-    <row r="24" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+    </row>
+    <row r="24" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>130</v>
       </c>
@@ -3592,28 +3669,30 @@
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
-      <c r="O24" s="13" t="s">
+      <c r="O24" s="18"/>
+      <c r="P24" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="10" t="s">
+      <c r="Q24" s="13" t="s">
         <v>2</v>
       </c>
       <c r="R24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="S24" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="T24" s="10"/>
+      <c r="S24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T24" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
       <c r="W24" s="10"/>
       <c r="X24" s="10"/>
-    </row>
-    <row r="25" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+    </row>
+    <row r="25" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>131</v>
       </c>
@@ -3640,28 +3719,30 @@
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
-      <c r="O25" s="13" t="s">
+      <c r="O25" s="18"/>
+      <c r="P25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="10" t="s">
+      <c r="Q25" s="13" t="s">
         <v>2</v>
       </c>
       <c r="R25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="S25" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="T25" s="10"/>
+      <c r="S25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T25" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
       <c r="W25" s="10"/>
       <c r="X25" s="10"/>
-    </row>
-    <row r="26" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+    </row>
+    <row r="26" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>132</v>
       </c>
@@ -3688,28 +3769,30 @@
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
-      <c r="O26" s="13" t="s">
+      <c r="O26" s="18"/>
+      <c r="P26" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="P26" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="10" t="s">
+      <c r="Q26" s="13" t="s">
         <v>2</v>
       </c>
       <c r="R26" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="S26" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="T26" s="10"/>
+      <c r="S26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T26" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
       <c r="X26" s="10"/>
-    </row>
-    <row r="27" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+    </row>
+    <row r="27" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>133</v>
       </c>
@@ -3736,28 +3819,30 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
-      <c r="O27" s="13" t="s">
+      <c r="O27" s="18"/>
+      <c r="P27" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="P27" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q27" s="10" t="s">
+      <c r="Q27" s="13" t="s">
         <v>2</v>
       </c>
       <c r="R27" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="S27" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="T27" s="10"/>
+      <c r="S27" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T27" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
       <c r="X27" s="10"/>
-    </row>
-    <row r="28" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+    </row>
+    <row r="28" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>134</v>
       </c>
@@ -3784,28 +3869,30 @@
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
-      <c r="O28" s="13" t="s">
+      <c r="O28" s="18"/>
+      <c r="P28" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="P28" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q28" s="10" t="s">
+      <c r="Q28" s="13" t="s">
         <v>2</v>
       </c>
       <c r="R28" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="S28" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="T28" s="10"/>
+      <c r="S28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T28" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
       <c r="X28" s="10"/>
-    </row>
-    <row r="29" spans="1:24" ht="102" x14ac:dyDescent="0.2">
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+    </row>
+    <row r="29" spans="1:26" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>89</v>
       </c>
@@ -3842,22 +3929,24 @@
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
-      <c r="O29" s="16" t="s">
+      <c r="O29" s="14"/>
+      <c r="P29" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="P29" s="16" t="s">
+      <c r="Q29" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="Q29" s="14"/>
       <c r="R29" s="14"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="15"/>
       <c r="U29" s="14"/>
       <c r="V29" s="14"/>
       <c r="W29" s="14"/>
       <c r="X29" s="14"/>
-    </row>
-    <row r="30" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+    </row>
+    <row r="30" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>14</v>
       </c>
@@ -3892,22 +3981,24 @@
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
-      <c r="O30" s="16" t="s">
+      <c r="O30" s="14"/>
+      <c r="P30" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="P30" s="16" t="s">
+      <c r="Q30" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="Q30" s="14"/>
       <c r="R30" s="14"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="15"/>
       <c r="U30" s="14"/>
       <c r="V30" s="14"/>
       <c r="W30" s="14"/>
       <c r="X30" s="14"/>
-    </row>
-    <row r="31" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+    </row>
+    <row r="31" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>15</v>
       </c>
@@ -3942,22 +4033,24 @@
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
-      <c r="O31" s="16" t="s">
+      <c r="O31" s="14"/>
+      <c r="P31" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="P31" s="16" t="s">
+      <c r="Q31" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="Q31" s="14"/>
       <c r="R31" s="14"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="15"/>
       <c r="U31" s="14"/>
       <c r="V31" s="14"/>
       <c r="W31" s="14"/>
       <c r="X31" s="14"/>
-    </row>
-    <row r="32" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+    </row>
+    <row r="32" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>143</v>
       </c>
@@ -3982,28 +4075,30 @@
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
       <c r="N32" s="18"/>
-      <c r="O32" s="16" t="s">
+      <c r="O32" s="18"/>
+      <c r="P32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="P32" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="14" t="s">
+      <c r="Q32" s="16" t="s">
         <v>2</v>
       </c>
       <c r="R32" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="S32" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="T32" s="14"/>
+      <c r="S32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T32" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="U32" s="14"/>
       <c r="V32" s="14"/>
       <c r="W32" s="14"/>
       <c r="X32" s="14"/>
-    </row>
-    <row r="33" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+    </row>
+    <row r="33" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>147</v>
       </c>
@@ -4028,28 +4123,30 @@
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
       <c r="N33" s="18"/>
-      <c r="O33" s="16" t="s">
+      <c r="O33" s="18"/>
+      <c r="P33" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="P33" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q33" s="14" t="s">
+      <c r="Q33" s="16" t="s">
         <v>2</v>
       </c>
       <c r="R33" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="S33" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="T33" s="14"/>
+      <c r="S33" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T33" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="U33" s="14"/>
       <c r="V33" s="14"/>
       <c r="W33" s="14"/>
       <c r="X33" s="14"/>
-    </row>
-    <row r="34" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+    </row>
+    <row r="34" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>144</v>
       </c>
@@ -4074,28 +4171,30 @@
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
       <c r="N34" s="18"/>
-      <c r="O34" s="16" t="s">
+      <c r="O34" s="18"/>
+      <c r="P34" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="P34" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q34" s="14" t="s">
+      <c r="Q34" s="16" t="s">
         <v>2</v>
       </c>
       <c r="R34" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="S34" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="T34" s="14"/>
+      <c r="S34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T34" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="U34" s="14"/>
       <c r="V34" s="14"/>
       <c r="W34" s="14"/>
       <c r="X34" s="14"/>
-    </row>
-    <row r="35" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+    </row>
+    <row r="35" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>145</v>
       </c>
@@ -4120,28 +4219,30 @@
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
       <c r="N35" s="18"/>
-      <c r="O35" s="16" t="s">
+      <c r="O35" s="18"/>
+      <c r="P35" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="P35" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q35" s="14" t="s">
+      <c r="Q35" s="16" t="s">
         <v>2</v>
       </c>
       <c r="R35" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="S35" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="T35" s="14"/>
+      <c r="S35" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T35" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="U35" s="14"/>
       <c r="V35" s="14"/>
       <c r="W35" s="14"/>
       <c r="X35" s="14"/>
-    </row>
-    <row r="36" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+    </row>
+    <row r="36" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>146</v>
       </c>
@@ -4166,28 +4267,30 @@
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
-      <c r="O36" s="16" t="s">
+      <c r="O36" s="18"/>
+      <c r="P36" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="P36" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q36" s="14" t="s">
+      <c r="Q36" s="16" t="s">
         <v>2</v>
       </c>
       <c r="R36" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="S36" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="T36" s="14"/>
+      <c r="S36" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T36" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="U36" s="14"/>
       <c r="V36" s="14"/>
       <c r="W36" s="14"/>
       <c r="X36" s="14"/>
-    </row>
-    <row r="37" spans="1:24" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="14"/>
+    </row>
+    <row r="37" spans="1:26" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="40" t="s">
         <v>108</v>
       </c>
@@ -4212,22 +4315,24 @@
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
       <c r="N37" s="18"/>
-      <c r="O37" s="44" t="s">
+      <c r="O37" s="18"/>
+      <c r="P37" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="P37" s="47" t="s">
+      <c r="Q37" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="Q37" s="35"/>
       <c r="R37" s="35"/>
-      <c r="S37" s="54"/>
-      <c r="T37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="54"/>
       <c r="U37" s="35"/>
       <c r="V37" s="35"/>
       <c r="W37" s="35"/>
       <c r="X37" s="35"/>
-    </row>
-    <row r="38" spans="1:24" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y37" s="35"/>
+      <c r="Z37" s="35"/>
+    </row>
+    <row r="38" spans="1:26" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="40" t="s">
         <v>16</v>
       </c>
@@ -4254,28 +4359,30 @@
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
       <c r="N38" s="18"/>
-      <c r="O38" s="44" t="s">
+      <c r="O38" s="18"/>
+      <c r="P38" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="P38" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q38" s="48" t="s">
+      <c r="Q38" s="47" t="s">
         <v>2</v>
       </c>
       <c r="R38" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="S38" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="T38" s="48"/>
+      <c r="S38" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="T38" s="49" t="s">
+        <v>2</v>
+      </c>
       <c r="U38" s="48"/>
       <c r="V38" s="48"/>
       <c r="W38" s="48"/>
       <c r="X38" s="48"/>
-    </row>
-    <row r="39" spans="1:24" ht="170" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y38" s="48"/>
+      <c r="Z38" s="48"/>
+    </row>
+    <row r="39" spans="1:26" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="40" t="s">
         <v>90</v>
       </c>
@@ -4302,28 +4409,30 @@
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
       <c r="N39" s="18"/>
-      <c r="O39" s="44" t="s">
+      <c r="O39" s="18"/>
+      <c r="P39" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="P39" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q39" s="40" t="s">
+      <c r="Q39" s="44" t="s">
         <v>17</v>
       </c>
       <c r="R39" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="S39" s="41" t="s">
+      <c r="S39" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="T39" s="40"/>
+      <c r="T39" s="41" t="s">
+        <v>17</v>
+      </c>
       <c r="U39" s="40"/>
       <c r="V39" s="40"/>
       <c r="W39" s="40"/>
       <c r="X39" s="40"/>
-    </row>
-    <row r="40" spans="1:24" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y39" s="40"/>
+      <c r="Z39" s="40"/>
+    </row>
+    <row r="40" spans="1:26" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="40" t="s">
         <v>19</v>
       </c>
@@ -4354,28 +4463,30 @@
       <c r="L40" s="40"/>
       <c r="M40" s="40"/>
       <c r="N40" s="40"/>
-      <c r="O40" s="44" t="s">
+      <c r="O40" s="40"/>
+      <c r="P40" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="P40" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q40" s="51" t="s">
+      <c r="Q40" s="50" t="s">
         <v>2</v>
       </c>
       <c r="R40" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="S40" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="T40" s="51"/>
+      <c r="S40" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="T40" s="52" t="s">
+        <v>2</v>
+      </c>
       <c r="U40" s="51"/>
       <c r="V40" s="51"/>
       <c r="W40" s="51"/>
       <c r="X40" s="51"/>
-    </row>
-    <row r="41" spans="1:24" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y40" s="51"/>
+      <c r="Z40" s="51"/>
+    </row>
+    <row r="41" spans="1:26" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="40" t="s">
         <v>21</v>
       </c>
@@ -4404,28 +4515,30 @@
       <c r="L41" s="40"/>
       <c r="M41" s="40"/>
       <c r="N41" s="40"/>
-      <c r="O41" s="44" t="s">
+      <c r="O41" s="40"/>
+      <c r="P41" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="P41" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q41" s="40" t="s">
+      <c r="Q41" s="44" t="s">
         <v>2</v>
       </c>
       <c r="R41" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="S41" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="T41" s="40"/>
+      <c r="S41" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="T41" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="U41" s="40"/>
       <c r="V41" s="40"/>
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
-    </row>
-    <row r="42" spans="1:24" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y41" s="40"/>
+      <c r="Z41" s="40"/>
+    </row>
+    <row r="42" spans="1:26" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="40" t="s">
         <v>40</v>
       </c>
@@ -4454,28 +4567,30 @@
       <c r="L42" s="40"/>
       <c r="M42" s="40"/>
       <c r="N42" s="40"/>
-      <c r="O42" s="44" t="s">
+      <c r="O42" s="40"/>
+      <c r="P42" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q42" s="40" t="s">
+      <c r="Q42" s="44" t="s">
         <v>2</v>
       </c>
       <c r="R42" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="S42" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="T42" s="40"/>
+      <c r="S42" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="T42" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="U42" s="40"/>
       <c r="V42" s="40"/>
       <c r="W42" s="40"/>
       <c r="X42" s="40"/>
-    </row>
-    <row r="43" spans="1:24" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y42" s="40"/>
+      <c r="Z42" s="40"/>
+    </row>
+    <row r="43" spans="1:26" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="40" t="s">
         <v>41</v>
       </c>
@@ -4504,28 +4619,30 @@
       <c r="L43" s="40"/>
       <c r="M43" s="40"/>
       <c r="N43" s="40"/>
-      <c r="O43" s="44" t="s">
+      <c r="O43" s="40"/>
+      <c r="P43" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q43" s="40" t="s">
+      <c r="Q43" s="44" t="s">
         <v>2</v>
       </c>
       <c r="R43" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="S43" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="T43" s="40"/>
+      <c r="S43" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="T43" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="U43" s="40"/>
       <c r="V43" s="40"/>
       <c r="W43" s="40"/>
       <c r="X43" s="40"/>
-    </row>
-    <row r="44" spans="1:24" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y43" s="40"/>
+      <c r="Z43" s="40"/>
+    </row>
+    <row r="44" spans="1:26" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="40" t="s">
         <v>42</v>
       </c>
@@ -4554,28 +4671,30 @@
       <c r="L44" s="40"/>
       <c r="M44" s="40"/>
       <c r="N44" s="40"/>
-      <c r="O44" s="44" t="s">
+      <c r="O44" s="40"/>
+      <c r="P44" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q44" s="40" t="s">
+      <c r="Q44" s="44" t="s">
         <v>2</v>
       </c>
       <c r="R44" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="S44" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="T44" s="40"/>
+      <c r="S44" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="T44" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="U44" s="40"/>
       <c r="V44" s="40"/>
       <c r="W44" s="40"/>
       <c r="X44" s="40"/>
-    </row>
-    <row r="45" spans="1:24" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y44" s="40"/>
+      <c r="Z44" s="40"/>
+    </row>
+    <row r="45" spans="1:26" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="40" t="s">
         <v>43</v>
       </c>
@@ -4604,28 +4723,30 @@
       <c r="L45" s="40"/>
       <c r="M45" s="40"/>
       <c r="N45" s="40"/>
-      <c r="O45" s="44" t="s">
+      <c r="O45" s="40"/>
+      <c r="P45" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="P45" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q45" s="40" t="s">
+      <c r="Q45" s="44" t="s">
         <v>2</v>
       </c>
       <c r="R45" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="S45" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="T45" s="40"/>
+      <c r="S45" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="T45" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="U45" s="40"/>
       <c r="V45" s="40"/>
       <c r="W45" s="40"/>
       <c r="X45" s="40"/>
-    </row>
-    <row r="46" spans="1:24" ht="276" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y45" s="40"/>
+      <c r="Z45" s="40"/>
+    </row>
+    <row r="46" spans="1:26" ht="276" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>78</v>
       </c>
@@ -4666,34 +4787,40 @@
       <c r="N46" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="O46" s="8" t="s">
+      <c r="O46" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="P46" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="6" t="s">
+      <c r="Q46" s="20"/>
+      <c r="R46" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="R46" s="6" t="s">
+      <c r="S46" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="S46" s="32"/>
-      <c r="T46" s="6" t="s">
-        <v>210</v>
-      </c>
+      <c r="T46" s="32"/>
       <c r="U46" s="6" t="s">
         <v>210</v>
       </c>
       <c r="V46" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="W46" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="W46" s="6" t="s">
+      <c r="X46" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="X46" s="6" t="s">
+      <c r="Y46" s="6" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" ht="102" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Z46" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>98</v>
       </c>
@@ -4720,28 +4847,30 @@
       <c r="L47" s="18"/>
       <c r="M47" s="18"/>
       <c r="N47" s="18"/>
-      <c r="O47" s="8" t="s">
+      <c r="O47" s="18"/>
+      <c r="P47" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q47" s="6" t="s">
+      <c r="Q47" s="8" t="s">
         <v>2</v>
       </c>
       <c r="R47" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="S47" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="T47" s="6"/>
+      <c r="S47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T47" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
       <c r="W47" s="6"/>
       <c r="X47" s="6"/>
-    </row>
-    <row r="48" spans="1:24" ht="102" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+    </row>
+    <row r="48" spans="1:26" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>99</v>
       </c>
@@ -4768,28 +4897,30 @@
       <c r="L48" s="18"/>
       <c r="M48" s="18"/>
       <c r="N48" s="18"/>
-      <c r="O48" s="8" t="s">
+      <c r="O48" s="18"/>
+      <c r="P48" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q48" s="6" t="s">
+      <c r="Q48" s="8" t="s">
         <v>2</v>
       </c>
       <c r="R48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="S48" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="T48" s="6"/>
+      <c r="S48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T48" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
-    </row>
-    <row r="49" spans="1:24" ht="227" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+    </row>
+    <row r="49" spans="1:26" ht="227" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>100</v>
       </c>
@@ -4830,34 +4961,40 @@
       <c r="N49" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="O49" s="8" t="s">
+      <c r="O49" s="61" t="s">
+        <v>233</v>
+      </c>
+      <c r="P49" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="6" t="s">
+      <c r="Q49" s="20"/>
+      <c r="R49" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="R49" s="6" t="s">
+      <c r="S49" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="S49" s="32"/>
-      <c r="T49" s="6" t="s">
+      <c r="T49" s="32"/>
+      <c r="U49" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="U49" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="V49" s="6" t="s">
         <v>211</v>
       </c>
       <c r="W49" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="X49" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="X49" s="6" t="s">
+      <c r="Y49" s="6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" ht="119" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Z49" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>159</v>
       </c>
@@ -4884,28 +5021,30 @@
       <c r="L50" s="18"/>
       <c r="M50" s="18"/>
       <c r="N50" s="18"/>
-      <c r="O50" s="8" t="s">
+      <c r="O50" s="18"/>
+      <c r="P50" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="P50" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q50" s="6" t="s">
+      <c r="Q50" s="8" t="s">
         <v>2</v>
       </c>
       <c r="R50" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="S50" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="T50" s="6"/>
+      <c r="S50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T50" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
       <c r="W50" s="6"/>
       <c r="X50" s="6"/>
-    </row>
-    <row r="51" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
+    </row>
+    <row r="51" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>101</v>
       </c>
@@ -4946,20 +5085,20 @@
       <c r="N51" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="O51" s="8" t="s">
+      <c r="O51" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="P51" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="6" t="s">
+      <c r="Q51" s="20"/>
+      <c r="R51" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="R51" s="6" t="s">
+      <c r="S51" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="S51" s="32"/>
-      <c r="T51" s="6" t="s">
-        <v>203</v>
-      </c>
+      <c r="T51" s="32"/>
       <c r="U51" s="6" t="s">
         <v>203</v>
       </c>
@@ -4972,8 +5111,14 @@
       <c r="X51" s="6" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y51" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z51" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>102</v>
       </c>
@@ -5012,20 +5157,20 @@
       <c r="N52" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="O52" s="8" t="s">
+      <c r="O52" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="P52" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="6" t="s">
+      <c r="Q52" s="20"/>
+      <c r="R52" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="R52" s="6" t="s">
+      <c r="S52" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="S52" s="32"/>
-      <c r="T52" s="6" t="s">
-        <v>203</v>
-      </c>
+      <c r="T52" s="32"/>
       <c r="U52" s="6" t="s">
         <v>203</v>
       </c>
@@ -5038,8 +5183,14 @@
       <c r="X52" s="6" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" ht="238" x14ac:dyDescent="0.2">
+      <c r="Y52" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z52" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" ht="238" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>178</v>
       </c>
@@ -5080,32 +5231,38 @@
       <c r="N53" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="O53" s="8"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="6" t="s">
-        <v>183</v>
-      </c>
+      <c r="O53" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="20"/>
       <c r="R53" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="S53" s="32"/>
-      <c r="T53" s="6" t="s">
+      <c r="S53" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="T53" s="32"/>
+      <c r="U53" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="U53" s="6" t="s">
+      <c r="V53" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="V53" s="6" t="s">
+      <c r="W53" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="W53" s="6" t="s">
-        <v>226</v>
       </c>
       <c r="X53" s="6" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" ht="119" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y53" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z53" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>177</v>
       </c>
@@ -5132,28 +5289,30 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
-      <c r="O54" s="8" t="s">
+      <c r="O54" s="6"/>
+      <c r="P54" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="P54" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q54" s="6" t="s">
+      <c r="Q54" s="8" t="s">
         <v>2</v>
       </c>
       <c r="R54" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="S54" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="T54" s="6"/>
+      <c r="S54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T54" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="U54" s="6"/>
       <c r="V54" s="6"/>
       <c r="W54" s="6"/>
       <c r="X54" s="6"/>
-    </row>
-    <row r="55" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+    </row>
+    <row r="55" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>10</v>
       </c>
@@ -5192,20 +5351,20 @@
       <c r="N55" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="O55" s="8" t="s">
+      <c r="O55" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="P55" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="6" t="s">
+      <c r="Q55" s="20"/>
+      <c r="R55" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="R55" s="6" t="s">
+      <c r="S55" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="S55" s="32"/>
-      <c r="T55" s="6" t="s">
-        <v>206</v>
-      </c>
+      <c r="T55" s="32"/>
       <c r="U55" s="6" t="s">
         <v>206</v>
       </c>
@@ -5218,8 +5377,14 @@
       <c r="X55" s="6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y55" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z55" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>11</v>
       </c>
@@ -5244,28 +5409,30 @@
       <c r="L56" s="18"/>
       <c r="M56" s="18"/>
       <c r="N56" s="18"/>
-      <c r="O56" s="58" t="s">
+      <c r="O56" s="18"/>
+      <c r="P56" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="P56" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q56" s="6" t="s">
+      <c r="Q56" s="8" t="s">
         <v>2</v>
       </c>
       <c r="R56" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="S56" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="T56" s="6"/>
+      <c r="S56" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T56" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="U56" s="6"/>
       <c r="V56" s="6"/>
       <c r="W56" s="6"/>
       <c r="X56" s="6"/>
-    </row>
-    <row r="57" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+    </row>
+    <row r="57" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>12</v>
       </c>
@@ -5290,28 +5457,30 @@
       <c r="L57" s="18"/>
       <c r="M57" s="18"/>
       <c r="N57" s="18"/>
-      <c r="O57" s="58" t="s">
+      <c r="O57" s="18"/>
+      <c r="P57" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="P57" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q57" s="6" t="s">
+      <c r="Q57" s="8" t="s">
         <v>2</v>
       </c>
       <c r="R57" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="S57" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="T57" s="6"/>
+      <c r="S57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T57" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="U57" s="6"/>
       <c r="V57" s="6"/>
       <c r="W57" s="6"/>
       <c r="X57" s="6"/>
-    </row>
-    <row r="58" spans="1:24" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+    </row>
+    <row r="58" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>13</v>
       </c>
@@ -5336,28 +5505,30 @@
       <c r="L58" s="18"/>
       <c r="M58" s="18"/>
       <c r="N58" s="18"/>
-      <c r="O58" s="58" t="s">
+      <c r="O58" s="18"/>
+      <c r="P58" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="P58" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q58" s="6" t="s">
+      <c r="Q58" s="8" t="s">
         <v>2</v>
       </c>
       <c r="R58" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="S58" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="T58" s="6"/>
+      <c r="S58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T58" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="U58" s="6"/>
       <c r="V58" s="6"/>
       <c r="W58" s="6"/>
       <c r="X58" s="6"/>
-    </row>
-    <row r="59" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
+    </row>
+    <row r="59" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>84</v>
       </c>
@@ -5385,9 +5556,6 @@
       <c r="I59" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="O59" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="P59" s="5" t="s">
         <v>84</v>
       </c>
@@ -5398,6 +5566,9 @@
         <v>84</v>
       </c>
       <c r="S59" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T59" s="5" t="s">
         <v>84</v>
       </c>
     </row>

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665B94E9-C15F-B74C-91FC-454F44E68C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF2CBBF-3084-5347-B09A-47700FC4ABF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14500" yWindow="500" windowWidth="23900" windowHeight="19560" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19560" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">params!$A$1:$T$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">params!$A$1:$U$59</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +46,7 @@
     <author>tc={27AC355D-4290-8945-B347-C6E9119A89EA}</author>
   </authors>
   <commentList>
-    <comment ref="R14" authorId="0" shapeId="0" xr:uid="{04385ABF-366F-F14D-B686-003B7FD6A102}">
+    <comment ref="S14" authorId="0" shapeId="0" xr:uid="{04385ABF-366F-F14D-B686-003B7FD6A102}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,7 +54,7 @@
     This includes 13 prospective studies from different regions; 0.42 estimate was Kenya-specific but they have Europe, France specifically, and other African countries</t>
       </text>
     </comment>
-    <comment ref="Q15" authorId="1" shapeId="0" xr:uid="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
+    <comment ref="R15" authorId="1" shapeId="0" xr:uid="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="240">
   <si>
     <t>Parameter</t>
   </si>
@@ -1508,6 +1508,55 @@
   </si>
   <si>
     <t>Using SOUTH AFRICA engagement data</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>DHS 2003, 2008, 2013</t>
+  </si>
+  <si>
+    <t>IeDEA Dashboard for West Africa</t>
+  </si>
+  <si>
+    <t>Using SA data (IeDEA dashboard for West Africa missing a lot of data; values seem close enough to SA)</t>
+  </si>
+  <si>
+    <t>Using SOUTH AFRICA suppression data (IeDEA dashboard for West Africa missing a lot of data; values seem close enough to SA)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trate.0 (1990) = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * trate.1
+Trate.1 (1997) = 1 * trate.2
+Trate.2 (2008) = 0.1
+Trate.3 (2018) = 1 * trate.2
+Trate.4 (2030) = 1 *  trate.3
+SD of r0:r1 ratio = log(4)/2
+SD of r1:r2 ratio = log(4)/2
+SD of r2 = log(4)/2
+SD of r3:r2 ratio = log(4)/2
+SD of r4:r3 ratio = log(4)/2</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2337,10 +2386,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="R14" dT="2025-01-22T18:42:38.64" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{04385ABF-366F-F14D-B686-003B7FD6A102}">
+  <threadedComment ref="S14" dT="2025-01-22T18:42:38.64" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{04385ABF-366F-F14D-B686-003B7FD6A102}">
     <text>This includes 13 prospective studies from different regions; 0.42 estimate was Kenya-specific but they have Europe, France specifically, and other African countries</text>
   </threadedComment>
-  <threadedComment ref="Q15" dT="2025-01-22T18:20:02.26" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
+  <threadedComment ref="R15" dT="2025-01-22T18:20:02.26" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
     <text>Update to WHO reference because this is actually a global estimate</text>
   </threadedComment>
   <threadedComment ref="H49" dT="2025-03-26T15:43:17.15" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{27AC355D-4290-8945-B347-C6E9119A89EA}">
@@ -2351,13 +2400,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B2D996-732D-784F-96EB-809CE760E324}">
-  <dimension ref="A1:Z59"/>
+  <dimension ref="A1:AB59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="U46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Z49" sqref="Z49"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2370,17 +2419,17 @@
     <col min="6" max="6" width="55" style="5" customWidth="1"/>
     <col min="7" max="8" width="53.5" style="5" customWidth="1"/>
     <col min="9" max="9" width="53.5" style="5" hidden="1" customWidth="1"/>
-    <col min="10" max="15" width="53.5" style="5" customWidth="1"/>
-    <col min="16" max="16" width="17" style="5" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="24" style="5" customWidth="1"/>
-    <col min="18" max="18" width="26" style="5" customWidth="1"/>
-    <col min="19" max="19" width="37.5" style="5" customWidth="1"/>
-    <col min="20" max="20" width="30.5" style="5" hidden="1" customWidth="1"/>
-    <col min="21" max="26" width="30.5" style="5" customWidth="1"/>
-    <col min="27" max="16384" width="10.83203125" style="5"/>
+    <col min="10" max="16" width="53.5" style="5" customWidth="1"/>
+    <col min="17" max="17" width="17" style="5" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="24" style="5" customWidth="1"/>
+    <col min="19" max="19" width="26" style="5" customWidth="1"/>
+    <col min="20" max="20" width="37.5" style="5" customWidth="1"/>
+    <col min="21" max="21" width="30.5" style="5" hidden="1" customWidth="1"/>
+    <col min="22" max="28" width="30.5" style="5" customWidth="1"/>
+    <col min="29" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -2408,23 +2457,25 @@
       <c r="M1" s="69"/>
       <c r="N1" s="69"/>
       <c r="O1" s="69"/>
-      <c r="P1" s="69" t="s">
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="Q1" s="66" t="s">
+      <c r="R1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="35"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="60"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="36"/>
       <c r="V1" s="60"/>
       <c r="W1" s="60"/>
       <c r="X1" s="60"/>
       <c r="Y1" s="60"/>
       <c r="Z1" s="60"/>
-    </row>
-    <row r="2" spans="1:26" ht="30" x14ac:dyDescent="0.35">
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+    </row>
+    <row r="2" spans="1:28" ht="30" x14ac:dyDescent="0.35">
       <c r="A2" s="37"/>
       <c r="B2" s="38"/>
       <c r="C2" s="39"/>
@@ -2460,39 +2511,45 @@
       <c r="O2" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="62" t="s">
+      <c r="P2" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="R2" s="63" t="s">
+      <c r="S2" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="63" t="s">
+      <c r="T2" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="64" t="s">
+      <c r="U2" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="65" t="s">
+      <c r="V2" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="V2" s="65" t="s">
+      <c r="W2" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="W2" s="65" t="s">
+      <c r="X2" s="65" t="s">
         <v>213</v>
       </c>
-      <c r="X2" s="65" t="s">
+      <c r="Y2" s="65" t="s">
         <v>221</v>
       </c>
-      <c r="Y2" s="65" t="s">
+      <c r="Z2" s="65" t="s">
         <v>222</v>
       </c>
-      <c r="Z2" s="65" t="s">
+      <c r="AA2" s="65" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="211" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB2" s="65" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="211" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>33</v>
       </c>
@@ -2536,27 +2593,31 @@
       <c r="O3" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="25" t="s">
+      <c r="P3" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26" t="s">
         <v>2</v>
       </c>
       <c r="S3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="25"/>
+      <c r="T3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="V3" s="25"/>
       <c r="W3" s="25"/>
       <c r="X3" s="25"/>
       <c r="Y3" s="25"/>
       <c r="Z3" s="25"/>
-    </row>
-    <row r="4" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+    </row>
+    <row r="4" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
@@ -2582,29 +2643,31 @@
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="18"/>
+      <c r="Q4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="26" t="s">
         <v>2</v>
       </c>
       <c r="S4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="T4" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="U4" s="25"/>
+      <c r="T4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="V4" s="25"/>
       <c r="W4" s="25"/>
       <c r="X4" s="25"/>
       <c r="Y4" s="25"/>
       <c r="Z4" s="25"/>
-    </row>
-    <row r="5" spans="1:26" ht="272" x14ac:dyDescent="0.2">
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+    </row>
+    <row r="5" spans="1:28" ht="272" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>148</v>
       </c>
@@ -2650,39 +2713,45 @@
       <c r="O5" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="P5" s="30" t="s">
+      <c r="P5" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="27" t="s">
+      <c r="R5" s="20"/>
+      <c r="S5" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="S5" s="27" t="s">
+      <c r="T5" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="T5" s="29" t="s">
+      <c r="U5" s="29" t="s">
         <v>189</v>
-      </c>
-      <c r="U5" s="55" t="s">
-        <v>210</v>
       </c>
       <c r="V5" s="55" t="s">
         <v>210</v>
       </c>
       <c r="W5" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="X5" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="X5" s="55" t="s">
+      <c r="Y5" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="Y5" s="55" t="s">
+      <c r="Z5" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="Z5" s="55" t="s">
+      <c r="AA5" s="55" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="85" x14ac:dyDescent="0.2">
+      <c r="AB5" s="55" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>150</v>
       </c>
@@ -2726,21 +2795,21 @@
       <c r="O6" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="P6" s="30" t="s">
+      <c r="P6" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="27" t="s">
+      <c r="R6" s="20"/>
+      <c r="S6" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="S6" s="27" t="s">
+      <c r="T6" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="T6" s="29" t="s">
+      <c r="U6" s="29" t="s">
         <v>189</v>
-      </c>
-      <c r="U6" s="55" t="s">
-        <v>230</v>
       </c>
       <c r="V6" s="55" t="s">
         <v>230</v>
@@ -2757,8 +2826,14 @@
       <c r="Z6" s="55" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA6" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB6" s="55" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>67</v>
       </c>
@@ -2786,29 +2861,31 @@
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
-      <c r="P7" s="30" t="s">
+      <c r="P7" s="18"/>
+      <c r="Q7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="Q7" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="R7" s="25" t="s">
+      <c r="R7" s="26" t="s">
         <v>2</v>
       </c>
       <c r="S7" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="T7" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="U7" s="25"/>
+      <c r="T7" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="V7" s="25"/>
       <c r="W7" s="25"/>
       <c r="X7" s="25"/>
       <c r="Y7" s="25"/>
       <c r="Z7" s="25"/>
-    </row>
-    <row r="8" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+    </row>
+    <row r="8" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>69</v>
       </c>
@@ -2836,29 +2913,31 @@
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
-      <c r="P8" s="30" t="s">
+      <c r="P8" s="18"/>
+      <c r="Q8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="R8" s="25" t="s">
+      <c r="R8" s="26" t="s">
         <v>2</v>
       </c>
       <c r="S8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="T8" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="U8" s="25"/>
+      <c r="T8" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="U8" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="V8" s="25"/>
       <c r="W8" s="25"/>
       <c r="X8" s="25"/>
       <c r="Y8" s="25"/>
       <c r="Z8" s="25"/>
-    </row>
-    <row r="9" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+    </row>
+    <row r="9" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>68</v>
       </c>
@@ -2886,29 +2965,31 @@
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
-      <c r="P9" s="30" t="s">
+      <c r="P9" s="18"/>
+      <c r="Q9" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="R9" s="25" t="s">
+      <c r="R9" s="26" t="s">
         <v>2</v>
       </c>
       <c r="S9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="T9" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="U9" s="25"/>
+      <c r="T9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="V9" s="25"/>
       <c r="W9" s="25"/>
       <c r="X9" s="25"/>
       <c r="Y9" s="25"/>
       <c r="Z9" s="25"/>
-    </row>
-    <row r="10" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+    </row>
+    <row r="10" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>70</v>
       </c>
@@ -2936,29 +3017,31 @@
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
       <c r="O10" s="18"/>
-      <c r="P10" s="30" t="s">
+      <c r="P10" s="18"/>
+      <c r="Q10" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="Q10" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="R10" s="25" t="s">
+      <c r="R10" s="26" t="s">
         <v>2</v>
       </c>
       <c r="S10" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="T10" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="U10" s="25"/>
+      <c r="T10" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="U10" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="V10" s="25"/>
       <c r="W10" s="25"/>
       <c r="X10" s="25"/>
       <c r="Y10" s="25"/>
       <c r="Z10" s="25"/>
-    </row>
-    <row r="11" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+    </row>
+    <row r="11" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>6</v>
       </c>
@@ -2986,23 +3069,25 @@
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
-      <c r="P11" s="30" t="s">
+      <c r="P11" s="18"/>
+      <c r="Q11" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="Q11" s="30" t="s">
+      <c r="R11" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="R11" s="27"/>
       <c r="S11" s="27"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="25"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="29"/>
       <c r="V11" s="25"/>
       <c r="W11" s="25"/>
       <c r="X11" s="25"/>
       <c r="Y11" s="25"/>
       <c r="Z11" s="25"/>
-    </row>
-    <row r="12" spans="1:26" ht="136" x14ac:dyDescent="0.2">
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+    </row>
+    <row r="12" spans="1:28" ht="136" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>7</v>
       </c>
@@ -3048,21 +3133,21 @@
       <c r="O12" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="30" t="s">
+      <c r="P12" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="27" t="s">
-        <v>193</v>
-      </c>
+      <c r="R12" s="20"/>
       <c r="S12" s="27" t="s">
         <v>193</v>
       </c>
       <c r="T12" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="U12" s="27" t="s">
         <v>192</v>
-      </c>
-      <c r="U12" s="25" t="s">
-        <v>193</v>
       </c>
       <c r="V12" s="25" t="s">
         <v>193</v>
@@ -3079,8 +3164,14 @@
       <c r="Z12" s="25" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" ht="119" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA12" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB12" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>73</v>
       </c>
@@ -3108,29 +3199,31 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
-      <c r="P13" s="30" t="s">
+      <c r="P13" s="18"/>
+      <c r="Q13" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="Q13" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="R13" s="25" t="s">
+      <c r="R13" s="26" t="s">
         <v>2</v>
       </c>
       <c r="S13" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="T13" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="U13" s="25"/>
+      <c r="T13" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="U13" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="V13" s="25"/>
       <c r="W13" s="25"/>
       <c r="X13" s="25"/>
       <c r="Y13" s="25"/>
       <c r="Z13" s="25"/>
-    </row>
-    <row r="14" spans="1:26" ht="85" x14ac:dyDescent="0.2">
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+    </row>
+    <row r="14" spans="1:28" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>75</v>
       </c>
@@ -3172,20 +3265,20 @@
       <c r="O14" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="P14" s="30" t="s">
+      <c r="P14" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q14" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="27" t="s">
-        <v>61</v>
-      </c>
+      <c r="R14" s="20"/>
       <c r="S14" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="T14" s="32"/>
-      <c r="U14" s="25" t="s">
+      <c r="T14" s="27" t="s">
         <v>61</v>
       </c>
+      <c r="U14" s="32"/>
       <c r="V14" s="25" t="s">
         <v>61</v>
       </c>
@@ -3201,8 +3294,14 @@
       <c r="Z14" s="25" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" ht="102" x14ac:dyDescent="0.2">
+      <c r="AA14" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB14" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>77</v>
       </c>
@@ -3230,25 +3329,27 @@
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
-      <c r="P15" s="30" t="s">
+      <c r="P15" s="18"/>
+      <c r="Q15" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="Q15" s="30" t="s">
+      <c r="R15" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="R15" s="18" t="s">
+      <c r="S15" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="S15" s="18"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="19"/>
       <c r="V15" s="18"/>
       <c r="W15" s="18"/>
       <c r="X15" s="18"/>
       <c r="Y15" s="18"/>
       <c r="Z15" s="18"/>
-    </row>
-    <row r="16" spans="1:26" ht="119" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+    </row>
+    <row r="16" spans="1:28" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
@@ -3276,23 +3377,25 @@
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
-      <c r="P16" s="13" t="s">
+      <c r="P16" s="18"/>
+      <c r="Q16" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="R16" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="R16" s="18"/>
       <c r="S16" s="18"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="19"/>
       <c r="V16" s="18"/>
       <c r="W16" s="18"/>
       <c r="X16" s="18"/>
       <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
-    </row>
-    <row r="17" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+    </row>
+    <row r="17" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>117</v>
       </c>
@@ -3320,29 +3423,31 @@
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
-      <c r="P17" s="13" t="s">
+      <c r="P17" s="18"/>
+      <c r="Q17" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Q17" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R17" s="10" t="s">
+      <c r="R17" s="13" t="s">
         <v>2</v>
       </c>
       <c r="S17" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="T17" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="U17" s="10"/>
+      <c r="T17" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="U17" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="V17" s="10"/>
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
-    </row>
-    <row r="18" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+    </row>
+    <row r="18" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>118</v>
       </c>
@@ -3370,29 +3475,31 @@
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
-      <c r="P18" s="13" t="s">
+      <c r="P18" s="18"/>
+      <c r="Q18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Q18" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R18" s="10" t="s">
+      <c r="R18" s="13" t="s">
         <v>2</v>
       </c>
       <c r="S18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="T18" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="U18" s="10"/>
+      <c r="T18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="U18" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="V18" s="10"/>
       <c r="W18" s="10"/>
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
-    </row>
-    <row r="19" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+    </row>
+    <row r="19" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>119</v>
       </c>
@@ -3420,29 +3527,31 @@
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
-      <c r="P19" s="13" t="s">
+      <c r="P19" s="18"/>
+      <c r="Q19" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Q19" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R19" s="10" t="s">
+      <c r="R19" s="13" t="s">
         <v>2</v>
       </c>
       <c r="S19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="T19" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="U19" s="10"/>
+      <c r="T19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="U19" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="V19" s="10"/>
       <c r="W19" s="10"/>
       <c r="X19" s="10"/>
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
-    </row>
-    <row r="20" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+    </row>
+    <row r="20" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>120</v>
       </c>
@@ -3470,29 +3579,31 @@
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
-      <c r="P20" s="13" t="s">
+      <c r="P20" s="18"/>
+      <c r="Q20" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Q20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R20" s="10" t="s">
+      <c r="R20" s="13" t="s">
         <v>2</v>
       </c>
       <c r="S20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="T20" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="U20" s="10"/>
+      <c r="T20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="U20" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="V20" s="10"/>
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
-    </row>
-    <row r="21" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+    </row>
+    <row r="21" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>121</v>
       </c>
@@ -3520,29 +3631,31 @@
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
-      <c r="P21" s="13" t="s">
+      <c r="P21" s="18"/>
+      <c r="Q21" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R21" s="10" t="s">
+      <c r="R21" s="13" t="s">
         <v>2</v>
       </c>
       <c r="S21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="T21" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="U21" s="10"/>
+      <c r="T21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="U21" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="V21" s="10"/>
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
-    </row>
-    <row r="22" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+    </row>
+    <row r="22" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>122</v>
       </c>
@@ -3570,29 +3683,31 @@
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
-      <c r="P22" s="13" t="s">
+      <c r="P22" s="18"/>
+      <c r="Q22" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R22" s="10" t="s">
+      <c r="R22" s="13" t="s">
         <v>2</v>
       </c>
       <c r="S22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="T22" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="U22" s="10"/>
+      <c r="T22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="U22" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="V22" s="10"/>
       <c r="W22" s="10"/>
       <c r="X22" s="10"/>
       <c r="Y22" s="10"/>
       <c r="Z22" s="10"/>
-    </row>
-    <row r="23" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+    </row>
+    <row r="23" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>129</v>
       </c>
@@ -3620,29 +3735,31 @@
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
       <c r="O23" s="18"/>
-      <c r="P23" s="13" t="s">
+      <c r="P23" s="18"/>
+      <c r="Q23" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Q23" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R23" s="10" t="s">
+      <c r="R23" s="13" t="s">
         <v>2</v>
       </c>
       <c r="S23" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="T23" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="U23" s="10"/>
+      <c r="T23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="U23" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="V23" s="10"/>
       <c r="W23" s="10"/>
       <c r="X23" s="10"/>
       <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
-    </row>
-    <row r="24" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+    </row>
+    <row r="24" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>130</v>
       </c>
@@ -3670,29 +3787,31 @@
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
       <c r="O24" s="18"/>
-      <c r="P24" s="13" t="s">
+      <c r="P24" s="18"/>
+      <c r="Q24" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R24" s="10" t="s">
+      <c r="R24" s="13" t="s">
         <v>2</v>
       </c>
       <c r="S24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="T24" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="U24" s="10"/>
+      <c r="T24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="U24" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="V24" s="10"/>
       <c r="W24" s="10"/>
       <c r="X24" s="10"/>
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
-    </row>
-    <row r="25" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+    </row>
+    <row r="25" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>131</v>
       </c>
@@ -3720,29 +3839,31 @@
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
       <c r="O25" s="18"/>
-      <c r="P25" s="13" t="s">
+      <c r="P25" s="18"/>
+      <c r="Q25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Q25" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R25" s="10" t="s">
+      <c r="R25" s="13" t="s">
         <v>2</v>
       </c>
       <c r="S25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="T25" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="U25" s="10"/>
+      <c r="T25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="U25" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="V25" s="10"/>
       <c r="W25" s="10"/>
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
-    </row>
-    <row r="26" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+    </row>
+    <row r="26" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>132</v>
       </c>
@@ -3770,29 +3891,31 @@
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
-      <c r="P26" s="13" t="s">
+      <c r="P26" s="18"/>
+      <c r="Q26" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Q26" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R26" s="10" t="s">
+      <c r="R26" s="13" t="s">
         <v>2</v>
       </c>
       <c r="S26" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="T26" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="U26" s="10"/>
+      <c r="T26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="U26" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
       <c r="X26" s="10"/>
       <c r="Y26" s="10"/>
       <c r="Z26" s="10"/>
-    </row>
-    <row r="27" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+    </row>
+    <row r="27" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>133</v>
       </c>
@@ -3820,29 +3943,31 @@
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
       <c r="O27" s="18"/>
-      <c r="P27" s="13" t="s">
+      <c r="P27" s="18"/>
+      <c r="Q27" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Q27" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R27" s="10" t="s">
+      <c r="R27" s="13" t="s">
         <v>2</v>
       </c>
       <c r="S27" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="T27" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="U27" s="10"/>
+      <c r="T27" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="U27" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
-    </row>
-    <row r="28" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+    </row>
+    <row r="28" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>134</v>
       </c>
@@ -3870,29 +3995,31 @@
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
-      <c r="P28" s="13" t="s">
+      <c r="P28" s="18"/>
+      <c r="Q28" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Q28" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R28" s="10" t="s">
+      <c r="R28" s="13" t="s">
         <v>2</v>
       </c>
       <c r="S28" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="T28" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="U28" s="10"/>
+      <c r="T28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
       <c r="X28" s="10"/>
       <c r="Y28" s="10"/>
       <c r="Z28" s="10"/>
-    </row>
-    <row r="29" spans="1:26" ht="102" x14ac:dyDescent="0.2">
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+    </row>
+    <row r="29" spans="1:28" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>89</v>
       </c>
@@ -3930,23 +4057,25 @@
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
-      <c r="P29" s="16" t="s">
+      <c r="P29" s="14"/>
+      <c r="Q29" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="Q29" s="16" t="s">
+      <c r="R29" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="R29" s="14"/>
       <c r="S29" s="14"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="15"/>
       <c r="V29" s="14"/>
       <c r="W29" s="14"/>
       <c r="X29" s="14"/>
       <c r="Y29" s="14"/>
       <c r="Z29" s="14"/>
-    </row>
-    <row r="30" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+    </row>
+    <row r="30" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>14</v>
       </c>
@@ -3982,23 +4111,25 @@
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
-      <c r="P30" s="16" t="s">
+      <c r="P30" s="14"/>
+      <c r="Q30" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="Q30" s="16" t="s">
+      <c r="R30" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="R30" s="14"/>
       <c r="S30" s="14"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="15"/>
       <c r="V30" s="14"/>
       <c r="W30" s="14"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
       <c r="Z30" s="14"/>
-    </row>
-    <row r="31" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+    </row>
+    <row r="31" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>15</v>
       </c>
@@ -4034,23 +4165,25 @@
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
-      <c r="P31" s="16" t="s">
+      <c r="P31" s="14"/>
+      <c r="Q31" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="Q31" s="16" t="s">
+      <c r="R31" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="R31" s="14"/>
       <c r="S31" s="14"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="15"/>
       <c r="V31" s="14"/>
       <c r="W31" s="14"/>
       <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
-    </row>
-    <row r="32" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+    </row>
+    <row r="32" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>143</v>
       </c>
@@ -4076,29 +4209,31 @@
       <c r="M32" s="18"/>
       <c r="N32" s="18"/>
       <c r="O32" s="18"/>
-      <c r="P32" s="16" t="s">
+      <c r="P32" s="18"/>
+      <c r="Q32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="Q32" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="R32" s="14" t="s">
+      <c r="R32" s="16" t="s">
         <v>2</v>
       </c>
       <c r="S32" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="T32" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U32" s="14"/>
+      <c r="T32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="V32" s="14"/>
       <c r="W32" s="14"/>
       <c r="X32" s="14"/>
       <c r="Y32" s="14"/>
       <c r="Z32" s="14"/>
-    </row>
-    <row r="33" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+    </row>
+    <row r="33" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>147</v>
       </c>
@@ -4124,29 +4259,31 @@
       <c r="M33" s="18"/>
       <c r="N33" s="18"/>
       <c r="O33" s="18"/>
-      <c r="P33" s="16" t="s">
+      <c r="P33" s="18"/>
+      <c r="Q33" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="Q33" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="R33" s="14" t="s">
+      <c r="R33" s="16" t="s">
         <v>2</v>
       </c>
       <c r="S33" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="T33" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" s="14"/>
+      <c r="T33" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="V33" s="14"/>
       <c r="W33" s="14"/>
       <c r="X33" s="14"/>
       <c r="Y33" s="14"/>
       <c r="Z33" s="14"/>
-    </row>
-    <row r="34" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+    </row>
+    <row r="34" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>144</v>
       </c>
@@ -4172,29 +4309,31 @@
       <c r="M34" s="18"/>
       <c r="N34" s="18"/>
       <c r="O34" s="18"/>
-      <c r="P34" s="16" t="s">
+      <c r="P34" s="18"/>
+      <c r="Q34" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="Q34" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="R34" s="14" t="s">
+      <c r="R34" s="16" t="s">
         <v>2</v>
       </c>
       <c r="S34" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="T34" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U34" s="14"/>
+      <c r="T34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="U34" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="V34" s="14"/>
       <c r="W34" s="14"/>
       <c r="X34" s="14"/>
       <c r="Y34" s="14"/>
       <c r="Z34" s="14"/>
-    </row>
-    <row r="35" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="14"/>
+    </row>
+    <row r="35" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>145</v>
       </c>
@@ -4220,29 +4359,31 @@
       <c r="M35" s="18"/>
       <c r="N35" s="18"/>
       <c r="O35" s="18"/>
-      <c r="P35" s="16" t="s">
+      <c r="P35" s="18"/>
+      <c r="Q35" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="Q35" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="R35" s="14" t="s">
+      <c r="R35" s="16" t="s">
         <v>2</v>
       </c>
       <c r="S35" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="T35" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U35" s="14"/>
+      <c r="T35" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="U35" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="V35" s="14"/>
       <c r="W35" s="14"/>
       <c r="X35" s="14"/>
       <c r="Y35" s="14"/>
       <c r="Z35" s="14"/>
-    </row>
-    <row r="36" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
+    </row>
+    <row r="36" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>146</v>
       </c>
@@ -4268,29 +4409,31 @@
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
       <c r="O36" s="18"/>
-      <c r="P36" s="16" t="s">
+      <c r="P36" s="18"/>
+      <c r="Q36" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="Q36" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="R36" s="14" t="s">
+      <c r="R36" s="16" t="s">
         <v>2</v>
       </c>
       <c r="S36" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="T36" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U36" s="14"/>
+      <c r="T36" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="U36" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="V36" s="14"/>
       <c r="W36" s="14"/>
       <c r="X36" s="14"/>
       <c r="Y36" s="14"/>
       <c r="Z36" s="14"/>
-    </row>
-    <row r="37" spans="1:26" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="14"/>
+    </row>
+    <row r="37" spans="1:28" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="40" t="s">
         <v>108</v>
       </c>
@@ -4316,23 +4459,25 @@
       <c r="M37" s="18"/>
       <c r="N37" s="18"/>
       <c r="O37" s="18"/>
-      <c r="P37" s="44" t="s">
+      <c r="P37" s="18"/>
+      <c r="Q37" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="Q37" s="47" t="s">
+      <c r="R37" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="R37" s="35"/>
       <c r="S37" s="35"/>
-      <c r="T37" s="54"/>
-      <c r="U37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="54"/>
       <c r="V37" s="35"/>
       <c r="W37" s="35"/>
       <c r="X37" s="35"/>
       <c r="Y37" s="35"/>
       <c r="Z37" s="35"/>
-    </row>
-    <row r="38" spans="1:26" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA37" s="35"/>
+      <c r="AB37" s="35"/>
+    </row>
+    <row r="38" spans="1:28" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="40" t="s">
         <v>16</v>
       </c>
@@ -4360,29 +4505,31 @@
       <c r="M38" s="18"/>
       <c r="N38" s="18"/>
       <c r="O38" s="18"/>
-      <c r="P38" s="44" t="s">
+      <c r="P38" s="18"/>
+      <c r="Q38" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="Q38" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="R38" s="48" t="s">
+      <c r="R38" s="47" t="s">
         <v>2</v>
       </c>
       <c r="S38" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="T38" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="U38" s="48"/>
+      <c r="T38" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="U38" s="49" t="s">
+        <v>2</v>
+      </c>
       <c r="V38" s="48"/>
       <c r="W38" s="48"/>
       <c r="X38" s="48"/>
       <c r="Y38" s="48"/>
       <c r="Z38" s="48"/>
-    </row>
-    <row r="39" spans="1:26" ht="170" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA38" s="48"/>
+      <c r="AB38" s="48"/>
+    </row>
+    <row r="39" spans="1:28" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="40" t="s">
         <v>90</v>
       </c>
@@ -4410,29 +4557,31 @@
       <c r="M39" s="18"/>
       <c r="N39" s="18"/>
       <c r="O39" s="18"/>
-      <c r="P39" s="44" t="s">
+      <c r="P39" s="18"/>
+      <c r="Q39" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="Q39" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="R39" s="40" t="s">
+      <c r="R39" s="44" t="s">
         <v>17</v>
       </c>
       <c r="S39" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="T39" s="41" t="s">
+      <c r="T39" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="U39" s="40"/>
+      <c r="U39" s="41" t="s">
+        <v>17</v>
+      </c>
       <c r="V39" s="40"/>
       <c r="W39" s="40"/>
       <c r="X39" s="40"/>
       <c r="Y39" s="40"/>
       <c r="Z39" s="40"/>
-    </row>
-    <row r="40" spans="1:26" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA39" s="40"/>
+      <c r="AB39" s="40"/>
+    </row>
+    <row r="40" spans="1:28" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="40" t="s">
         <v>19</v>
       </c>
@@ -4464,29 +4613,31 @@
       <c r="M40" s="40"/>
       <c r="N40" s="40"/>
       <c r="O40" s="40"/>
-      <c r="P40" s="44" t="s">
+      <c r="P40" s="40"/>
+      <c r="Q40" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="Q40" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="R40" s="51" t="s">
+      <c r="R40" s="50" t="s">
         <v>2</v>
       </c>
       <c r="S40" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="T40" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="U40" s="51"/>
+      <c r="T40" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="U40" s="52" t="s">
+        <v>2</v>
+      </c>
       <c r="V40" s="51"/>
       <c r="W40" s="51"/>
       <c r="X40" s="51"/>
       <c r="Y40" s="51"/>
       <c r="Z40" s="51"/>
-    </row>
-    <row r="41" spans="1:26" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA40" s="51"/>
+      <c r="AB40" s="51"/>
+    </row>
+    <row r="41" spans="1:28" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="40" t="s">
         <v>21</v>
       </c>
@@ -4516,29 +4667,31 @@
       <c r="M41" s="40"/>
       <c r="N41" s="40"/>
       <c r="O41" s="40"/>
-      <c r="P41" s="44" t="s">
+      <c r="P41" s="40"/>
+      <c r="Q41" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="Q41" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="R41" s="40" t="s">
+      <c r="R41" s="44" t="s">
         <v>2</v>
       </c>
       <c r="S41" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="T41" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="U41" s="40"/>
+      <c r="T41" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="U41" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="V41" s="40"/>
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="40"/>
       <c r="Z41" s="40"/>
-    </row>
-    <row r="42" spans="1:26" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA41" s="40"/>
+      <c r="AB41" s="40"/>
+    </row>
+    <row r="42" spans="1:28" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="40" t="s">
         <v>40</v>
       </c>
@@ -4568,29 +4721,31 @@
       <c r="M42" s="40"/>
       <c r="N42" s="40"/>
       <c r="O42" s="40"/>
-      <c r="P42" s="44" t="s">
+      <c r="P42" s="40"/>
+      <c r="Q42" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="Q42" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="R42" s="40" t="s">
+      <c r="R42" s="44" t="s">
         <v>2</v>
       </c>
       <c r="S42" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="T42" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="U42" s="40"/>
+      <c r="T42" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="U42" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="V42" s="40"/>
       <c r="W42" s="40"/>
       <c r="X42" s="40"/>
       <c r="Y42" s="40"/>
       <c r="Z42" s="40"/>
-    </row>
-    <row r="43" spans="1:26" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA42" s="40"/>
+      <c r="AB42" s="40"/>
+    </row>
+    <row r="43" spans="1:28" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="40" t="s">
         <v>41</v>
       </c>
@@ -4620,29 +4775,31 @@
       <c r="M43" s="40"/>
       <c r="N43" s="40"/>
       <c r="O43" s="40"/>
-      <c r="P43" s="44" t="s">
+      <c r="P43" s="40"/>
+      <c r="Q43" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="R43" s="40" t="s">
+      <c r="R43" s="44" t="s">
         <v>2</v>
       </c>
       <c r="S43" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="T43" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="U43" s="40"/>
+      <c r="T43" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="U43" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="V43" s="40"/>
       <c r="W43" s="40"/>
       <c r="X43" s="40"/>
       <c r="Y43" s="40"/>
       <c r="Z43" s="40"/>
-    </row>
-    <row r="44" spans="1:26" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA43" s="40"/>
+      <c r="AB43" s="40"/>
+    </row>
+    <row r="44" spans="1:28" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="40" t="s">
         <v>42</v>
       </c>
@@ -4672,29 +4829,31 @@
       <c r="M44" s="40"/>
       <c r="N44" s="40"/>
       <c r="O44" s="40"/>
-      <c r="P44" s="44" t="s">
+      <c r="P44" s="40"/>
+      <c r="Q44" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="Q44" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="R44" s="40" t="s">
+      <c r="R44" s="44" t="s">
         <v>2</v>
       </c>
       <c r="S44" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="T44" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="U44" s="40"/>
+      <c r="T44" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="U44" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="V44" s="40"/>
       <c r="W44" s="40"/>
       <c r="X44" s="40"/>
       <c r="Y44" s="40"/>
       <c r="Z44" s="40"/>
-    </row>
-    <row r="45" spans="1:26" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA44" s="40"/>
+      <c r="AB44" s="40"/>
+    </row>
+    <row r="45" spans="1:28" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="40" t="s">
         <v>43</v>
       </c>
@@ -4724,29 +4883,31 @@
       <c r="M45" s="40"/>
       <c r="N45" s="40"/>
       <c r="O45" s="40"/>
-      <c r="P45" s="44" t="s">
+      <c r="P45" s="40"/>
+      <c r="Q45" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="Q45" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="R45" s="40" t="s">
+      <c r="R45" s="44" t="s">
         <v>2</v>
       </c>
       <c r="S45" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="T45" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="U45" s="40"/>
+      <c r="T45" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="U45" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="V45" s="40"/>
       <c r="W45" s="40"/>
       <c r="X45" s="40"/>
       <c r="Y45" s="40"/>
       <c r="Z45" s="40"/>
-    </row>
-    <row r="46" spans="1:26" ht="276" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA45" s="40"/>
+      <c r="AB45" s="40"/>
+    </row>
+    <row r="46" spans="1:28" ht="276" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>78</v>
       </c>
@@ -4790,37 +4951,43 @@
       <c r="O46" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="P46" s="8" t="s">
+      <c r="P46" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q46" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="6" t="s">
+      <c r="R46" s="20"/>
+      <c r="S46" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="S46" s="6" t="s">
+      <c r="T46" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="T46" s="32"/>
-      <c r="U46" s="6" t="s">
-        <v>210</v>
-      </c>
+      <c r="U46" s="32"/>
       <c r="V46" s="6" t="s">
         <v>210</v>
       </c>
       <c r="W46" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="X46" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="X46" s="6" t="s">
+      <c r="Y46" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Y46" s="6" t="s">
+      <c r="Z46" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Z46" s="6" t="s">
+      <c r="AA46" s="6" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" ht="102" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AB46" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>98</v>
       </c>
@@ -4848,29 +5015,31 @@
       <c r="M47" s="18"/>
       <c r="N47" s="18"/>
       <c r="O47" s="18"/>
-      <c r="P47" s="8" t="s">
+      <c r="P47" s="18"/>
+      <c r="Q47" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q47" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="R47" s="6" t="s">
+      <c r="R47" s="8" t="s">
         <v>2</v>
       </c>
       <c r="S47" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="T47" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="U47" s="6"/>
+      <c r="T47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U47" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="V47" s="6"/>
       <c r="W47" s="6"/>
       <c r="X47" s="6"/>
       <c r="Y47" s="6"/>
       <c r="Z47" s="6"/>
-    </row>
-    <row r="48" spans="1:26" ht="102" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+    </row>
+    <row r="48" spans="1:28" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>99</v>
       </c>
@@ -4898,29 +5067,31 @@
       <c r="M48" s="18"/>
       <c r="N48" s="18"/>
       <c r="O48" s="18"/>
-      <c r="P48" s="8" t="s">
+      <c r="P48" s="18"/>
+      <c r="Q48" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="R48" s="6" t="s">
+      <c r="R48" s="8" t="s">
         <v>2</v>
       </c>
       <c r="S48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="T48" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="U48" s="6"/>
+      <c r="T48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U48" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="V48" s="6"/>
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
-    </row>
-    <row r="49" spans="1:26" ht="227" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+    </row>
+    <row r="49" spans="1:28" ht="227" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>100</v>
       </c>
@@ -4964,37 +5135,43 @@
       <c r="O49" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="P49" s="8" t="s">
+      <c r="P49" s="61" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q49" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="6" t="s">
+      <c r="R49" s="20"/>
+      <c r="S49" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="S49" s="6" t="s">
+      <c r="T49" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="T49" s="32"/>
-      <c r="U49" s="6" t="s">
+      <c r="U49" s="32"/>
+      <c r="V49" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="V49" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="W49" s="6" t="s">
         <v>211</v>
       </c>
       <c r="X49" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y49" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="Y49" s="6" t="s">
+      <c r="Z49" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="Z49" s="6" t="s">
+      <c r="AA49" s="6" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" ht="119" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AB49" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>159</v>
       </c>
@@ -5022,29 +5199,31 @@
       <c r="M50" s="18"/>
       <c r="N50" s="18"/>
       <c r="O50" s="18"/>
-      <c r="P50" s="8" t="s">
+      <c r="P50" s="18"/>
+      <c r="Q50" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q50" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="R50" s="6" t="s">
+      <c r="R50" s="8" t="s">
         <v>2</v>
       </c>
       <c r="S50" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="T50" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="U50" s="6"/>
+      <c r="T50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U50" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="V50" s="6"/>
       <c r="W50" s="6"/>
       <c r="X50" s="6"/>
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
-    </row>
-    <row r="51" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="6"/>
+    </row>
+    <row r="51" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>101</v>
       </c>
@@ -5088,20 +5267,20 @@
       <c r="O51" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="P51" s="8" t="s">
+      <c r="P51" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q51" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="6" t="s">
+      <c r="R51" s="20"/>
+      <c r="S51" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="S51" s="6" t="s">
+      <c r="T51" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="T51" s="32"/>
-      <c r="U51" s="6" t="s">
-        <v>203</v>
-      </c>
+      <c r="U51" s="32"/>
       <c r="V51" s="6" t="s">
         <v>203</v>
       </c>
@@ -5117,8 +5296,14 @@
       <c r="Z51" s="6" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="52" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="AA51" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB51" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>102</v>
       </c>
@@ -5160,20 +5345,20 @@
       <c r="O52" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="P52" s="8" t="s">
+      <c r="P52" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q52" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="6" t="s">
+      <c r="R52" s="20"/>
+      <c r="S52" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="S52" s="6" t="s">
+      <c r="T52" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="T52" s="32"/>
-      <c r="U52" s="6" t="s">
-        <v>203</v>
-      </c>
+      <c r="U52" s="32"/>
       <c r="V52" s="6" t="s">
         <v>203</v>
       </c>
@@ -5189,8 +5374,14 @@
       <c r="Z52" s="6" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="53" spans="1:26" ht="238" x14ac:dyDescent="0.2">
+      <c r="AA52" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB52" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" ht="238" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>178</v>
       </c>
@@ -5234,26 +5425,26 @@
       <c r="O53" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="6" t="s">
-        <v>183</v>
-      </c>
+      <c r="P53" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="20"/>
       <c r="S53" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="T53" s="32"/>
-      <c r="U53" s="6" t="s">
+      <c r="T53" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="U53" s="32"/>
+      <c r="V53" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="V53" s="6" t="s">
+      <c r="W53" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="W53" s="6" t="s">
+      <c r="X53" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="X53" s="6" t="s">
-        <v>226</v>
       </c>
       <c r="Y53" s="6" t="s">
         <v>226</v>
@@ -5261,8 +5452,14 @@
       <c r="Z53" s="6" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="54" spans="1:26" ht="119" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA53" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="AB53" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>177</v>
       </c>
@@ -5290,29 +5487,31 @@
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
-      <c r="P54" s="8" t="s">
+      <c r="P54" s="6"/>
+      <c r="Q54" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q54" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="R54" s="6" t="s">
+      <c r="R54" s="8" t="s">
         <v>2</v>
       </c>
       <c r="S54" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="T54" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="U54" s="6"/>
+      <c r="T54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U54" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="V54" s="6"/>
       <c r="W54" s="6"/>
       <c r="X54" s="6"/>
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
-    </row>
-    <row r="55" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6"/>
+    </row>
+    <row r="55" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>10</v>
       </c>
@@ -5354,20 +5553,20 @@
       <c r="O55" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="P55" s="8" t="s">
+      <c r="P55" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q55" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="6" t="s">
+      <c r="R55" s="20"/>
+      <c r="S55" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="S55" s="6" t="s">
+      <c r="T55" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="T55" s="32"/>
-      <c r="U55" s="6" t="s">
-        <v>206</v>
-      </c>
+      <c r="U55" s="32"/>
       <c r="V55" s="6" t="s">
         <v>206</v>
       </c>
@@ -5383,8 +5582,14 @@
       <c r="Z55" s="6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="56" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA55" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB55" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>11</v>
       </c>
@@ -5410,29 +5615,31 @@
       <c r="M56" s="18"/>
       <c r="N56" s="18"/>
       <c r="O56" s="18"/>
-      <c r="P56" s="58" t="s">
+      <c r="P56" s="18"/>
+      <c r="Q56" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="Q56" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="R56" s="6" t="s">
+      <c r="R56" s="8" t="s">
         <v>2</v>
       </c>
       <c r="S56" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="T56" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="U56" s="6"/>
+      <c r="T56" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U56" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="V56" s="6"/>
       <c r="W56" s="6"/>
       <c r="X56" s="6"/>
       <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
-    </row>
-    <row r="57" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+    </row>
+    <row r="57" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>12</v>
       </c>
@@ -5458,29 +5665,31 @@
       <c r="M57" s="18"/>
       <c r="N57" s="18"/>
       <c r="O57" s="18"/>
-      <c r="P57" s="58" t="s">
+      <c r="P57" s="18"/>
+      <c r="Q57" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="Q57" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="R57" s="6" t="s">
+      <c r="R57" s="8" t="s">
         <v>2</v>
       </c>
       <c r="S57" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="T57" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="U57" s="6"/>
+      <c r="T57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U57" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="V57" s="6"/>
       <c r="W57" s="6"/>
       <c r="X57" s="6"/>
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
-    </row>
-    <row r="58" spans="1:26" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA57" s="6"/>
+      <c r="AB57" s="6"/>
+    </row>
+    <row r="58" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>13</v>
       </c>
@@ -5506,29 +5715,31 @@
       <c r="M58" s="18"/>
       <c r="N58" s="18"/>
       <c r="O58" s="18"/>
-      <c r="P58" s="58" t="s">
+      <c r="P58" s="18"/>
+      <c r="Q58" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="Q58" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="R58" s="6" t="s">
+      <c r="R58" s="8" t="s">
         <v>2</v>
       </c>
       <c r="S58" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="T58" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="U58" s="6"/>
+      <c r="T58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U58" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="V58" s="6"/>
       <c r="W58" s="6"/>
       <c r="X58" s="6"/>
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
-    </row>
-    <row r="59" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA58" s="6"/>
+      <c r="AB58" s="6"/>
+    </row>
+    <row r="59" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>84</v>
       </c>
@@ -5556,9 +5767,6 @@
       <c r="I59" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="P59" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="Q59" s="5" t="s">
         <v>84</v>
       </c>
@@ -5569,6 +5777,9 @@
         <v>84</v>
       </c>
       <c r="T59" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="U59" s="5" t="s">
         <v>84</v>
       </c>
     </row>

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF2CBBF-3084-5347-B09A-47700FC4ABF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD804AEA-1B4D-924D-B07F-536CA3B7999B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19560" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="params" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">params!$A$1:$U$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">params!$A$1:$W$59</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,10 +43,9 @@
   <authors>
     <author>tc={04385ABF-366F-F14D-B686-003B7FD6A102}</author>
     <author>tc={51F972CD-9F3E-FF43-98B5-159579D7B474}</author>
-    <author>tc={27AC355D-4290-8945-B347-C6E9119A89EA}</author>
   </authors>
   <commentList>
-    <comment ref="S14" authorId="0" shapeId="0" xr:uid="{04385ABF-366F-F14D-B686-003B7FD6A102}">
+    <comment ref="U14" authorId="0" shapeId="0" xr:uid="{04385ABF-366F-F14D-B686-003B7FD6A102}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,7 +53,7 @@
     This includes 13 prospective studies from different regions; 0.42 estimate was Kenya-specific but they have Europe, France specifically, and other African countries</t>
       </text>
     </comment>
-    <comment ref="R15" authorId="1" shapeId="0" xr:uid="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
+    <comment ref="T15" authorId="1" shapeId="0" xr:uid="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -62,20 +61,12 @@
     Update to WHO reference because this is actually a global estimate</t>
       </text>
     </comment>
-    <comment ref="H49" authorId="2" shapeId="0" xr:uid="{27AC355D-4290-8945-B347-C6E9119A89EA}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    CHECK WITH TODD RE: RATE (KEN)  VS. PROPORTION (SA); also testing</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="255">
   <si>
     <t>Parameter</t>
   </si>
@@ -415,9 +406,6 @@
   </si>
   <si>
     <t>Annual disengagement rate, suppressed</t>
-  </si>
-  <si>
-    <t>e.g., rate of 0.2 means people disengage after 5 years [1/0.2 = 5]</t>
   </si>
   <si>
     <t>Rate directly from data</t>
@@ -589,37 +577,6 @@
     <t>Varies by age; linear interpolation between spline points 
 Splines at 2003, 2008, 2014; linear interpolation
 South Africa: using 2003 DHS for 2008 and 2016 DHS for 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate parameter table using "get_engagement_disengagement_projection_and_param_table.R" 
-See country-specific notes and engagement_disengagement_projection.R in each parameter_mappings/country folder; logistic regression based on proportion starting ART in the past 12 months; forecasted for all years based on regressing by year
-(e.g., rate of 2 means people take 6 months to start ART (0.5 year); rate of 0.5 means people take two years) </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Generate parameter table using "get_testing_projection_and_param_table.R"
-See country-specific notes and  testing_projection.R in each parameter_mappings/country folder; logistic regression based on proportion receiving a test  in the past 12 months;  forecasted for all years and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>older age groups</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> based on regressing on age and year
-(e.g., rate of 2 means people tested twice a year; rate of 0.5 means tested every two years)</t>
-    </r>
   </si>
   <si>
     <t>Engagement rate SLOPE multiplier</t>
@@ -1157,11 +1114,6 @@
     <t>Annual suppression rate</t>
   </si>
   <si>
-    <t xml:space="preserve">Generate parameter table using "get_suppression_rebound_data.R" 
-See country-specific notes and suppression_rebound_rates.R in each parameter_mappings/country folder; logistic regression based on proportion virally suppressed 12 months after initiating ART; forecasted for all years based on regressing by year
-(e.g., rate of 2 means people take 6 months to become suppressed (0.5 year); rate of 0.5 means people take two years) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Varies by year (age/sex for South Africa) </t>
   </si>
   <si>
@@ -1557,6 +1509,262 @@
 SD of r3:r2 ratio = log(4)/2
 SD of r4:r3 ratio = log(4)/2</t>
     </r>
+  </si>
+  <si>
+    <t>UNAIDS remainder</t>
+  </si>
+  <si>
+    <t>Non-UNAIDS remainder</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trate.0 (1990) = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * trate.1
+Trate.1 (1997) = 1 * trate.2
+Trate.2 (2008) = 0.1
+Trate.3 (2018) = 1 * trate.2
+Trate.4 (2030) = 1 *  trate.3
+SD of r0:r1 ratio = log(4)/2
+SD of r1:r2 ratio = log(4)/2
+SD of r2 = log(4)/2
+SD of r3:r2 ratio = log(4)/2
+SD of r4:r3 ratio = log(4)/2</t>
+    </r>
+  </si>
+  <si>
+    <t>Using KENYA'S transmission multipliers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using KENYA'S testing data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using SOUTH AFRICA'S engagement data </t>
+  </si>
+  <si>
+    <t>Using KENYA'S suppression data</t>
+  </si>
+  <si>
+    <t>Using INDIA'S transmission multipliers - National Family Health Surveys 2005, 2015, 2019</t>
+  </si>
+  <si>
+    <t>India NFHS 2005, 2015, 2019</t>
+  </si>
+  <si>
+    <t>Using INDIA'S testing data - National Family Health Surveys 2015, 2019</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Generate parameter table using "get_testing_projection_and_param_table.R"
+See country-specific notes and  testing_projection.R in each parameter_mappings/country folder; logistic regression based on proportion receiving a test  in the past 12 months; forecasted for all years and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>older age groups</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> based on regressing on age and year;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">regression model gives proportion but </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>converted to a rate in the map.model.parameters code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(e.g., rate of 2 means people tested twice a year; rate of 0.5 means tested every two years)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Generate parameter table using "get_engagement_disengagement_projection_and_param_table.R" 
+See country-specific notes and engagement_disengagement_projection.R in each parameter_mappings/country folder; logistic regression based on proportion starting ART in the past 12 months; forecasted for all years based on regressing by year;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> regression model gives proportion but converted to a rate in the map.model.parameters code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(e.g., rate of 2 means people take 6 months to start ART (0.5 year); rate of 0.5 means people take two years) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">e.g., rate of 0.2 means people disengage after 5 years [1/0.2 = 5]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Literature reports proportion, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>converted to a rate in get.disengagement.model function; values reported here are the rates</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Generate parameter table using "get_suppression_rebound_data.R" 
+See country-specific notes and suppression_rebound_rates.R in each parameter_mappings/country folder; logistic regression based on proportion virally suppressed 12 months after initiating ART; forecasted for all years based on regressing by year; regression model gives proportion but </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>converted to a rate in the map.model.parameters code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(e.g., rate of 2 means people take 6 months to become suppressed (0.5 year); rate of 0.5 means people take two years) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kenya: Literature reports rate per 100 person months, converted to an annual rate in get.unsuppression.rate function
+SA: Literature reports probability,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> converted to rate in get.unsuppression.rate function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Values reported here are the rates</t>
+    </r>
+  </si>
+  <si>
+    <t>Blutinger et al 2014 (India): https://www.tandfonline.com/doi/full/10.1080/09540121.2014.934654
+Yehia et al, 2012 (US): https://journals.lww.com/aidsonline/FullText/2012/06010/Comparing_different_measures_of_retention_in.9.aspx</t>
+  </si>
+  <si>
+    <t>0.334341
+Mean of data from India and US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06238609
+Mean of data from India and US </t>
+  </si>
+  <si>
+    <t>Dinesha et al, 2024 (India): https://onlinelibrary.wiley.com/doi/full/10.1111/hiv.13641 
+Yehia et al, 2015 (US): https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0129376</t>
   </si>
 </sst>
 </file>
@@ -1830,7 +2038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2037,6 +2245,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2386,27 +2600,24 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="S14" dT="2025-01-22T18:42:38.64" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{04385ABF-366F-F14D-B686-003B7FD6A102}">
+  <threadedComment ref="U14" dT="2025-01-22T18:42:38.64" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{04385ABF-366F-F14D-B686-003B7FD6A102}">
     <text>This includes 13 prospective studies from different regions; 0.42 estimate was Kenya-specific but they have Europe, France specifically, and other African countries</text>
   </threadedComment>
-  <threadedComment ref="R15" dT="2025-01-22T18:20:02.26" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
+  <threadedComment ref="T15" dT="2025-01-22T18:20:02.26" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
     <text>Update to WHO reference because this is actually a global estimate</text>
-  </threadedComment>
-  <threadedComment ref="H49" dT="2025-03-26T15:43:17.15" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{27AC355D-4290-8945-B347-C6E9119A89EA}">
-    <text>CHECK WITH TODD RE: RATE (KEN)  VS. PROPORTION (SA); also testing</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B2D996-732D-784F-96EB-809CE760E324}">
-  <dimension ref="A1:AB59"/>
+  <dimension ref="A1:AF59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="Q53" sqref="Q53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2419,17 +2630,17 @@
     <col min="6" max="6" width="55" style="5" customWidth="1"/>
     <col min="7" max="8" width="53.5" style="5" customWidth="1"/>
     <col min="9" max="9" width="53.5" style="5" hidden="1" customWidth="1"/>
-    <col min="10" max="16" width="53.5" style="5" customWidth="1"/>
-    <col min="17" max="17" width="17" style="5" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="24" style="5" customWidth="1"/>
-    <col min="19" max="19" width="26" style="5" customWidth="1"/>
-    <col min="20" max="20" width="37.5" style="5" customWidth="1"/>
-    <col min="21" max="21" width="30.5" style="5" hidden="1" customWidth="1"/>
-    <col min="22" max="28" width="30.5" style="5" customWidth="1"/>
-    <col min="29" max="16384" width="10.83203125" style="5"/>
+    <col min="10" max="18" width="53.5" style="5" customWidth="1"/>
+    <col min="19" max="19" width="17" style="5" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="24" style="5" customWidth="1"/>
+    <col min="21" max="21" width="26" style="5" customWidth="1"/>
+    <col min="22" max="22" width="37.5" style="5" customWidth="1"/>
+    <col min="23" max="23" width="30.5" style="5" hidden="1" customWidth="1"/>
+    <col min="24" max="32" width="30.5" style="5" customWidth="1"/>
+    <col min="33" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -2458,24 +2669,28 @@
       <c r="N1" s="69"/>
       <c r="O1" s="69"/>
       <c r="P1" s="69"/>
-      <c r="Q1" s="69" t="s">
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="T1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="35"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="36"/>
       <c r="X1" s="60"/>
       <c r="Y1" s="60"/>
       <c r="Z1" s="60"/>
       <c r="AA1" s="60"/>
       <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
     </row>
-    <row r="2" spans="1:28" ht="30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" ht="60" x14ac:dyDescent="0.35">
       <c r="A2" s="37"/>
       <c r="B2" s="38"/>
       <c r="C2" s="39"/>
@@ -2494,62 +2709,74 @@
         <v>24</v>
       </c>
       <c r="J2" s="63" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K2" s="63" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L2" s="63" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M2" s="63" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="N2" s="63" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="O2" s="63" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P2" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q2" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="R2" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="S2" s="63"/>
+      <c r="T2" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="63" t="s">
+      <c r="U2" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="63" t="s">
+      <c r="V2" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="64" t="s">
+      <c r="W2" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="65" t="s">
-        <v>194</v>
-      </c>
-      <c r="W2" s="65" t="s">
-        <v>197</v>
-      </c>
       <c r="X2" s="65" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="Y2" s="65" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="Z2" s="65" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="AA2" s="65" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="AB2" s="65" t="s">
-        <v>234</v>
+        <v>218</v>
+      </c>
+      <c r="AC2" s="65" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD2" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE2" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF2" s="63" t="s">
+        <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="211" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="211" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>33</v>
       </c>
@@ -2557,67 +2784,75 @@
         <v>35</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="26" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="N3" s="25" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="O3" s="25" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="T3" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
+        <v>235</v>
+      </c>
+      <c r="Q3" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="R3" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="X3" s="25"/>
       <c r="Y3" s="25"/>
       <c r="Z3" s="25"/>
       <c r="AA3" s="25"/>
       <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
     </row>
-    <row r="4" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
@@ -2625,7 +2860,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
@@ -2644,32 +2879,36 @@
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
-      <c r="Q4" s="30" t="s">
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="S4" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="T4" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="U4" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
+      <c r="T4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="X4" s="25"/>
       <c r="Y4" s="25"/>
       <c r="Z4" s="25"/>
       <c r="AA4" s="25"/>
       <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
     </row>
-    <row r="5" spans="1:28" ht="272" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="272" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>35</v>
@@ -2681,79 +2920,89 @@
         <v>32</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H5" s="55" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I5" s="55" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J5" s="55" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K5" s="55" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L5" s="55" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M5" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="N5" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="O5" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="N5" s="55" t="s">
-        <v>229</v>
-      </c>
-      <c r="O5" s="55" t="s">
-        <v>232</v>
-      </c>
       <c r="P5" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q5" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q5" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="R5" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="S5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="20"/>
-      <c r="S5" s="27" t="s">
+      <c r="T5" s="20"/>
+      <c r="U5" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="T5" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="U5" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="V5" s="55" t="s">
-        <v>210</v>
-      </c>
-      <c r="W5" s="55" t="s">
-        <v>210</v>
+      <c r="V5" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="W5" s="29" t="s">
+        <v>185</v>
       </c>
       <c r="X5" s="55" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="Y5" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z5" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA5" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB5" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC5" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="Z5" s="55" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA5" s="55" t="s">
-        <v>232</v>
-      </c>
-      <c r="AB5" s="55" t="s">
-        <v>235</v>
+      <c r="AD5" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="55" t="s">
+        <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="85" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>35</v>
@@ -2769,71 +3018,83 @@
         <v>46</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L6" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P6" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q6" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q6" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="S6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="20"/>
-      <c r="S6" s="27" t="s">
+      <c r="T6" s="20"/>
+      <c r="U6" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="T6" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="U6" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="V6" s="55" t="s">
-        <v>230</v>
-      </c>
-      <c r="W6" s="55" t="s">
-        <v>230</v>
+      <c r="V6" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="W6" s="29" t="s">
+        <v>185</v>
       </c>
       <c r="X6" s="55" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Y6" s="55" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Z6" s="55" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AA6" s="55" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AB6" s="55" t="s">
-        <v>230</v>
+        <v>226</v>
+      </c>
+      <c r="AC6" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD6" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE6" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF6" s="55" t="s">
+        <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>67</v>
       </c>
@@ -2841,7 +3102,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>31</v>
@@ -2862,30 +3123,34 @@
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
-      <c r="Q7" s="30" t="s">
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="R7" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="S7" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="T7" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="U7" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
+      <c r="T7" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="W7" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="X7" s="25"/>
       <c r="Y7" s="25"/>
       <c r="Z7" s="25"/>
       <c r="AA7" s="25"/>
       <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="25"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="25"/>
     </row>
-    <row r="8" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>69</v>
       </c>
@@ -2893,7 +3158,7 @@
         <v>35</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>31</v>
@@ -2914,30 +3179,34 @@
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
       <c r="P8" s="18"/>
-      <c r="Q8" s="30" t="s">
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="S8" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="T8" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="U8" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
+      <c r="T8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="U8" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="W8" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="X8" s="25"/>
       <c r="Y8" s="25"/>
       <c r="Z8" s="25"/>
       <c r="AA8" s="25"/>
       <c r="AB8" s="25"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="25"/>
+      <c r="AE8" s="25"/>
+      <c r="AF8" s="25"/>
     </row>
-    <row r="9" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>68</v>
       </c>
@@ -2945,7 +3214,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>31</v>
@@ -2966,30 +3235,34 @@
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
-      <c r="Q9" s="30" t="s">
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="S9" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="T9" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="U9" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
+      <c r="T9" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="W9" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="X9" s="25"/>
       <c r="Y9" s="25"/>
       <c r="Z9" s="25"/>
       <c r="AA9" s="25"/>
       <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
     </row>
-    <row r="10" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>70</v>
       </c>
@@ -2997,7 +3270,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>31</v>
@@ -3018,30 +3291,34 @@
       <c r="N10" s="18"/>
       <c r="O10" s="18"/>
       <c r="P10" s="18"/>
-      <c r="Q10" s="30" t="s">
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="R10" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="S10" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="T10" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="U10" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
+      <c r="T10" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="U10" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="V10" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="W10" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="X10" s="25"/>
       <c r="Y10" s="25"/>
       <c r="Z10" s="25"/>
       <c r="AA10" s="25"/>
       <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="25"/>
+      <c r="AF10" s="25"/>
     </row>
-    <row r="11" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>6</v>
       </c>
@@ -3070,24 +3347,28 @@
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
       <c r="P11" s="18"/>
-      <c r="Q11" s="30" t="s">
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="R11" s="30" t="s">
+      <c r="T11" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="29"/>
       <c r="X11" s="25"/>
       <c r="Y11" s="25"/>
       <c r="Z11" s="25"/>
       <c r="AA11" s="25"/>
       <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="25"/>
     </row>
-    <row r="12" spans="1:28" ht="136" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="136" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>7</v>
       </c>
@@ -3101,19 +3382,19 @@
         <v>32</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F12" s="30" t="s">
         <v>49</v>
       </c>
       <c r="G12" s="59" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H12" s="27" t="s">
         <v>85</v>
       </c>
       <c r="I12" s="59" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J12" s="27" t="s">
         <v>85</v>
@@ -3136,42 +3417,54 @@
       <c r="P12" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="Q12" s="30" t="s">
+      <c r="Q12" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="R12" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="S12" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="R12" s="20"/>
-      <c r="S12" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="T12" s="27" t="s">
-        <v>193</v>
-      </c>
+      <c r="T12" s="20"/>
       <c r="U12" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="V12" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="W12" s="25" t="s">
-        <v>193</v>
+        <v>189</v>
+      </c>
+      <c r="V12" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="W12" s="27" t="s">
+        <v>188</v>
       </c>
       <c r="X12" s="25" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Y12" s="25" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Z12" s="25" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AA12" s="25" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AB12" s="25" t="s">
-        <v>193</v>
+        <v>189</v>
+      </c>
+      <c r="AC12" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD12" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE12" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF12" s="25" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>73</v>
       </c>
@@ -3179,7 +3472,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>31</v>
@@ -3200,30 +3493,34 @@
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
       <c r="P13" s="18"/>
-      <c r="Q13" s="30" t="s">
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="R13" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="S13" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="T13" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="U13" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
+      <c r="T13" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="U13" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="V13" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="W13" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="X13" s="25"/>
       <c r="Y13" s="25"/>
       <c r="Z13" s="25"/>
       <c r="AA13" s="25"/>
       <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
     </row>
-    <row r="14" spans="1:28" ht="85" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>75</v>
       </c>
@@ -3268,23 +3565,23 @@
       <c r="P14" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q14" s="30" t="s">
+      <c r="Q14" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="R14" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="S14" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R14" s="20"/>
-      <c r="S14" s="27" t="s">
+      <c r="T14" s="20"/>
+      <c r="U14" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="T14" s="27" t="s">
+      <c r="V14" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="U14" s="32"/>
-      <c r="V14" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="W14" s="25" t="s">
-        <v>61</v>
-      </c>
+      <c r="W14" s="32"/>
       <c r="X14" s="25" t="s">
         <v>61</v>
       </c>
@@ -3300,8 +3597,20 @@
       <c r="AB14" s="25" t="s">
         <v>61</v>
       </c>
+      <c r="AC14" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD14" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE14" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF14" s="25" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="15" spans="1:28" ht="102" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>77</v>
       </c>
@@ -3330,26 +3639,30 @@
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
       <c r="P15" s="18"/>
-      <c r="Q15" s="30" t="s">
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R15" s="30" t="s">
+      <c r="T15" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="S15" s="18" t="s">
+      <c r="U15" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="T15" s="18"/>
-      <c r="U15" s="19"/>
       <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
+      <c r="W15" s="19"/>
       <c r="X15" s="18"/>
       <c r="Y15" s="18"/>
       <c r="Z15" s="18"/>
       <c r="AA15" s="18"/>
       <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="18"/>
     </row>
-    <row r="16" spans="1:28" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
@@ -3357,16 +3670,16 @@
         <v>37</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -3378,38 +3691,42 @@
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
       <c r="P16" s="18"/>
-      <c r="Q16" s="13" t="s">
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="R16" s="13" t="s">
+      <c r="T16" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="19"/>
+      <c r="U16" s="18"/>
       <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
+      <c r="W16" s="19"/>
       <c r="X16" s="18"/>
       <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
       <c r="AA16" s="18"/>
       <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
     </row>
-    <row r="17" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>50</v>
@@ -3424,44 +3741,48 @@
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
       <c r="P17" s="18"/>
-      <c r="Q17" s="13" t="s">
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="R17" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S17" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="T17" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="U17" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
+      <c r="T17" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="U17" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="V17" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="W17" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
     </row>
-    <row r="18" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>50</v>
@@ -3476,44 +3797,48 @@
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
       <c r="P18" s="18"/>
-      <c r="Q18" s="13" t="s">
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="R18" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S18" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="T18" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="U18" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
+      <c r="T18" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="U18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="V18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="W18" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
     </row>
-    <row r="19" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>50</v>
@@ -3528,44 +3853,48 @@
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
       <c r="P19" s="18"/>
-      <c r="Q19" s="13" t="s">
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="R19" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S19" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="T19" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="U19" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
+      <c r="T19" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="U19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="V19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="W19" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="X19" s="10"/>
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
     </row>
-    <row r="20" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>50</v>
@@ -3580,44 +3909,48 @@
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
       <c r="P20" s="18"/>
-      <c r="Q20" s="13" t="s">
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S20" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="T20" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="U20" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
+      <c r="T20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="U20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="V20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="W20" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="X20" s="10"/>
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
       <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
     </row>
-    <row r="21" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>50</v>
@@ -3632,44 +3965,48 @@
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
       <c r="P21" s="18"/>
-      <c r="Q21" s="13" t="s">
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="R21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S21" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="T21" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="U21" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
+      <c r="T21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="U21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="V21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="W21" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="X21" s="10"/>
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
       <c r="AA21" s="10"/>
       <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
     </row>
-    <row r="22" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>50</v>
@@ -3684,44 +4021,48 @@
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
       <c r="P22" s="18"/>
-      <c r="Q22" s="13" t="s">
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S22" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="T22" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="U22" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
+      <c r="T22" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="U22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="W22" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="X22" s="10"/>
       <c r="Y22" s="10"/>
       <c r="Z22" s="10"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
     </row>
-    <row r="23" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>50</v>
@@ -3736,44 +4077,48 @@
       <c r="N23" s="18"/>
       <c r="O23" s="18"/>
       <c r="P23" s="18"/>
-      <c r="Q23" s="13" t="s">
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="R23" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S23" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="T23" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="U23" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
+      <c r="T23" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="U23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="V23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="W23" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="X23" s="10"/>
       <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
     </row>
-    <row r="24" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>50</v>
@@ -3788,44 +4133,48 @@
       <c r="N24" s="18"/>
       <c r="O24" s="18"/>
       <c r="P24" s="18"/>
-      <c r="Q24" s="13" t="s">
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="R24" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S24" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="T24" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="U24" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
+      <c r="T24" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="U24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="V24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="W24" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="X24" s="10"/>
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
     </row>
-    <row r="25" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>50</v>
@@ -3840,44 +4189,48 @@
       <c r="N25" s="18"/>
       <c r="O25" s="18"/>
       <c r="P25" s="18"/>
-      <c r="Q25" s="13" t="s">
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="R25" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S25" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="T25" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="U25" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
+      <c r="T25" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="U25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="V25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="W25" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
     </row>
-    <row r="26" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>50</v>
@@ -3892,44 +4245,48 @@
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
-      <c r="Q26" s="13" t="s">
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="R26" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S26" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="T26" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="U26" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
+      <c r="T26" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="U26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="V26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="W26" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="X26" s="10"/>
       <c r="Y26" s="10"/>
       <c r="Z26" s="10"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
     </row>
-    <row r="27" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>50</v>
@@ -3944,44 +4301,48 @@
       <c r="N27" s="18"/>
       <c r="O27" s="18"/>
       <c r="P27" s="18"/>
-      <c r="Q27" s="13" t="s">
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="R27" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S27" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="T27" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="U27" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
+      <c r="T27" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="U27" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="V27" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="W27" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
       <c r="AA27" s="10"/>
       <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
     </row>
-    <row r="28" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>50</v>
@@ -3996,30 +4357,34 @@
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
-      <c r="Q28" s="13" t="s">
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="R28" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S28" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="T28" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="U28" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
+      <c r="T28" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="V28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="W28" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="X28" s="10"/>
       <c r="Y28" s="10"/>
       <c r="Z28" s="10"/>
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
     </row>
-    <row r="29" spans="1:28" ht="102" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>89</v>
       </c>
@@ -4027,16 +4392,16 @@
         <v>38</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G29" s="14">
         <v>4.0579709999999998E-2</v>
@@ -4048,34 +4413,38 @@
         <v>5.3571430000000003E-2</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
-      <c r="Q29" s="16" t="s">
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="R29" s="16" t="s">
+      <c r="T29" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="15"/>
+      <c r="U29" s="14"/>
       <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
+      <c r="W29" s="15"/>
       <c r="X29" s="14"/>
       <c r="Y29" s="14"/>
       <c r="Z29" s="14"/>
       <c r="AA29" s="14"/>
       <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="14"/>
     </row>
-    <row r="30" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>14</v>
       </c>
@@ -4083,14 +4452,14 @@
         <v>38</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G30" s="14">
         <v>8.1250000000000003E-2</v>
@@ -4102,34 +4471,38 @@
         <v>2.272727E-3</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
       <c r="P30" s="14"/>
-      <c r="Q30" s="16" t="s">
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="R30" s="16" t="s">
+      <c r="T30" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="15"/>
+      <c r="U30" s="14"/>
       <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
+      <c r="W30" s="15"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
       <c r="Z30" s="14"/>
       <c r="AA30" s="14"/>
       <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
     </row>
-    <row r="31" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>15</v>
       </c>
@@ -4137,14 +4510,14 @@
         <v>38</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G31" s="14">
         <v>0.02</v>
@@ -4156,49 +4529,53 @@
         <v>3.9473679999999997E-3</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
-      <c r="Q31" s="16" t="s">
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="R31" s="16" t="s">
+      <c r="T31" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="15"/>
+      <c r="U31" s="14"/>
       <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
+      <c r="W31" s="15"/>
       <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
       <c r="AA31" s="14"/>
       <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
     </row>
-    <row r="32" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
@@ -4210,45 +4587,49 @@
       <c r="N32" s="18"/>
       <c r="O32" s="18"/>
       <c r="P32" s="18"/>
-      <c r="Q32" s="16" t="s">
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="R32" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="S32" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="T32" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="U32" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
+      <c r="T32" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="V32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="W32" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="X32" s="14"/>
       <c r="Y32" s="14"/>
       <c r="Z32" s="14"/>
       <c r="AA32" s="14"/>
       <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
     </row>
-    <row r="33" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
@@ -4260,45 +4641,49 @@
       <c r="N33" s="18"/>
       <c r="O33" s="18"/>
       <c r="P33" s="18"/>
-      <c r="Q33" s="16" t="s">
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="R33" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="S33" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="T33" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
+      <c r="T33" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="V33" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="W33" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="X33" s="14"/>
       <c r="Y33" s="14"/>
       <c r="Z33" s="14"/>
       <c r="AA33" s="14"/>
       <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="14"/>
     </row>
-    <row r="34" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
@@ -4310,38 +4695,42 @@
       <c r="N34" s="18"/>
       <c r="O34" s="18"/>
       <c r="P34" s="18"/>
-      <c r="Q34" s="16" t="s">
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="R34" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="S34" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="T34" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="U34" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
+      <c r="T34" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="V34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="W34" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="X34" s="14"/>
       <c r="Y34" s="14"/>
       <c r="Z34" s="14"/>
       <c r="AA34" s="14"/>
       <c r="AB34" s="14"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="14"/>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="14"/>
     </row>
-    <row r="35" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>31</v>
@@ -4360,38 +4749,42 @@
       <c r="N35" s="18"/>
       <c r="O35" s="18"/>
       <c r="P35" s="18"/>
-      <c r="Q35" s="16" t="s">
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="R35" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="S35" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="T35" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="U35" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V35" s="14"/>
-      <c r="W35" s="14"/>
+      <c r="T35" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U35" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="V35" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="W35" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="X35" s="14"/>
       <c r="Y35" s="14"/>
       <c r="Z35" s="14"/>
       <c r="AA35" s="14"/>
       <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="14"/>
     </row>
-    <row r="36" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>31</v>
@@ -4410,45 +4803,49 @@
       <c r="N36" s="18"/>
       <c r="O36" s="18"/>
       <c r="P36" s="18"/>
-      <c r="Q36" s="16" t="s">
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="R36" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="S36" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="T36" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="U36" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V36" s="14"/>
-      <c r="W36" s="14"/>
+      <c r="T36" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U36" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="V36" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="W36" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="X36" s="14"/>
       <c r="Y36" s="14"/>
       <c r="Z36" s="14"/>
       <c r="AA36" s="14"/>
       <c r="AB36" s="14"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="14"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="14"/>
     </row>
-    <row r="37" spans="1:28" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B37" s="41" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D37" s="43"/>
       <c r="E37" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="40" t="s">
         <v>105</v>
-      </c>
-      <c r="F37" s="40" t="s">
-        <v>106</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
@@ -4460,24 +4857,28 @@
       <c r="N37" s="18"/>
       <c r="O37" s="18"/>
       <c r="P37" s="18"/>
-      <c r="Q37" s="44" t="s">
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="R37" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="54"/>
+      <c r="T37" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="U37" s="35"/>
       <c r="V37" s="35"/>
-      <c r="W37" s="35"/>
+      <c r="W37" s="54"/>
       <c r="X37" s="35"/>
       <c r="Y37" s="35"/>
       <c r="Z37" s="35"/>
       <c r="AA37" s="35"/>
       <c r="AB37" s="35"/>
+      <c r="AC37" s="35"/>
+      <c r="AD37" s="35"/>
+      <c r="AE37" s="35"/>
+      <c r="AF37" s="35"/>
     </row>
-    <row r="38" spans="1:28" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="40" t="s">
         <v>16</v>
       </c>
@@ -4485,13 +4886,13 @@
         <v>39</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D38" s="43" t="s">
         <v>31</v>
       </c>
       <c r="E38" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F38" s="40" t="s">
         <v>55</v>
@@ -4506,30 +4907,34 @@
       <c r="N38" s="18"/>
       <c r="O38" s="18"/>
       <c r="P38" s="18"/>
-      <c r="Q38" s="44" t="s">
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="R38" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="S38" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="T38" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="U38" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="V38" s="48"/>
-      <c r="W38" s="48"/>
+      <c r="T38" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="U38" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="V38" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="W38" s="49" t="s">
+        <v>2</v>
+      </c>
       <c r="X38" s="48"/>
       <c r="Y38" s="48"/>
       <c r="Z38" s="48"/>
       <c r="AA38" s="48"/>
       <c r="AB38" s="48"/>
+      <c r="AC38" s="48"/>
+      <c r="AD38" s="48"/>
+      <c r="AE38" s="48"/>
+      <c r="AF38" s="48"/>
     </row>
-    <row r="39" spans="1:28" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="40" t="s">
         <v>90</v>
       </c>
@@ -4537,7 +4942,7 @@
         <v>39</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" s="43" t="s">
         <v>32</v>
@@ -4558,30 +4963,34 @@
       <c r="N39" s="18"/>
       <c r="O39" s="18"/>
       <c r="P39" s="18"/>
-      <c r="Q39" s="44" t="s">
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="R39" s="44" t="s">
+      <c r="T39" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="S39" s="40" t="s">
+      <c r="U39" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="T39" s="40" t="s">
+      <c r="V39" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="U39" s="41" t="s">
+      <c r="W39" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="V39" s="40"/>
-      <c r="W39" s="40"/>
       <c r="X39" s="40"/>
       <c r="Y39" s="40"/>
       <c r="Z39" s="40"/>
       <c r="AA39" s="40"/>
       <c r="AB39" s="40"/>
+      <c r="AC39" s="40"/>
+      <c r="AD39" s="40"/>
+      <c r="AE39" s="40"/>
+      <c r="AF39" s="40"/>
     </row>
-    <row r="40" spans="1:28" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="40" t="s">
         <v>19</v>
       </c>
@@ -4589,7 +4998,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D40" s="43" t="s">
         <v>31</v>
@@ -4614,30 +5023,34 @@
       <c r="N40" s="40"/>
       <c r="O40" s="40"/>
       <c r="P40" s="40"/>
-      <c r="Q40" s="44" t="s">
+      <c r="Q40" s="40"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="R40" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="S40" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="T40" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="U40" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="V40" s="51"/>
-      <c r="W40" s="51"/>
+      <c r="T40" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="U40" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="V40" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="W40" s="52" t="s">
+        <v>2</v>
+      </c>
       <c r="X40" s="51"/>
       <c r="Y40" s="51"/>
       <c r="Z40" s="51"/>
       <c r="AA40" s="51"/>
       <c r="AB40" s="51"/>
+      <c r="AC40" s="51"/>
+      <c r="AD40" s="51"/>
+      <c r="AE40" s="51"/>
+      <c r="AF40" s="51"/>
     </row>
-    <row r="41" spans="1:28" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="40" t="s">
         <v>21</v>
       </c>
@@ -4645,7 +5058,7 @@
         <v>39</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D41" s="43" t="s">
         <v>31</v>
@@ -4668,30 +5081,34 @@
       <c r="N41" s="40"/>
       <c r="O41" s="40"/>
       <c r="P41" s="40"/>
-      <c r="Q41" s="44" t="s">
+      <c r="Q41" s="40"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="R41" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="S41" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="T41" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="U41" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="V41" s="40"/>
-      <c r="W41" s="40"/>
+      <c r="T41" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="U41" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="V41" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="W41" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="X41" s="40"/>
       <c r="Y41" s="40"/>
       <c r="Z41" s="40"/>
       <c r="AA41" s="40"/>
       <c r="AB41" s="40"/>
+      <c r="AC41" s="40"/>
+      <c r="AD41" s="40"/>
+      <c r="AE41" s="40"/>
+      <c r="AF41" s="40"/>
     </row>
-    <row r="42" spans="1:28" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="40" t="s">
         <v>40</v>
       </c>
@@ -4699,7 +5116,7 @@
         <v>39</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D42" s="43" t="s">
         <v>31</v>
@@ -4722,30 +5139,34 @@
       <c r="N42" s="40"/>
       <c r="O42" s="40"/>
       <c r="P42" s="40"/>
-      <c r="Q42" s="44" t="s">
+      <c r="Q42" s="40"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="R42" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="S42" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="T42" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="U42" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="V42" s="40"/>
-      <c r="W42" s="40"/>
+      <c r="T42" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="U42" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="V42" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="W42" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="X42" s="40"/>
       <c r="Y42" s="40"/>
       <c r="Z42" s="40"/>
       <c r="AA42" s="40"/>
       <c r="AB42" s="40"/>
+      <c r="AC42" s="40"/>
+      <c r="AD42" s="40"/>
+      <c r="AE42" s="40"/>
+      <c r="AF42" s="40"/>
     </row>
-    <row r="43" spans="1:28" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="40" t="s">
         <v>41</v>
       </c>
@@ -4753,7 +5174,7 @@
         <v>39</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D43" s="43" t="s">
         <v>31</v>
@@ -4776,30 +5197,34 @@
       <c r="N43" s="40"/>
       <c r="O43" s="40"/>
       <c r="P43" s="40"/>
-      <c r="Q43" s="44" t="s">
+      <c r="Q43" s="40"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="S43" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="T43" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="U43" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="V43" s="40"/>
-      <c r="W43" s="40"/>
+      <c r="T43" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="U43" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="V43" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="W43" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="X43" s="40"/>
       <c r="Y43" s="40"/>
       <c r="Z43" s="40"/>
       <c r="AA43" s="40"/>
       <c r="AB43" s="40"/>
+      <c r="AC43" s="40"/>
+      <c r="AD43" s="40"/>
+      <c r="AE43" s="40"/>
+      <c r="AF43" s="40"/>
     </row>
-    <row r="44" spans="1:28" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="40" t="s">
         <v>42</v>
       </c>
@@ -4807,7 +5232,7 @@
         <v>39</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D44" s="43" t="s">
         <v>31</v>
@@ -4830,30 +5255,34 @@
       <c r="N44" s="40"/>
       <c r="O44" s="40"/>
       <c r="P44" s="40"/>
-      <c r="Q44" s="44" t="s">
+      <c r="Q44" s="40"/>
+      <c r="R44" s="40"/>
+      <c r="S44" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="R44" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="S44" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="T44" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="U44" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="V44" s="40"/>
-      <c r="W44" s="40"/>
+      <c r="T44" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="U44" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="V44" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="W44" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="X44" s="40"/>
       <c r="Y44" s="40"/>
       <c r="Z44" s="40"/>
       <c r="AA44" s="40"/>
       <c r="AB44" s="40"/>
+      <c r="AC44" s="40"/>
+      <c r="AD44" s="40"/>
+      <c r="AE44" s="40"/>
+      <c r="AF44" s="40"/>
     </row>
-    <row r="45" spans="1:28" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="40" t="s">
         <v>43</v>
       </c>
@@ -4861,7 +5290,7 @@
         <v>39</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D45" s="43" t="s">
         <v>31</v>
@@ -4874,7 +5303,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="45" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I45" s="40"/>
       <c r="J45" s="40"/>
@@ -4884,30 +5313,34 @@
       <c r="N45" s="40"/>
       <c r="O45" s="40"/>
       <c r="P45" s="40"/>
-      <c r="Q45" s="44" t="s">
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="R45" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="S45" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="T45" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="U45" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="V45" s="40"/>
-      <c r="W45" s="40"/>
+      <c r="T45" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="U45" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="V45" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="W45" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="X45" s="40"/>
       <c r="Y45" s="40"/>
       <c r="Z45" s="40"/>
       <c r="AA45" s="40"/>
       <c r="AB45" s="40"/>
+      <c r="AC45" s="40"/>
+      <c r="AD45" s="40"/>
+      <c r="AE45" s="40"/>
+      <c r="AF45" s="40"/>
     </row>
-    <row r="46" spans="1:28" ht="276" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" ht="276" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>78</v>
       </c>
@@ -4921,73 +5354,83 @@
         <v>32</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>158</v>
+        <v>246</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>86</v>
       </c>
       <c r="G46" s="56" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H46" s="56" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I46" s="31"/>
       <c r="J46" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q46" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q46" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="R46" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="S46" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="R46" s="20"/>
-      <c r="S46" s="6" t="s">
+      <c r="T46" s="20"/>
+      <c r="U46" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="V46" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="T46" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="U46" s="32"/>
-      <c r="V46" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="W46" s="6" t="s">
-        <v>210</v>
-      </c>
+      <c r="W46" s="32"/>
       <c r="X46" s="6" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="Y46" s="6" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="Z46" s="6" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="AA46" s="6" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>235</v>
+        <v>225</v>
+      </c>
+      <c r="AC46" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD46" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE46" s="6"/>
+      <c r="AF46" s="6" t="s">
+        <v>244</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>98</v>
       </c>
@@ -4995,13 +5438,13 @@
         <v>36</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>53</v>
@@ -5016,30 +5459,34 @@
       <c r="N47" s="18"/>
       <c r="O47" s="18"/>
       <c r="P47" s="18"/>
-      <c r="Q47" s="8" t="s">
+      <c r="Q47" s="31"/>
+      <c r="R47" s="18"/>
+      <c r="S47" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R47" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="S47" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="T47" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="U47" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="V47" s="6"/>
-      <c r="W47" s="6"/>
+      <c r="T47" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="U47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W47" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="X47" s="6"/>
       <c r="Y47" s="6"/>
       <c r="Z47" s="6"/>
       <c r="AA47" s="6"/>
       <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="6"/>
+      <c r="AF47" s="6"/>
     </row>
-    <row r="48" spans="1:28" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>99</v>
       </c>
@@ -5047,13 +5494,13 @@
         <v>36</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>53</v>
@@ -5068,30 +5515,34 @@
       <c r="N48" s="18"/>
       <c r="O48" s="18"/>
       <c r="P48" s="18"/>
-      <c r="Q48" s="8" t="s">
+      <c r="Q48" s="31"/>
+      <c r="R48" s="18"/>
+      <c r="S48" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R48" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="S48" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="T48" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="U48" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
+      <c r="T48" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="U48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W48" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="X48" s="6"/>
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
       <c r="AA48" s="6"/>
       <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="6"/>
     </row>
-    <row r="49" spans="1:28" ht="227" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" ht="227" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>100</v>
       </c>
@@ -5105,90 +5556,98 @@
         <v>32</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>157</v>
+        <v>247</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G49" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="H49" s="56" t="s">
         <v>216</v>
-      </c>
-      <c r="H49" s="56" t="s">
-        <v>220</v>
       </c>
       <c r="I49" s="31"/>
       <c r="J49" s="61" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K49" s="61" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L49" s="61" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M49" s="61" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="N49" s="61" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O49" s="61" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P49" s="61" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q49" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q49" s="70" t="s">
+        <v>241</v>
+      </c>
+      <c r="R49" s="70" t="s">
+        <v>241</v>
+      </c>
+      <c r="S49" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="20"/>
-      <c r="S49" s="6" t="s">
+      <c r="T49" s="20"/>
+      <c r="U49" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="T49" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="U49" s="32"/>
       <c r="V49" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="W49" s="6" t="s">
-        <v>211</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="W49" s="32"/>
       <c r="X49" s="6" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="Y49" s="6" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="Z49" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AA49" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AB49" s="6" t="s">
-        <v>236</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="AC49" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD49" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="AE49" s="6"/>
+      <c r="AF49" s="6"/>
     </row>
-    <row r="50" spans="1:28" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G50" s="18"/>
       <c r="H50" s="53"/>
@@ -5200,30 +5659,34 @@
       <c r="N50" s="18"/>
       <c r="O50" s="18"/>
       <c r="P50" s="18"/>
-      <c r="Q50" s="8" t="s">
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R50" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="S50" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="T50" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="U50" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
+      <c r="T50" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="U50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W50" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="X50" s="6"/>
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
       <c r="AB50" s="6"/>
+      <c r="AC50" s="6"/>
+      <c r="AD50" s="6"/>
+      <c r="AE50" s="6"/>
+      <c r="AF50" s="6"/>
     </row>
-    <row r="51" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:32" ht="153" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>101</v>
       </c>
@@ -5231,13 +5694,13 @@
         <v>36</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>103</v>
+        <v>248</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>87</v>
@@ -5250,60 +5713,70 @@
       </c>
       <c r="I51" s="31"/>
       <c r="J51" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q51" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q51" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="R51" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="S51" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R51" s="20"/>
-      <c r="S51" s="6" t="s">
+      <c r="T51" s="20"/>
+      <c r="U51" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="T51" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="U51" s="32"/>
       <c r="V51" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="W51" s="6" t="s">
-        <v>203</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="W51" s="32"/>
       <c r="X51" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Y51" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Z51" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AA51" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
+      </c>
+      <c r="AC51" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD51" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE51" s="6"/>
+      <c r="AF51" s="6" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:32" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>102</v>
       </c>
@@ -5311,12 +5784,14 @@
         <v>36</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="7"/>
+      <c r="E52" s="7" t="s">
+        <v>226</v>
+      </c>
       <c r="F52" s="6" t="s">
         <v>87</v>
       </c>
@@ -5328,62 +5803,70 @@
       </c>
       <c r="I52" s="31"/>
       <c r="J52" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q52" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q52" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="R52" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="S52" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R52" s="20"/>
-      <c r="S52" s="6" t="s">
+      <c r="T52" s="20"/>
+      <c r="U52" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="T52" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="U52" s="32"/>
       <c r="V52" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="W52" s="6" t="s">
-        <v>203</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="W52" s="32"/>
       <c r="X52" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Y52" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Z52" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AA52" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>203</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="AC52" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD52" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE52" s="6"/>
+      <c r="AF52" s="6"/>
     </row>
-    <row r="53" spans="1:28" ht="238" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" ht="272" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>36</v>
@@ -5395,88 +5878,96 @@
         <v>32</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>179</v>
+        <v>249</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G53" s="56" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H53" s="56" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I53" s="31"/>
       <c r="J53" s="6" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K53" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q53" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="R53" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="S53" s="8"/>
+      <c r="T53" s="20"/>
+      <c r="U53" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V53" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="W53" s="32"/>
+      <c r="X53" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y53" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z53" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="L53" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="N53" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="O53" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="P53" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="20"/>
-      <c r="S53" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="T53" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="U53" s="32"/>
-      <c r="V53" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="W53" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="X53" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y53" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z53" s="6" t="s">
-        <v>226</v>
-      </c>
       <c r="AA53" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AB53" s="6" t="s">
-        <v>237</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="AC53" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD53" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="AE53" s="6"/>
+      <c r="AF53" s="6"/>
     </row>
-    <row r="54" spans="1:28" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G54" s="18"/>
       <c r="H54" s="53"/>
@@ -5488,30 +5979,34 @@
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
-      <c r="Q54" s="8" t="s">
+      <c r="Q54" s="31"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R54" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="S54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="T54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="U54" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="V54" s="6"/>
-      <c r="W54" s="6"/>
+      <c r="T54" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="U54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W54" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="X54" s="6"/>
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="6"/>
       <c r="AB54" s="6"/>
+      <c r="AC54" s="6"/>
+      <c r="AD54" s="6"/>
+      <c r="AE54" s="6"/>
+      <c r="AF54" s="6"/>
     </row>
-    <row r="55" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" ht="136" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>10</v>
       </c>
@@ -5519,12 +6014,14 @@
         <v>36</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="7"/>
+      <c r="E55" s="7" t="s">
+        <v>250</v>
+      </c>
       <c r="F55" s="6" t="s">
         <v>87</v>
       </c>
@@ -5536,60 +6033,70 @@
       </c>
       <c r="I55" s="31"/>
       <c r="J55" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q55" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q55" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="R55" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="S55" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R55" s="20"/>
-      <c r="S55" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="T55" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="U55" s="32"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="6" t="s">
+        <v>181</v>
+      </c>
       <c r="V55" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="W55" s="6" t="s">
-        <v>206</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="W55" s="32"/>
       <c r="X55" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y55" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Z55" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AA55" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
+      </c>
+      <c r="AC55" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD55" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE55" s="6"/>
+      <c r="AF55" s="6" t="s">
+        <v>254</v>
       </c>
     </row>
-    <row r="56" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>11</v>
       </c>
@@ -5597,7 +6104,7 @@
         <v>36</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>31</v>
@@ -5616,30 +6123,34 @@
       <c r="N56" s="18"/>
       <c r="O56" s="18"/>
       <c r="P56" s="18"/>
-      <c r="Q56" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="R56" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="S56" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="T56" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="U56" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="V56" s="6"/>
-      <c r="W56" s="6"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="T56" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="U56" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V56" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W56" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="X56" s="6"/>
       <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
       <c r="AA56" s="6"/>
       <c r="AB56" s="6"/>
+      <c r="AC56" s="6"/>
+      <c r="AD56" s="6"/>
+      <c r="AE56" s="6"/>
+      <c r="AF56" s="6"/>
     </row>
-    <row r="57" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>12</v>
       </c>
@@ -5647,7 +6158,7 @@
         <v>36</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>31</v>
@@ -5666,30 +6177,34 @@
       <c r="N57" s="18"/>
       <c r="O57" s="18"/>
       <c r="P57" s="18"/>
-      <c r="Q57" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="R57" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="S57" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="T57" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="U57" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="V57" s="6"/>
-      <c r="W57" s="6"/>
+      <c r="Q57" s="18"/>
+      <c r="R57" s="18"/>
+      <c r="S57" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="T57" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="U57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W57" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="X57" s="6"/>
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
       <c r="AA57" s="6"/>
       <c r="AB57" s="6"/>
+      <c r="AC57" s="6"/>
+      <c r="AD57" s="6"/>
+      <c r="AE57" s="6"/>
+      <c r="AF57" s="6"/>
     </row>
-    <row r="58" spans="1:28" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>13</v>
       </c>
@@ -5697,7 +6212,7 @@
         <v>36</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>31</v>
@@ -5716,30 +6231,34 @@
       <c r="N58" s="18"/>
       <c r="O58" s="18"/>
       <c r="P58" s="18"/>
-      <c r="Q58" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="R58" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="S58" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="T58" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="U58" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="T58" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="U58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W58" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="X58" s="6"/>
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="6"/>
       <c r="AB58" s="6"/>
+      <c r="AC58" s="6"/>
+      <c r="AD58" s="6"/>
+      <c r="AE58" s="6"/>
+      <c r="AF58" s="6"/>
     </row>
-    <row r="59" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>84</v>
       </c>
@@ -5767,12 +6286,6 @@
       <c r="I59" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Q59" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="R59" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="S59" s="5" t="s">
         <v>84</v>
       </c>
@@ -5780,6 +6293,12 @@
         <v>84</v>
       </c>
       <c r="U59" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="V59" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="W59" s="5" t="s">
         <v>84</v>
       </c>
     </row>

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD804AEA-1B4D-924D-B07F-536CA3B7999B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287D7D8A-11E1-8C43-AC30-7B9C05210607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19560" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="263">
   <si>
     <t>Parameter</t>
   </si>
@@ -1550,19 +1550,7 @@
     </r>
   </si>
   <si>
-    <t>Using KENYA'S transmission multipliers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using KENYA'S testing data </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using SOUTH AFRICA'S engagement data </t>
-  </si>
-  <si>
     <t>Using KENYA'S suppression data</t>
-  </si>
-  <si>
-    <t>Using INDIA'S transmission multipliers - National Family Health Surveys 2005, 2015, 2019</t>
   </si>
   <si>
     <t>India NFHS 2005, 2015, 2019</t>
@@ -1765,6 +1753,181 @@
   <si>
     <t>Dinesha et al, 2024 (India): https://onlinelibrary.wiley.com/doi/full/10.1111/hiv.13641 
 Yehia et al, 2015 (US): https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0129376</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Using INDIA'S transmission multipliers - National Family Health Surveys 2005, 2015, 2019
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>STILL USING SA DATA FOR OLDER AGES</t>
+    </r>
+  </si>
+  <si>
+    <t>Estimate from India, 67.3% initiate ART within 3 months (--&gt; 0.9885662 within one year), Alvarez-Uria et al, 2013:
+https://onlinelibrary.wiley.com/doi/10.1155/2013/384805</t>
+  </si>
+  <si>
+    <t>Alvarez-Uria et al, 2013:
+https://onlinelibrary.wiley.com/doi/10.1155/2013/384805"</t>
+  </si>
+  <si>
+    <t>Estimate from India, 81.8% suppressed within 6 months (--&gt; 0.966876 within one year), Alvarez-Uria et al, 2013:
+https://onlinelibrary.wiley.com/doi/10.1155/2013/384805</t>
+  </si>
+  <si>
+    <t>Using KENYA'S testing data 
+DHS surveys from Ehtiopia, DRC, Cote d'Ivoire, Ghana; which represent ~19% of these remainder countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use Global estimate of engagement from AIDSinfo data
+Using SOUTH AFRICA'S engagement data </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>ALLISON LOOK UP FOR ETHIOPIA, INDONESIA, AND DRC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (from de Oliveira)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Get from JHEEM </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(from de Oliveira)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>UPDATE TO SOME AVERAGE FROM THIS PAPER</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.42
+Logitnormal
+Begins at this value in 1990, interpolates to birth.transmission.risk.1 from 1990-2020</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>UPDATE TO NYC ESTIMATE FROM THIS PAPER - 0.249</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0.42
+Logitnormal
+Begins at this value in 1990, interpolates to birth.transmission.risk.1 from 1990-2020</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DHS surveys from Ehtiopia, DRC, Cote d'Ivoire, Ghana; which represent ~19% of these remainder countries
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>STILL USING SA DATA FOR OLDER AGES</t>
+    </r>
+  </si>
+  <si>
+    <t>Ethiopia, DRC, CI, Ghana DHS surveys</t>
   </si>
 </sst>
 </file>
@@ -2614,10 +2777,10 @@
   <dimension ref="A1:AF59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="M29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q53" sqref="Q53"/>
+      <selection pane="bottomRight" activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2955,11 +3118,11 @@
       <c r="P5" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="Q5" s="71" t="s">
-        <v>239</v>
+      <c r="Q5" s="55" t="s">
+        <v>261</v>
       </c>
       <c r="R5" s="55" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="S5" s="30" t="s">
         <v>5</v>
@@ -2995,9 +3158,11 @@
       <c r="AD5" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="AE5" s="55"/>
+      <c r="AE5" s="55" t="s">
+        <v>262</v>
+      </c>
       <c r="AF5" s="55" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="85" x14ac:dyDescent="0.2">
@@ -3047,8 +3212,8 @@
       <c r="P6" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="Q6" s="71" t="s">
-        <v>239</v>
+      <c r="Q6" s="27" t="s">
+        <v>151</v>
       </c>
       <c r="R6" s="27" t="s">
         <v>151</v>
@@ -3417,11 +3582,11 @@
       <c r="P12" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="Q12" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="R12" s="27" t="s">
-        <v>85</v>
+      <c r="Q12" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="R12" s="71" t="s">
+        <v>258</v>
       </c>
       <c r="S12" s="30" t="s">
         <v>5</v>
@@ -3493,8 +3658,8 @@
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
       <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
       <c r="S13" s="30" t="s">
         <v>8</v>
       </c>
@@ -3565,11 +3730,11 @@
       <c r="P14" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q14" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="R14" s="27" t="s">
-        <v>51</v>
+      <c r="Q14" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="R14" s="71" t="s">
+        <v>260</v>
       </c>
       <c r="S14" s="30" t="s">
         <v>9</v>
@@ -5354,7 +5519,7 @@
         <v>32</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>86</v>
@@ -5388,10 +5553,10 @@
         <v>231</v>
       </c>
       <c r="Q46" s="31" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="R46" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="S46" s="8" t="s">
         <v>5</v>
@@ -5427,7 +5592,7 @@
       </c>
       <c r="AE46" s="6"/>
       <c r="AF46" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="102" hidden="1" x14ac:dyDescent="0.2">
@@ -5556,7 +5721,7 @@
         <v>32</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>176</v>
@@ -5590,10 +5755,10 @@
         <v>232</v>
       </c>
       <c r="Q49" s="70" t="s">
-        <v>241</v>
-      </c>
-      <c r="R49" s="70" t="s">
-        <v>241</v>
+        <v>256</v>
+      </c>
+      <c r="R49" s="61" t="s">
+        <v>252</v>
       </c>
       <c r="S49" s="8" t="s">
         <v>5</v>
@@ -5628,7 +5793,9 @@
         <v>232</v>
       </c>
       <c r="AE49" s="6"/>
-      <c r="AF49" s="6"/>
+      <c r="AF49" s="6" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="50" spans="1:32" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
@@ -5700,7 +5867,7 @@
         <v>31</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>87</v>
@@ -5737,7 +5904,7 @@
         <v>198</v>
       </c>
       <c r="R51" s="6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="S51" s="8" t="s">
         <v>3</v>
@@ -5773,7 +5940,7 @@
       </c>
       <c r="AE51" s="6"/>
       <c r="AF51" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="1:32" ht="51" x14ac:dyDescent="0.2">
@@ -5827,7 +5994,7 @@
         <v>198</v>
       </c>
       <c r="R52" s="6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="S52" s="8" t="s">
         <v>3</v>
@@ -5878,7 +6045,7 @@
         <v>32</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>177</v>
@@ -5912,10 +6079,10 @@
         <v>234</v>
       </c>
       <c r="Q53" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="R53" s="31" t="s">
-        <v>242</v>
+        <v>239</v>
+      </c>
+      <c r="R53" s="61" t="s">
+        <v>254</v>
       </c>
       <c r="S53" s="8"/>
       <c r="T53" s="20"/>
@@ -5948,7 +6115,9 @@
         <v>233</v>
       </c>
       <c r="AE53" s="6"/>
-      <c r="AF53" s="6"/>
+      <c r="AF53" s="6" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="54" spans="1:32" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
@@ -6020,7 +6189,7 @@
         <v>31</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>87</v>
@@ -6057,7 +6226,7 @@
         <v>201</v>
       </c>
       <c r="R55" s="6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="S55" s="8" t="s">
         <v>3</v>
@@ -6093,7 +6262,7 @@
       </c>
       <c r="AE55" s="6"/>
       <c r="AF55" s="6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287D7D8A-11E1-8C43-AC30-7B9C05210607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881A456B-8B84-7B4F-B945-D0C0639631B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19560" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="272">
   <si>
     <t>Parameter</t>
   </si>
@@ -1928,6 +1928,64 @@
   </si>
   <si>
     <t>Ethiopia, DRC, CI, Ghana DHS surveys</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.141 - European estimate from Dabis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Logitnormal
+Begins at this value in 1990, interpolates to birth.transmission.risk.1 from 1990-2020</t>
+    </r>
+  </si>
+  <si>
+    <t>Bruyand et al, 2019
+Sicsic et al, 2016</t>
+  </si>
+  <si>
+    <t>Bruyand, 2019 and Sicsic, 2016 
+Bruyand: 2016 values by age*sex 
+Ages: 18-24, 25-39, 40-54, 55-75
+Sicsic, 2006-2013 values by total, age, and sex 
+Ages: 15-29,30-44,45-70
+Means are pretty low (~12%)</t>
+  </si>
+  <si>
+    <t>Cuzin, 2023</t>
+  </si>
+  <si>
+    <t>Cuzin, 2023: Dat'AIDS cohort, 2009-2019
+Median time from HIV diagnosis to ART prescription 128 days [33; 570] in 2009–2011 --&gt; annual proportion = 0.8951337 (after multiplied by max proportion)</t>
+  </si>
+  <si>
+    <t>0.0965109
+Estimate from Belgium</t>
+  </si>
+  <si>
+    <t>Belgium (Beckhoven, et al, 2015): https://link.springer.com/article/10.1186/s12879-015-1230-3</t>
+  </si>
+  <si>
+    <t>Cuzin, 2023: Dat'AIDS cohort, 2009-2019
+Median time from ART prescription to controlled VL 83 days --&gt; annual proportion = 0.9383084 (after multiplied by max proportion)</t>
+  </si>
+  <si>
+    <t>Cuzin et al, 2023
+Among those followed, 91% still had a controlled VL 1 year later --&gt; rate = 0.09431068</t>
   </si>
 </sst>
 </file>
@@ -2777,10 +2835,10 @@
   <dimension ref="A1:AF59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="M29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q46" sqref="Q46"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2791,15 +2849,12 @@
     <col min="4" max="4" width="10.6640625" style="5" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="38" style="5" customWidth="1"/>
     <col min="6" max="6" width="55" style="5" customWidth="1"/>
-    <col min="7" max="8" width="53.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="53.5" style="5" hidden="1" customWidth="1"/>
-    <col min="10" max="18" width="53.5" style="5" customWidth="1"/>
+    <col min="7" max="18" width="53.5" style="5" customWidth="1"/>
     <col min="19" max="19" width="17" style="5" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="24" style="5" customWidth="1"/>
     <col min="21" max="21" width="26" style="5" customWidth="1"/>
     <col min="22" max="22" width="37.5" style="5" customWidth="1"/>
-    <col min="23" max="23" width="30.5" style="5" hidden="1" customWidth="1"/>
-    <col min="24" max="32" width="30.5" style="5" customWidth="1"/>
+    <col min="23" max="32" width="30.5" style="5" customWidth="1"/>
     <col min="33" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
@@ -3708,7 +3763,9 @@
       <c r="H14" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="31"/>
+      <c r="I14" s="55" t="s">
+        <v>263</v>
+      </c>
       <c r="J14" s="27" t="s">
         <v>51</v>
       </c>
@@ -5530,7 +5587,9 @@
       <c r="H46" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="I46" s="31"/>
+      <c r="I46" s="56" t="s">
+        <v>265</v>
+      </c>
       <c r="J46" s="6" t="s">
         <v>191</v>
       </c>
@@ -5568,7 +5627,9 @@
       <c r="V46" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="W46" s="32"/>
+      <c r="W46" s="6" t="s">
+        <v>264</v>
+      </c>
       <c r="X46" s="6" t="s">
         <v>206</v>
       </c>
@@ -5732,7 +5793,9 @@
       <c r="H49" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="I49" s="31"/>
+      <c r="I49" s="56" t="s">
+        <v>267</v>
+      </c>
       <c r="J49" s="61" t="s">
         <v>196</v>
       </c>
@@ -5770,7 +5833,9 @@
       <c r="V49" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="W49" s="32"/>
+      <c r="W49" s="6" t="s">
+        <v>266</v>
+      </c>
       <c r="X49" s="6" t="s">
         <v>195</v>
       </c>
@@ -5878,7 +5943,9 @@
       <c r="H51" s="6">
         <v>0.15548490000000001</v>
       </c>
-      <c r="I51" s="31"/>
+      <c r="I51" s="6" t="s">
+        <v>268</v>
+      </c>
       <c r="J51" s="6" t="s">
         <v>198</v>
       </c>
@@ -5916,7 +5983,9 @@
       <c r="V51" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="W51" s="32"/>
+      <c r="W51" s="6" t="s">
+        <v>269</v>
+      </c>
       <c r="X51" s="6" t="s">
         <v>199</v>
       </c>
@@ -5968,7 +6037,9 @@
       <c r="H52" s="6">
         <v>0.15548490000000001</v>
       </c>
-      <c r="I52" s="31"/>
+      <c r="I52" s="6" t="s">
+        <v>268</v>
+      </c>
       <c r="J52" s="6" t="s">
         <v>198</v>
       </c>
@@ -6006,7 +6077,9 @@
       <c r="V52" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="W52" s="32"/>
+      <c r="W52" s="6" t="s">
+        <v>269</v>
+      </c>
       <c r="X52" s="6" t="s">
         <v>199</v>
       </c>
@@ -6056,7 +6129,9 @@
       <c r="H53" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="I53" s="31"/>
+      <c r="I53" s="56" t="s">
+        <v>270</v>
+      </c>
       <c r="J53" s="6" t="s">
         <v>220</v>
       </c>
@@ -6092,7 +6167,9 @@
       <c r="V53" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="W53" s="32"/>
+      <c r="W53" s="6" t="s">
+        <v>266</v>
+      </c>
       <c r="X53" s="6" t="s">
         <v>200</v>
       </c>
@@ -6200,7 +6277,9 @@
       <c r="H55" s="6">
         <v>7.5484389999999998E-2</v>
       </c>
-      <c r="I55" s="31"/>
+      <c r="I55" s="6" t="s">
+        <v>271</v>
+      </c>
       <c r="J55" s="6" t="s">
         <v>201</v>
       </c>
@@ -6238,7 +6317,9 @@
       <c r="V55" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="W55" s="32"/>
+      <c r="W55" s="6" t="s">
+        <v>266</v>
+      </c>
       <c r="X55" s="6" t="s">
         <v>202</v>
       </c>

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881A456B-8B84-7B4F-B945-D0C0639631B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0218F3D-506D-A34B-ADED-9DECDD2D4572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19560" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="272">
   <si>
     <t>Parameter</t>
   </si>
@@ -2835,10 +2835,10 @@
   <dimension ref="A1:AF59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomRight" activeCell="W53" sqref="W53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6167,9 +6167,7 @@
       <c r="V53" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="W53" s="6" t="s">
-        <v>266</v>
-      </c>
+      <c r="W53" s="32"/>
       <c r="X53" s="6" t="s">
         <v>200</v>
       </c>

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0218F3D-506D-A34B-ADED-9DECDD2D4572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC87050-615E-E743-A5BD-F42D6B94BCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19560" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22000" windowHeight="19560" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">params!$A$1:$W$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">params!$A$1:$X$59</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +45,7 @@
     <author>tc={51F972CD-9F3E-FF43-98B5-159579D7B474}</author>
   </authors>
   <commentList>
-    <comment ref="U14" authorId="0" shapeId="0" xr:uid="{04385ABF-366F-F14D-B686-003B7FD6A102}">
+    <comment ref="V14" authorId="0" shapeId="0" xr:uid="{04385ABF-366F-F14D-B686-003B7FD6A102}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -53,7 +53,7 @@
     This includes 13 prospective studies from different regions; 0.42 estimate was Kenya-specific but they have Europe, France specifically, and other African countries</t>
       </text>
     </comment>
-    <comment ref="T15" authorId="1" shapeId="0" xr:uid="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
+    <comment ref="U15" authorId="1" shapeId="0" xr:uid="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="279">
   <si>
     <t>Parameter</t>
   </si>
@@ -1986,6 +1986,43 @@
   <si>
     <t>Cuzin et al, 2023
 Among those followed, 91% still had a controlled VL 1 year later --&gt; rate = 0.09431068</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Hong Kong study (Smith 2023)</t>
+  </si>
+  <si>
+    <t>Smith et al, 2023</t>
+  </si>
+  <si>
+    <t>0.242
+1999 Bangkok hospital study 
+Logitnormal
+Begins at this value in 1990, interpolates to birth.transmission.risk.1 from 1990-2020</t>
+  </si>
+  <si>
+    <t>Mock et al, 1999</t>
+  </si>
+  <si>
+    <t>Years
+- 2006: National Sexual Behavior Survey
+- 2012: General population survey in urban region
+- 2014: General population survey in Chiang Mai 
+Age groups
+- 2006: 18-39, 40-49, 50-59; reference age = 40-49
+- 2012:  15-19, 20-24, 35-44, 45-54, 55-59; ref = 35-44
+- 2014: 15-19, 20-29, 30-39, 40-49, 50-59, 60+; ref = 30-39
+Calculation: 
+- 2006: (proportion having sex with a casual partner)*(1-condom use with a casual partner)
+- 2012: proportion having casual sex in the past 12 months (didn't report condom use)
+- 2014: proportion with &gt;1 sexual partner in past 3 months*(1-condom use in past 3 months)</t>
+  </si>
+  <si>
+    <t>Ford et al, 2009 (NSBS 2006)
+Techasrivichien et al, 2014
+Pinyopornpanish et al, 2017</t>
   </si>
 </sst>
 </file>
@@ -2821,10 +2858,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="U14" dT="2025-01-22T18:42:38.64" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{04385ABF-366F-F14D-B686-003B7FD6A102}">
+  <threadedComment ref="V14" dT="2025-01-22T18:42:38.64" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{04385ABF-366F-F14D-B686-003B7FD6A102}">
     <text>This includes 13 prospective studies from different regions; 0.42 estimate was Kenya-specific but they have Europe, France specifically, and other African countries</text>
   </threadedComment>
-  <threadedComment ref="T15" dT="2025-01-22T18:20:02.26" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
+  <threadedComment ref="U15" dT="2025-01-22T18:20:02.26" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
     <text>Update to WHO reference because this is actually a global estimate</text>
   </threadedComment>
 </ThreadedComments>
@@ -2832,13 +2869,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B2D996-732D-784F-96EB-809CE760E324}">
-  <dimension ref="A1:AF59"/>
+  <dimension ref="A1:AH59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W53" sqref="W53"/>
+      <selection pane="bottomRight" activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2849,16 +2886,16 @@
     <col min="4" max="4" width="10.6640625" style="5" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="38" style="5" customWidth="1"/>
     <col min="6" max="6" width="55" style="5" customWidth="1"/>
-    <col min="7" max="18" width="53.5" style="5" customWidth="1"/>
-    <col min="19" max="19" width="17" style="5" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="24" style="5" customWidth="1"/>
-    <col min="21" max="21" width="26" style="5" customWidth="1"/>
-    <col min="22" max="22" width="37.5" style="5" customWidth="1"/>
-    <col min="23" max="32" width="30.5" style="5" customWidth="1"/>
-    <col min="33" max="16384" width="10.83203125" style="5"/>
+    <col min="7" max="19" width="53.5" style="5" customWidth="1"/>
+    <col min="20" max="20" width="17" style="5" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="24" style="5" customWidth="1"/>
+    <col min="22" max="22" width="26" style="5" customWidth="1"/>
+    <col min="23" max="23" width="37.5" style="5" customWidth="1"/>
+    <col min="24" max="34" width="30.5" style="5" customWidth="1"/>
+    <col min="35" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -2889,16 +2926,16 @@
       <c r="P1" s="69"/>
       <c r="Q1" s="69"/>
       <c r="R1" s="69"/>
-      <c r="S1" s="69" t="s">
+      <c r="S1" s="69"/>
+      <c r="T1" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="66" t="s">
+      <c r="U1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="35"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="60"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="36"/>
       <c r="Y1" s="60"/>
       <c r="Z1" s="60"/>
       <c r="AA1" s="60"/>
@@ -2907,8 +2944,10 @@
       <c r="AD1" s="60"/>
       <c r="AE1" s="60"/>
       <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
     </row>
-    <row r="2" spans="1:32" ht="60" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" ht="60" x14ac:dyDescent="0.35">
       <c r="A2" s="37"/>
       <c r="B2" s="38"/>
       <c r="C2" s="39"/>
@@ -2948,53 +2987,59 @@
         <v>230</v>
       </c>
       <c r="Q2" s="63" t="s">
+        <v>272</v>
+      </c>
+      <c r="R2" s="63" t="s">
         <v>236</v>
       </c>
-      <c r="R2" s="63" t="s">
+      <c r="S2" s="63" t="s">
         <v>237</v>
       </c>
-      <c r="S2" s="63"/>
-      <c r="T2" s="62" t="s">
+      <c r="T2" s="63"/>
+      <c r="U2" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="63" t="s">
+      <c r="V2" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="63" t="s">
+      <c r="W2" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="64" t="s">
+      <c r="X2" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="65" t="s">
+      <c r="Y2" s="65" t="s">
         <v>190</v>
       </c>
-      <c r="Y2" s="65" t="s">
+      <c r="Z2" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="Z2" s="65" t="s">
+      <c r="AA2" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="AA2" s="65" t="s">
+      <c r="AB2" s="65" t="s">
         <v>217</v>
       </c>
-      <c r="AB2" s="65" t="s">
+      <c r="AC2" s="65" t="s">
         <v>218</v>
       </c>
-      <c r="AC2" s="65" t="s">
+      <c r="AD2" s="65" t="s">
         <v>227</v>
       </c>
-      <c r="AD2" s="65" t="s">
+      <c r="AE2" s="65" t="s">
         <v>230</v>
       </c>
-      <c r="AE2" s="63" t="s">
+      <c r="AF2" s="65" t="s">
+        <v>272</v>
+      </c>
+      <c r="AG2" s="63" t="s">
         <v>236</v>
       </c>
-      <c r="AF2" s="63" t="s">
+      <c r="AH2" s="63" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="211" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" ht="211" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>33</v>
       </c>
@@ -3042,25 +3087,27 @@
         <v>235</v>
       </c>
       <c r="Q3" s="25" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="R3" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="25" t="s">
+      <c r="S3" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26" t="s">
         <v>2</v>
       </c>
       <c r="V3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="X3" s="25"/>
+      <c r="W3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="Y3" s="25"/>
       <c r="Z3" s="25"/>
       <c r="AA3" s="25"/>
@@ -3069,8 +3116,10 @@
       <c r="AD3" s="25"/>
       <c r="AE3" s="25"/>
       <c r="AF3" s="25"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25"/>
     </row>
-    <row r="4" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
@@ -3099,22 +3148,22 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
-      <c r="S4" s="30" t="s">
+      <c r="S4" s="18"/>
+      <c r="T4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="U4" s="25" t="s">
+      <c r="U4" s="26" t="s">
         <v>2</v>
       </c>
       <c r="V4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="W4" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="X4" s="25"/>
+      <c r="W4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="Y4" s="25"/>
       <c r="Z4" s="25"/>
       <c r="AA4" s="25"/>
@@ -3123,8 +3172,10 @@
       <c r="AD4" s="25"/>
       <c r="AE4" s="25"/>
       <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25"/>
     </row>
-    <row r="5" spans="1:32" ht="272" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" ht="306" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>147</v>
       </c>
@@ -3174,53 +3225,59 @@
         <v>231</v>
       </c>
       <c r="Q5" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="R5" s="55" t="s">
         <v>261</v>
       </c>
-      <c r="R5" s="55" t="s">
+      <c r="S5" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="S5" s="30" t="s">
+      <c r="T5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="T5" s="20"/>
-      <c r="U5" s="27" t="s">
+      <c r="U5" s="20"/>
+      <c r="V5" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="V5" s="27" t="s">
+      <c r="W5" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="W5" s="29" t="s">
+      <c r="X5" s="29" t="s">
         <v>185</v>
-      </c>
-      <c r="X5" s="55" t="s">
-        <v>206</v>
       </c>
       <c r="Y5" s="55" t="s">
         <v>206</v>
       </c>
       <c r="Z5" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA5" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="AA5" s="55" t="s">
+      <c r="AB5" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="AB5" s="55" t="s">
+      <c r="AC5" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="AC5" s="55" t="s">
+      <c r="AD5" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="AD5" s="55" t="s">
+      <c r="AE5" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="AE5" s="55" t="s">
+      <c r="AF5" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="AG5" s="55" t="s">
         <v>262</v>
       </c>
-      <c r="AF5" s="55" t="s">
+      <c r="AH5" s="55" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="85" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>149</v>
       </c>
@@ -3273,21 +3330,21 @@
       <c r="R6" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="S6" s="30" t="s">
+      <c r="S6" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="T6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="T6" s="20"/>
-      <c r="U6" s="27" t="s">
+      <c r="U6" s="20"/>
+      <c r="V6" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="V6" s="27" t="s">
+      <c r="W6" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="W6" s="29" t="s">
+      <c r="X6" s="29" t="s">
         <v>185</v>
-      </c>
-      <c r="X6" s="55" t="s">
-        <v>226</v>
       </c>
       <c r="Y6" s="55" t="s">
         <v>226</v>
@@ -3313,8 +3370,14 @@
       <c r="AF6" s="55" t="s">
         <v>226</v>
       </c>
+      <c r="AG6" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH6" s="55" t="s">
+        <v>226</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>67</v>
       </c>
@@ -3345,22 +3408,22 @@
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
-      <c r="S7" s="30" t="s">
+      <c r="S7" s="18"/>
+      <c r="T7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="T7" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="U7" s="25" t="s">
+      <c r="U7" s="26" t="s">
         <v>2</v>
       </c>
       <c r="V7" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="W7" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="X7" s="25"/>
+      <c r="W7" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="X7" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="Y7" s="25"/>
       <c r="Z7" s="25"/>
       <c r="AA7" s="25"/>
@@ -3369,8 +3432,10 @@
       <c r="AD7" s="25"/>
       <c r="AE7" s="25"/>
       <c r="AF7" s="25"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
     </row>
-    <row r="8" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>69</v>
       </c>
@@ -3401,22 +3466,22 @@
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
-      <c r="S8" s="30" t="s">
+      <c r="S8" s="18"/>
+      <c r="T8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="U8" s="25" t="s">
+      <c r="U8" s="26" t="s">
         <v>2</v>
       </c>
       <c r="V8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="W8" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="X8" s="25"/>
+      <c r="W8" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="Y8" s="25"/>
       <c r="Z8" s="25"/>
       <c r="AA8" s="25"/>
@@ -3425,8 +3490,10 @@
       <c r="AD8" s="25"/>
       <c r="AE8" s="25"/>
       <c r="AF8" s="25"/>
+      <c r="AG8" s="25"/>
+      <c r="AH8" s="25"/>
     </row>
-    <row r="9" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>68</v>
       </c>
@@ -3457,22 +3524,22 @@
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
-      <c r="S9" s="30" t="s">
+      <c r="S9" s="18"/>
+      <c r="T9" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="T9" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="U9" s="25" t="s">
+      <c r="U9" s="26" t="s">
         <v>2</v>
       </c>
       <c r="V9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="W9" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="X9" s="25"/>
+      <c r="W9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="Y9" s="25"/>
       <c r="Z9" s="25"/>
       <c r="AA9" s="25"/>
@@ -3481,8 +3548,10 @@
       <c r="AD9" s="25"/>
       <c r="AE9" s="25"/>
       <c r="AF9" s="25"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="25"/>
     </row>
-    <row r="10" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>70</v>
       </c>
@@ -3513,22 +3582,22 @@
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
       <c r="R10" s="18"/>
-      <c r="S10" s="30" t="s">
+      <c r="S10" s="18"/>
+      <c r="T10" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="T10" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="U10" s="25" t="s">
+      <c r="U10" s="26" t="s">
         <v>2</v>
       </c>
       <c r="V10" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="W10" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="X10" s="25"/>
+      <c r="W10" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="X10" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="Y10" s="25"/>
       <c r="Z10" s="25"/>
       <c r="AA10" s="25"/>
@@ -3537,8 +3606,10 @@
       <c r="AD10" s="25"/>
       <c r="AE10" s="25"/>
       <c r="AF10" s="25"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="25"/>
     </row>
-    <row r="11" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>6</v>
       </c>
@@ -3569,16 +3640,16 @@
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
-      <c r="S11" s="30" t="s">
+      <c r="S11" s="18"/>
+      <c r="T11" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="T11" s="30" t="s">
+      <c r="U11" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="U11" s="27"/>
       <c r="V11" s="27"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="25"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="29"/>
       <c r="Y11" s="25"/>
       <c r="Z11" s="25"/>
       <c r="AA11" s="25"/>
@@ -3587,8 +3658,10 @@
       <c r="AD11" s="25"/>
       <c r="AE11" s="25"/>
       <c r="AF11" s="25"/>
+      <c r="AG11" s="25"/>
+      <c r="AH11" s="25"/>
     </row>
-    <row r="12" spans="1:32" ht="136" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>7</v>
       </c>
@@ -3637,27 +3710,27 @@
       <c r="P12" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="Q12" s="71" t="s">
+      <c r="Q12" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="R12" s="71" t="s">
         <v>257</v>
       </c>
-      <c r="R12" s="71" t="s">
+      <c r="S12" s="71" t="s">
         <v>258</v>
       </c>
-      <c r="S12" s="30" t="s">
+      <c r="T12" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="T12" s="20"/>
-      <c r="U12" s="27" t="s">
-        <v>189</v>
-      </c>
+      <c r="U12" s="20"/>
       <c r="V12" s="27" t="s">
         <v>189</v>
       </c>
       <c r="W12" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="X12" s="27" t="s">
         <v>188</v>
-      </c>
-      <c r="X12" s="25" t="s">
-        <v>189</v>
       </c>
       <c r="Y12" s="25" t="s">
         <v>189</v>
@@ -3681,10 +3754,16 @@
         <v>189</v>
       </c>
       <c r="AF12" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG12" s="25" t="s">
         <v>189</v>
       </c>
+      <c r="AH12" s="25" t="s">
+        <v>189</v>
+      </c>
     </row>
-    <row r="13" spans="1:32" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>73</v>
       </c>
@@ -3713,24 +3792,24 @@
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
       <c r="P13" s="18"/>
-      <c r="Q13" s="31"/>
+      <c r="Q13" s="18"/>
       <c r="R13" s="31"/>
-      <c r="S13" s="30" t="s">
+      <c r="S13" s="31"/>
+      <c r="T13" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="T13" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="U13" s="25" t="s">
+      <c r="U13" s="26" t="s">
         <v>2</v>
       </c>
       <c r="V13" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="W13" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="X13" s="25"/>
+      <c r="W13" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="X13" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="Y13" s="25"/>
       <c r="Z13" s="25"/>
       <c r="AA13" s="25"/>
@@ -3739,8 +3818,10 @@
       <c r="AD13" s="25"/>
       <c r="AE13" s="25"/>
       <c r="AF13" s="25"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="25"/>
     </row>
-    <row r="14" spans="1:32" ht="85" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>75</v>
       </c>
@@ -3787,24 +3868,26 @@
       <c r="P14" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q14" s="71" t="s">
+      <c r="Q14" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="R14" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="R14" s="71" t="s">
+      <c r="S14" s="71" t="s">
         <v>260</v>
       </c>
-      <c r="S14" s="30" t="s">
+      <c r="T14" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="T14" s="20"/>
-      <c r="U14" s="27" t="s">
-        <v>61</v>
-      </c>
+      <c r="U14" s="20"/>
       <c r="V14" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="W14" s="32"/>
-      <c r="X14" s="25" t="s">
+      <c r="W14" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="X14" s="27" t="s">
         <v>61</v>
       </c>
       <c r="Y14" s="25" t="s">
@@ -3829,10 +3912,16 @@
         <v>61</v>
       </c>
       <c r="AF14" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="AG14" s="25" t="s">
         <v>61</v>
       </c>
+      <c r="AH14" s="25" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="15" spans="1:32" ht="102" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>77</v>
       </c>
@@ -3863,18 +3952,18 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
-      <c r="S15" s="30" t="s">
+      <c r="S15" s="18"/>
+      <c r="T15" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="T15" s="30" t="s">
+      <c r="U15" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="U15" s="18" t="s">
+      <c r="V15" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="V15" s="18"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="19"/>
       <c r="Y15" s="18"/>
       <c r="Z15" s="18"/>
       <c r="AA15" s="18"/>
@@ -3883,8 +3972,10 @@
       <c r="AD15" s="18"/>
       <c r="AE15" s="18"/>
       <c r="AF15" s="18"/>
+      <c r="AG15" s="18"/>
+      <c r="AH15" s="18"/>
     </row>
-    <row r="16" spans="1:32" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
@@ -3915,16 +4006,16 @@
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
-      <c r="S16" s="13" t="s">
+      <c r="S16" s="18"/>
+      <c r="T16" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="T16" s="13" t="s">
+      <c r="U16" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="U16" s="18"/>
       <c r="V16" s="18"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="19"/>
       <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
       <c r="AA16" s="18"/>
@@ -3933,8 +4024,10 @@
       <c r="AD16" s="18"/>
       <c r="AE16" s="18"/>
       <c r="AF16" s="18"/>
+      <c r="AG16" s="18"/>
+      <c r="AH16" s="18"/>
     </row>
-    <row r="17" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>116</v>
       </c>
@@ -3965,22 +4058,22 @@
       <c r="P17" s="18"/>
       <c r="Q17" s="18"/>
       <c r="R17" s="18"/>
-      <c r="S17" s="13" t="s">
+      <c r="S17" s="18"/>
+      <c r="T17" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="T17" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="U17" s="10" t="s">
+      <c r="U17" s="13" t="s">
         <v>2</v>
       </c>
       <c r="V17" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="W17" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="X17" s="10"/>
+      <c r="W17" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="X17" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
@@ -3989,8 +4082,10 @@
       <c r="AD17" s="10"/>
       <c r="AE17" s="10"/>
       <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
     </row>
-    <row r="18" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>117</v>
       </c>
@@ -4021,22 +4116,22 @@
       <c r="P18" s="18"/>
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
-      <c r="S18" s="13" t="s">
+      <c r="S18" s="18"/>
+      <c r="T18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="T18" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="U18" s="10" t="s">
+      <c r="U18" s="13" t="s">
         <v>2</v>
       </c>
       <c r="V18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="W18" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="X18" s="10"/>
+      <c r="W18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="X18" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
@@ -4045,8 +4140,10 @@
       <c r="AD18" s="10"/>
       <c r="AE18" s="10"/>
       <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
     </row>
-    <row r="19" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>118</v>
       </c>
@@ -4077,22 +4174,22 @@
       <c r="P19" s="18"/>
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
-      <c r="S19" s="13" t="s">
+      <c r="S19" s="18"/>
+      <c r="T19" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="T19" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="U19" s="10" t="s">
+      <c r="U19" s="13" t="s">
         <v>2</v>
       </c>
       <c r="V19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="W19" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="X19" s="10"/>
+      <c r="W19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="X19" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
@@ -4101,8 +4198,10 @@
       <c r="AD19" s="10"/>
       <c r="AE19" s="10"/>
       <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
     </row>
-    <row r="20" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>119</v>
       </c>
@@ -4133,22 +4232,22 @@
       <c r="P20" s="18"/>
       <c r="Q20" s="18"/>
       <c r="R20" s="18"/>
-      <c r="S20" s="13" t="s">
+      <c r="S20" s="18"/>
+      <c r="T20" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="T20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="U20" s="10" t="s">
+      <c r="U20" s="13" t="s">
         <v>2</v>
       </c>
       <c r="V20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="W20" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="X20" s="10"/>
+      <c r="W20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="X20" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
@@ -4157,8 +4256,10 @@
       <c r="AD20" s="10"/>
       <c r="AE20" s="10"/>
       <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
     </row>
-    <row r="21" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>120</v>
       </c>
@@ -4189,22 +4290,22 @@
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
       <c r="R21" s="18"/>
-      <c r="S21" s="13" t="s">
+      <c r="S21" s="18"/>
+      <c r="T21" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="T21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="U21" s="10" t="s">
+      <c r="U21" s="13" t="s">
         <v>2</v>
       </c>
       <c r="V21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="W21" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="X21" s="10"/>
+      <c r="W21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="X21" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
       <c r="AA21" s="10"/>
@@ -4213,8 +4314,10 @@
       <c r="AD21" s="10"/>
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
     </row>
-    <row r="22" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>121</v>
       </c>
@@ -4245,22 +4348,22 @@
       <c r="P22" s="18"/>
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
-      <c r="S22" s="13" t="s">
+      <c r="S22" s="18"/>
+      <c r="T22" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="T22" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="U22" s="10" t="s">
+      <c r="U22" s="13" t="s">
         <v>2</v>
       </c>
       <c r="V22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="W22" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="X22" s="10"/>
+      <c r="W22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="X22" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="Y22" s="10"/>
       <c r="Z22" s="10"/>
       <c r="AA22" s="10"/>
@@ -4269,8 +4372,10 @@
       <c r="AD22" s="10"/>
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
     </row>
-    <row r="23" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>128</v>
       </c>
@@ -4301,22 +4406,22 @@
       <c r="P23" s="18"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
-      <c r="S23" s="13" t="s">
+      <c r="S23" s="18"/>
+      <c r="T23" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="T23" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="U23" s="10" t="s">
+      <c r="U23" s="13" t="s">
         <v>2</v>
       </c>
       <c r="V23" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="W23" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="X23" s="10"/>
+      <c r="W23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="X23" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
       <c r="AA23" s="10"/>
@@ -4325,8 +4430,10 @@
       <c r="AD23" s="10"/>
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
     </row>
-    <row r="24" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>129</v>
       </c>
@@ -4357,22 +4464,22 @@
       <c r="P24" s="18"/>
       <c r="Q24" s="18"/>
       <c r="R24" s="18"/>
-      <c r="S24" s="13" t="s">
+      <c r="S24" s="18"/>
+      <c r="T24" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="T24" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="U24" s="10" t="s">
+      <c r="U24" s="13" t="s">
         <v>2</v>
       </c>
       <c r="V24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="W24" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="X24" s="10"/>
+      <c r="W24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="X24" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
@@ -4381,8 +4488,10 @@
       <c r="AD24" s="10"/>
       <c r="AE24" s="10"/>
       <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
     </row>
-    <row r="25" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>130</v>
       </c>
@@ -4413,22 +4522,22 @@
       <c r="P25" s="18"/>
       <c r="Q25" s="18"/>
       <c r="R25" s="18"/>
-      <c r="S25" s="13" t="s">
+      <c r="S25" s="18"/>
+      <c r="T25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="T25" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="U25" s="10" t="s">
+      <c r="U25" s="13" t="s">
         <v>2</v>
       </c>
       <c r="V25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="W25" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="X25" s="10"/>
+      <c r="W25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="X25" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
       <c r="AA25" s="10"/>
@@ -4437,8 +4546,10 @@
       <c r="AD25" s="10"/>
       <c r="AE25" s="10"/>
       <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
     </row>
-    <row r="26" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>131</v>
       </c>
@@ -4469,22 +4580,22 @@
       <c r="P26" s="18"/>
       <c r="Q26" s="18"/>
       <c r="R26" s="18"/>
-      <c r="S26" s="13" t="s">
+      <c r="S26" s="18"/>
+      <c r="T26" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="T26" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="U26" s="10" t="s">
+      <c r="U26" s="13" t="s">
         <v>2</v>
       </c>
       <c r="V26" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="W26" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="X26" s="10"/>
+      <c r="W26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="X26" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="Y26" s="10"/>
       <c r="Z26" s="10"/>
       <c r="AA26" s="10"/>
@@ -4493,8 +4604,10 @@
       <c r="AD26" s="10"/>
       <c r="AE26" s="10"/>
       <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
     </row>
-    <row r="27" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>132</v>
       </c>
@@ -4525,22 +4638,22 @@
       <c r="P27" s="18"/>
       <c r="Q27" s="18"/>
       <c r="R27" s="18"/>
-      <c r="S27" s="13" t="s">
+      <c r="S27" s="18"/>
+      <c r="T27" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="T27" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="U27" s="10" t="s">
+      <c r="U27" s="13" t="s">
         <v>2</v>
       </c>
       <c r="V27" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="W27" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="X27" s="10"/>
+      <c r="W27" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="X27" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
       <c r="AA27" s="10"/>
@@ -4549,8 +4662,10 @@
       <c r="AD27" s="10"/>
       <c r="AE27" s="10"/>
       <c r="AF27" s="10"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
     </row>
-    <row r="28" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>133</v>
       </c>
@@ -4581,22 +4696,22 @@
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
       <c r="R28" s="18"/>
-      <c r="S28" s="13" t="s">
+      <c r="S28" s="18"/>
+      <c r="T28" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="T28" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="U28" s="10" t="s">
+      <c r="U28" s="13" t="s">
         <v>2</v>
       </c>
       <c r="V28" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="W28" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="X28" s="10"/>
+      <c r="W28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="X28" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="Y28" s="10"/>
       <c r="Z28" s="10"/>
       <c r="AA28" s="10"/>
@@ -4605,8 +4720,10 @@
       <c r="AD28" s="10"/>
       <c r="AE28" s="10"/>
       <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
     </row>
-    <row r="29" spans="1:32" ht="102" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>89</v>
       </c>
@@ -4647,16 +4764,16 @@
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
       <c r="R29" s="14"/>
-      <c r="S29" s="16" t="s">
+      <c r="S29" s="14"/>
+      <c r="T29" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="T29" s="16" t="s">
+      <c r="U29" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="U29" s="14"/>
       <c r="V29" s="14"/>
-      <c r="W29" s="15"/>
-      <c r="X29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="15"/>
       <c r="Y29" s="14"/>
       <c r="Z29" s="14"/>
       <c r="AA29" s="14"/>
@@ -4665,8 +4782,10 @@
       <c r="AD29" s="14"/>
       <c r="AE29" s="14"/>
       <c r="AF29" s="14"/>
+      <c r="AG29" s="14"/>
+      <c r="AH29" s="14"/>
     </row>
-    <row r="30" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>14</v>
       </c>
@@ -4705,16 +4824,16 @@
       <c r="P30" s="14"/>
       <c r="Q30" s="14"/>
       <c r="R30" s="14"/>
-      <c r="S30" s="16" t="s">
+      <c r="S30" s="14"/>
+      <c r="T30" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="T30" s="16" t="s">
+      <c r="U30" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="U30" s="14"/>
       <c r="V30" s="14"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="15"/>
       <c r="Y30" s="14"/>
       <c r="Z30" s="14"/>
       <c r="AA30" s="14"/>
@@ -4723,8 +4842,10 @@
       <c r="AD30" s="14"/>
       <c r="AE30" s="14"/>
       <c r="AF30" s="14"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="14"/>
     </row>
-    <row r="31" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>15</v>
       </c>
@@ -4763,16 +4884,16 @@
       <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
       <c r="R31" s="14"/>
-      <c r="S31" s="16" t="s">
+      <c r="S31" s="14"/>
+      <c r="T31" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="T31" s="16" t="s">
+      <c r="U31" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="U31" s="14"/>
       <c r="V31" s="14"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="15"/>
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
       <c r="AA31" s="14"/>
@@ -4781,8 +4902,10 @@
       <c r="AD31" s="14"/>
       <c r="AE31" s="14"/>
       <c r="AF31" s="14"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="14"/>
     </row>
-    <row r="32" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>142</v>
       </c>
@@ -4811,22 +4934,22 @@
       <c r="P32" s="18"/>
       <c r="Q32" s="18"/>
       <c r="R32" s="18"/>
-      <c r="S32" s="16" t="s">
+      <c r="S32" s="18"/>
+      <c r="T32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="T32" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="U32" s="14" t="s">
+      <c r="U32" s="16" t="s">
         <v>2</v>
       </c>
       <c r="V32" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="W32" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X32" s="14"/>
+      <c r="W32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X32" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="Y32" s="14"/>
       <c r="Z32" s="14"/>
       <c r="AA32" s="14"/>
@@ -4835,8 +4958,10 @@
       <c r="AD32" s="14"/>
       <c r="AE32" s="14"/>
       <c r="AF32" s="14"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="14"/>
     </row>
-    <row r="33" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>146</v>
       </c>
@@ -4865,22 +4990,22 @@
       <c r="P33" s="18"/>
       <c r="Q33" s="18"/>
       <c r="R33" s="18"/>
-      <c r="S33" s="16" t="s">
+      <c r="S33" s="18"/>
+      <c r="T33" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="T33" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" s="14" t="s">
+      <c r="U33" s="16" t="s">
         <v>2</v>
       </c>
       <c r="V33" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="W33" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X33" s="14"/>
+      <c r="W33" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X33" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="Y33" s="14"/>
       <c r="Z33" s="14"/>
       <c r="AA33" s="14"/>
@@ -4889,8 +5014,10 @@
       <c r="AD33" s="14"/>
       <c r="AE33" s="14"/>
       <c r="AF33" s="14"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="14"/>
     </row>
-    <row r="34" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>143</v>
       </c>
@@ -4919,22 +5046,22 @@
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
       <c r="R34" s="18"/>
-      <c r="S34" s="16" t="s">
+      <c r="S34" s="18"/>
+      <c r="T34" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="T34" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="U34" s="14" t="s">
+      <c r="U34" s="16" t="s">
         <v>2</v>
       </c>
       <c r="V34" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="W34" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X34" s="14"/>
+      <c r="W34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X34" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="Y34" s="14"/>
       <c r="Z34" s="14"/>
       <c r="AA34" s="14"/>
@@ -4943,8 +5070,10 @@
       <c r="AD34" s="14"/>
       <c r="AE34" s="14"/>
       <c r="AF34" s="14"/>
+      <c r="AG34" s="14"/>
+      <c r="AH34" s="14"/>
     </row>
-    <row r="35" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>144</v>
       </c>
@@ -4973,22 +5102,22 @@
       <c r="P35" s="18"/>
       <c r="Q35" s="18"/>
       <c r="R35" s="18"/>
-      <c r="S35" s="16" t="s">
+      <c r="S35" s="18"/>
+      <c r="T35" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="T35" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="U35" s="14" t="s">
+      <c r="U35" s="16" t="s">
         <v>2</v>
       </c>
       <c r="V35" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="W35" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X35" s="14"/>
+      <c r="W35" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X35" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="Y35" s="14"/>
       <c r="Z35" s="14"/>
       <c r="AA35" s="14"/>
@@ -4997,8 +5126,10 @@
       <c r="AD35" s="14"/>
       <c r="AE35" s="14"/>
       <c r="AF35" s="14"/>
+      <c r="AG35" s="14"/>
+      <c r="AH35" s="14"/>
     </row>
-    <row r="36" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>145</v>
       </c>
@@ -5027,22 +5158,22 @@
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
       <c r="R36" s="18"/>
-      <c r="S36" s="16" t="s">
+      <c r="S36" s="18"/>
+      <c r="T36" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="T36" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="U36" s="14" t="s">
+      <c r="U36" s="16" t="s">
         <v>2</v>
       </c>
       <c r="V36" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="W36" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X36" s="14"/>
+      <c r="W36" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X36" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="Y36" s="14"/>
       <c r="Z36" s="14"/>
       <c r="AA36" s="14"/>
@@ -5051,8 +5182,10 @@
       <c r="AD36" s="14"/>
       <c r="AE36" s="14"/>
       <c r="AF36" s="14"/>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="14"/>
     </row>
-    <row r="37" spans="1:32" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="40" t="s">
         <v>107</v>
       </c>
@@ -5081,16 +5214,16 @@
       <c r="P37" s="18"/>
       <c r="Q37" s="18"/>
       <c r="R37" s="18"/>
-      <c r="S37" s="44" t="s">
+      <c r="S37" s="18"/>
+      <c r="T37" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="T37" s="47" t="s">
+      <c r="U37" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="U37" s="35"/>
       <c r="V37" s="35"/>
-      <c r="W37" s="54"/>
-      <c r="X37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="54"/>
       <c r="Y37" s="35"/>
       <c r="Z37" s="35"/>
       <c r="AA37" s="35"/>
@@ -5099,8 +5232,10 @@
       <c r="AD37" s="35"/>
       <c r="AE37" s="35"/>
       <c r="AF37" s="35"/>
+      <c r="AG37" s="35"/>
+      <c r="AH37" s="35"/>
     </row>
-    <row r="38" spans="1:32" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="40" t="s">
         <v>16</v>
       </c>
@@ -5131,22 +5266,22 @@
       <c r="P38" s="18"/>
       <c r="Q38" s="18"/>
       <c r="R38" s="18"/>
-      <c r="S38" s="44" t="s">
+      <c r="S38" s="18"/>
+      <c r="T38" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="T38" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="U38" s="48" t="s">
+      <c r="U38" s="47" t="s">
         <v>2</v>
       </c>
       <c r="V38" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="W38" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="X38" s="48"/>
+      <c r="W38" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="X38" s="49" t="s">
+        <v>2</v>
+      </c>
       <c r="Y38" s="48"/>
       <c r="Z38" s="48"/>
       <c r="AA38" s="48"/>
@@ -5155,8 +5290,10 @@
       <c r="AD38" s="48"/>
       <c r="AE38" s="48"/>
       <c r="AF38" s="48"/>
+      <c r="AG38" s="48"/>
+      <c r="AH38" s="48"/>
     </row>
-    <row r="39" spans="1:32" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="40" t="s">
         <v>90</v>
       </c>
@@ -5187,22 +5324,22 @@
       <c r="P39" s="18"/>
       <c r="Q39" s="18"/>
       <c r="R39" s="18"/>
-      <c r="S39" s="44" t="s">
+      <c r="S39" s="18"/>
+      <c r="T39" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="T39" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="U39" s="40" t="s">
+      <c r="U39" s="44" t="s">
         <v>17</v>
       </c>
       <c r="V39" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="W39" s="41" t="s">
+      <c r="W39" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="X39" s="40"/>
+      <c r="X39" s="41" t="s">
+        <v>17</v>
+      </c>
       <c r="Y39" s="40"/>
       <c r="Z39" s="40"/>
       <c r="AA39" s="40"/>
@@ -5211,8 +5348,10 @@
       <c r="AD39" s="40"/>
       <c r="AE39" s="40"/>
       <c r="AF39" s="40"/>
+      <c r="AG39" s="40"/>
+      <c r="AH39" s="40"/>
     </row>
-    <row r="40" spans="1:32" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="40" t="s">
         <v>19</v>
       </c>
@@ -5247,22 +5386,22 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="40"/>
       <c r="R40" s="40"/>
-      <c r="S40" s="44" t="s">
+      <c r="S40" s="40"/>
+      <c r="T40" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="T40" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="U40" s="51" t="s">
+      <c r="U40" s="50" t="s">
         <v>2</v>
       </c>
       <c r="V40" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="W40" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="X40" s="51"/>
+      <c r="W40" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="X40" s="52" t="s">
+        <v>2</v>
+      </c>
       <c r="Y40" s="51"/>
       <c r="Z40" s="51"/>
       <c r="AA40" s="51"/>
@@ -5271,8 +5410,10 @@
       <c r="AD40" s="51"/>
       <c r="AE40" s="51"/>
       <c r="AF40" s="51"/>
+      <c r="AG40" s="51"/>
+      <c r="AH40" s="51"/>
     </row>
-    <row r="41" spans="1:32" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="40" t="s">
         <v>21</v>
       </c>
@@ -5305,22 +5446,22 @@
       <c r="P41" s="40"/>
       <c r="Q41" s="40"/>
       <c r="R41" s="40"/>
-      <c r="S41" s="44" t="s">
+      <c r="S41" s="40"/>
+      <c r="T41" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="T41" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="U41" s="40" t="s">
+      <c r="U41" s="44" t="s">
         <v>2</v>
       </c>
       <c r="V41" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="W41" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="X41" s="40"/>
+      <c r="W41" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="X41" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="Y41" s="40"/>
       <c r="Z41" s="40"/>
       <c r="AA41" s="40"/>
@@ -5329,8 +5470,10 @@
       <c r="AD41" s="40"/>
       <c r="AE41" s="40"/>
       <c r="AF41" s="40"/>
+      <c r="AG41" s="40"/>
+      <c r="AH41" s="40"/>
     </row>
-    <row r="42" spans="1:32" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="40" t="s">
         <v>40</v>
       </c>
@@ -5363,22 +5506,22 @@
       <c r="P42" s="40"/>
       <c r="Q42" s="40"/>
       <c r="R42" s="40"/>
-      <c r="S42" s="44" t="s">
+      <c r="S42" s="40"/>
+      <c r="T42" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="T42" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="U42" s="40" t="s">
+      <c r="U42" s="44" t="s">
         <v>2</v>
       </c>
       <c r="V42" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="W42" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="X42" s="40"/>
+      <c r="W42" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="X42" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="Y42" s="40"/>
       <c r="Z42" s="40"/>
       <c r="AA42" s="40"/>
@@ -5387,8 +5530,10 @@
       <c r="AD42" s="40"/>
       <c r="AE42" s="40"/>
       <c r="AF42" s="40"/>
+      <c r="AG42" s="40"/>
+      <c r="AH42" s="40"/>
     </row>
-    <row r="43" spans="1:32" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="40" t="s">
         <v>41</v>
       </c>
@@ -5421,22 +5566,22 @@
       <c r="P43" s="40"/>
       <c r="Q43" s="40"/>
       <c r="R43" s="40"/>
-      <c r="S43" s="44" t="s">
+      <c r="S43" s="40"/>
+      <c r="T43" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="T43" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="U43" s="40" t="s">
+      <c r="U43" s="44" t="s">
         <v>2</v>
       </c>
       <c r="V43" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="W43" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="X43" s="40"/>
+      <c r="W43" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="X43" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="Y43" s="40"/>
       <c r="Z43" s="40"/>
       <c r="AA43" s="40"/>
@@ -5445,8 +5590,10 @@
       <c r="AD43" s="40"/>
       <c r="AE43" s="40"/>
       <c r="AF43" s="40"/>
+      <c r="AG43" s="40"/>
+      <c r="AH43" s="40"/>
     </row>
-    <row r="44" spans="1:32" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="40" t="s">
         <v>42</v>
       </c>
@@ -5479,22 +5626,22 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="40"/>
       <c r="R44" s="40"/>
-      <c r="S44" s="44" t="s">
+      <c r="S44" s="40"/>
+      <c r="T44" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="T44" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="U44" s="40" t="s">
+      <c r="U44" s="44" t="s">
         <v>2</v>
       </c>
       <c r="V44" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="W44" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="X44" s="40"/>
+      <c r="W44" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="X44" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="Y44" s="40"/>
       <c r="Z44" s="40"/>
       <c r="AA44" s="40"/>
@@ -5503,8 +5650,10 @@
       <c r="AD44" s="40"/>
       <c r="AE44" s="40"/>
       <c r="AF44" s="40"/>
+      <c r="AG44" s="40"/>
+      <c r="AH44" s="40"/>
     </row>
-    <row r="45" spans="1:32" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="40" t="s">
         <v>43</v>
       </c>
@@ -5537,22 +5686,22 @@
       <c r="P45" s="40"/>
       <c r="Q45" s="40"/>
       <c r="R45" s="40"/>
-      <c r="S45" s="44" t="s">
+      <c r="S45" s="40"/>
+      <c r="T45" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="T45" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="U45" s="40" t="s">
+      <c r="U45" s="44" t="s">
         <v>2</v>
       </c>
       <c r="V45" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="W45" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="X45" s="40"/>
+      <c r="W45" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="X45" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="Y45" s="40"/>
       <c r="Z45" s="40"/>
       <c r="AA45" s="40"/>
@@ -5561,8 +5710,10 @@
       <c r="AD45" s="40"/>
       <c r="AE45" s="40"/>
       <c r="AF45" s="40"/>
+      <c r="AG45" s="40"/>
+      <c r="AH45" s="40"/>
     </row>
-    <row r="46" spans="1:32" ht="276" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34" ht="276" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>78</v>
       </c>
@@ -5611,52 +5762,54 @@
       <c r="P46" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="Q46" s="31" t="s">
+      <c r="Q46" s="6"/>
+      <c r="R46" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="R46" s="6" t="s">
+      <c r="S46" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="S46" s="8" t="s">
+      <c r="T46" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="T46" s="20"/>
-      <c r="U46" s="6" t="s">
+      <c r="U46" s="20"/>
+      <c r="V46" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="V46" s="6" t="s">
+      <c r="W46" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="W46" s="6" t="s">
+      <c r="X46" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="X46" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="Y46" s="6" t="s">
         <v>206</v>
       </c>
       <c r="Z46" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA46" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="AA46" s="6" t="s">
+      <c r="AB46" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="AB46" s="6" t="s">
+      <c r="AC46" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="AC46" s="6" t="s">
+      <c r="AD46" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="AD46" s="6" t="s">
+      <c r="AE46" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="AE46" s="6"/>
-      <c r="AF46" s="6" t="s">
+      <c r="AF46" s="6"/>
+      <c r="AG46" s="6"/>
+      <c r="AH46" s="6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>98</v>
       </c>
@@ -5685,24 +5838,24 @@
       <c r="N47" s="18"/>
       <c r="O47" s="18"/>
       <c r="P47" s="18"/>
-      <c r="Q47" s="31"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="8" t="s">
+      <c r="Q47" s="18"/>
+      <c r="R47" s="31"/>
+      <c r="S47" s="18"/>
+      <c r="T47" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="T47" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="U47" s="6" t="s">
+      <c r="U47" s="8" t="s">
         <v>2</v>
       </c>
       <c r="V47" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="W47" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="X47" s="6"/>
+      <c r="W47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X47" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="Y47" s="6"/>
       <c r="Z47" s="6"/>
       <c r="AA47" s="6"/>
@@ -5711,8 +5864,10 @@
       <c r="AD47" s="6"/>
       <c r="AE47" s="6"/>
       <c r="AF47" s="6"/>
+      <c r="AG47" s="6"/>
+      <c r="AH47" s="6"/>
     </row>
-    <row r="48" spans="1:32" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>99</v>
       </c>
@@ -5741,24 +5896,24 @@
       <c r="N48" s="18"/>
       <c r="O48" s="18"/>
       <c r="P48" s="18"/>
-      <c r="Q48" s="31"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="8" t="s">
+      <c r="Q48" s="18"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="T48" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="U48" s="6" t="s">
+      <c r="U48" s="8" t="s">
         <v>2</v>
       </c>
       <c r="V48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="W48" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="X48" s="6"/>
+      <c r="W48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X48" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
       <c r="AA48" s="6"/>
@@ -5767,8 +5922,10 @@
       <c r="AD48" s="6"/>
       <c r="AE48" s="6"/>
       <c r="AF48" s="6"/>
+      <c r="AG48" s="6"/>
+      <c r="AH48" s="6"/>
     </row>
-    <row r="49" spans="1:32" ht="227" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" ht="227" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>100</v>
       </c>
@@ -5817,52 +5974,54 @@
       <c r="P49" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="Q49" s="70" t="s">
+      <c r="Q49" s="61"/>
+      <c r="R49" s="70" t="s">
         <v>256</v>
       </c>
-      <c r="R49" s="61" t="s">
+      <c r="S49" s="61" t="s">
         <v>252</v>
       </c>
-      <c r="S49" s="8" t="s">
+      <c r="T49" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="T49" s="20"/>
-      <c r="U49" s="6" t="s">
+      <c r="U49" s="20"/>
+      <c r="V49" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="V49" s="6" t="s">
+      <c r="W49" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="W49" s="6" t="s">
+      <c r="X49" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="X49" s="6" t="s">
+      <c r="Y49" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="Y49" s="6" t="s">
-        <v>207</v>
       </c>
       <c r="Z49" s="6" t="s">
         <v>207</v>
       </c>
       <c r="AA49" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB49" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="AB49" s="6" t="s">
+      <c r="AC49" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="AC49" s="6" t="s">
+      <c r="AD49" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="AD49" s="6" t="s">
+      <c r="AE49" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="AE49" s="6"/>
-      <c r="AF49" s="6" t="s">
+      <c r="AF49" s="6"/>
+      <c r="AG49" s="6"/>
+      <c r="AH49" s="6" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="50" spans="1:32" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>156</v>
       </c>
@@ -5893,22 +6052,22 @@
       <c r="P50" s="18"/>
       <c r="Q50" s="18"/>
       <c r="R50" s="18"/>
-      <c r="S50" s="8" t="s">
+      <c r="S50" s="18"/>
+      <c r="T50" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="T50" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="U50" s="6" t="s">
+      <c r="U50" s="8" t="s">
         <v>2</v>
       </c>
       <c r="V50" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="W50" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="X50" s="6"/>
+      <c r="W50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X50" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
@@ -5917,8 +6076,10 @@
       <c r="AD50" s="6"/>
       <c r="AE50" s="6"/>
       <c r="AF50" s="6"/>
+      <c r="AG50" s="6"/>
+      <c r="AH50" s="6"/>
     </row>
-    <row r="51" spans="1:32" ht="153" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" ht="153" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>101</v>
       </c>
@@ -5967,27 +6128,25 @@
       <c r="P51" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="Q51" s="31" t="s">
+      <c r="Q51" s="6"/>
+      <c r="R51" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="R51" s="6" t="s">
+      <c r="S51" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="S51" s="8" t="s">
+      <c r="T51" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="T51" s="20"/>
-      <c r="U51" s="6" t="s">
+      <c r="U51" s="20"/>
+      <c r="V51" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="V51" s="6" t="s">
+      <c r="W51" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="W51" s="6" t="s">
+      <c r="X51" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="X51" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="Y51" s="6" t="s">
         <v>199</v>
@@ -6007,12 +6166,16 @@
       <c r="AD51" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="AE51" s="6"/>
-      <c r="AF51" s="6" t="s">
+      <c r="AE51" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF51" s="6"/>
+      <c r="AG51" s="6"/>
+      <c r="AH51" s="6" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="52" spans="1:32" ht="51" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>102</v>
       </c>
@@ -6061,27 +6224,25 @@
       <c r="P52" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="Q52" s="31" t="s">
+      <c r="Q52" s="6"/>
+      <c r="R52" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="R52" s="6" t="s">
+      <c r="S52" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="S52" s="8" t="s">
+      <c r="T52" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="T52" s="20"/>
-      <c r="U52" s="6" t="s">
+      <c r="U52" s="20"/>
+      <c r="V52" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="V52" s="6" t="s">
+      <c r="W52" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="W52" s="6" t="s">
+      <c r="X52" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="X52" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="Y52" s="6" t="s">
         <v>199</v>
@@ -6101,10 +6262,14 @@
       <c r="AD52" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="AE52" s="6"/>
+      <c r="AE52" s="6" t="s">
+        <v>199</v>
+      </c>
       <c r="AF52" s="6"/>
+      <c r="AG52" s="6"/>
+      <c r="AH52" s="6"/>
     </row>
-    <row r="53" spans="1:32" ht="272" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34" ht="272" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>175</v>
       </c>
@@ -6153,32 +6318,30 @@
       <c r="P53" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="Q53" s="31" t="s">
+      <c r="Q53" s="6"/>
+      <c r="R53" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="R53" s="61" t="s">
+      <c r="S53" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="S53" s="8"/>
-      <c r="T53" s="20"/>
-      <c r="U53" s="6" t="s">
-        <v>179</v>
-      </c>
+      <c r="T53" s="8"/>
+      <c r="U53" s="20"/>
       <c r="V53" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="W53" s="32"/>
-      <c r="X53" s="6" t="s">
+      <c r="W53" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="X53" s="32"/>
+      <c r="Y53" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="Y53" s="6" t="s">
+      <c r="Z53" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="Z53" s="6" t="s">
+      <c r="AA53" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="AA53" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="AB53" s="6" t="s">
         <v>222</v>
@@ -6187,14 +6350,18 @@
         <v>222</v>
       </c>
       <c r="AD53" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE53" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="AE53" s="6"/>
-      <c r="AF53" s="6" t="s">
+      <c r="AF53" s="6"/>
+      <c r="AG53" s="6"/>
+      <c r="AH53" s="6" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="54" spans="1:32" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>174</v>
       </c>
@@ -6223,24 +6390,24 @@
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
-      <c r="Q54" s="31"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="8" t="s">
+      <c r="Q54" s="6"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="T54" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="U54" s="6" t="s">
+      <c r="U54" s="8" t="s">
         <v>2</v>
       </c>
       <c r="V54" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="W54" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="X54" s="6"/>
+      <c r="W54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X54" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="6"/>
@@ -6249,8 +6416,10 @@
       <c r="AD54" s="6"/>
       <c r="AE54" s="6"/>
       <c r="AF54" s="6"/>
+      <c r="AG54" s="6"/>
+      <c r="AH54" s="6"/>
     </row>
-    <row r="55" spans="1:32" ht="136" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>10</v>
       </c>
@@ -6299,27 +6468,25 @@
       <c r="P55" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="Q55" s="31" t="s">
+      <c r="Q55" s="6"/>
+      <c r="R55" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="R55" s="6" t="s">
+      <c r="S55" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="S55" s="8" t="s">
+      <c r="T55" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="T55" s="20"/>
-      <c r="U55" s="6" t="s">
+      <c r="U55" s="20"/>
+      <c r="V55" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="V55" s="6" t="s">
+      <c r="W55" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="W55" s="6" t="s">
+      <c r="X55" s="6" t="s">
         <v>266</v>
-      </c>
-      <c r="X55" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="Y55" s="6" t="s">
         <v>202</v>
@@ -6339,12 +6506,16 @@
       <c r="AD55" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AE55" s="6"/>
-      <c r="AF55" s="6" t="s">
+      <c r="AE55" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF55" s="6"/>
+      <c r="AG55" s="6"/>
+      <c r="AH55" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="56" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>11</v>
       </c>
@@ -6373,22 +6544,22 @@
       <c r="P56" s="18"/>
       <c r="Q56" s="18"/>
       <c r="R56" s="18"/>
-      <c r="S56" s="58" t="s">
+      <c r="S56" s="18"/>
+      <c r="T56" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="T56" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="U56" s="6" t="s">
+      <c r="U56" s="8" t="s">
         <v>2</v>
       </c>
       <c r="V56" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="W56" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="X56" s="6"/>
+      <c r="W56" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X56" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
       <c r="AA56" s="6"/>
@@ -6397,8 +6568,10 @@
       <c r="AD56" s="6"/>
       <c r="AE56" s="6"/>
       <c r="AF56" s="6"/>
+      <c r="AG56" s="6"/>
+      <c r="AH56" s="6"/>
     </row>
-    <row r="57" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>12</v>
       </c>
@@ -6427,22 +6600,22 @@
       <c r="P57" s="18"/>
       <c r="Q57" s="18"/>
       <c r="R57" s="18"/>
-      <c r="S57" s="58" t="s">
+      <c r="S57" s="18"/>
+      <c r="T57" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="T57" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="U57" s="6" t="s">
+      <c r="U57" s="8" t="s">
         <v>2</v>
       </c>
       <c r="V57" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="W57" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="X57" s="6"/>
+      <c r="W57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X57" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
       <c r="AA57" s="6"/>
@@ -6451,8 +6624,10 @@
       <c r="AD57" s="6"/>
       <c r="AE57" s="6"/>
       <c r="AF57" s="6"/>
+      <c r="AG57" s="6"/>
+      <c r="AH57" s="6"/>
     </row>
-    <row r="58" spans="1:32" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>13</v>
       </c>
@@ -6481,22 +6656,22 @@
       <c r="P58" s="18"/>
       <c r="Q58" s="18"/>
       <c r="R58" s="18"/>
-      <c r="S58" s="58" t="s">
+      <c r="S58" s="18"/>
+      <c r="T58" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="T58" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="U58" s="6" t="s">
+      <c r="U58" s="8" t="s">
         <v>2</v>
       </c>
       <c r="V58" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="W58" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="X58" s="6"/>
+      <c r="W58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X58" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="6"/>
@@ -6505,8 +6680,10 @@
       <c r="AD58" s="6"/>
       <c r="AE58" s="6"/>
       <c r="AF58" s="6"/>
+      <c r="AG58" s="6"/>
+      <c r="AH58" s="6"/>
     </row>
-    <row r="59" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:34" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>84</v>
       </c>
@@ -6534,9 +6711,6 @@
       <c r="I59" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="S59" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="T59" s="5" t="s">
         <v>84</v>
       </c>
@@ -6547,6 +6721,9 @@
         <v>84</v>
       </c>
       <c r="W59" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="X59" s="5" t="s">
         <v>84</v>
       </c>
     </row>

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC87050-615E-E743-A5BD-F42D6B94BCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A0E468-D07B-9C4A-A089-B820C43AFB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22000" windowHeight="19560" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
+    <workbookView xWindow="16520" yWindow="500" windowWidth="21860" windowHeight="19560" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="288">
   <si>
     <t>Parameter</t>
   </si>
@@ -1967,10 +1967,6 @@
   </si>
   <si>
     <t>Cuzin, 2023</t>
-  </si>
-  <si>
-    <t>Cuzin, 2023: Dat'AIDS cohort, 2009-2019
-Median time from HIV diagnosis to ART prescription 128 days [33; 570] in 2009–2011 --&gt; annual proportion = 0.8951337 (after multiplied by max proportion)</t>
   </si>
   <si>
     <t>0.0965109
@@ -2023,6 +2019,54 @@
     <t>Ford et al, 2009 (NSBS 2006)
 Techasrivichien et al, 2014
 Pinyopornpanish et al, 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001: 19% tested in past year (cross-sectional survey of one province)
+2006: 32% tested in past year (2006 National Sexual Behavior Survey) </t>
+  </si>
+  <si>
+    <t>Lertpiriyasuwat et al, 2001
+Chamratrithirong et al, 2007 (NSBS)</t>
+  </si>
+  <si>
+    <t>Eamsakulrat, 2022</t>
+  </si>
+  <si>
+    <t>Eamsakulrat, 2022 (data are from 2016)
+Anchored at 0 in 1990
+Hospital in Bangkok
+Among 299 individuals who were enrolled in care, 270 (90.3%) individuals initiated ART at the study site</t>
+  </si>
+  <si>
+    <t>Cuzin, 2023: Dat'AIDS cohort, 2009-2019
+Anchored at 0 in 1990
+Median time from HIV diagnosis to ART prescription 128 days [33; 570] in 2009–2011 --&gt; annual proportion = 0.8951337 (after multiplied by max proportion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eamsakulrat, 2022 (data are from 2016)
+Hospital in Bangkok
+84.1% individuals retained in care at 12 months </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crowell et al, 2016 (Thai Red Cross AIDS Research Center in Bankok) - 2012 estimate 
+Kroon et al, 2016 (same cohort) - 2013 estimate 
+Eamsakulrat, 2022 (Hospital in Bangkok) - 2016 estimate 
+No differencees by age 
+2012 time to suppression: 93 days -&gt; 98% annual suppresison 
+2012 time to suppression: 84 days -&gt; 99% annual suppression 
+2016: 74.8% suppressed in 12 months </t>
+  </si>
+  <si>
+    <t>Crowell et al, 2016
+Kroon et al, 2018
+Eamsakulrat et al, 2022</t>
+  </si>
+  <si>
+    <t>Teeraananchai, 2025: Universal Health Coverage (UHC) programme in Thailand, 2014-2022
+VF rate of 0.0311 (time to loss of suppression = 32 years…)</t>
+  </si>
+  <si>
+    <t>Teeraananchai, 2025</t>
   </si>
 </sst>
 </file>
@@ -2872,10 +2916,10 @@
   <dimension ref="A1:AH59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AB51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AF6" sqref="AF6"/>
+      <selection pane="bottomRight" activeCell="AC53" sqref="AC53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2987,7 +3031,7 @@
         <v>230</v>
       </c>
       <c r="Q2" s="63" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R2" s="63" t="s">
         <v>236</v>
@@ -3030,7 +3074,7 @@
         <v>230</v>
       </c>
       <c r="AF2" s="65" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG2" s="63" t="s">
         <v>236</v>
@@ -3225,7 +3269,7 @@
         <v>231</v>
       </c>
       <c r="Q5" s="55" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R5" s="55" t="s">
         <v>261</v>
@@ -3268,7 +3312,7 @@
         <v>231</v>
       </c>
       <c r="AF5" s="55" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG5" s="55" t="s">
         <v>262</v>
@@ -3711,7 +3755,7 @@
         <v>85</v>
       </c>
       <c r="Q12" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="R12" s="71" t="s">
         <v>257</v>
@@ -3754,7 +3798,7 @@
         <v>189</v>
       </c>
       <c r="AF12" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AG12" s="25" t="s">
         <v>189</v>
@@ -3869,7 +3913,7 @@
         <v>51</v>
       </c>
       <c r="Q14" s="27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R14" s="71" t="s">
         <v>259</v>
@@ -3912,7 +3956,7 @@
         <v>61</v>
       </c>
       <c r="AF14" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG14" s="25" t="s">
         <v>61</v>
@@ -5762,7 +5806,9 @@
       <c r="P46" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="Q46" s="6"/>
+      <c r="Q46" s="6" t="s">
+        <v>278</v>
+      </c>
       <c r="R46" s="31" t="s">
         <v>255</v>
       </c>
@@ -5803,7 +5849,9 @@
       <c r="AE46" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="AF46" s="6"/>
+      <c r="AF46" s="6" t="s">
+        <v>279</v>
+      </c>
       <c r="AG46" s="6"/>
       <c r="AH46" s="6" t="s">
         <v>240</v>
@@ -5951,7 +5999,7 @@
         <v>216</v>
       </c>
       <c r="I49" s="56" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="J49" s="61" t="s">
         <v>196</v>
@@ -5974,7 +6022,9 @@
       <c r="P49" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="Q49" s="61"/>
+      <c r="Q49" s="61" t="s">
+        <v>281</v>
+      </c>
       <c r="R49" s="70" t="s">
         <v>256</v>
       </c>
@@ -6015,7 +6065,9 @@
       <c r="AE49" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="AF49" s="6"/>
+      <c r="AF49" s="6" t="s">
+        <v>280</v>
+      </c>
       <c r="AG49" s="6"/>
       <c r="AH49" s="6" t="s">
         <v>253</v>
@@ -6105,7 +6157,7 @@
         <v>0.15548490000000001</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J51" s="6" t="s">
         <v>198</v>
@@ -6128,7 +6180,9 @@
       <c r="P51" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="Q51" s="6"/>
+      <c r="Q51" s="61" t="s">
+        <v>283</v>
+      </c>
       <c r="R51" s="31" t="s">
         <v>198</v>
       </c>
@@ -6146,7 +6200,7 @@
         <v>170</v>
       </c>
       <c r="X51" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Y51" s="6" t="s">
         <v>199</v>
@@ -6169,7 +6223,9 @@
       <c r="AE51" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="AF51" s="6"/>
+      <c r="AF51" s="6" t="s">
+        <v>280</v>
+      </c>
       <c r="AG51" s="6"/>
       <c r="AH51" s="6" t="s">
         <v>247</v>
@@ -6201,7 +6257,7 @@
         <v>0.15548490000000001</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J52" s="6" t="s">
         <v>198</v>
@@ -6224,7 +6280,9 @@
       <c r="P52" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="Q52" s="6"/>
+      <c r="Q52" s="6" t="s">
+        <v>283</v>
+      </c>
       <c r="R52" s="31" t="s">
         <v>198</v>
       </c>
@@ -6242,7 +6300,7 @@
         <v>170</v>
       </c>
       <c r="X52" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Y52" s="6" t="s">
         <v>199</v>
@@ -6265,7 +6323,9 @@
       <c r="AE52" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="AF52" s="6"/>
+      <c r="AF52" s="6" t="s">
+        <v>280</v>
+      </c>
       <c r="AG52" s="6"/>
       <c r="AH52" s="6"/>
     </row>
@@ -6295,7 +6355,7 @@
         <v>173</v>
       </c>
       <c r="I53" s="56" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J53" s="6" t="s">
         <v>220</v>
@@ -6318,7 +6378,9 @@
       <c r="P53" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="Q53" s="6"/>
+      <c r="Q53" s="6" t="s">
+        <v>284</v>
+      </c>
       <c r="R53" s="31" t="s">
         <v>239</v>
       </c>
@@ -6355,7 +6417,9 @@
       <c r="AE53" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="AF53" s="6"/>
+      <c r="AF53" s="6" t="s">
+        <v>285</v>
+      </c>
       <c r="AG53" s="6"/>
       <c r="AH53" s="6" t="s">
         <v>253</v>
@@ -6445,7 +6509,7 @@
         <v>7.5484389999999998E-2</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J55" s="6" t="s">
         <v>201</v>
@@ -6468,7 +6532,9 @@
       <c r="P55" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="Q55" s="6"/>
+      <c r="Q55" s="6" t="s">
+        <v>286</v>
+      </c>
       <c r="R55" s="31" t="s">
         <v>201</v>
       </c>
@@ -6509,7 +6575,9 @@
       <c r="AE55" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AF55" s="6"/>
+      <c r="AF55" s="6" t="s">
+        <v>287</v>
+      </c>
       <c r="AG55" s="6"/>
       <c r="AH55" s="6" t="s">
         <v>250</v>

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A0E468-D07B-9C4A-A089-B820C43AFB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFFA4E9-2B72-6F49-8DD9-37F1BB25793B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16520" yWindow="500" windowWidth="21860" windowHeight="19560" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38380" windowHeight="19560" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">params!$A$1:$X$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">params!$A$1:$Y$59</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +45,7 @@
     <author>tc={51F972CD-9F3E-FF43-98B5-159579D7B474}</author>
   </authors>
   <commentList>
-    <comment ref="V14" authorId="0" shapeId="0" xr:uid="{04385ABF-366F-F14D-B686-003B7FD6A102}">
+    <comment ref="W14" authorId="0" shapeId="0" xr:uid="{04385ABF-366F-F14D-B686-003B7FD6A102}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -53,7 +53,7 @@
     This includes 13 prospective studies from different regions; 0.42 estimate was Kenya-specific but they have Europe, France specifically, and other African countries</t>
       </text>
     </comment>
-    <comment ref="U15" authorId="1" shapeId="0" xr:uid="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
+    <comment ref="V15" authorId="1" shapeId="0" xr:uid="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="299">
   <si>
     <t>Parameter</t>
   </si>
@@ -230,11 +230,6 @@
 Constant </t>
   </si>
   <si>
-    <t>0.42
-Logitnormal
-Begins at this value in 1990, interpolates to birth.transmission.risk.1 from 1990-2020</t>
-  </si>
-  <si>
     <t>0.3
 Logitnormal
 Arrives at this value in 2020, constant after</t>
@@ -316,10 +311,6 @@
   </si>
   <si>
     <t xml:space="preserve">Unsuppressed maternal-fetal transmission risk in 1990 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of babies born to UNSUPPRESSED mothers living with HIV who become infected;  historial (pre-ART era) 
-Table 1 estimate for Kenya: 42% </t>
   </si>
   <si>
     <t xml:space="preserve">Unsuppressed maternal-fetal transmission risk in 2020 </t>
@@ -1930,30 +1921,6 @@
     <t>Ethiopia, DRC, CI, Ghana DHS surveys</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.141 - European estimate from Dabis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Logitnormal
-Begins at this value in 1990, interpolates to birth.transmission.risk.1 from 1990-2020</t>
-    </r>
-  </si>
-  <si>
     <t>Bruyand et al, 2019
 Sicsic et al, 2016</t>
   </si>
@@ -1991,12 +1958,6 @@
   </si>
   <si>
     <t>Smith et al, 2023</t>
-  </si>
-  <si>
-    <t>0.242
-1999 Bangkok hospital study 
-Logitnormal
-Begins at this value in 1990, interpolates to birth.transmission.risk.1 from 1990-2020</t>
   </si>
   <si>
     <t>Mock et al, 1999</t>
@@ -2032,41 +1993,99 @@
     <t>Eamsakulrat, 2022</t>
   </si>
   <si>
-    <t>Eamsakulrat, 2022 (data are from 2016)
+    <t>Cuzin, 2023: Dat'AIDS cohort, 2009-2019
+Anchored at 0 in 1990
+Median time from HIV diagnosis to ART prescription 128 days [33; 570] in 2009–2011 --&gt; annual proportion = 0.8951337 (after multiplied by max proportion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eamsakulrat, 2022 (data are from 2016)
+Hospital in Bangkok
+84.1% individuals retained in care at 12 months </t>
+  </si>
+  <si>
+    <t>Teeraananchai, 2025: Universal Health Coverage (UHC) programme in Thailand, 2014-2022
+VF rate of 0.0311 (time to loss of suppression = 32 years…)</t>
+  </si>
+  <si>
+    <t>Teeraananchai, 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia </t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>DHS 2005, 2014, 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of babies born to UNSUPPRESSED mothers living with HIV who become infected;  historial (pre-ART era) 
+Logitnormal
+Begins at this value in 1990, interpolates to birth.transmission.risk.1 from 1990-2020
+Table 1 estimate for Kenya: 42% </t>
+  </si>
+  <si>
+    <t>0.141 - European estimate from Dabis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.242
+1999 Bangkok hospital study </t>
+  </si>
+  <si>
+    <t>0.305
+HIV and AIDS Data Hub for Asia-Pacific 
+ Value is from 2005; but indicated that only 1.2% of positive pregnant women were receiving PMTCT in 2003 so can assume this is basically the pre-ART value</t>
+  </si>
+  <si>
+    <t>AIDSDataHub 2011</t>
+  </si>
+  <si>
+    <t>ACTUALLY, revised to use TAHOD-specific estimate (Vu et al, 2025); code is in Cambodia script 
+Eamsakulrat, 2022 (data are from 2016)
 Anchored at 0 in 1990
 Hospital in Bangkok
 Among 299 individuals who were enrolled in care, 270 (90.3%) individuals initiated ART at the study site</t>
   </si>
   <si>
-    <t>Cuzin, 2023: Dat'AIDS cohort, 2009-2019
-Anchored at 0 in 1990
-Median time from HIV diagnosis to ART prescription 128 days [33; 570] in 2009–2011 --&gt; annual proportion = 0.8951337 (after multiplied by max proportion)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eamsakulrat, 2022 (data are from 2016)
-Hospital in Bangkok
-84.1% individuals retained in care at 12 months </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crowell et al, 2016 (Thai Red Cross AIDS Research Center in Bankok) - 2012 estimate 
+    <t>Vu, 2025 
+TAHOD cohort
+"The probability of not having initiated ART at two years from HIV diagnosis was 16.30% (95% CI: 15.17, 17.47) for those diagnosed in 2013–2015, 8.95% (95% CI: 8.23, 9.69) for 2016–2019, and 10.11% (95% CI: 8.77, 11.55) after 2020."</t>
+  </si>
+  <si>
+    <t>Vu, 2025 (TAHOD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lay 2017 </t>
+  </si>
+  <si>
+    <t>6% LTFU at 12 months
+Non-governmental hospital in Phnom Penh, 2003-2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyomopito 2010 (TAHOD, from 2000-2010) - 2006 estimate Crowell et al, 2016 (Thai Red Cross AIDS Research Center in Bankok) - 2012 estimate 
 Kroon et al, 2016 (same cohort) - 2013 estimate 
 Eamsakulrat, 2022 (Hospital in Bangkok) - 2016 estimate 
 No differencees by age 
+2006: 83% suppressed in 12 months
 2012 time to suppression: 93 days -&gt; 98% annual suppresison 
 2012 time to suppression: 84 days -&gt; 99% annual suppression 
 2016: 74.8% suppressed in 12 months </t>
   </si>
   <si>
-    <t>Crowell et al, 2016
+    <t>Oyomopito et al, 2010 (TAHOD)
+Crowell et al, 2016
 Kroon et al, 2018
 Eamsakulrat et al, 2022</t>
   </si>
   <si>
-    <t>Teeraananchai, 2025: Universal Health Coverage (UHC) programme in Thailand, 2014-2022
-VF rate of 0.0311 (time to loss of suppression = 32 years…)</t>
-  </si>
-  <si>
-    <t>Teeraananchai, 2025</t>
+    <t xml:space="preserve">Using Thailand model </t>
+  </si>
+  <si>
+    <t>HIV clinic of Calmette Hospital located in Phnom Penh, 2010-2012
+VF rate of 0.0618754 (time to loss of suppression = 16 years)</t>
+  </si>
+  <si>
+    <t>Barennes, 2014</t>
   </si>
 </sst>
 </file>
@@ -2340,7 +2359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2553,6 +2572,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2902,10 +2927,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="V14" dT="2025-01-22T18:42:38.64" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{04385ABF-366F-F14D-B686-003B7FD6A102}">
+  <threadedComment ref="W14" dT="2025-01-22T18:42:38.64" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{04385ABF-366F-F14D-B686-003B7FD6A102}">
     <text>This includes 13 prospective studies from different regions; 0.42 estimate was Kenya-specific but they have Europe, France specifically, and other African countries</text>
   </threadedComment>
-  <threadedComment ref="U15" dT="2025-01-22T18:20:02.26" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
+  <threadedComment ref="V15" dT="2025-01-22T18:20:02.26" personId="{FA2A8BF6-F7F9-E248-9793-CD9889996086}" id="{51F972CD-9F3E-FF43-98B5-159579D7B474}">
     <text>Update to WHO reference because this is actually a global estimate</text>
   </threadedComment>
 </ThreadedComments>
@@ -2913,13 +2938,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B2D996-732D-784F-96EB-809CE760E324}">
-  <dimension ref="A1:AH59"/>
+  <dimension ref="A1:AJ59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AB51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AC53" sqref="AC53"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2930,16 +2955,16 @@
     <col min="4" max="4" width="10.6640625" style="5" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="38" style="5" customWidth="1"/>
     <col min="6" max="6" width="55" style="5" customWidth="1"/>
-    <col min="7" max="19" width="53.5" style="5" customWidth="1"/>
-    <col min="20" max="20" width="17" style="5" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="24" style="5" customWidth="1"/>
-    <col min="22" max="22" width="26" style="5" customWidth="1"/>
-    <col min="23" max="23" width="37.5" style="5" customWidth="1"/>
-    <col min="24" max="34" width="30.5" style="5" customWidth="1"/>
-    <col min="35" max="16384" width="10.83203125" style="5"/>
+    <col min="7" max="20" width="53.5" style="5" customWidth="1"/>
+    <col min="21" max="21" width="17" style="5" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="24" style="5" customWidth="1"/>
+    <col min="23" max="23" width="26" style="5" customWidth="1"/>
+    <col min="24" max="24" width="37.5" style="5" customWidth="1"/>
+    <col min="25" max="36" width="30.5" style="5" customWidth="1"/>
+    <col min="37" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -2953,7 +2978,7 @@
         <v>28</v>
       </c>
       <c r="E1" s="66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F1" s="66" t="s">
         <v>44</v>
@@ -2971,16 +2996,16 @@
       <c r="Q1" s="69"/>
       <c r="R1" s="69"/>
       <c r="S1" s="69"/>
-      <c r="T1" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="U1" s="66" t="s">
+      <c r="T1" s="69"/>
+      <c r="U1" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="35"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="60"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="36"/>
       <c r="Z1" s="60"/>
       <c r="AA1" s="60"/>
       <c r="AB1" s="60"/>
@@ -2990,8 +3015,10 @@
       <c r="AF1" s="60"/>
       <c r="AG1" s="60"/>
       <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
     </row>
-    <row r="2" spans="1:34" ht="60" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" ht="60" x14ac:dyDescent="0.35">
       <c r="A2" s="37"/>
       <c r="B2" s="38"/>
       <c r="C2" s="39"/>
@@ -3010,80 +3037,86 @@
         <v>24</v>
       </c>
       <c r="J2" s="63" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K2" s="63" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L2" s="63" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M2" s="63" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N2" s="63" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O2" s="63" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P2" s="63" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q2" s="63" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="R2" s="63" t="s">
-        <v>236</v>
+        <v>281</v>
       </c>
       <c r="S2" s="63" t="s">
-        <v>237</v>
-      </c>
-      <c r="T2" s="63"/>
-      <c r="U2" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="V2" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="T2" s="63" t="s">
+        <v>235</v>
+      </c>
+      <c r="U2" s="63"/>
+      <c r="V2" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="W2" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="63" t="s">
+      <c r="X2" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="64" t="s">
+      <c r="Y2" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="65" t="s">
-        <v>190</v>
-      </c>
       <c r="Z2" s="65" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AA2" s="65" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="AB2" s="65" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="AC2" s="65" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AD2" s="65" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="AE2" s="65" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AF2" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="AG2" s="63" t="s">
-        <v>236</v>
-      </c>
-      <c r="AH2" s="63" t="s">
-        <v>237</v>
+        <v>228</v>
+      </c>
+      <c r="AG2" s="65" t="s">
+        <v>268</v>
+      </c>
+      <c r="AH2" s="65" t="s">
+        <v>282</v>
+      </c>
+      <c r="AI2" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ2" s="63" t="s">
+        <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="211" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" ht="211" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>33</v>
       </c>
@@ -3091,68 +3124,70 @@
         <v>35</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G3" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I3" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="H3" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>167</v>
-      </c>
       <c r="J3" s="25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="N3" s="25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O3" s="25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Q3" s="25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="S3" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="V3" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="T3" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26" t="s">
         <v>2</v>
       </c>
       <c r="W3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="X3" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="25"/>
+      <c r="X3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="Z3" s="25"/>
       <c r="AA3" s="25"/>
       <c r="AB3" s="25"/>
@@ -3162,8 +3197,10 @@
       <c r="AF3" s="25"/>
       <c r="AG3" s="25"/>
       <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="25"/>
     </row>
-    <row r="4" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
@@ -3171,7 +3208,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
@@ -3193,22 +3230,22 @@
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
       <c r="S4" s="18"/>
-      <c r="T4" s="30" t="s">
+      <c r="T4" s="18"/>
+      <c r="U4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="V4" s="25" t="s">
+      <c r="V4" s="26" t="s">
         <v>2</v>
       </c>
       <c r="W4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="X4" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="25"/>
+      <c r="X4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="Z4" s="25"/>
       <c r="AA4" s="25"/>
       <c r="AB4" s="25"/>
@@ -3218,10 +3255,12 @@
       <c r="AF4" s="25"/>
       <c r="AG4" s="25"/>
       <c r="AH4" s="25"/>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="25"/>
     </row>
-    <row r="5" spans="1:34" ht="306" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" ht="306" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>35</v>
@@ -3233,97 +3272,103 @@
         <v>32</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H5" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="J5" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="I5" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="J5" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="K5" s="55" t="s">
-        <v>206</v>
-      </c>
       <c r="L5" s="55" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M5" s="55" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N5" s="55" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O5" s="55" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P5" s="55" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q5" s="55" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="R5" s="55" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="S5" s="55" t="s">
-        <v>251</v>
-      </c>
-      <c r="T5" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="T5" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="U5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="U5" s="20"/>
-      <c r="V5" s="27" t="s">
-        <v>65</v>
-      </c>
+      <c r="V5" s="20"/>
       <c r="W5" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="X5" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y5" s="55" t="s">
-        <v>206</v>
+        <v>64</v>
+      </c>
+      <c r="X5" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y5" s="29" t="s">
+        <v>183</v>
       </c>
       <c r="Z5" s="55" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AA5" s="55" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="AB5" s="55" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="AC5" s="55" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AD5" s="55" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AE5" s="55" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AF5" s="55" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="AG5" s="55" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="AH5" s="55" t="s">
-        <v>240</v>
+        <v>283</v>
+      </c>
+      <c r="AI5" s="55" t="s">
+        <v>260</v>
+      </c>
+      <c r="AJ5" s="55" t="s">
+        <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="85" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>35</v>
@@ -3339,103 +3384,109 @@
         <v>46</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L6" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P6" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q6" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="R6" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S6" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="T6" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="T6" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="U6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="U6" s="20"/>
-      <c r="V6" s="27" t="s">
+      <c r="V6" s="20"/>
+      <c r="W6" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="X6" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y6" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z6" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA6" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB6" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC6" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD6" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE6" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF6" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG6" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH6" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI6" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ6" s="55" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
         <v>66</v>
-      </c>
-      <c r="W6" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="X6" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y6" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z6" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA6" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="AB6" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="AC6" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="AD6" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="AE6" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="AF6" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="AG6" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="AH6" s="55" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
-        <v>67</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>47</v>
@@ -3453,22 +3504,22 @@
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
       <c r="S7" s="18"/>
-      <c r="T7" s="30" t="s">
+      <c r="T7" s="18"/>
+      <c r="U7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="U7" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="V7" s="25" t="s">
+      <c r="V7" s="26" t="s">
         <v>2</v>
       </c>
       <c r="W7" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="X7" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y7" s="25"/>
+      <c r="X7" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="Z7" s="25"/>
       <c r="AA7" s="25"/>
       <c r="AB7" s="25"/>
@@ -3478,22 +3529,24 @@
       <c r="AF7" s="25"/>
       <c r="AG7" s="25"/>
       <c r="AH7" s="25"/>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="25"/>
     </row>
-    <row r="8" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>47</v>
@@ -3511,22 +3564,22 @@
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
-      <c r="T8" s="30" t="s">
+      <c r="T8" s="18"/>
+      <c r="U8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="U8" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="V8" s="25" t="s">
+      <c r="V8" s="26" t="s">
         <v>2</v>
       </c>
       <c r="W8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="X8" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y8" s="25"/>
+      <c r="X8" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="Z8" s="25"/>
       <c r="AA8" s="25"/>
       <c r="AB8" s="25"/>
@@ -3536,22 +3589,24 @@
       <c r="AF8" s="25"/>
       <c r="AG8" s="25"/>
       <c r="AH8" s="25"/>
+      <c r="AI8" s="25"/>
+      <c r="AJ8" s="25"/>
     </row>
-    <row r="9" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="28" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>47</v>
@@ -3569,22 +3624,22 @@
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
-      <c r="T9" s="30" t="s">
+      <c r="T9" s="18"/>
+      <c r="U9" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="U9" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="V9" s="25" t="s">
+      <c r="V9" s="26" t="s">
         <v>2</v>
       </c>
       <c r="W9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="X9" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y9" s="25"/>
+      <c r="X9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="Z9" s="25"/>
       <c r="AA9" s="25"/>
       <c r="AB9" s="25"/>
@@ -3594,22 +3649,24 @@
       <c r="AF9" s="25"/>
       <c r="AG9" s="25"/>
       <c r="AH9" s="25"/>
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="25"/>
     </row>
-    <row r="10" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F10" s="30" t="s">
         <v>47</v>
@@ -3627,22 +3684,22 @@
       <c r="Q10" s="18"/>
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
-      <c r="T10" s="30" t="s">
+      <c r="T10" s="18"/>
+      <c r="U10" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="U10" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="V10" s="25" t="s">
+      <c r="V10" s="26" t="s">
         <v>2</v>
       </c>
       <c r="W10" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="X10" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y10" s="25"/>
+      <c r="X10" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="Z10" s="25"/>
       <c r="AA10" s="25"/>
       <c r="AB10" s="25"/>
@@ -3652,8 +3709,10 @@
       <c r="AF10" s="25"/>
       <c r="AG10" s="25"/>
       <c r="AH10" s="25"/>
+      <c r="AI10" s="25"/>
+      <c r="AJ10" s="25"/>
     </row>
-    <row r="11" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>6</v>
       </c>
@@ -3667,7 +3726,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" s="30" t="s">
         <v>48</v>
@@ -3685,16 +3744,16 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="18"/>
-      <c r="T11" s="30" t="s">
+      <c r="T11" s="18"/>
+      <c r="U11" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="U11" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="V11" s="27"/>
+      <c r="V11" s="30" t="s">
+        <v>58</v>
+      </c>
       <c r="W11" s="27"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="25"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="29"/>
       <c r="Z11" s="25"/>
       <c r="AA11" s="25"/>
       <c r="AB11" s="25"/>
@@ -3704,8 +3763,10 @@
       <c r="AF11" s="25"/>
       <c r="AG11" s="25"/>
       <c r="AH11" s="25"/>
+      <c r="AI11" s="25"/>
+      <c r="AJ11" s="25"/>
     </row>
-    <row r="12" spans="1:34" ht="136" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" ht="136" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>7</v>
       </c>
@@ -3719,109 +3780,111 @@
         <v>32</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F12" s="30" t="s">
         <v>49</v>
       </c>
       <c r="G12" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="O12" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="R12" s="31"/>
+      <c r="S12" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="T12" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="U12" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="20"/>
+      <c r="W12" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="H12" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" s="59" t="s">
+      <c r="X12" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y12" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="J12" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="K12" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="L12" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="N12" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="O12" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="P12" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q12" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="R12" s="71" t="s">
-        <v>257</v>
-      </c>
-      <c r="S12" s="71" t="s">
-        <v>258</v>
-      </c>
-      <c r="T12" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="U12" s="20"/>
-      <c r="V12" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="W12" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="X12" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y12" s="25" t="s">
-        <v>189</v>
-      </c>
       <c r="Z12" s="25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AA12" s="25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AB12" s="25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AC12" s="25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AD12" s="25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AE12" s="25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF12" s="25" t="s">
-        <v>273</v>
+        <v>187</v>
       </c>
       <c r="AG12" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="AH12" s="25" t="s">
-        <v>189</v>
+        <v>270</v>
+      </c>
+      <c r="AH12" s="25"/>
+      <c r="AI12" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ12" s="25" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>50</v>
@@ -3837,24 +3900,24 @@
       <c r="O13" s="18"/>
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
-      <c r="R13" s="31"/>
+      <c r="R13" s="18"/>
       <c r="S13" s="31"/>
-      <c r="T13" s="30" t="s">
+      <c r="T13" s="31"/>
+      <c r="U13" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="U13" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="V13" s="25" t="s">
+      <c r="V13" s="26" t="s">
         <v>2</v>
       </c>
       <c r="W13" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="X13" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y13" s="25"/>
+      <c r="X13" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="Z13" s="25"/>
       <c r="AA13" s="25"/>
       <c r="AB13" s="25"/>
@@ -3864,10 +3927,12 @@
       <c r="AF13" s="25"/>
       <c r="AG13" s="25"/>
       <c r="AH13" s="25"/>
+      <c r="AI13" s="25"/>
+      <c r="AJ13" s="25"/>
     </row>
-    <row r="14" spans="1:34" ht="85" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" ht="136" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>35</v>
@@ -3879,95 +3944,101 @@
         <v>31</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>76</v>
+        <v>284</v>
       </c>
       <c r="F14" s="30"/>
-      <c r="G14" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="55" t="s">
-        <v>263</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="M14" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="N14" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="O14" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="P14" s="27" t="s">
-        <v>51</v>
+      <c r="G14" s="27">
+        <v>0.42</v>
+      </c>
+      <c r="H14" s="27">
+        <v>0.42</v>
+      </c>
+      <c r="I14" s="72" t="s">
+        <v>285</v>
+      </c>
+      <c r="J14" s="27">
+        <v>0.42</v>
+      </c>
+      <c r="K14" s="27">
+        <v>0.42</v>
+      </c>
+      <c r="L14" s="27">
+        <v>0.42</v>
+      </c>
+      <c r="M14" s="27">
+        <v>0.42</v>
+      </c>
+      <c r="N14" s="27">
+        <v>0.42</v>
+      </c>
+      <c r="O14" s="27">
+        <v>0.42</v>
+      </c>
+      <c r="P14" s="27">
+        <v>0.42</v>
       </c>
       <c r="Q14" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="R14" s="71" t="s">
-        <v>259</v>
+        <v>286</v>
+      </c>
+      <c r="R14" s="27" t="s">
+        <v>287</v>
       </c>
       <c r="S14" s="71" t="s">
-        <v>260</v>
-      </c>
-      <c r="T14" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="T14" s="71" t="s">
+        <v>258</v>
+      </c>
+      <c r="U14" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="U14" s="20"/>
-      <c r="V14" s="27" t="s">
-        <v>61</v>
-      </c>
+      <c r="V14" s="20"/>
       <c r="W14" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X14" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y14" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="Y14" s="27" t="s">
+        <v>60</v>
       </c>
       <c r="Z14" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA14" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB14" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC14" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AD14" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE14" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF14" s="25" t="s">
-        <v>275</v>
+        <v>60</v>
       </c>
       <c r="AG14" s="25" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="AH14" s="25" t="s">
-        <v>61</v>
+        <v>288</v>
+      </c>
+      <c r="AI14" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ14" s="25" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>35</v>
@@ -3979,10 +4050,10 @@
         <v>31</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -3997,18 +4068,18 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="18"/>
-      <c r="T15" s="30" t="s">
+      <c r="T15" s="18"/>
+      <c r="U15" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="U15" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="V15" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="W15" s="18"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="18"/>
+      <c r="V15" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="W15" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="19"/>
       <c r="Z15" s="18"/>
       <c r="AA15" s="18"/>
       <c r="AB15" s="18"/>
@@ -4018,8 +4089,10 @@
       <c r="AF15" s="18"/>
       <c r="AG15" s="18"/>
       <c r="AH15" s="18"/>
+      <c r="AI15" s="18"/>
+      <c r="AJ15" s="18"/>
     </row>
-    <row r="16" spans="1:34" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
@@ -4027,16 +4100,16 @@
         <v>37</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -4051,16 +4124,16 @@
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
       <c r="S16" s="18"/>
-      <c r="T16" s="13" t="s">
+      <c r="T16" s="18"/>
+      <c r="U16" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="U16" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="V16" s="18"/>
+      <c r="V16" s="13" t="s">
+        <v>86</v>
+      </c>
       <c r="W16" s="18"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="19"/>
       <c r="Z16" s="18"/>
       <c r="AA16" s="18"/>
       <c r="AB16" s="18"/>
@@ -4070,22 +4143,24 @@
       <c r="AF16" s="18"/>
       <c r="AG16" s="18"/>
       <c r="AH16" s="18"/>
+      <c r="AI16" s="18"/>
+      <c r="AJ16" s="18"/>
     </row>
-    <row r="17" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>50</v>
@@ -4103,22 +4178,22 @@
       <c r="Q17" s="18"/>
       <c r="R17" s="18"/>
       <c r="S17" s="18"/>
-      <c r="T17" s="13" t="s">
+      <c r="T17" s="18"/>
+      <c r="U17" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="U17" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="V17" s="10" t="s">
+      <c r="V17" s="13" t="s">
         <v>2</v>
       </c>
       <c r="W17" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="X17" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y17" s="10"/>
+      <c r="X17" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
@@ -4128,22 +4203,24 @@
       <c r="AF17" s="10"/>
       <c r="AG17" s="10"/>
       <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
     </row>
-    <row r="18" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>50</v>
@@ -4161,22 +4238,22 @@
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
       <c r="S18" s="18"/>
-      <c r="T18" s="13" t="s">
+      <c r="T18" s="18"/>
+      <c r="U18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="U18" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="V18" s="10" t="s">
+      <c r="V18" s="13" t="s">
         <v>2</v>
       </c>
       <c r="W18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="X18" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y18" s="10"/>
+      <c r="X18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
@@ -4186,22 +4263,24 @@
       <c r="AF18" s="10"/>
       <c r="AG18" s="10"/>
       <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
     </row>
-    <row r="19" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>50</v>
@@ -4219,22 +4298,22 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="18"/>
-      <c r="T19" s="13" t="s">
+      <c r="T19" s="18"/>
+      <c r="U19" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="U19" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="V19" s="10" t="s">
+      <c r="V19" s="13" t="s">
         <v>2</v>
       </c>
       <c r="W19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="X19" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y19" s="10"/>
+      <c r="X19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
@@ -4244,22 +4323,24 @@
       <c r="AF19" s="10"/>
       <c r="AG19" s="10"/>
       <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
     </row>
-    <row r="20" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>50</v>
@@ -4277,22 +4358,22 @@
       <c r="Q20" s="18"/>
       <c r="R20" s="18"/>
       <c r="S20" s="18"/>
-      <c r="T20" s="13" t="s">
+      <c r="T20" s="18"/>
+      <c r="U20" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="U20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="V20" s="10" t="s">
+      <c r="V20" s="13" t="s">
         <v>2</v>
       </c>
       <c r="W20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="X20" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y20" s="10"/>
+      <c r="X20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
       <c r="AB20" s="10"/>
@@ -4302,22 +4383,24 @@
       <c r="AF20" s="10"/>
       <c r="AG20" s="10"/>
       <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
     </row>
-    <row r="21" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>50</v>
@@ -4335,22 +4418,22 @@
       <c r="Q21" s="18"/>
       <c r="R21" s="18"/>
       <c r="S21" s="18"/>
-      <c r="T21" s="13" t="s">
+      <c r="T21" s="18"/>
+      <c r="U21" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="U21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="V21" s="10" t="s">
+      <c r="V21" s="13" t="s">
         <v>2</v>
       </c>
       <c r="W21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="X21" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y21" s="10"/>
+      <c r="X21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="Z21" s="10"/>
       <c r="AA21" s="10"/>
       <c r="AB21" s="10"/>
@@ -4360,22 +4443,24 @@
       <c r="AF21" s="10"/>
       <c r="AG21" s="10"/>
       <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
     </row>
-    <row r="22" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>50</v>
@@ -4393,22 +4478,22 @@
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
       <c r="S22" s="18"/>
-      <c r="T22" s="13" t="s">
+      <c r="T22" s="18"/>
+      <c r="U22" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="V22" s="10" t="s">
+      <c r="V22" s="13" t="s">
         <v>2</v>
       </c>
       <c r="W22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="X22" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y22" s="10"/>
+      <c r="X22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="Z22" s="10"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="10"/>
@@ -4418,22 +4503,24 @@
       <c r="AF22" s="10"/>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
     </row>
-    <row r="23" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>50</v>
@@ -4451,22 +4538,22 @@
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
       <c r="S23" s="18"/>
-      <c r="T23" s="13" t="s">
+      <c r="T23" s="18"/>
+      <c r="U23" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="U23" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="V23" s="10" t="s">
+      <c r="V23" s="13" t="s">
         <v>2</v>
       </c>
       <c r="W23" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="X23" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y23" s="10"/>
+      <c r="X23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y23" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="Z23" s="10"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="10"/>
@@ -4476,22 +4563,24 @@
       <c r="AF23" s="10"/>
       <c r="AG23" s="10"/>
       <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
     </row>
-    <row r="24" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>50</v>
@@ -4509,22 +4598,22 @@
       <c r="Q24" s="18"/>
       <c r="R24" s="18"/>
       <c r="S24" s="18"/>
-      <c r="T24" s="13" t="s">
+      <c r="T24" s="18"/>
+      <c r="U24" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="U24" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="V24" s="10" t="s">
+      <c r="V24" s="13" t="s">
         <v>2</v>
       </c>
       <c r="W24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="X24" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y24" s="10"/>
+      <c r="X24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y24" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="10"/>
@@ -4534,22 +4623,24 @@
       <c r="AF24" s="10"/>
       <c r="AG24" s="10"/>
       <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
     </row>
-    <row r="25" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>50</v>
@@ -4567,22 +4658,22 @@
       <c r="Q25" s="18"/>
       <c r="R25" s="18"/>
       <c r="S25" s="18"/>
-      <c r="T25" s="13" t="s">
+      <c r="T25" s="18"/>
+      <c r="U25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="U25" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="V25" s="10" t="s">
+      <c r="V25" s="13" t="s">
         <v>2</v>
       </c>
       <c r="W25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="X25" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y25" s="10"/>
+      <c r="X25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y25" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="Z25" s="10"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="10"/>
@@ -4592,22 +4683,24 @@
       <c r="AF25" s="10"/>
       <c r="AG25" s="10"/>
       <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10"/>
     </row>
-    <row r="26" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>50</v>
@@ -4625,22 +4718,22 @@
       <c r="Q26" s="18"/>
       <c r="R26" s="18"/>
       <c r="S26" s="18"/>
-      <c r="T26" s="13" t="s">
+      <c r="T26" s="18"/>
+      <c r="U26" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="U26" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="V26" s="10" t="s">
+      <c r="V26" s="13" t="s">
         <v>2</v>
       </c>
       <c r="W26" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="X26" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y26" s="10"/>
+      <c r="X26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="Z26" s="10"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="10"/>
@@ -4650,22 +4743,24 @@
       <c r="AF26" s="10"/>
       <c r="AG26" s="10"/>
       <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
     </row>
-    <row r="27" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>50</v>
@@ -4683,22 +4778,22 @@
       <c r="Q27" s="18"/>
       <c r="R27" s="18"/>
       <c r="S27" s="18"/>
-      <c r="T27" s="13" t="s">
+      <c r="T27" s="18"/>
+      <c r="U27" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="U27" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="V27" s="10" t="s">
+      <c r="V27" s="13" t="s">
         <v>2</v>
       </c>
       <c r="W27" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="X27" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y27" s="10"/>
+      <c r="X27" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y27" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="Z27" s="10"/>
       <c r="AA27" s="10"/>
       <c r="AB27" s="10"/>
@@ -4708,22 +4803,24 @@
       <c r="AF27" s="10"/>
       <c r="AG27" s="10"/>
       <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
     </row>
-    <row r="28" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>50</v>
@@ -4741,22 +4838,22 @@
       <c r="Q28" s="18"/>
       <c r="R28" s="18"/>
       <c r="S28" s="18"/>
-      <c r="T28" s="13" t="s">
+      <c r="T28" s="18"/>
+      <c r="U28" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="U28" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="V28" s="10" t="s">
+      <c r="V28" s="13" t="s">
         <v>2</v>
       </c>
       <c r="W28" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="X28" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y28" s="10"/>
+      <c r="X28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="Z28" s="10"/>
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
@@ -4766,25 +4863,27 @@
       <c r="AF28" s="10"/>
       <c r="AG28" s="10"/>
       <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
     </row>
-    <row r="29" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G29" s="14">
         <v>4.0579709999999998E-2</v>
@@ -4796,10 +4895,10 @@
         <v>5.3571430000000003E-2</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
@@ -4809,16 +4908,16 @@
       <c r="Q29" s="14"/>
       <c r="R29" s="14"/>
       <c r="S29" s="14"/>
-      <c r="T29" s="16" t="s">
+      <c r="T29" s="14"/>
+      <c r="U29" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U29" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="V29" s="14"/>
+      <c r="V29" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="W29" s="14"/>
-      <c r="X29" s="15"/>
-      <c r="Y29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="15"/>
       <c r="Z29" s="14"/>
       <c r="AA29" s="14"/>
       <c r="AB29" s="14"/>
@@ -4828,8 +4927,10 @@
       <c r="AF29" s="14"/>
       <c r="AG29" s="14"/>
       <c r="AH29" s="14"/>
+      <c r="AI29" s="14"/>
+      <c r="AJ29" s="14"/>
     </row>
-    <row r="30" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>14</v>
       </c>
@@ -4837,14 +4938,14 @@
         <v>38</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G30" s="14">
         <v>8.1250000000000003E-2</v>
@@ -4856,10 +4957,10 @@
         <v>2.272727E-3</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
@@ -4869,16 +4970,16 @@
       <c r="Q30" s="14"/>
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
-      <c r="T30" s="16" t="s">
+      <c r="T30" s="14"/>
+      <c r="U30" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U30" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="V30" s="14"/>
+      <c r="V30" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="W30" s="14"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="15"/>
       <c r="Z30" s="14"/>
       <c r="AA30" s="14"/>
       <c r="AB30" s="14"/>
@@ -4888,8 +4989,10 @@
       <c r="AF30" s="14"/>
       <c r="AG30" s="14"/>
       <c r="AH30" s="14"/>
+      <c r="AI30" s="14"/>
+      <c r="AJ30" s="14"/>
     </row>
-    <row r="31" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>15</v>
       </c>
@@ -4897,14 +5000,14 @@
         <v>38</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G31" s="14">
         <v>0.02</v>
@@ -4916,10 +5019,10 @@
         <v>3.9473679999999997E-3</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
@@ -4929,16 +5032,16 @@
       <c r="Q31" s="14"/>
       <c r="R31" s="14"/>
       <c r="S31" s="14"/>
-      <c r="T31" s="16" t="s">
+      <c r="T31" s="14"/>
+      <c r="U31" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U31" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="V31" s="14"/>
+      <c r="V31" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="W31" s="14"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="15"/>
       <c r="Z31" s="14"/>
       <c r="AA31" s="14"/>
       <c r="AB31" s="14"/>
@@ -4948,23 +5051,25 @@
       <c r="AF31" s="14"/>
       <c r="AG31" s="14"/>
       <c r="AH31" s="14"/>
+      <c r="AI31" s="14"/>
+      <c r="AJ31" s="14"/>
     </row>
-    <row r="32" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
@@ -4979,22 +5084,22 @@
       <c r="Q32" s="18"/>
       <c r="R32" s="18"/>
       <c r="S32" s="18"/>
-      <c r="T32" s="16" t="s">
+      <c r="T32" s="18"/>
+      <c r="U32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U32" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="V32" s="14" t="s">
+      <c r="V32" s="16" t="s">
         <v>2</v>
       </c>
       <c r="W32" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="X32" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y32" s="14"/>
+      <c r="X32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y32" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="Z32" s="14"/>
       <c r="AA32" s="14"/>
       <c r="AB32" s="14"/>
@@ -5004,23 +5109,25 @@
       <c r="AF32" s="14"/>
       <c r="AG32" s="14"/>
       <c r="AH32" s="14"/>
+      <c r="AI32" s="14"/>
+      <c r="AJ32" s="14"/>
     </row>
-    <row r="33" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
@@ -5035,22 +5142,22 @@
       <c r="Q33" s="18"/>
       <c r="R33" s="18"/>
       <c r="S33" s="18"/>
-      <c r="T33" s="16" t="s">
+      <c r="T33" s="18"/>
+      <c r="U33" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U33" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="V33" s="14" t="s">
+      <c r="V33" s="16" t="s">
         <v>2</v>
       </c>
       <c r="W33" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="X33" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y33" s="14"/>
+      <c r="X33" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y33" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="Z33" s="14"/>
       <c r="AA33" s="14"/>
       <c r="AB33" s="14"/>
@@ -5060,23 +5167,25 @@
       <c r="AF33" s="14"/>
       <c r="AG33" s="14"/>
       <c r="AH33" s="14"/>
+      <c r="AI33" s="14"/>
+      <c r="AJ33" s="14"/>
     </row>
-    <row r="34" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
@@ -5091,22 +5200,22 @@
       <c r="Q34" s="18"/>
       <c r="R34" s="18"/>
       <c r="S34" s="18"/>
-      <c r="T34" s="16" t="s">
+      <c r="T34" s="18"/>
+      <c r="U34" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U34" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="V34" s="14" t="s">
+      <c r="V34" s="16" t="s">
         <v>2</v>
       </c>
       <c r="W34" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="X34" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y34" s="14"/>
+      <c r="X34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y34" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="Z34" s="14"/>
       <c r="AA34" s="14"/>
       <c r="AB34" s="14"/>
@@ -5116,23 +5225,25 @@
       <c r="AF34" s="14"/>
       <c r="AG34" s="14"/>
       <c r="AH34" s="14"/>
+      <c r="AI34" s="14"/>
+      <c r="AJ34" s="14"/>
     </row>
-    <row r="35" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -5147,22 +5258,22 @@
       <c r="Q35" s="18"/>
       <c r="R35" s="18"/>
       <c r="S35" s="18"/>
-      <c r="T35" s="16" t="s">
+      <c r="T35" s="18"/>
+      <c r="U35" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U35" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="V35" s="14" t="s">
+      <c r="V35" s="16" t="s">
         <v>2</v>
       </c>
       <c r="W35" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="X35" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y35" s="14"/>
+      <c r="X35" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y35" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="Z35" s="14"/>
       <c r="AA35" s="14"/>
       <c r="AB35" s="14"/>
@@ -5172,23 +5283,25 @@
       <c r="AF35" s="14"/>
       <c r="AG35" s="14"/>
       <c r="AH35" s="14"/>
+      <c r="AI35" s="14"/>
+      <c r="AJ35" s="14"/>
     </row>
-    <row r="36" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
@@ -5203,22 +5316,22 @@
       <c r="Q36" s="18"/>
       <c r="R36" s="18"/>
       <c r="S36" s="18"/>
-      <c r="T36" s="16" t="s">
+      <c r="T36" s="18"/>
+      <c r="U36" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U36" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="V36" s="14" t="s">
+      <c r="V36" s="16" t="s">
         <v>2</v>
       </c>
       <c r="W36" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="X36" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y36" s="14"/>
+      <c r="X36" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y36" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="Z36" s="14"/>
       <c r="AA36" s="14"/>
       <c r="AB36" s="14"/>
@@ -5228,23 +5341,25 @@
       <c r="AF36" s="14"/>
       <c r="AG36" s="14"/>
       <c r="AH36" s="14"/>
+      <c r="AI36" s="14"/>
+      <c r="AJ36" s="14"/>
     </row>
-    <row r="37" spans="1:34" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B37" s="41" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D37" s="43"/>
       <c r="E37" s="41" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F37" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
@@ -5259,16 +5374,16 @@
       <c r="Q37" s="18"/>
       <c r="R37" s="18"/>
       <c r="S37" s="18"/>
-      <c r="T37" s="44" t="s">
+      <c r="T37" s="18"/>
+      <c r="U37" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="U37" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="V37" s="35"/>
+      <c r="V37" s="47" t="s">
+        <v>104</v>
+      </c>
       <c r="W37" s="35"/>
-      <c r="X37" s="54"/>
-      <c r="Y37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="54"/>
       <c r="Z37" s="35"/>
       <c r="AA37" s="35"/>
       <c r="AB37" s="35"/>
@@ -5278,8 +5393,10 @@
       <c r="AF37" s="35"/>
       <c r="AG37" s="35"/>
       <c r="AH37" s="35"/>
+      <c r="AI37" s="35"/>
+      <c r="AJ37" s="35"/>
     </row>
-    <row r="38" spans="1:34" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="40" t="s">
         <v>16</v>
       </c>
@@ -5287,16 +5404,16 @@
         <v>39</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D38" s="43" t="s">
         <v>31</v>
       </c>
       <c r="E38" s="41" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F38" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
@@ -5311,22 +5428,22 @@
       <c r="Q38" s="18"/>
       <c r="R38" s="18"/>
       <c r="S38" s="18"/>
-      <c r="T38" s="44" t="s">
+      <c r="T38" s="18"/>
+      <c r="U38" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="U38" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="V38" s="48" t="s">
+      <c r="V38" s="47" t="s">
         <v>2</v>
       </c>
       <c r="W38" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="X38" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y38" s="48"/>
+      <c r="X38" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y38" s="49" t="s">
+        <v>2</v>
+      </c>
       <c r="Z38" s="48"/>
       <c r="AA38" s="48"/>
       <c r="AB38" s="48"/>
@@ -5336,25 +5453,27 @@
       <c r="AF38" s="48"/>
       <c r="AG38" s="48"/>
       <c r="AH38" s="48"/>
+      <c r="AI38" s="48"/>
+      <c r="AJ38" s="48"/>
     </row>
-    <row r="39" spans="1:34" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:36" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B39" s="41" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D39" s="43" t="s">
         <v>32</v>
       </c>
       <c r="E39" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F39" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
@@ -5369,22 +5488,22 @@
       <c r="Q39" s="18"/>
       <c r="R39" s="18"/>
       <c r="S39" s="18"/>
-      <c r="T39" s="44" t="s">
+      <c r="T39" s="18"/>
+      <c r="U39" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="U39" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="V39" s="40" t="s">
+      <c r="V39" s="44" t="s">
         <v>17</v>
       </c>
       <c r="W39" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="X39" s="41" t="s">
+      <c r="X39" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="Y39" s="40"/>
+      <c r="Y39" s="41" t="s">
+        <v>17</v>
+      </c>
       <c r="Z39" s="40"/>
       <c r="AA39" s="40"/>
       <c r="AB39" s="40"/>
@@ -5394,8 +5513,10 @@
       <c r="AF39" s="40"/>
       <c r="AG39" s="40"/>
       <c r="AH39" s="40"/>
+      <c r="AI39" s="40"/>
+      <c r="AJ39" s="40"/>
     </row>
-    <row r="40" spans="1:34" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="40" t="s">
         <v>19</v>
       </c>
@@ -5403,7 +5524,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D40" s="43" t="s">
         <v>31</v>
@@ -5412,13 +5533,13 @@
         <v>20</v>
       </c>
       <c r="F40" s="40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G40" s="40">
         <v>0.25</v>
       </c>
       <c r="H40" s="45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I40" s="40"/>
       <c r="J40" s="40"/>
@@ -5431,22 +5552,22 @@
       <c r="Q40" s="40"/>
       <c r="R40" s="40"/>
       <c r="S40" s="40"/>
-      <c r="T40" s="44" t="s">
+      <c r="T40" s="40"/>
+      <c r="U40" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="U40" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="V40" s="51" t="s">
+      <c r="V40" s="50" t="s">
         <v>2</v>
       </c>
       <c r="W40" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="X40" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y40" s="51"/>
+      <c r="X40" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y40" s="52" t="s">
+        <v>2</v>
+      </c>
       <c r="Z40" s="51"/>
       <c r="AA40" s="51"/>
       <c r="AB40" s="51"/>
@@ -5456,8 +5577,10 @@
       <c r="AF40" s="51"/>
       <c r="AG40" s="51"/>
       <c r="AH40" s="51"/>
+      <c r="AI40" s="51"/>
+      <c r="AJ40" s="51"/>
     </row>
-    <row r="41" spans="1:34" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="40" t="s">
         <v>21</v>
       </c>
@@ -5465,20 +5588,20 @@
         <v>39</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D41" s="43" t="s">
         <v>31</v>
       </c>
       <c r="E41" s="41"/>
       <c r="F41" s="40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G41" s="40">
         <v>0.25</v>
       </c>
       <c r="H41" s="45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I41" s="40"/>
       <c r="J41" s="40"/>
@@ -5491,22 +5614,22 @@
       <c r="Q41" s="40"/>
       <c r="R41" s="40"/>
       <c r="S41" s="40"/>
-      <c r="T41" s="44" t="s">
+      <c r="T41" s="40"/>
+      <c r="U41" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="U41" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="V41" s="40" t="s">
+      <c r="V41" s="44" t="s">
         <v>2</v>
       </c>
       <c r="W41" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="X41" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y41" s="40"/>
+      <c r="X41" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y41" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="Z41" s="40"/>
       <c r="AA41" s="40"/>
       <c r="AB41" s="40"/>
@@ -5516,8 +5639,10 @@
       <c r="AF41" s="40"/>
       <c r="AG41" s="40"/>
       <c r="AH41" s="40"/>
+      <c r="AI41" s="40"/>
+      <c r="AJ41" s="40"/>
     </row>
-    <row r="42" spans="1:34" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="40" t="s">
         <v>40</v>
       </c>
@@ -5525,20 +5650,20 @@
         <v>39</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D42" s="43" t="s">
         <v>31</v>
       </c>
       <c r="E42" s="41"/>
       <c r="F42" s="40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G42" s="40">
         <v>2</v>
       </c>
       <c r="H42" s="45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I42" s="40"/>
       <c r="J42" s="40"/>
@@ -5551,22 +5676,22 @@
       <c r="Q42" s="40"/>
       <c r="R42" s="40"/>
       <c r="S42" s="40"/>
-      <c r="T42" s="44" t="s">
+      <c r="T42" s="40"/>
+      <c r="U42" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="U42" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="V42" s="40" t="s">
+      <c r="V42" s="44" t="s">
         <v>2</v>
       </c>
       <c r="W42" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="X42" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y42" s="40"/>
+      <c r="X42" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y42" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="Z42" s="40"/>
       <c r="AA42" s="40"/>
       <c r="AB42" s="40"/>
@@ -5576,8 +5701,10 @@
       <c r="AF42" s="40"/>
       <c r="AG42" s="40"/>
       <c r="AH42" s="40"/>
+      <c r="AI42" s="40"/>
+      <c r="AJ42" s="40"/>
     </row>
-    <row r="43" spans="1:34" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="40" t="s">
         <v>41</v>
       </c>
@@ -5585,20 +5712,20 @@
         <v>39</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D43" s="43" t="s">
         <v>31</v>
       </c>
       <c r="E43" s="41"/>
       <c r="F43" s="40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G43" s="40">
         <v>2</v>
       </c>
       <c r="H43" s="45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I43" s="40"/>
       <c r="J43" s="40"/>
@@ -5611,22 +5738,22 @@
       <c r="Q43" s="40"/>
       <c r="R43" s="40"/>
       <c r="S43" s="40"/>
-      <c r="T43" s="44" t="s">
+      <c r="T43" s="40"/>
+      <c r="U43" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="U43" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="V43" s="40" t="s">
+      <c r="V43" s="44" t="s">
         <v>2</v>
       </c>
       <c r="W43" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="X43" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y43" s="40"/>
+      <c r="X43" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y43" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="Z43" s="40"/>
       <c r="AA43" s="40"/>
       <c r="AB43" s="40"/>
@@ -5636,8 +5763,10 @@
       <c r="AF43" s="40"/>
       <c r="AG43" s="40"/>
       <c r="AH43" s="40"/>
+      <c r="AI43" s="40"/>
+      <c r="AJ43" s="40"/>
     </row>
-    <row r="44" spans="1:34" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:36" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="40" t="s">
         <v>42</v>
       </c>
@@ -5645,20 +5774,20 @@
         <v>39</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D44" s="43" t="s">
         <v>31</v>
       </c>
       <c r="E44" s="41"/>
       <c r="F44" s="40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G44" s="40">
         <v>2</v>
       </c>
       <c r="H44" s="45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I44" s="40"/>
       <c r="J44" s="40"/>
@@ -5671,22 +5800,22 @@
       <c r="Q44" s="40"/>
       <c r="R44" s="40"/>
       <c r="S44" s="40"/>
-      <c r="T44" s="44" t="s">
+      <c r="T44" s="40"/>
+      <c r="U44" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="U44" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="V44" s="40" t="s">
+      <c r="V44" s="44" t="s">
         <v>2</v>
       </c>
       <c r="W44" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="X44" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y44" s="40"/>
+      <c r="X44" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y44" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="Z44" s="40"/>
       <c r="AA44" s="40"/>
       <c r="AB44" s="40"/>
@@ -5696,8 +5825,10 @@
       <c r="AF44" s="40"/>
       <c r="AG44" s="40"/>
       <c r="AH44" s="40"/>
+      <c r="AI44" s="40"/>
+      <c r="AJ44" s="40"/>
     </row>
-    <row r="45" spans="1:34" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:36" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="40" t="s">
         <v>43</v>
       </c>
@@ -5705,20 +5836,20 @@
         <v>39</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D45" s="43" t="s">
         <v>31</v>
       </c>
       <c r="E45" s="41"/>
       <c r="F45" s="40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G45" s="40">
         <v>1</v>
       </c>
       <c r="H45" s="45" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I45" s="40"/>
       <c r="J45" s="40"/>
@@ -5731,22 +5862,22 @@
       <c r="Q45" s="40"/>
       <c r="R45" s="40"/>
       <c r="S45" s="40"/>
-      <c r="T45" s="44" t="s">
+      <c r="T45" s="40"/>
+      <c r="U45" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="U45" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="V45" s="40" t="s">
+      <c r="V45" s="44" t="s">
         <v>2</v>
       </c>
       <c r="W45" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="X45" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y45" s="40"/>
+      <c r="X45" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y45" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="Z45" s="40"/>
       <c r="AA45" s="40"/>
       <c r="AB45" s="40"/>
@@ -5756,10 +5887,12 @@
       <c r="AF45" s="40"/>
       <c r="AG45" s="40"/>
       <c r="AH45" s="40"/>
+      <c r="AI45" s="40"/>
+      <c r="AJ45" s="40"/>
     </row>
-    <row r="46" spans="1:34" ht="276" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:36" ht="276" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>36</v>
@@ -5771,110 +5904,116 @@
         <v>32</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G46" s="56" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H46" s="56" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I46" s="56" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M46" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="N46" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="N46" s="6" t="s">
-        <v>225</v>
-      </c>
       <c r="O46" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="R46" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="S46" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="T46" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="R46" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="S46" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="T46" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="U46" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="U46" s="20"/>
-      <c r="V46" s="6" t="s">
-        <v>152</v>
-      </c>
+      <c r="V46" s="20"/>
       <c r="W46" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="X46" s="6" t="s">
-        <v>264</v>
+        <v>151</v>
       </c>
       <c r="Y46" s="6" t="s">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="Z46" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AA46" s="6" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="AB46" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC46" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD46" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="AC46" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD46" s="6" t="s">
-        <v>228</v>
-      </c>
       <c r="AE46" s="6" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AF46" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="AG46" s="6"/>
+        <v>229</v>
+      </c>
+      <c r="AG46" s="6" t="s">
+        <v>275</v>
+      </c>
       <c r="AH46" s="6" t="s">
-        <v>240</v>
+        <v>283</v>
+      </c>
+      <c r="AI46" s="6"/>
+      <c r="AJ46" s="6" t="s">
+        <v>238</v>
       </c>
     </row>
-    <row r="47" spans="1:34" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:36" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
@@ -5887,24 +6026,24 @@
       <c r="O47" s="18"/>
       <c r="P47" s="18"/>
       <c r="Q47" s="18"/>
-      <c r="R47" s="31"/>
-      <c r="S47" s="18"/>
-      <c r="T47" s="8" t="s">
+      <c r="R47" s="18"/>
+      <c r="S47" s="31"/>
+      <c r="T47" s="18"/>
+      <c r="U47" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="U47" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="V47" s="6" t="s">
+      <c r="V47" s="8" t="s">
         <v>2</v>
       </c>
       <c r="W47" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="X47" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y47" s="6"/>
+      <c r="X47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y47" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="Z47" s="6"/>
       <c r="AA47" s="6"/>
       <c r="AB47" s="6"/>
@@ -5914,25 +6053,27 @@
       <c r="AF47" s="6"/>
       <c r="AG47" s="6"/>
       <c r="AH47" s="6"/>
+      <c r="AI47" s="6"/>
+      <c r="AJ47" s="6"/>
     </row>
-    <row r="48" spans="1:34" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:36" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
@@ -5945,24 +6086,24 @@
       <c r="O48" s="18"/>
       <c r="P48" s="18"/>
       <c r="Q48" s="18"/>
-      <c r="R48" s="31"/>
-      <c r="S48" s="18"/>
-      <c r="T48" s="8" t="s">
+      <c r="R48" s="18"/>
+      <c r="S48" s="31"/>
+      <c r="T48" s="18"/>
+      <c r="U48" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="U48" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="V48" s="6" t="s">
+      <c r="V48" s="8" t="s">
         <v>2</v>
       </c>
       <c r="W48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="X48" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y48" s="6"/>
+      <c r="X48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y48" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="Z48" s="6"/>
       <c r="AA48" s="6"/>
       <c r="AB48" s="6"/>
@@ -5972,10 +6113,12 @@
       <c r="AF48" s="6"/>
       <c r="AG48" s="6"/>
       <c r="AH48" s="6"/>
+      <c r="AI48" s="6"/>
+      <c r="AJ48" s="6"/>
     </row>
-    <row r="49" spans="1:34" ht="227" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36" ht="227" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>36</v>
@@ -5987,110 +6130,116 @@
         <v>32</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G49" s="56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H49" s="56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I49" s="56" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="J49" s="61" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K49" s="61" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L49" s="61" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M49" s="61" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N49" s="61" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O49" s="61" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P49" s="61" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q49" s="61" t="s">
-        <v>281</v>
-      </c>
-      <c r="R49" s="70" t="s">
-        <v>256</v>
-      </c>
-      <c r="S49" s="61" t="s">
-        <v>252</v>
-      </c>
-      <c r="T49" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q49" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="R49" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="S49" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="T49" s="61" t="s">
+        <v>250</v>
+      </c>
+      <c r="U49" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="U49" s="20"/>
-      <c r="V49" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="V49" s="20"/>
       <c r="W49" s="6" t="s">
-        <v>171</v>
+        <v>62</v>
       </c>
       <c r="X49" s="6" t="s">
-        <v>266</v>
+        <v>169</v>
       </c>
       <c r="Y49" s="6" t="s">
-        <v>195</v>
+        <v>263</v>
       </c>
       <c r="Z49" s="6" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="AA49" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AB49" s="6" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="AC49" s="6" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="AD49" s="6" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="AE49" s="6" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="AF49" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="AG49" s="6"/>
+        <v>230</v>
+      </c>
+      <c r="AG49" s="6" t="s">
+        <v>291</v>
+      </c>
       <c r="AH49" s="6" t="s">
-        <v>253</v>
+        <v>291</v>
+      </c>
+      <c r="AI49" s="6"/>
+      <c r="AJ49" s="6" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="50" spans="1:34" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G50" s="18"/>
       <c r="H50" s="53"/>
@@ -6105,22 +6254,22 @@
       <c r="Q50" s="18"/>
       <c r="R50" s="18"/>
       <c r="S50" s="18"/>
-      <c r="T50" s="8" t="s">
+      <c r="T50" s="18"/>
+      <c r="U50" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="U50" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="V50" s="6" t="s">
+      <c r="V50" s="8" t="s">
         <v>2</v>
       </c>
       <c r="W50" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="X50" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y50" s="6"/>
+      <c r="X50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y50" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
       <c r="AB50" s="6"/>
@@ -6130,25 +6279,27 @@
       <c r="AF50" s="6"/>
       <c r="AG50" s="6"/>
       <c r="AH50" s="6"/>
+      <c r="AI50" s="6"/>
+      <c r="AJ50" s="6"/>
     </row>
-    <row r="51" spans="1:34" ht="153" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36" ht="153" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G51" s="6">
         <v>0.1392621</v>
@@ -6157,98 +6308,104 @@
         <v>0.15548490000000001</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q51" s="61" t="s">
-        <v>283</v>
-      </c>
-      <c r="R51" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="S51" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="T51" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="R51" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="S51" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="T51" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="U51" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="U51" s="20"/>
-      <c r="V51" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="V51" s="20"/>
       <c r="W51" s="6" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="X51" s="6" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="Y51" s="6" t="s">
-        <v>199</v>
+        <v>265</v>
       </c>
       <c r="Z51" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AA51" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AE51" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AF51" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="AG51" s="6"/>
+        <v>197</v>
+      </c>
+      <c r="AG51" s="6" t="s">
+        <v>276</v>
+      </c>
       <c r="AH51" s="6" t="s">
-        <v>247</v>
+        <v>292</v>
+      </c>
+      <c r="AI51" s="6"/>
+      <c r="AJ51" s="6" t="s">
+        <v>245</v>
       </c>
     </row>
-    <row r="52" spans="1:34" ht="51" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:36" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G52" s="6">
         <v>0.1025866</v>
@@ -6257,81 +6414,85 @@
         <v>0.15548490000000001</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q52" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="R52" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="S52" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="T52" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="R52" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="S52" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="T52" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="U52" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="U52" s="20"/>
-      <c r="V52" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="V52" s="20"/>
       <c r="W52" s="6" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="X52" s="6" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="Y52" s="6" t="s">
-        <v>199</v>
+        <v>265</v>
       </c>
       <c r="Z52" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AA52" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AE52" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AF52" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="AG52" s="6"/>
+        <v>197</v>
+      </c>
+      <c r="AG52" s="6" t="s">
+        <v>276</v>
+      </c>
       <c r="AH52" s="6"/>
+      <c r="AI52" s="6"/>
+      <c r="AJ52" s="6"/>
     </row>
-    <row r="53" spans="1:34" ht="272" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:36" ht="272" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>36</v>
@@ -6343,106 +6504,112 @@
         <v>32</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F53" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G53" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="H53" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="I53" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q53" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="R53" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="S53" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="T53" s="61" t="s">
+        <v>252</v>
+      </c>
+      <c r="U53" s="8"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="G53" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="H53" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="I53" s="56" t="s">
-        <v>269</v>
-      </c>
-      <c r="J53" s="6" t="s">
+      <c r="X53" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y53" s="32"/>
+      <c r="Z53" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA53" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB53" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC53" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="K53" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="L53" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="N53" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="O53" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="P53" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q53" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="R53" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="S53" s="61" t="s">
-        <v>254</v>
-      </c>
-      <c r="T53" s="8"/>
-      <c r="U53" s="20"/>
-      <c r="V53" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="W53" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="X53" s="32"/>
-      <c r="Y53" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z53" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA53" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="AB53" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC53" s="6" t="s">
-        <v>222</v>
-      </c>
       <c r="AD53" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AE53" s="6" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="AF53" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="AG53" s="6"/>
+        <v>231</v>
+      </c>
+      <c r="AG53" s="6" t="s">
+        <v>295</v>
+      </c>
       <c r="AH53" s="6" t="s">
-        <v>253</v>
+        <v>295</v>
+      </c>
+      <c r="AI53" s="6"/>
+      <c r="AJ53" s="6" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="54" spans="1:34" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:36" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G54" s="18"/>
       <c r="H54" s="53"/>
@@ -6455,24 +6622,24 @@
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
-      <c r="R54" s="31"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="8" t="s">
+      <c r="R54" s="6"/>
+      <c r="S54" s="31"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="U54" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="V54" s="6" t="s">
+      <c r="V54" s="8" t="s">
         <v>2</v>
       </c>
       <c r="W54" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="X54" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y54" s="6"/>
+      <c r="X54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y54" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="Z54" s="6"/>
       <c r="AA54" s="6"/>
       <c r="AB54" s="6"/>
@@ -6482,8 +6649,10 @@
       <c r="AF54" s="6"/>
       <c r="AG54" s="6"/>
       <c r="AH54" s="6"/>
+      <c r="AI54" s="6"/>
+      <c r="AJ54" s="6"/>
     </row>
-    <row r="55" spans="1:34" ht="136" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:36" ht="136" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>10</v>
       </c>
@@ -6491,16 +6660,16 @@
         <v>36</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G55" s="6">
         <v>0.21959999999999999</v>
@@ -6509,81 +6678,87 @@
         <v>7.5484389999999998E-2</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q55" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="R55" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="S55" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="T55" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="R55" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="S55" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="T55" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="U55" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="U55" s="20"/>
-      <c r="V55" s="6" t="s">
-        <v>181</v>
-      </c>
+      <c r="V55" s="20"/>
       <c r="W55" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X55" s="6" t="s">
-        <v>266</v>
+        <v>178</v>
       </c>
       <c r="Y55" s="6" t="s">
-        <v>202</v>
+        <v>263</v>
       </c>
       <c r="Z55" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AA55" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AC55" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AD55" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AE55" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AF55" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="AG55" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="AG55" s="6" t="s">
+        <v>280</v>
+      </c>
       <c r="AH55" s="6" t="s">
-        <v>250</v>
+        <v>298</v>
+      </c>
+      <c r="AI55" s="6"/>
+      <c r="AJ55" s="6" t="s">
+        <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>11</v>
       </c>
@@ -6591,7 +6766,7 @@
         <v>36</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>31</v>
@@ -6613,22 +6788,22 @@
       <c r="Q56" s="18"/>
       <c r="R56" s="18"/>
       <c r="S56" s="18"/>
-      <c r="T56" s="58" t="s">
-        <v>182</v>
-      </c>
-      <c r="U56" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="V56" s="6" t="s">
+      <c r="T56" s="18"/>
+      <c r="U56" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="V56" s="8" t="s">
         <v>2</v>
       </c>
       <c r="W56" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="X56" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y56" s="6"/>
+      <c r="X56" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y56" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="Z56" s="6"/>
       <c r="AA56" s="6"/>
       <c r="AB56" s="6"/>
@@ -6638,8 +6813,10 @@
       <c r="AF56" s="6"/>
       <c r="AG56" s="6"/>
       <c r="AH56" s="6"/>
+      <c r="AI56" s="6"/>
+      <c r="AJ56" s="6"/>
     </row>
-    <row r="57" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>12</v>
       </c>
@@ -6647,7 +6824,7 @@
         <v>36</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>31</v>
@@ -6669,22 +6846,22 @@
       <c r="Q57" s="18"/>
       <c r="R57" s="18"/>
       <c r="S57" s="18"/>
-      <c r="T57" s="58" t="s">
-        <v>182</v>
-      </c>
-      <c r="U57" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="V57" s="6" t="s">
+      <c r="T57" s="18"/>
+      <c r="U57" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="V57" s="8" t="s">
         <v>2</v>
       </c>
       <c r="W57" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="X57" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y57" s="6"/>
+      <c r="X57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y57" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="Z57" s="6"/>
       <c r="AA57" s="6"/>
       <c r="AB57" s="6"/>
@@ -6694,8 +6871,10 @@
       <c r="AF57" s="6"/>
       <c r="AG57" s="6"/>
       <c r="AH57" s="6"/>
+      <c r="AI57" s="6"/>
+      <c r="AJ57" s="6"/>
     </row>
-    <row r="58" spans="1:34" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>13</v>
       </c>
@@ -6703,7 +6882,7 @@
         <v>36</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>31</v>
@@ -6725,22 +6904,22 @@
       <c r="Q58" s="18"/>
       <c r="R58" s="18"/>
       <c r="S58" s="18"/>
-      <c r="T58" s="58" t="s">
-        <v>183</v>
-      </c>
-      <c r="U58" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="V58" s="6" t="s">
+      <c r="T58" s="18"/>
+      <c r="U58" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="V58" s="8" t="s">
         <v>2</v>
       </c>
       <c r="W58" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="X58" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y58" s="6"/>
+      <c r="X58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y58" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="Z58" s="6"/>
       <c r="AA58" s="6"/>
       <c r="AB58" s="6"/>
@@ -6750,49 +6929,51 @@
       <c r="AF58" s="6"/>
       <c r="AG58" s="6"/>
       <c r="AH58" s="6"/>
+      <c r="AI58" s="6"/>
+      <c r="AJ58" s="6"/>
     </row>
-    <row r="59" spans="1:34" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:36" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="T59" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U59" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="V59" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="W59" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="X59" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="Y59" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFFA4E9-2B72-6F49-8DD9-37F1BB25793B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4787333D-886C-DF43-AEF0-A3725053228B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38380" windowHeight="19560" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
+    <workbookView xWindow="19400" yWindow="500" windowWidth="18980" windowHeight="19560" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="301">
   <si>
     <t>Parameter</t>
   </si>
@@ -746,235 +746,6 @@
       </rPr>
       <t xml:space="preserve"> 
 Calculated from AIDS Info data: total AIDS-related deaths/ total HIV prevalence</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trate.0 (1990) = 8 * trate.1
-Trate.1 (1997) = 1 * trate.2
-Trate.2 (2008) = 0.1
-Trate.3 (2018) = 1 * trate.2
-Trate.4 (2030) = 1 *  trate.3
-SD of r0:r1 ratio = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>log(2)/2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-SD of r1:r2 ratio = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>log(2)/2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-SD of r2 = log(4)/2
-SD of r3:r2 ratio = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>log(2)/2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-SD of r4:r3 ratio = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>log(2)/2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trate.0 (1990) = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * trate.1
-Trate.1 (1997) = 1 * trate.2
-Trate.2 (2008) = 0.1
-Trate.3 (2018) = 1 * trate.2
-Trate.4 (2030) = 1 *  trate.3
-SD of r0:r1 ratio = log(4)/2
-SD of r1:r2 ratio = log(4)/2
-SD of r2 = log(4)/2
-SD of r3:r2 ratio = log(4)/2
-SD of r4:r3 ratio = log(4)/2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Trate.0 (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1980</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * trate.1
-Trate.1 (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>1993</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.75</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * trate.2
-Trate.2 (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2005</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) = 0.1
-Trate.3 (2018) = 1 * trate.2
-Trate.4 (2030) = 1 *  trate.3
-SD of r0:r1 ratio = log(4)/2
-SD of r1:r2 ratio = log(4)/2
-SD of r2 = log(4)/2
-SD of r3:r2 ratio = log(4)/2
-SD of r4:r3 ratio = log(4)/2</t>
     </r>
   </si>
   <si>
@@ -1160,18 +931,6 @@
     <t>DHS 2003, 2011, 2022 - see "DHS_tables.xlsx"</t>
   </si>
   <si>
-    <t>Trate.0 (1990) = 8 * trate.1
-Trate.1 (1997) = 1 * trate.2
-Trate.2 (2008) = 0.1
-Trate.3 (2018) = 1 * trate.2
-Trate.4 (2030) = 1 *  trate.3
-SD of r0:r1 ratio = log(4)/2
-SD of r1:r2 ratio = log(4)/2
-SD of r2 = log(4)/2
-SD of r3:r2 ratio = log(4)/2
-SD of r4:r3 ratio = log(4)/2</t>
-  </si>
-  <si>
     <t>Tanzania</t>
   </si>
   <si>
@@ -1468,77 +1227,10 @@
     <t>Using SOUTH AFRICA suppression data (IeDEA dashboard for West Africa missing a lot of data; values seem close enough to SA)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Trate.0 (1990) = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * trate.1
-Trate.1 (1997) = 1 * trate.2
-Trate.2 (2008) = 0.1
-Trate.3 (2018) = 1 * trate.2
-Trate.4 (2030) = 1 *  trate.3
-SD of r0:r1 ratio = log(4)/2
-SD of r1:r2 ratio = log(4)/2
-SD of r2 = log(4)/2
-SD of r3:r2 ratio = log(4)/2
-SD of r4:r3 ratio = log(4)/2</t>
-    </r>
-  </si>
-  <si>
     <t>UNAIDS remainder</t>
   </si>
   <si>
     <t>Non-UNAIDS remainder</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trate.0 (1990) = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * trate.1
-Trate.1 (1997) = 1 * trate.2
-Trate.2 (2008) = 0.1
-Trate.3 (2018) = 1 * trate.2
-Trate.4 (2030) = 1 *  trate.3
-SD of r0:r1 ratio = log(4)/2
-SD of r1:r2 ratio = log(4)/2
-SD of r2 = log(4)/2
-SD of r3:r2 ratio = log(4)/2
-SD of r4:r3 ratio = log(4)/2</t>
-    </r>
   </si>
   <si>
     <t>Using KENYA'S suppression data</t>
@@ -2087,12 +1779,351 @@
   <si>
     <t>Barennes, 2014</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UNLINKED:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Trate.0 (1990) = 0.8
+Trate.1 (1997) = 0.1
+Trate.2 (2008) = 0.1
+Trate.3 (2018) = 0.1
+Trate.4 (2030) = 0.1
+SD for all = log (4)/2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OLD VERSION:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Trate.0 (1990) = 8 * trate.1
+Trate.1 (1997) = 1 * trate.2
+Trate.2 (2008) = 0.1
+Trate.3 (2018) = 1 * trate.2
+Trate.4 (2030) = 1 *  trate.3
+SD of r0:r1 ratio = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log(2)/2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+SD of r1:r2 ratio = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log(2)/2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+SD of r2 = log(4)/2
+SD of r3:r2 ratio = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log(2)/2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+SD of r4:r3 ratio = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log(2)/2</t>
+    </r>
+  </si>
+  <si>
+    <t>UNLINKED:
+Trate.0 (1990) = 0.8
+Trate.1 (1997) = 0.1
+Trate.2 (2008) = 0.1
+Trate.3 (2018) = 0.1
+Trate.4 (2030) = 0.1
+SD for all = log (4)/2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UNLINKED:
+Trate.0 (1990) = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Trate.1 (1997) = 0.1
+Trate.2 (2008) = 0.1
+Trate.3 (2018) = 0.1
+Trate.4 (2030) = 0.1
+SD for all = log (4)/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UNLINKED:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Trate.0 (1990) = 0.5
+Trate.1 (1997) = 0.12
+Trate.2 (2008) = 0.12
+Trate.3 (2018) = 0.12
+Trate.4 (2030) = 0.15
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SD for all = log (4)/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UNLINKED:
+Trate.0 (1990) =</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Trate.1 (1997) = 0.1
+Trate.2 (2008) = 0.1
+Trate.3 (2018) = 0.1
+Trate.4 (2030) = 0.1
+SD for all = log (4)/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UNLINKED:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Trate.0 (1990) = 0.65
+Trate.1 (1997) = 0.06
+Trate.2 (2008) = 0.06
+Trate.3 (2018) = 0.06
+Trate.4 (2030) = 0.06
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SD for all = log (4)/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UNLINKED:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Trate.0 (1990) = 0.47
+Trate.1 (1997) = 0.06
+Trate.2 (2008) = 0.06
+Trate.3 (2018) = 0.06
+Trate.4 (2030) = 0.06
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SD for all = log (4)/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UNLINKED:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Trate.0 (1990) = 0.41
+Trate.1 (1997) = 0.45
+Trate.2 (2008) = 0.15
+Trate.3 (2018) = 0.12
+Trate.4 (2030) = 0.12
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SD for all = log (4)/2</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2139,12 +2170,6 @@
       <name val="Aptos Narrow (Body)"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow (Body)"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow (Body)"/>
@@ -2544,28 +2569,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2941,10 +2966,10 @@
   <dimension ref="A1:AJ59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3037,37 +3062,37 @@
         <v>24</v>
       </c>
       <c r="J2" s="63" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K2" s="63" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L2" s="63" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M2" s="63" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N2" s="63" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O2" s="63" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P2" s="63" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q2" s="63" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="R2" s="63" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="S2" s="63" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="T2" s="63" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="U2" s="63"/>
       <c r="V2" s="62" t="s">
@@ -3083,37 +3108,37 @@
         <v>24</v>
       </c>
       <c r="Z2" s="65" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AA2" s="65" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AB2" s="65" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AC2" s="65" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AD2" s="65" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AE2" s="65" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AF2" s="65" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AG2" s="65" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AH2" s="65" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AI2" s="63" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AJ2" s="63" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:36" ht="211" customHeight="1" x14ac:dyDescent="0.2">
@@ -3131,49 +3156,49 @@
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="L3" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="M3" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="N3" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="O3" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="P3" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q3" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="R3" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="S3" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="T3" s="25" t="s">
-        <v>236</v>
+        <v>167</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>300</v>
       </c>
       <c r="U3" s="26"/>
       <c r="V3" s="26" t="s">
@@ -3278,46 +3303,46 @@
         <v>153</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H5" s="55" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I5" s="55" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J5" s="55" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K5" s="55" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L5" s="55" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M5" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="N5" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="O5" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="N5" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="O5" s="55" t="s">
-        <v>226</v>
-      </c>
       <c r="P5" s="55" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Q5" s="55" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="R5" s="55" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="S5" s="55" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="T5" s="55" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="U5" s="30" t="s">
         <v>5</v>
@@ -3330,40 +3355,40 @@
         <v>152</v>
       </c>
       <c r="Y5" s="29" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Z5" s="55" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA5" s="55" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AB5" s="55" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AC5" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD5" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE5" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="AD5" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="AE5" s="55" t="s">
-        <v>226</v>
-      </c>
       <c r="AF5" s="55" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AG5" s="55" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="AH5" s="55" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AI5" s="55" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="AJ5" s="55" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="85" x14ac:dyDescent="0.2">
@@ -3436,40 +3461,40 @@
         <v>152</v>
       </c>
       <c r="Y6" s="29" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Z6" s="55" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AA6" s="55" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AB6" s="55" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AC6" s="55" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AD6" s="55" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AE6" s="55" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AF6" s="55" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AG6" s="55" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AH6" s="55" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AI6" s="55" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AJ6" s="55" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
@@ -3780,19 +3805,19 @@
         <v>32</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F12" s="30" t="s">
         <v>49</v>
       </c>
       <c r="G12" s="59" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H12" s="27" t="s">
         <v>83</v>
       </c>
       <c r="I12" s="73" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J12" s="27" t="s">
         <v>83</v>
@@ -3816,58 +3841,58 @@
         <v>83</v>
       </c>
       <c r="Q12" s="31" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="R12" s="31"/>
       <c r="S12" s="71" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="T12" s="71" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="U12" s="30" t="s">
         <v>5</v>
       </c>
       <c r="V12" s="20"/>
       <c r="W12" s="27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="X12" s="27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Y12" s="27" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Z12" s="25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AA12" s="25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AB12" s="25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AC12" s="25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AD12" s="25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AE12" s="25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AF12" s="25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AG12" s="25" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AH12" s="25"/>
       <c r="AI12" s="25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AJ12" s="25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="119" hidden="1" x14ac:dyDescent="0.2">
@@ -3944,7 +3969,7 @@
         <v>31</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="27">
@@ -3954,7 +3979,7 @@
         <v>0.42</v>
       </c>
       <c r="I14" s="72" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="J14" s="27">
         <v>0.42</v>
@@ -3978,16 +4003,16 @@
         <v>0.42</v>
       </c>
       <c r="Q14" s="27" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="R14" s="27" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="S14" s="71" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="T14" s="71" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="U14" s="30" t="s">
         <v>9</v>
@@ -4024,10 +4049,10 @@
         <v>60</v>
       </c>
       <c r="AG14" s="25" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AH14" s="25" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="AI14" s="25" t="s">
         <v>60</v>
@@ -4106,7 +4131,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>113</v>
@@ -4874,7 +4899,7 @@
         <v>38</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>31</v>
@@ -4895,10 +4920,10 @@
         <v>5.3571430000000003E-2</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
@@ -4938,7 +4963,7 @@
         <v>38</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>31</v>
@@ -4957,10 +4982,10 @@
         <v>2.272727E-3</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
@@ -5000,7 +5025,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>31</v>
@@ -5019,10 +5044,10 @@
         <v>3.9473679999999997E-3</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
@@ -5849,7 +5874,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="45" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I45" s="40"/>
       <c r="J45" s="40"/>
@@ -5904,7 +5929,7 @@
         <v>32</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>84</v>
@@ -5916,40 +5941,40 @@
         <v>158</v>
       </c>
       <c r="I46" s="56" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="R46" s="6" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="S46" s="31" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="T46" s="6" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="U46" s="8" t="s">
         <v>5</v>
@@ -5962,38 +5987,38 @@
         <v>151</v>
       </c>
       <c r="Y46" s="6" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="Z46" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA46" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AC46" s="6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AD46" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AE46" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AF46" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AG46" s="6" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="AH46" s="6" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AI46" s="6"/>
       <c r="AJ46" s="6" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:36" ht="102" hidden="1" x14ac:dyDescent="0.2">
@@ -6130,52 +6155,52 @@
         <v>32</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G49" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="H49" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="H49" s="56" t="s">
-        <v>214</v>
-      </c>
       <c r="I49" s="56" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J49" s="61" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K49" s="61" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L49" s="61" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M49" s="61" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="N49" s="61" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="O49" s="61" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P49" s="61" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q49" s="6" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="R49" s="6" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="S49" s="70" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="T49" s="61" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="U49" s="8" t="s">
         <v>5</v>
@@ -6185,41 +6210,41 @@
         <v>62</v>
       </c>
       <c r="X49" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Y49" s="6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Z49" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AA49" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AB49" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AC49" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AD49" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AE49" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AF49" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AG49" s="6" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AH49" s="6" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AI49" s="6"/>
       <c r="AJ49" s="6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:36" ht="119" hidden="1" x14ac:dyDescent="0.2">
@@ -6290,13 +6315,13 @@
         <v>36</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>85</v>
@@ -6308,40 +6333,40 @@
         <v>0.15548490000000001</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q51" s="61" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="R51" s="6" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="S51" s="31" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="T51" s="6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="U51" s="8" t="s">
         <v>3</v>
@@ -6351,41 +6376,41 @@
         <v>63</v>
       </c>
       <c r="X51" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Y51" s="6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Z51" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AA51" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AE51" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AF51" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AG51" s="6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="AH51" s="6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="AI51" s="6"/>
       <c r="AJ51" s="6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:36" ht="51" x14ac:dyDescent="0.2">
@@ -6396,13 +6421,13 @@
         <v>36</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>85</v>
@@ -6414,40 +6439,40 @@
         <v>0.15548490000000001</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q52" s="6" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="R52" s="6" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="S52" s="31" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="T52" s="6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="U52" s="8" t="s">
         <v>3</v>
@@ -6457,34 +6482,34 @@
         <v>63</v>
       </c>
       <c r="X52" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Y52" s="6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Z52" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AA52" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AE52" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AF52" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AG52" s="6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="AH52" s="6"/>
       <c r="AI52" s="6"/>
@@ -6492,7 +6517,7 @@
     </row>
     <row r="53" spans="1:36" ht="272" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>36</v>
@@ -6504,97 +6529,97 @@
         <v>32</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G53" s="56" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H53" s="56" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I53" s="56" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q53" s="6" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="R53" s="6" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="S53" s="31" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="T53" s="61" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="U53" s="8"/>
       <c r="V53" s="20"/>
       <c r="W53" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="X53" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Y53" s="32"/>
       <c r="Z53" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AA53" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AB53" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AC53" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AD53" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AE53" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AF53" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AG53" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AH53" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AI53" s="6"/>
       <c r="AJ53" s="6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:36" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>36</v>
@@ -6606,7 +6631,7 @@
         <v>31</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>156</v>
@@ -6660,13 +6685,13 @@
         <v>36</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>85</v>
@@ -6678,84 +6703,84 @@
         <v>7.5484389999999998E-2</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q55" s="6" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="R55" s="6" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="S55" s="31" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="T55" s="6" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="U55" s="8" t="s">
         <v>3</v>
       </c>
       <c r="V55" s="20"/>
       <c r="W55" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="X55" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Y55" s="6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Z55" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AA55" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AC55" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AD55" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AE55" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AF55" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AG55" s="6" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AH55" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AI55" s="6"/>
       <c r="AJ55" s="6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
@@ -6790,7 +6815,7 @@
       <c r="S56" s="18"/>
       <c r="T56" s="18"/>
       <c r="U56" s="58" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="V56" s="8" t="s">
         <v>2</v>
@@ -6848,7 +6873,7 @@
       <c r="S57" s="18"/>
       <c r="T57" s="18"/>
       <c r="U57" s="58" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="V57" s="8" t="s">
         <v>2</v>
@@ -6906,7 +6931,7 @@
       <c r="S58" s="18"/>
       <c r="T58" s="18"/>
       <c r="U58" s="58" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="V58" s="8" t="s">
         <v>2</v>

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4787333D-886C-DF43-AEF0-A3725053228B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EF5E96-9124-7E49-91F7-5302D3C1C470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19400" yWindow="500" windowWidth="18980" windowHeight="19560" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
+    <workbookView xWindow="39660" yWindow="4100" windowWidth="28780" windowHeight="15540" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="300">
   <si>
     <t>Parameter</t>
   </si>
@@ -1233,9 +1233,6 @@
     <t>Non-UNAIDS remainder</t>
   </si>
   <si>
-    <t>Using KENYA'S suppression data</t>
-  </si>
-  <si>
     <t>India NFHS 2005, 2015, 2019</t>
   </si>
   <si>
@@ -1463,136 +1460,6 @@
   <si>
     <t>Estimate from India, 81.8% suppressed within 6 months (--&gt; 0.966876 within one year), Alvarez-Uria et al, 2013:
 https://onlinelibrary.wiley.com/doi/10.1155/2013/384805</t>
-  </si>
-  <si>
-    <t>Using KENYA'S testing data 
-DHS surveys from Ehtiopia, DRC, Cote d'Ivoire, Ghana; which represent ~19% of these remainder countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use Global estimate of engagement from AIDSinfo data
-Using SOUTH AFRICA'S engagement data </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>ALLISON LOOK UP FOR ETHIOPIA, INDONESIA, AND DRC</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (from de Oliveira)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve">Get from JHEEM </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(from de Oliveira)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>UPDATE TO SOME AVERAGE FROM THIS PAPER</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.42
-Logitnormal
-Begins at this value in 1990, interpolates to birth.transmission.risk.1 from 1990-2020</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>UPDATE TO NYC ESTIMATE FROM THIS PAPER - 0.249</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0.42
-Logitnormal
-Begins at this value in 1990, interpolates to birth.transmission.risk.1 from 1990-2020</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1780,39 +1647,228 @@
     <t>Barennes, 2014</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UNLINKED:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Trate.0 (1990) = 0.8
+    <t>UNLINKED:
+Trate.0 (1990) = 0.8
 Trate.1 (1997) = 0.1
 Trate.2 (2008) = 0.1
 Trate.3 (2018) = 0.1
+Trate.4 (2030) = 0.1
+SD for all = log (4)/2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UNLINKED:
+Trate.0 (1990) = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Trate.1 (1997) = 0.1
+Trate.2 (2008) = 0.1
+Trate.3 (2018) = 0.1
+Trate.4 (2030) = 0.1
+SD for all = log (4)/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UNLINKED:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Trate.0 (1990) = 0.5
+Trate.1 (1997) = 0.12
+Trate.2 (2008) = 0.12
+Trate.3 (2018) = 0.12
+Trate.4 (2030) = 0.15
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SD for all = log (4)/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UNLINKED:
+Trate.0 (1990) =</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Trate.1 (1997) = 0.1
+Trate.2 (2008) = 0.1
+Trate.3 (2018) = 0.1
+Trate.4 (2030) = 0.1
+SD for all = log (4)/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UNLINKED:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Trate.0 (1990) = 0.47
+Trate.1 (1997) = 0.06
+Trate.2 (2008) = 0.06
+Trate.3 (2018) = 0.06
+Trate.4 (2030) = 0.06
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SD for all = log (4)/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UNLINKED:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Trate.0 (1990) = 0.41
+Trate.1 (1997) = 0.45
+Trate.2 (2008) = 0.15
+Trate.3 (2018) = 0.12
+Trate.4 (2030) = 0.12
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SD for all = log (4)/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UNLINKED:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Trate.0 (1990) = 0.65
+Trate.1 (1997) = 0.045
+Trate.2 (2008) = 0.035
+Trate.3 (2018) = 0.03
+Trate.4 (2030) = 0.06
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SD for all = log (4)/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UNLINKED:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Trate.0 (1990) = 0.7
+Trate.1 (1997) = 0.06
+Trate.2 (2008) = 0.08
+Trate.3 (2018) = 0.08
 Trate.4 (2030) = 0.1
 SD for all = log (4)/2
 </t>
@@ -1930,62 +1986,61 @@
     </r>
   </si>
   <si>
-    <t>UNLINKED:
-Trate.0 (1990) = 0.8
-Trate.1 (1997) = 0.1
-Trate.2 (2008) = 0.1
-Trate.3 (2018) = 0.1
-Trate.4 (2030) = 0.1
-SD for all = log (4)/2</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">UNLINKED:
-Trate.0 (1990) = </t>
-    </r>
+    <t>DHS surveys from Ehtiopia, DRC, Cote d'Ivoire, Ghana; which represent ~19% of these remainder countries</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.4</t>
-    </r>
-    <r>
-      <rPr>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>Actually, just keep using Kenya's 
+ALLISON LOOK UP FOR ETHIOPIA, INDONESIA, AND DRC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Trate.1 (1997) = 0.1
-Trate.2 (2008) = 0.1
-Trate.3 (2018) = 0.1
-Trate.4 (2030) = 0.1
-SD for all = log (4)/2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">UNLINKED:
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (from de Oliveira)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Trate.0 (1990) = 0.5
-Trate.1 (1997) = 0.12
-Trate.2 (2008) = 0.12
-Trate.3 (2018) = 0.12
-Trate.4 (2030) = 0.15
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Actually, just keep using Kenya's 
+Get from JHEEM </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -1993,137 +2048,29 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SD for all = log (4)/2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>UNLINKED:
-Trate.0 (1990) =</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 0.65</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Trate.1 (1997) = 0.1
-Trate.2 (2008) = 0.1
-Trate.3 (2018) = 0.1
-Trate.4 (2030) = 0.1
-SD for all = log (4)/2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">UNLINKED:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Trate.0 (1990) = 0.65
-Trate.1 (1997) = 0.06
-Trate.2 (2008) = 0.06
-Trate.3 (2018) = 0.06
-Trate.4 (2030) = 0.06
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SD for all = log (4)/2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">UNLINKED:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Trate.0 (1990) = 0.47
-Trate.1 (1997) = 0.06
-Trate.2 (2008) = 0.06
-Trate.3 (2018) = 0.06
-Trate.4 (2030) = 0.06
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SD for all = log (4)/2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">UNLINKED:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Trate.0 (1990) = 0.41
-Trate.1 (1997) = 0.45
-Trate.2 (2008) = 0.15
-Trate.3 (2018) = 0.12
-Trate.4 (2030) = 0.12
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SD for all = log (4)/2</t>
-    </r>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(from de Oliveira)</t>
+    </r>
+  </si>
+  <si>
+    <t>Use Global estimate of engagement from AIDSinfo data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.247
+Cote d'Ivoire estimate from Dabis paper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249
+NYC estimate from Dabis paper </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2180,6 +2127,12 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2384,7 +2337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2593,16 +2546,13 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2965,11 +2915,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B2D996-732D-784F-96EB-809CE760E324}">
   <dimension ref="A1:AJ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="Q14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S3" sqref="S3"/>
+      <selection pane="bottomRight" activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3083,10 +3033,10 @@
         <v>224</v>
       </c>
       <c r="Q2" s="63" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="R2" s="63" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="S2" s="63" t="s">
         <v>229</v>
@@ -3129,10 +3079,10 @@
         <v>224</v>
       </c>
       <c r="AG2" s="65" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AH2" s="65" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="AI2" s="63" t="s">
         <v>229</v>
@@ -3162,43 +3112,43 @@
         <v>293</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="R3" s="21" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="S3" s="21" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="T3" s="21" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="U3" s="26"/>
       <c r="V3" s="26" t="s">
@@ -3333,16 +3283,16 @@
         <v>225</v>
       </c>
       <c r="Q5" s="55" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="R5" s="55" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="S5" s="55" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="T5" s="55" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="U5" s="30" t="s">
         <v>5</v>
@@ -3379,16 +3329,16 @@
         <v>225</v>
       </c>
       <c r="AG5" s="55" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="AH5" s="55" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="AI5" s="55" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AJ5" s="55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="85" x14ac:dyDescent="0.2">
@@ -3816,7 +3766,7 @@
       <c r="H12" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="73" t="s">
+      <c r="I12" s="71" t="s">
         <v>181</v>
       </c>
       <c r="J12" s="27" t="s">
@@ -3841,14 +3791,14 @@
         <v>83</v>
       </c>
       <c r="Q12" s="31" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="R12" s="31"/>
-      <c r="S12" s="71" t="s">
-        <v>249</v>
-      </c>
-      <c r="T12" s="71" t="s">
-        <v>250</v>
+      <c r="S12" s="55" t="s">
+        <v>295</v>
+      </c>
+      <c r="T12" s="55" t="s">
+        <v>296</v>
       </c>
       <c r="U12" s="30" t="s">
         <v>5</v>
@@ -3885,7 +3835,7 @@
         <v>184</v>
       </c>
       <c r="AG12" s="25" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AH12" s="25"/>
       <c r="AI12" s="25" t="s">
@@ -3969,7 +3919,7 @@
         <v>31</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="27">
@@ -3978,8 +3928,8 @@
       <c r="H14" s="27">
         <v>0.42</v>
       </c>
-      <c r="I14" s="72" t="s">
-        <v>279</v>
+      <c r="I14" s="70" t="s">
+        <v>272</v>
       </c>
       <c r="J14" s="27">
         <v>0.42</v>
@@ -4003,16 +3953,16 @@
         <v>0.42</v>
       </c>
       <c r="Q14" s="27" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="R14" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="S14" s="71" t="s">
-        <v>251</v>
-      </c>
-      <c r="T14" s="71" t="s">
-        <v>252</v>
+        <v>274</v>
+      </c>
+      <c r="S14" s="72" t="s">
+        <v>298</v>
+      </c>
+      <c r="T14" s="72" t="s">
+        <v>299</v>
       </c>
       <c r="U14" s="30" t="s">
         <v>9</v>
@@ -4049,10 +3999,10 @@
         <v>60</v>
       </c>
       <c r="AG14" s="25" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AH14" s="25" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="AI14" s="25" t="s">
         <v>60</v>
@@ -5929,7 +5879,7 @@
         <v>32</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>84</v>
@@ -5941,7 +5891,7 @@
         <v>158</v>
       </c>
       <c r="I46" s="56" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="J46" s="6" t="s">
         <v>186</v>
@@ -5965,16 +5915,16 @@
         <v>225</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="R46" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="S46" s="31" t="s">
-        <v>247</v>
+        <v>270</v>
+      </c>
+      <c r="S46" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="T46" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U46" s="8" t="s">
         <v>5</v>
@@ -5987,7 +5937,7 @@
         <v>151</v>
       </c>
       <c r="Y46" s="6" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="Z46" s="6" t="s">
         <v>200</v>
@@ -6011,14 +5961,14 @@
         <v>225</v>
       </c>
       <c r="AG46" s="6" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AH46" s="6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="AI46" s="6"/>
       <c r="AJ46" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:36" ht="102" hidden="1" x14ac:dyDescent="0.2">
@@ -6155,7 +6105,7 @@
         <v>32</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>171</v>
@@ -6167,7 +6117,7 @@
         <v>210</v>
       </c>
       <c r="I49" s="56" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="J49" s="61" t="s">
         <v>190</v>
@@ -6191,16 +6141,16 @@
         <v>226</v>
       </c>
       <c r="Q49" s="6" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="R49" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="S49" s="70" t="s">
-        <v>248</v>
+        <v>277</v>
+      </c>
+      <c r="S49" s="61" t="s">
+        <v>297</v>
       </c>
       <c r="T49" s="61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U49" s="8" t="s">
         <v>5</v>
@@ -6213,7 +6163,7 @@
         <v>166</v>
       </c>
       <c r="Y49" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="Z49" s="6" t="s">
         <v>189</v>
@@ -6237,14 +6187,14 @@
         <v>226</v>
       </c>
       <c r="AG49" s="6" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="AH49" s="6" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="AI49" s="6"/>
       <c r="AJ49" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:36" ht="119" hidden="1" x14ac:dyDescent="0.2">
@@ -6321,7 +6271,7 @@
         <v>31</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>85</v>
@@ -6333,7 +6283,7 @@
         <v>0.15548490000000001</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="J51" s="6" t="s">
         <v>192</v>
@@ -6357,16 +6307,16 @@
         <v>192</v>
       </c>
       <c r="Q51" s="61" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="R51" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="S51" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="S51" s="6" t="s">
         <v>192</v>
       </c>
       <c r="T51" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U51" s="8" t="s">
         <v>3</v>
@@ -6379,7 +6329,7 @@
         <v>165</v>
       </c>
       <c r="Y51" s="6" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="Z51" s="6" t="s">
         <v>193</v>
@@ -6403,14 +6353,14 @@
         <v>193</v>
       </c>
       <c r="AG51" s="6" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="AH51" s="6" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="AI51" s="6"/>
       <c r="AJ51" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:36" ht="51" x14ac:dyDescent="0.2">
@@ -6439,7 +6389,7 @@
         <v>0.15548490000000001</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="J52" s="6" t="s">
         <v>192</v>
@@ -6463,16 +6413,16 @@
         <v>192</v>
       </c>
       <c r="Q52" s="6" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="R52" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="S52" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="S52" s="6" t="s">
         <v>192</v>
       </c>
       <c r="T52" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U52" s="8" t="s">
         <v>3</v>
@@ -6485,7 +6435,7 @@
         <v>165</v>
       </c>
       <c r="Y52" s="6" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="Z52" s="6" t="s">
         <v>193</v>
@@ -6509,7 +6459,7 @@
         <v>193</v>
       </c>
       <c r="AG52" s="6" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="AH52" s="6"/>
       <c r="AI52" s="6"/>
@@ -6529,7 +6479,7 @@
         <v>32</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>172</v>
@@ -6541,7 +6491,7 @@
         <v>168</v>
       </c>
       <c r="I53" s="56" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="J53" s="6" t="s">
         <v>214</v>
@@ -6565,16 +6515,16 @@
         <v>228</v>
       </c>
       <c r="Q53" s="6" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="R53" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="S53" s="31" t="s">
-        <v>231</v>
+        <v>283</v>
+      </c>
+      <c r="S53" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="T53" s="61" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U53" s="8"/>
       <c r="V53" s="20"/>
@@ -6607,14 +6557,14 @@
         <v>227</v>
       </c>
       <c r="AG53" s="6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="AH53" s="6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="AI53" s="6"/>
       <c r="AJ53" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="1:36" ht="119" hidden="1" x14ac:dyDescent="0.2">
@@ -6691,7 +6641,7 @@
         <v>31</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>85</v>
@@ -6703,7 +6653,7 @@
         <v>7.5484389999999998E-2</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="J55" s="6" t="s">
         <v>195</v>
@@ -6727,16 +6677,16 @@
         <v>195</v>
       </c>
       <c r="Q55" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="R55" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="S55" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="S55" s="6" t="s">
         <v>195</v>
       </c>
       <c r="T55" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U55" s="8" t="s">
         <v>3</v>
@@ -6749,7 +6699,7 @@
         <v>175</v>
       </c>
       <c r="Y55" s="6" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="Z55" s="6" t="s">
         <v>196</v>
@@ -6773,14 +6723,14 @@
         <v>196</v>
       </c>
       <c r="AG55" s="6" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="AH55" s="6" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AI55" s="6"/>
       <c r="AJ55" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EF5E96-9124-7E49-91F7-5302D3C1C470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E74B4B-AD39-964A-9A5A-AC9C16F7306A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39660" yWindow="4100" windowWidth="28780" windowHeight="15540" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E74B4B-AD39-964A-9A5A-AC9C16F7306A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FCE40C-9E6C-D14C-A324-045145714285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39660" yWindow="4100" windowWidth="28780" windowHeight="15540" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>

--- a/documentation/PARAMS.xlsx
+++ b/documentation/PARAMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FCE40C-9E6C-D14C-A324-045145714285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F159951E-4C0B-A14C-A2B9-03D70997D7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39660" yWindow="4100" windowWidth="28780" windowHeight="15540" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="22040" windowHeight="19400" xr2:uid="{A31A707F-ED32-BA46-921D-128043F311ED}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -2337,7 +2337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2550,9 +2550,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2916,22 +2913,22 @@
   <dimension ref="A1:AJ59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="Q14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T15" sqref="T15"/>
+      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="5" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5" style="5" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="28.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="38" style="5" customWidth="1"/>
     <col min="6" max="6" width="55" style="5" customWidth="1"/>
     <col min="7" max="20" width="53.5" style="5" customWidth="1"/>
-    <col min="21" max="21" width="17" style="5" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="17" style="5" customWidth="1"/>
     <col min="22" max="22" width="24" style="5" customWidth="1"/>
     <col min="23" max="23" width="26" style="5" customWidth="1"/>
     <col min="24" max="24" width="37.5" style="5" customWidth="1"/>
@@ -3175,7 +3172,7 @@
       <c r="AI3" s="25"/>
       <c r="AJ3" s="25"/>
     </row>
-    <row r="4" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
@@ -3447,7 +3444,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>66</v>
       </c>
@@ -3507,7 +3504,7 @@
       <c r="AI7" s="25"/>
       <c r="AJ7" s="25"/>
     </row>
-    <row r="8" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>68</v>
       </c>
@@ -3567,7 +3564,7 @@
       <c r="AI8" s="25"/>
       <c r="AJ8" s="25"/>
     </row>
-    <row r="9" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>67</v>
       </c>
@@ -3627,7 +3624,7 @@
       <c r="AI9" s="25"/>
       <c r="AJ9" s="25"/>
     </row>
-    <row r="10" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>69</v>
       </c>
@@ -3687,7 +3684,7 @@
       <c r="AI10" s="25"/>
       <c r="AJ10" s="25"/>
     </row>
-    <row r="11" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>6</v>
       </c>
@@ -3845,7 +3842,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>72</v>
       </c>
@@ -3958,10 +3955,10 @@
       <c r="R14" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="S14" s="72" t="s">
+      <c r="S14" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="T14" s="72" t="s">
+      <c r="T14" s="27" t="s">
         <v>299</v>
       </c>
       <c r="U14" s="30" t="s">
@@ -4067,7 +4064,7 @@
       <c r="AI15" s="18"/>
       <c r="AJ15" s="18"/>
     </row>
-    <row r="16" spans="1:36" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
@@ -4121,7 +4118,7 @@
       <c r="AI16" s="18"/>
       <c r="AJ16" s="18"/>
     </row>
-    <row r="17" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>114</v>
       </c>
@@ -4181,7 +4178,7 @@
       <c r="AI17" s="10"/>
       <c r="AJ17" s="10"/>
     </row>
-    <row r="18" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>115</v>
       </c>
@@ -4241,7 +4238,7 @@
       <c r="AI18" s="10"/>
       <c r="AJ18" s="10"/>
     </row>
-    <row r="19" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>116</v>
       </c>
@@ -4301,7 +4298,7 @@
       <c r="AI19" s="10"/>
       <c r="AJ19" s="10"/>
     </row>
-    <row r="20" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>117</v>
       </c>
@@ -4361,7 +4358,7 @@
       <c r="AI20" s="10"/>
       <c r="AJ20" s="10"/>
     </row>
-    <row r="21" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>118</v>
       </c>
@@ -4421,7 +4418,7 @@
       <c r="AI21" s="10"/>
       <c r="AJ21" s="10"/>
     </row>
-    <row r="22" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>119</v>
       </c>
@@ -4481,7 +4478,7 @@
       <c r="AI22" s="10"/>
       <c r="AJ22" s="10"/>
     </row>
-    <row r="23" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>126</v>
       </c>
@@ -4541,7 +4538,7 @@
       <c r="AI23" s="10"/>
       <c r="AJ23" s="10"/>
     </row>
-    <row r="24" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>127</v>
       </c>
@@ -4601,7 +4598,7 @@
       <c r="AI24" s="10"/>
       <c r="AJ24" s="10"/>
     </row>
-    <row r="25" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>128</v>
       </c>
@@ -4661,7 +4658,7 @@
       <c r="AI25" s="10"/>
       <c r="AJ25" s="10"/>
     </row>
-    <row r="26" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>129</v>
       </c>
@@ -4721,7 +4718,7 @@
       <c r="AI26" s="10"/>
       <c r="AJ26" s="10"/>
     </row>
-    <row r="27" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>130</v>
       </c>
@@ -4781,7 +4778,7 @@
       <c r="AI27" s="10"/>
       <c r="AJ27" s="10"/>
     </row>
-    <row r="28" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>131</v>
       </c>
@@ -5029,7 +5026,7 @@
       <c r="AI31" s="14"/>
       <c r="AJ31" s="14"/>
     </row>
-    <row r="32" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>140</v>
       </c>
@@ -5087,7 +5084,7 @@
       <c r="AI32" s="14"/>
       <c r="AJ32" s="14"/>
     </row>
-    <row r="33" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>144</v>
       </c>
@@ -5145,7 +5142,7 @@
       <c r="AI33" s="14"/>
       <c r="AJ33" s="14"/>
     </row>
-    <row r="34" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>141</v>
       </c>
@@ -5203,7 +5200,7 @@
       <c r="AI34" s="14"/>
       <c r="AJ34" s="14"/>
     </row>
-    <row r="35" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>142</v>
       </c>
@@ -5261,7 +5258,7 @@
       <c r="AI35" s="14"/>
       <c r="AJ35" s="14"/>
     </row>
-    <row r="36" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>143</v>
       </c>
@@ -5319,7 +5316,7 @@
       <c r="AI36" s="14"/>
       <c r="AJ36" s="14"/>
     </row>
-    <row r="37" spans="1:36" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="40" t="s">
         <v>105</v>
       </c>
@@ -5371,7 +5368,7 @@
       <c r="AI37" s="35"/>
       <c r="AJ37" s="35"/>
     </row>
-    <row r="38" spans="1:36" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="40" t="s">
         <v>16</v>
       </c>
@@ -5431,7 +5428,7 @@
       <c r="AI38" s="48"/>
       <c r="AJ38" s="48"/>
     </row>
-    <row r="39" spans="1:36" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:36" ht="170" x14ac:dyDescent="0.2">
       <c r="A39" s="40" t="s">
         <v>88</v>
       </c>
@@ -5491,7 +5488,7 @@
       <c r="AI39" s="40"/>
       <c r="AJ39" s="40"/>
     </row>
-    <row r="40" spans="1:36" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="40" t="s">
         <v>19</v>
       </c>
@@ -5555,7 +5552,7 @@
       <c r="AI40" s="51"/>
       <c r="AJ40" s="51"/>
     </row>
-    <row r="41" spans="1:36" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="40" t="s">
         <v>21</v>
       </c>
@@ -5617,7 +5614,7 @@
       <c r="AI41" s="40"/>
       <c r="AJ41" s="40"/>
     </row>
-    <row r="42" spans="1:36" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="40" t="s">
         <v>40</v>
       </c>
@@ -5679,7 +5676,7 @@
       <c r="AI42" s="40"/>
       <c r="AJ42" s="40"/>
     </row>
-    <row r="43" spans="1:36" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="40" t="s">
         <v>41</v>
       </c>
@@ -5741,7 +5738,7 @@
       <c r="AI43" s="40"/>
       <c r="AJ43" s="40"/>
     </row>
-    <row r="44" spans="1:36" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:36" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="40" t="s">
         <v>42</v>
       </c>
@@ -5803,7 +5800,7 @@
       <c r="AI44" s="40"/>
       <c r="AJ44" s="40"/>
     </row>
-    <row r="45" spans="1:36" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:36" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="40" t="s">
         <v>43</v>
       </c>
@@ -5971,7 +5968,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="47" spans="1:36" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:36" ht="102" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>96</v>
       </c>
@@ -6031,7 +6028,7 @@
       <c r="AI47" s="6"/>
       <c r="AJ47" s="6"/>
     </row>
-    <row r="48" spans="1:36" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:36" ht="102" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>97</v>
       </c>
@@ -6197,7 +6194,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="50" spans="1:36" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36" ht="119" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>154</v>
       </c>
@@ -6567,7 +6564,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="54" spans="1:36" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:36" ht="119" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>169</v>
       </c>
@@ -6733,7 +6730,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>11</v>
       </c>
@@ -6791,7 +6788,7 @@
       <c r="AI56" s="6"/>
       <c r="AJ56" s="6"/>
     </row>
-    <row r="57" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:36" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>12</v>
       </c>
@@ -6849,7 +6846,7 @@
       <c r="AI57" s="6"/>
       <c r="AJ57" s="6"/>
     </row>
-    <row r="58" spans="1:36" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:36" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>13</v>
       </c>
